--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0E1A82-42FF-49E0-9162-21261C79B443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D99D1-D58A-40EA-9964-8B9CB31614C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="838">
   <si>
     <t>No</t>
   </si>
@@ -4745,52 +4745,61 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Resolusi, FU.Integrasi, Resolusi.TimLikuidasi, Resolusi.RencanaCIU, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL</t>
-  </si>
-  <si>
-    <t>Resolusi, FU.Integrasi, Resolusi.TimLikuidasi, Resolusi.TenagaPendukung, Resolusi.BDL</t>
-  </si>
-  <si>
-    <t>Surveilans, Resolusi.TimLikuidasi, Resolusi.TenagaPendukung, Resolusi.PengamananAset, Resolusi.Aset, FU.Repository, FU.Integrasi, Resolusi.BDL</t>
-  </si>
-  <si>
-    <t>Resolusi, Penjaminan, Surveilans, Resolusi.KeputusanCIU, Resolusi.DocSKCIU, FU.Repository, Resolusi.BDL, Resolusi.ProfilBDL, FU.Integrasi</t>
-  </si>
-  <si>
-    <t>Riset, FU.Integrasi, Resolusi.KeputusanCIU, Resolusi.DocSKCIU, FU.Repository, Resolusi.BDL, Resolusi.ProfilBDL, FU.Integrasi</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Penjaminan, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL, Resolusi.ProfilBDL</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL, Resolusi.ProfilBDL</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Surveilans, Resolusi, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL, Resolusi.ProfilBDL</t>
-  </si>
-  <si>
     <t>FU.Repository, Resolusi.TimLikuidasi, Resolusi.DocKelengkapanTL</t>
   </si>
   <si>
-    <t>FU.Integrasi, Resolusi, Resolusi.ProfilBDL, Resolusi.BDL</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Resolusi, Resolusi.ProfilBDL, Resolusi.BDL, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Penjaminan, Resolusi.ProfilBDL, Resolusi.BDL, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Surveilans, Resolusi, Resolusi.ProfilBDL, Resolusi.BDL, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Resolusi.BDL, Resolusi.ProfilBDL, Resolusi.PengurusBDL, Resolusi.KewajibanPegawai, Resolusi.TransaksiDanaTalangan, Resolusi.KodeCabangBDL, FU.Repository, Resolusi.DocTransaksiDT,Resolusi.DocSuratDT</t>
-  </si>
-  <si>
-    <t>FU.Integrasi, Resolusi, Resolusi.PengamananAset, Resolusi.Aset, Resolusi.BDL, Resolusi.ProfilBDL</t>
+    <t>SAP.PengebalianHasilLikuidasi, SAP.PembayaranJasaKAP, FU.Integrasi</t>
+  </si>
+  <si>
+    <t>Surveilans, Resolusi.TimLikuidasi, Resolusi.TenagaPendukung, Resolusi.PengamananAset, Resolusi.Aset, FU.Repository, FU.Integrasi, Penjaminan.Bank</t>
+  </si>
+  <si>
+    <t>Resolusi, FU.Integrasi, Resolusi.TimLikuidasi, Resolusi.TenagaPendukung, Penjaminan.Bank</t>
+  </si>
+  <si>
+    <t>Resolusi, FU.Integrasi, Resolusi.TimLikuidasi, Resolusi.RencanaCIU, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank</t>
+  </si>
+  <si>
+    <t>Resolusi, Penjaminan, Surveilans, Resolusi.KeputusanCIU, Resolusi.DocSKCIU, FU.Repository, Penjaminan.Bank, Resolusi.ProfilBDL, FU.Integrasi</t>
+  </si>
+  <si>
+    <t>Riset, FU.Integrasi, Resolusi.KeputusanCIU, Resolusi.DocSKCIU, FU.Repository, Penjaminan.Bank, Resolusi.ProfilBDL, FU.Integrasi</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Penjaminan, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Surveilans, Resolusi, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi, Resolusi.ProfilBDL, Penjaminan.Bank</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi, Resolusi.ProfilBDL, Penjaminan.Bank, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Penjaminan, Resolusi.ProfilBDL, Penjaminan.Bank, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Surveilans, Resolusi, Resolusi.ProfilBDL, Penjaminan.Bank, Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, FU.Repository, Resolusi.SisaAset</t>
+  </si>
+  <si>
+    <t>FU.IntegrasiSAP, FU.IntegrasiGAKT, FU.IntegrasiGPBN, Penjaminan.Bank, Resolusi.ProfilBDL, Resolusi.PengurusBDL, Resolusi.KewajibanPegawai, Resolusi.TransaksiDanaTalangan, Resolusi.KodeCabangBDL, FU.Repository, Resolusi.DocTransaksiDT,Resolusi.DocSuratDT</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi, Resolusi.PengamananAset, Resolusi.Aset, Penjaminan.Bank, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>Resolusi.SisaAset, Resolusi.TimLikuidasi, Penjaminan.Bank, Resolusi.PemetaanPenyelesaiSisaAset, Resolusi.StrategiSisaAset, Resolusi.AsetNetto, FU.Repository, Resolusi.PertanggungJawabanTL, Resolusi.DocBASTAset, Resolusi.DocTitipanBDL</t>
+  </si>
+  <si>
+    <t>Rosolusi.PeriodeBDL, Resolusi.PenerimaanLanir, FU.Repository, Resolusi.Debitur</t>
   </si>
 </sst>
 </file>
@@ -4943,7 +4952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5026,6 +5035,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5033,34 +5060,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5378,21 +5384,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
   <dimension ref="A1:E450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="116.7109375" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="96.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="14" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5405,12 +5411,12 @@
       <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -5418,12 +5424,12 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5433,10 +5439,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5444,10 +5450,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5455,311 +5461,311 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="17"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="41" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="41"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="41"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="41"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="17"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+    <row r="15" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="17"/>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="41" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="42" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="42"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="17"/>
       <c r="E21" s="42"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="42" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="42"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="42" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="42"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="42" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="42"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="42" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="42"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>2</v>
       </c>
@@ -5771,10 +5777,10 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="42" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -5785,7 +5791,7 @@
       </c>
       <c r="E31" s="42"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -5798,7 +5804,7 @@
       </c>
       <c r="E32" s="42"/>
     </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
@@ -5807,7 +5813,7 @@
       <c r="D33" s="17"/>
       <c r="E33" s="42"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <v>3</v>
       </c>
@@ -5819,10 +5825,10 @@
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="41" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
@@ -5833,7 +5839,7 @@
       </c>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
@@ -5844,33 +5850,33 @@
       <c r="D36" s="17"/>
       <c r="E36" s="41"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="41" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="41"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <v>5</v>
       </c>
@@ -5881,11 +5887,11 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="43" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E39" s="33" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
@@ -5894,9 +5900,9 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
@@ -5907,119 +5913,131 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="35"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="17"/>
       <c r="E43" s="41"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="41" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E48" s="33"/>
+    </row>
+    <row r="49" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="33"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <v>3</v>
       </c>
@@ -6030,8 +6048,11 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="33" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
@@ -6040,8 +6061,9 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="33"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
@@ -6052,8 +6074,9 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="33"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
@@ -6062,8 +6085,9 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="33"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
@@ -6072,168 +6096,172 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="33"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="34">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="41"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="34">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="36" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="35"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="34">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="36" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="34"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="34"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="35"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <v>7</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="35"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="22"/>
-      <c r="C67" s="35"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <v>8</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="35"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <v>9</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="34"/>
       <c r="B71" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="35"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="34"/>
       <c r="B72" s="22"/>
-      <c r="C72" s="35"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="17"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
         <v>117</v>
@@ -6241,27 +6269,27 @@
       <c r="C73" s="23"/>
       <c r="D73" s="17"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>1</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="34"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="35"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>2</v>
       </c>
@@ -6275,7 +6303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>3</v>
       </c>
@@ -6289,67 +6317,67 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34">
         <v>4</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="34"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="35"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="34">
         <v>5</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="35"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>6</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="34"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="35"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>7</v>
       </c>
@@ -6363,31 +6391,31 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <v>1</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A86" s="34"/>
       <c r="B86" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="35"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>2</v>
       </c>
@@ -6401,11 +6429,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <v>3</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C88" s="22" t="s">
@@ -6413,15 +6441,15 @@
       </c>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
-      <c r="B89" s="36"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="22"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A90" s="34"/>
-      <c r="B90" s="36"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="22" t="s">
         <v>143</v>
       </c>
@@ -6429,13 +6457,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="34"/>
-      <c r="B91" s="36"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="22"/>
       <c r="D91" s="17"/>
     </row>
-    <row r="92" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>4</v>
       </c>
@@ -6449,31 +6477,31 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <v>5</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="36" t="s">
         <v>149</v>
       </c>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="34"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="35"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="34">
         <v>6</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="35" t="s">
         <v>151</v>
       </c>
       <c r="C95" s="22" t="s">
@@ -6481,73 +6509,73 @@
       </c>
       <c r="D95" s="17"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="34"/>
-      <c r="B96" s="37"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="22"/>
       <c r="D96" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
-      <c r="B97" s="37"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <v>7</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="36" t="s">
         <v>156</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="34"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="35"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="17"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="34">
         <v>8</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A101" s="34"/>
       <c r="B101" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="35"/>
+      <c r="C101" s="36"/>
       <c r="D101" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="34"/>
       <c r="B102" s="22"/>
-      <c r="C102" s="35"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="17"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="34">
         <v>9</v>
       </c>
@@ -6561,7 +6589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="34"/>
       <c r="B104" s="24" t="s">
         <v>165</v>
@@ -6571,7 +6599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="34"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22" t="s">
@@ -6579,7 +6607,7 @@
       </c>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>10</v>
       </c>
@@ -6593,7 +6621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>11</v>
       </c>
@@ -6607,7 +6635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>12</v>
       </c>
@@ -6621,7 +6649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
         <v>13</v>
       </c>
@@ -6635,7 +6663,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A110" s="34"/>
       <c r="B110" s="24" t="s">
         <v>177</v>
@@ -6645,7 +6673,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="34"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22" t="s">
@@ -6653,13 +6681,13 @@
       </c>
       <c r="D111" s="17"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="34"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
       <c r="D112" s="17"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>14</v>
       </c>
@@ -6673,7 +6701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>15</v>
       </c>
@@ -6687,81 +6715,81 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <v>1</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C116" s="35"/>
+      <c r="C116" s="36"/>
       <c r="D116" s="17"/>
     </row>
-    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A117" s="34"/>
       <c r="B117" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C117" s="35"/>
+      <c r="C117" s="36"/>
       <c r="D117" s="17"/>
     </row>
-    <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A118" s="34"/>
       <c r="B118" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C118" s="35"/>
+      <c r="C118" s="36"/>
       <c r="D118" s="17"/>
     </row>
-    <row r="119" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A119" s="34"/>
       <c r="B119" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="35"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="17"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="34"/>
       <c r="B120" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="35"/>
+      <c r="C120" s="36"/>
       <c r="D120" s="17"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <v>2</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="34"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="35"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="36"/>
       <c r="D122" s="17"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>3</v>
       </c>
@@ -6775,45 +6803,45 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <v>4</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="36" t="s">
         <v>86</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A125" s="34"/>
       <c r="B125" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C125" s="35"/>
+      <c r="C125" s="36"/>
       <c r="D125" s="17"/>
     </row>
-    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="34"/>
       <c r="B126" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C126" s="35"/>
+      <c r="C126" s="36"/>
       <c r="D126" s="17"/>
     </row>
-    <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A127" s="34"/>
       <c r="B127" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C127" s="35"/>
+      <c r="C127" s="36"/>
       <c r="D127" s="17"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>5</v>
       </c>
@@ -6827,73 +6855,73 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <v>6</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="34"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="35"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="36"/>
       <c r="D130" s="17"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <v>7</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C132" s="35"/>
+      <c r="C132" s="36"/>
       <c r="D132" s="17"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="34"/>
       <c r="B133" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C133" s="35"/>
+      <c r="C133" s="36"/>
       <c r="D133" s="17"/>
     </row>
-    <row r="134" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A134" s="34"/>
       <c r="B134" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="35"/>
+      <c r="C134" s="36"/>
       <c r="D134" s="17"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="34"/>
       <c r="B135" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C135" s="35"/>
+      <c r="C135" s="36"/>
       <c r="D135" s="17"/>
     </row>
-    <row r="136" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>7</v>
       </c>
@@ -6907,7 +6935,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="23" t="s">
         <v>210</v>
@@ -6915,401 +6943,401 @@
       <c r="C137" s="23"/>
       <c r="D137" s="17"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <v>1</v>
       </c>
       <c r="B138" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="36" t="s">
         <v>212</v>
       </c>
       <c r="D138" s="17"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C139" s="35"/>
+      <c r="C139" s="36"/>
       <c r="D139" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="34"/>
       <c r="B140" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C140" s="35"/>
+      <c r="C140" s="36"/>
       <c r="D140" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A141" s="34">
         <v>1</v>
       </c>
       <c r="B141" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C142" s="35"/>
+      <c r="C142" s="36"/>
       <c r="D142" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="34"/>
       <c r="B143" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C143" s="35"/>
+      <c r="C143" s="36"/>
       <c r="D143" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="34"/>
       <c r="B144" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="35"/>
+      <c r="C144" s="36"/>
       <c r="D144" s="17"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="34">
         <v>2</v>
       </c>
       <c r="B145" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="34"/>
       <c r="B146" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C146" s="35"/>
+      <c r="C146" s="36"/>
       <c r="D146" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="34"/>
       <c r="B147" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C147" s="35"/>
+      <c r="C147" s="36"/>
       <c r="D147" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="34"/>
       <c r="B148" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C148" s="35"/>
+      <c r="C148" s="36"/>
       <c r="D148" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="34"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="35"/>
+      <c r="C149" s="36"/>
       <c r="D149" s="17"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="34">
         <v>3</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="36" t="s">
         <v>232</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="34"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="35"/>
+      <c r="C151" s="36"/>
       <c r="D151" s="17"/>
     </row>
-    <row r="152" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A152" s="34">
         <v>4</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C152" s="35" t="s">
+      <c r="C152" s="36" t="s">
         <v>132</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="34"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="35"/>
+      <c r="C153" s="36"/>
       <c r="D153" s="17"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="34">
         <v>1</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="34"/>
       <c r="B155" s="25"/>
-      <c r="C155" s="35"/>
+      <c r="C155" s="36"/>
       <c r="D155" s="17"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="34"/>
       <c r="B156" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C156" s="35"/>
+      <c r="C156" s="36"/>
       <c r="D156" s="17"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="34">
         <v>2</v>
       </c>
       <c r="B157" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C157" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="34"/>
       <c r="B158" s="25"/>
-      <c r="C158" s="35"/>
+      <c r="C158" s="36"/>
       <c r="D158" s="17"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="34"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="35"/>
+      <c r="C159" s="36"/>
       <c r="D159" s="17"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="34">
         <v>3</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="36" t="s">
         <v>241</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="34"/>
       <c r="B161" s="25"/>
-      <c r="C161" s="35"/>
+      <c r="C161" s="36"/>
       <c r="D161" s="17"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="34"/>
       <c r="B162" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C162" s="35"/>
+      <c r="C162" s="36"/>
       <c r="D162" s="17"/>
     </row>
-    <row r="163" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A163" s="34">
         <v>4</v>
       </c>
       <c r="B163" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="36" t="s">
         <v>241</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="34"/>
       <c r="B164" s="25"/>
-      <c r="C164" s="35"/>
+      <c r="C164" s="36"/>
       <c r="D164" s="17"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="34"/>
       <c r="B165" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C165" s="35"/>
+      <c r="C165" s="36"/>
       <c r="D165" s="17"/>
     </row>
-    <row r="166" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A166" s="34">
         <v>5</v>
       </c>
       <c r="B166" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="36" t="s">
         <v>246</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="34"/>
       <c r="B167" s="25"/>
-      <c r="C167" s="35"/>
+      <c r="C167" s="36"/>
       <c r="D167" s="17"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="34"/>
       <c r="B168" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C168" s="35"/>
+      <c r="C168" s="36"/>
       <c r="D168" s="17"/>
     </row>
-    <row r="169" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A169" s="34">
         <v>6</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="C169" s="36" t="s">
         <v>246</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="34"/>
       <c r="B170" s="25"/>
-      <c r="C170" s="35"/>
+      <c r="C170" s="36"/>
       <c r="D170" s="17"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="34"/>
       <c r="B171" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C171" s="35"/>
+      <c r="C171" s="36"/>
       <c r="D171" s="17"/>
     </row>
-    <row r="172" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A172" s="34">
         <v>7</v>
       </c>
       <c r="B172" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="C172" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="34"/>
       <c r="B173" s="25"/>
-      <c r="C173" s="35"/>
+      <c r="C173" s="36"/>
       <c r="D173" s="17"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="34"/>
       <c r="B174" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C174" s="35"/>
+      <c r="C174" s="36"/>
       <c r="D174" s="17"/>
     </row>
-    <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A175" s="34">
         <v>8</v>
       </c>
       <c r="B175" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="34"/>
       <c r="B176" s="25"/>
-      <c r="C176" s="35"/>
+      <c r="C176" s="36"/>
       <c r="D176" s="17"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="34"/>
       <c r="B177" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C177" s="35"/>
+      <c r="C177" s="36"/>
       <c r="D177" s="17"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="23" t="s">
         <v>254</v>
@@ -7317,7 +7345,7 @@
       <c r="C178" s="23"/>
       <c r="D178" s="17"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>1</v>
       </c>
@@ -7331,27 +7359,27 @@
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="34">
         <v>2</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D180" s="23"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="34"/>
-      <c r="B181" s="37"/>
-      <c r="C181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
       <c r="D181" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>3</v>
       </c>
@@ -7365,7 +7393,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>1</v>
       </c>
@@ -7379,7 +7407,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <v>2</v>
       </c>
@@ -7393,11 +7421,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="34">
         <v>3</v>
       </c>
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="37" t="s">
         <v>265</v>
       </c>
       <c r="C185" s="22" t="s">
@@ -7405,27 +7433,27 @@
       </c>
       <c r="D185" s="23"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="34"/>
-      <c r="B186" s="36"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="22"/>
       <c r="D186" s="23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A187" s="34"/>
-      <c r="B187" s="36"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D187" s="23"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="34">
         <v>4</v>
       </c>
-      <c r="B188" s="36" t="s">
+      <c r="B188" s="37" t="s">
         <v>267</v>
       </c>
       <c r="C188" s="22" t="s">
@@ -7435,21 +7463,21 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="34"/>
-      <c r="B189" s="36"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="22"/>
       <c r="D189" s="23"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="34"/>
-      <c r="B190" s="36"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D190" s="23"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>5</v>
       </c>
@@ -7463,7 +7491,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>6</v>
       </c>
@@ -7477,11 +7505,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="34">
         <v>7</v>
       </c>
-      <c r="B193" s="36" t="s">
+      <c r="B193" s="37" t="s">
         <v>273</v>
       </c>
       <c r="C193" s="22" t="s">
@@ -7491,21 +7519,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="34"/>
-      <c r="B194" s="36"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="22"/>
       <c r="D194" s="23"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="34"/>
-      <c r="B195" s="36"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D195" s="23"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>8</v>
       </c>
@@ -7519,7 +7547,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>9</v>
       </c>
@@ -7533,7 +7561,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>10</v>
       </c>
@@ -7547,7 +7575,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>11</v>
       </c>
@@ -7561,7 +7589,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>1</v>
       </c>
@@ -7575,7 +7603,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>2</v>
       </c>
@@ -7589,27 +7617,27 @@
         <v>287</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="34">
         <v>3</v>
       </c>
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C202" s="35" t="s">
+      <c r="C202" s="36" t="s">
         <v>289</v>
       </c>
       <c r="D202" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="34"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="35"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="36"/>
       <c r="D203" s="23"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <v>4</v>
       </c>
@@ -7623,27 +7651,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="34">
         <v>5</v>
       </c>
-      <c r="B205" s="37" t="s">
+      <c r="B205" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="34"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="35"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="36"/>
       <c r="D206" s="23"/>
     </row>
-    <row r="207" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>6</v>
       </c>
@@ -7657,7 +7685,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="23" t="s">
         <v>297</v>
@@ -7665,101 +7693,101 @@
       <c r="C208" s="23"/>
       <c r="D208" s="17"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="34">
         <v>1</v>
       </c>
       <c r="B209" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C209" s="37" t="s">
+      <c r="C209" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D209" s="23"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="34"/>
       <c r="B210" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C210" s="37"/>
+      <c r="C210" s="35"/>
       <c r="D210" s="23"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="34"/>
       <c r="B211" s="22"/>
-      <c r="C211" s="37"/>
+      <c r="C211" s="35"/>
       <c r="D211" s="23"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="34">
         <v>1</v>
       </c>
       <c r="B212" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="35" t="s">
+      <c r="C212" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D212" s="23"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="34"/>
       <c r="B213" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C213" s="35"/>
+      <c r="C213" s="36"/>
       <c r="D213" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
       <c r="B214" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C214" s="35"/>
+      <c r="C214" s="36"/>
       <c r="D214" s="23"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="34">
         <v>2</v>
       </c>
       <c r="B215" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="36" t="s">
         <v>149</v>
       </c>
       <c r="D215" s="23"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="34"/>
       <c r="B216" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C216" s="35"/>
+      <c r="C216" s="36"/>
       <c r="D216" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="34"/>
       <c r="B217" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C217" s="35"/>
+      <c r="C217" s="36"/>
       <c r="D217" s="23"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="34"/>
       <c r="B218" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C218" s="35"/>
+      <c r="C218" s="36"/>
       <c r="D218" s="23"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="34">
         <v>3</v>
       </c>
@@ -7773,7 +7801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="34"/>
       <c r="B220" s="26" t="s">
         <v>311</v>
@@ -7781,7 +7809,7 @@
       <c r="C220" s="22"/>
       <c r="D220" s="23"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="34"/>
       <c r="B221" s="26" t="s">
         <v>312</v>
@@ -7791,7 +7819,7 @@
       </c>
       <c r="D221" s="23"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="34"/>
       <c r="B222" s="26" t="s">
         <v>313</v>
@@ -7799,7 +7827,7 @@
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="34"/>
       <c r="B223" s="26" t="s">
         <v>314</v>
@@ -7807,7 +7835,7 @@
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="34">
         <v>4</v>
       </c>
@@ -7821,7 +7849,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="34"/>
       <c r="B225" s="26" t="s">
         <v>317</v>
@@ -7829,7 +7857,7 @@
       <c r="C225" s="22"/>
       <c r="D225" s="23"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="34"/>
       <c r="B226" s="26" t="s">
         <v>318</v>
@@ -7839,7 +7867,7 @@
       </c>
       <c r="D226" s="23"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="34"/>
       <c r="B227" s="26" t="s">
         <v>319</v>
@@ -7847,7 +7875,7 @@
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="34"/>
       <c r="B228" s="26" t="s">
         <v>320</v>
@@ -7855,7 +7883,7 @@
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="34"/>
       <c r="B229" s="26" t="s">
         <v>321</v>
@@ -7863,7 +7891,7 @@
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
     </row>
-    <row r="230" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="34"/>
       <c r="B230" s="26" t="s">
         <v>322</v>
@@ -7871,7 +7899,7 @@
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="34"/>
       <c r="B231" s="26" t="s">
         <v>323</v>
@@ -7879,7 +7907,7 @@
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="34"/>
       <c r="B232" s="26" t="s">
         <v>324</v>
@@ -7887,7 +7915,7 @@
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
     </row>
-    <row r="233" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A233" s="34"/>
       <c r="B233" s="26" t="s">
         <v>325</v>
@@ -7895,7 +7923,7 @@
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
     </row>
-    <row r="234" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A234" s="34">
         <v>5</v>
       </c>
@@ -7909,7 +7937,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="34"/>
       <c r="B235" s="26" t="s">
         <v>328</v>
@@ -7917,7 +7945,7 @@
       <c r="C235" s="22"/>
       <c r="D235" s="23"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="34"/>
       <c r="B236" s="28" t="s">
         <v>329</v>
@@ -7927,7 +7955,7 @@
       </c>
       <c r="D236" s="23"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="34"/>
       <c r="B237" s="28" t="s">
         <v>330</v>
@@ -7935,7 +7963,7 @@
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
     </row>
-    <row r="238" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A238" s="34"/>
       <c r="B238" s="28" t="s">
         <v>331</v>
@@ -7943,7 +7971,7 @@
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
     </row>
-    <row r="239" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A239" s="34"/>
       <c r="B239" s="28" t="s">
         <v>332</v>
@@ -7951,7 +7979,7 @@
       <c r="C239" s="21"/>
       <c r="D239" s="23"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="34"/>
       <c r="B240" s="28" t="s">
         <v>333</v>
@@ -7959,7 +7987,7 @@
       <c r="C240" s="21"/>
       <c r="D240" s="23"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="34"/>
       <c r="B241" s="28" t="s">
         <v>334</v>
@@ -7967,7 +7995,7 @@
       <c r="C241" s="21"/>
       <c r="D241" s="23"/>
     </row>
-    <row r="242" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A242" s="34"/>
       <c r="B242" s="28" t="s">
         <v>335</v>
@@ -7975,7 +8003,7 @@
       <c r="C242" s="21"/>
       <c r="D242" s="23"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="34"/>
       <c r="B243" s="28" t="s">
         <v>336</v>
@@ -7983,7 +8011,7 @@
       <c r="C243" s="21"/>
       <c r="D243" s="23"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="34"/>
       <c r="B244" s="28" t="s">
         <v>337</v>
@@ -7991,7 +8019,7 @@
       <c r="C244" s="21"/>
       <c r="D244" s="23"/>
     </row>
-    <row r="245" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A245" s="34"/>
       <c r="B245" s="28" t="s">
         <v>338</v>
@@ -7999,7 +8027,7 @@
       <c r="C245" s="21"/>
       <c r="D245" s="23"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="34"/>
       <c r="B246" s="26" t="s">
         <v>339</v>
@@ -8007,7 +8035,7 @@
       <c r="C246" s="21"/>
       <c r="D246" s="23"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="34"/>
       <c r="B247" s="28" t="s">
         <v>340</v>
@@ -8015,7 +8043,7 @@
       <c r="C247" s="21"/>
       <c r="D247" s="23"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="34"/>
       <c r="B248" s="28" t="s">
         <v>330</v>
@@ -8023,7 +8051,7 @@
       <c r="C248" s="21"/>
       <c r="D248" s="23"/>
     </row>
-    <row r="249" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A249" s="34"/>
       <c r="B249" s="28" t="s">
         <v>341</v>
@@ -8031,7 +8059,7 @@
       <c r="C249" s="21"/>
       <c r="D249" s="23"/>
     </row>
-    <row r="250" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A250" s="34"/>
       <c r="B250" s="28" t="s">
         <v>342</v>
@@ -8039,7 +8067,7 @@
       <c r="C250" s="21"/>
       <c r="D250" s="23"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="34"/>
       <c r="B251" s="28" t="s">
         <v>333</v>
@@ -8047,7 +8075,7 @@
       <c r="C251" s="21"/>
       <c r="D251" s="23"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="34"/>
       <c r="B252" s="28" t="s">
         <v>343</v>
@@ -8055,7 +8083,7 @@
       <c r="C252" s="21"/>
       <c r="D252" s="23"/>
     </row>
-    <row r="253" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A253" s="34"/>
       <c r="B253" s="28" t="s">
         <v>344</v>
@@ -8063,7 +8091,7 @@
       <c r="C253" s="21"/>
       <c r="D253" s="23"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="34"/>
       <c r="B254" s="28" t="s">
         <v>345</v>
@@ -8071,7 +8099,7 @@
       <c r="C254" s="21"/>
       <c r="D254" s="23"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="34"/>
       <c r="B255" s="28" t="s">
         <v>346</v>
@@ -8079,7 +8107,7 @@
       <c r="C255" s="21"/>
       <c r="D255" s="23"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="34"/>
       <c r="B256" s="28" t="s">
         <v>347</v>
@@ -8087,7 +8115,7 @@
       <c r="C256" s="21"/>
       <c r="D256" s="23"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="34"/>
       <c r="B257" s="26" t="s">
         <v>348</v>
@@ -8095,7 +8123,7 @@
       <c r="C257" s="21"/>
       <c r="D257" s="23"/>
     </row>
-    <row r="258" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A258" s="34"/>
       <c r="B258" s="28" t="s">
         <v>349</v>
@@ -8103,7 +8131,7 @@
       <c r="C258" s="21"/>
       <c r="D258" s="23"/>
     </row>
-    <row r="259" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A259" s="34"/>
       <c r="B259" s="28" t="s">
         <v>350</v>
@@ -8111,7 +8139,7 @@
       <c r="C259" s="21"/>
       <c r="D259" s="23"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="34"/>
       <c r="B260" s="28" t="s">
         <v>351</v>
@@ -8119,97 +8147,97 @@
       <c r="C260" s="21"/>
       <c r="D260" s="23"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="34"/>
       <c r="B261" s="22"/>
       <c r="C261" s="21"/>
       <c r="D261" s="23"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="34">
         <v>6</v>
       </c>
       <c r="B262" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C262" s="35" t="s">
+      <c r="C262" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D262" s="23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="34"/>
       <c r="B263" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C263" s="35"/>
+      <c r="C263" s="36"/>
       <c r="D263" s="23"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="34"/>
       <c r="B264" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C264" s="35"/>
+      <c r="C264" s="36"/>
       <c r="D264" s="23"/>
     </row>
-    <row r="265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="34"/>
       <c r="B265" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C265" s="35"/>
+      <c r="C265" s="36"/>
       <c r="D265" s="23"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="34"/>
       <c r="B266" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C266" s="35"/>
+      <c r="C266" s="36"/>
       <c r="D266" s="23"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="34"/>
       <c r="B267" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C267" s="35"/>
+      <c r="C267" s="36"/>
       <c r="D267" s="23"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="34"/>
       <c r="B268" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C268" s="35"/>
+      <c r="C268" s="36"/>
       <c r="D268" s="23"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="34"/>
       <c r="B269" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C269" s="35"/>
+      <c r="C269" s="36"/>
       <c r="D269" s="23"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="34"/>
       <c r="B270" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C270" s="35"/>
+      <c r="C270" s="36"/>
       <c r="D270" s="23"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="34"/>
       <c r="B271" s="22"/>
-      <c r="C271" s="35"/>
+      <c r="C271" s="36"/>
       <c r="D271" s="23"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>1</v>
       </c>
@@ -8223,7 +8251,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>2</v>
       </c>
@@ -8235,7 +8263,7 @@
       </c>
       <c r="D273" s="23"/>
     </row>
-    <row r="274" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>3</v>
       </c>
@@ -8249,7 +8277,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <v>4</v>
       </c>
@@ -8263,7 +8291,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>5</v>
       </c>
@@ -8277,7 +8305,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>6</v>
       </c>
@@ -8291,7 +8319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>7</v>
       </c>
@@ -8305,7 +8333,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>8</v>
       </c>
@@ -8319,7 +8347,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>9</v>
       </c>
@@ -8333,7 +8361,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="23" t="s">
         <v>377</v>
@@ -8341,155 +8369,155 @@
       <c r="C281" s="23"/>
       <c r="D281" s="17"/>
     </row>
-    <row r="282" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A282" s="34">
         <v>1</v>
       </c>
       <c r="B282" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C282" s="35" t="s">
+      <c r="C282" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D282" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="52" x14ac:dyDescent="0.3">
       <c r="A283" s="34"/>
       <c r="B283" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C283" s="35"/>
+      <c r="C283" s="36"/>
       <c r="D283" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="39" x14ac:dyDescent="0.3">
       <c r="A284" s="34"/>
       <c r="B284" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C284" s="35"/>
+      <c r="C284" s="36"/>
       <c r="D284" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="34"/>
       <c r="B285" s="22"/>
-      <c r="C285" s="35"/>
+      <c r="C285" s="36"/>
       <c r="D285" s="23"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="34">
         <v>2</v>
       </c>
-      <c r="B286" s="35" t="s">
+      <c r="B286" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="C286" s="35" t="s">
+      <c r="C286" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D286" s="23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="34"/>
-      <c r="B287" s="35"/>
-      <c r="C287" s="35"/>
+      <c r="B287" s="36"/>
+      <c r="C287" s="36"/>
       <c r="D287" s="23"/>
     </row>
-    <row r="288" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A288" s="34">
         <v>3</v>
       </c>
       <c r="B288" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C288" s="35" t="s">
+      <c r="C288" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D288" s="23"/>
     </row>
-    <row r="289" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="52" x14ac:dyDescent="0.3">
       <c r="A289" s="34"/>
       <c r="B289" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C289" s="35"/>
+      <c r="C289" s="36"/>
       <c r="D289" s="23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="34"/>
       <c r="B290" s="25"/>
-      <c r="C290" s="35"/>
+      <c r="C290" s="36"/>
       <c r="D290" s="23"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="34">
         <v>4</v>
       </c>
       <c r="B291" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C291" s="35" t="s">
+      <c r="C291" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D291" s="23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A292" s="34"/>
       <c r="B292" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C292" s="35"/>
+      <c r="C292" s="36"/>
       <c r="D292" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="34"/>
       <c r="B293" s="22"/>
-      <c r="C293" s="35"/>
+      <c r="C293" s="36"/>
       <c r="D293" s="23" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="34">
         <v>5</v>
       </c>
       <c r="B294" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C294" s="35" t="s">
+      <c r="C294" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D294" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="34"/>
       <c r="B295" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C295" s="35"/>
+      <c r="C295" s="36"/>
       <c r="D295" s="23"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="34"/>
       <c r="B296" s="25"/>
-      <c r="C296" s="35"/>
+      <c r="C296" s="36"/>
       <c r="D296" s="23"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>6</v>
       </c>
@@ -8503,7 +8531,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="39" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>7</v>
       </c>
@@ -8517,45 +8545,45 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="34">
         <v>1</v>
       </c>
       <c r="B299" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C299" s="35" t="s">
+      <c r="C299" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D299" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A300" s="34"/>
       <c r="B300" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C300" s="35"/>
+      <c r="C300" s="36"/>
       <c r="D300" s="23" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="34"/>
       <c r="B301" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C301" s="35"/>
+      <c r="C301" s="36"/>
       <c r="D301" s="23" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="34">
         <v>2</v>
       </c>
-      <c r="B302" s="36" t="s">
+      <c r="B302" s="37" t="s">
         <v>407</v>
       </c>
       <c r="C302" s="22" t="s">
@@ -8563,15 +8591,15 @@
       </c>
       <c r="D302" s="23"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="34"/>
-      <c r="B303" s="36"/>
+      <c r="B303" s="37"/>
       <c r="C303" s="22"/>
       <c r="D303" s="23"/>
     </row>
-    <row r="304" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A304" s="34"/>
-      <c r="B304" s="36"/>
+      <c r="B304" s="37"/>
       <c r="C304" s="22" t="s">
         <v>143</v>
       </c>
@@ -8579,11 +8607,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="34">
         <v>3</v>
       </c>
-      <c r="B305" s="37" t="s">
+      <c r="B305" s="35" t="s">
         <v>409</v>
       </c>
       <c r="C305" s="22" t="s">
@@ -8593,211 +8621,211 @@
         <v>410</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="34"/>
-      <c r="B306" s="37"/>
+      <c r="B306" s="35"/>
       <c r="C306" s="22"/>
       <c r="D306" s="23"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="34"/>
-      <c r="B307" s="37"/>
+      <c r="B307" s="35"/>
       <c r="C307" s="22" t="s">
         <v>411</v>
       </c>
       <c r="D307" s="23"/>
     </row>
-    <row r="308" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A308" s="34">
         <v>4</v>
       </c>
       <c r="B308" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C308" s="35" t="s">
+      <c r="C308" s="36" t="s">
         <v>413</v>
       </c>
       <c r="D308" s="23" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="34"/>
       <c r="B309" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C309" s="35"/>
+      <c r="C309" s="36"/>
       <c r="D309" s="23" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="34"/>
       <c r="B310" s="25"/>
-      <c r="C310" s="35"/>
+      <c r="C310" s="36"/>
       <c r="D310" s="23"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="34">
         <v>5</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="C311" s="35" t="s">
+      <c r="C311" s="36" t="s">
         <v>418</v>
       </c>
       <c r="D311" s="23"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="34"/>
-      <c r="B312" s="36"/>
-      <c r="C312" s="35"/>
+      <c r="B312" s="37"/>
+      <c r="C312" s="36"/>
       <c r="D312" s="23" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="34">
         <v>6</v>
       </c>
-      <c r="B313" s="36" t="s">
+      <c r="B313" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="C313" s="35" t="s">
+      <c r="C313" s="36" t="s">
         <v>413</v>
       </c>
       <c r="D313" s="23"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="34"/>
-      <c r="B314" s="36"/>
-      <c r="C314" s="35"/>
+      <c r="B314" s="37"/>
+      <c r="C314" s="36"/>
       <c r="D314" s="23"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="34">
         <v>7</v>
       </c>
-      <c r="B315" s="37" t="s">
+      <c r="B315" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="C315" s="35" t="s">
+      <c r="C315" s="36" t="s">
         <v>156</v>
       </c>
       <c r="D315" s="23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="34"/>
-      <c r="B316" s="37"/>
-      <c r="C316" s="35"/>
+      <c r="B316" s="35"/>
+      <c r="C316" s="36"/>
       <c r="D316" s="23"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="34">
         <v>8</v>
       </c>
       <c r="B317" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C317" s="35" t="s">
+      <c r="C317" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D317" s="23"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="34"/>
       <c r="B318" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C318" s="35"/>
+      <c r="C318" s="36"/>
       <c r="D318" s="30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="34"/>
       <c r="B319" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C319" s="35"/>
+      <c r="C319" s="36"/>
       <c r="D319" s="30" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="34"/>
       <c r="B320" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C320" s="35"/>
+      <c r="C320" s="36"/>
       <c r="D320" s="30"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="34"/>
       <c r="B321" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C321" s="35"/>
+      <c r="C321" s="36"/>
       <c r="D321" s="30"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="34"/>
       <c r="B322" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C322" s="35"/>
+      <c r="C322" s="36"/>
       <c r="D322" s="23"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="34"/>
       <c r="B323" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C323" s="35"/>
+      <c r="C323" s="36"/>
       <c r="D323" s="30" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="34"/>
       <c r="B324" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C324" s="35"/>
+      <c r="C324" s="36"/>
       <c r="D324" s="30" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="34"/>
       <c r="B325" s="25"/>
-      <c r="C325" s="35"/>
+      <c r="C325" s="36"/>
       <c r="D325" s="23"/>
     </row>
-    <row r="326" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="34">
         <v>9</v>
       </c>
-      <c r="B326" s="37" t="s">
+      <c r="B326" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="C326" s="35" t="s">
+      <c r="C326" s="36" t="s">
         <v>132</v>
       </c>
       <c r="D326" s="23" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="34"/>
-      <c r="B327" s="37"/>
-      <c r="C327" s="35"/>
+      <c r="B327" s="35"/>
+      <c r="C327" s="36"/>
       <c r="D327" s="23"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>10</v>
       </c>
@@ -8811,7 +8839,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>11</v>
       </c>
@@ -8825,7 +8853,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>12</v>
       </c>
@@ -8839,7 +8867,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>1</v>
       </c>
@@ -8853,63 +8881,63 @@
         <v>444</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A332" s="34">
         <v>2</v>
       </c>
       <c r="B332" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C332" s="35" t="s">
+      <c r="C332" s="36" t="s">
         <v>286</v>
       </c>
       <c r="D332" s="30" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="34"/>
       <c r="B333" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C333" s="35"/>
+      <c r="C333" s="36"/>
       <c r="D333" s="23"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="34"/>
       <c r="B334" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C334" s="35"/>
+      <c r="C334" s="36"/>
       <c r="D334" s="23"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="34"/>
       <c r="B335" s="25"/>
-      <c r="C335" s="35"/>
+      <c r="C335" s="36"/>
       <c r="D335" s="23"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="34">
         <v>3</v>
       </c>
-      <c r="B336" s="37" t="s">
+      <c r="B336" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C336" s="35" t="s">
+      <c r="C336" s="36" t="s">
         <v>449</v>
       </c>
       <c r="D336" s="30" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="34"/>
-      <c r="B337" s="37"/>
-      <c r="C337" s="35"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="36"/>
       <c r="D337" s="30"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>4</v>
       </c>
@@ -8923,7 +8951,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>5</v>
       </c>
@@ -8937,7 +8965,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>6</v>
       </c>
@@ -8951,7 +8979,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>7</v>
       </c>
@@ -8965,7 +8993,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>8</v>
       </c>
@@ -8979,7 +9007,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>9</v>
       </c>
@@ -8993,7 +9021,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>10</v>
       </c>
@@ -9007,7 +9035,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="23" t="s">
         <v>464</v>
@@ -9015,95 +9043,95 @@
       <c r="C345" s="23"/>
       <c r="D345" s="17"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="34">
         <v>1</v>
       </c>
-      <c r="B346" s="37" t="s">
+      <c r="B346" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="C346" s="37" t="s">
+      <c r="C346" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D346" s="23" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="34"/>
-      <c r="B347" s="37"/>
-      <c r="C347" s="37"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="35"/>
       <c r="D347" s="23"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="34">
         <v>1</v>
       </c>
       <c r="B348" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C348" s="35" t="s">
+      <c r="C348" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D348" s="23"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="34"/>
       <c r="B349" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C349" s="35"/>
+      <c r="C349" s="36"/>
       <c r="D349" s="23" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="34"/>
       <c r="B350" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C350" s="35"/>
+      <c r="C350" s="36"/>
       <c r="D350" s="23"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="34"/>
       <c r="B351" s="25"/>
-      <c r="C351" s="35"/>
+      <c r="C351" s="36"/>
       <c r="D351" s="23"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="34"/>
       <c r="B352" s="25"/>
-      <c r="C352" s="35"/>
+      <c r="C352" s="36"/>
       <c r="D352" s="23"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="34"/>
       <c r="B353" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C353" s="35" t="s">
+      <c r="C353" s="36" t="s">
         <v>149</v>
       </c>
       <c r="D353" s="30" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="34"/>
       <c r="B354" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C354" s="35"/>
+      <c r="C354" s="36"/>
       <c r="D354" s="23"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="34"/>
       <c r="B355" s="25"/>
-      <c r="C355" s="35"/>
+      <c r="C355" s="36"/>
       <c r="D355" s="23"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="34"/>
       <c r="B356" s="25" t="s">
         <v>309</v>
@@ -9115,7 +9143,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="34"/>
       <c r="B357" s="25" t="s">
         <v>475</v>
@@ -9123,7 +9151,7 @@
       <c r="C357" s="22"/>
       <c r="D357" s="23"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="34"/>
       <c r="B358" s="25"/>
       <c r="C358" s="22" t="s">
@@ -9131,165 +9159,165 @@
       </c>
       <c r="D358" s="23"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="34">
         <v>2</v>
       </c>
       <c r="B359" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C359" s="35" t="s">
+      <c r="C359" s="36" t="s">
         <v>413</v>
       </c>
       <c r="D359" s="30" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="34"/>
       <c r="B360" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C360" s="35"/>
+      <c r="C360" s="36"/>
       <c r="D360" s="23"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="34"/>
       <c r="B361" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C361" s="35"/>
+      <c r="C361" s="36"/>
       <c r="D361" s="23"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="34"/>
       <c r="B362" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C362" s="35"/>
+      <c r="C362" s="36"/>
       <c r="D362" s="23"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="34"/>
       <c r="B363" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C363" s="35"/>
+      <c r="C363" s="36"/>
       <c r="D363" s="23"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="34"/>
       <c r="B364" s="25"/>
-      <c r="C364" s="35"/>
+      <c r="C364" s="36"/>
       <c r="D364" s="23"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="34">
         <v>3</v>
       </c>
       <c r="B365" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="C365" s="35" t="s">
+      <c r="C365" s="36" t="s">
         <v>481</v>
       </c>
       <c r="D365" s="30" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="34"/>
       <c r="B366" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C366" s="35"/>
+      <c r="C366" s="36"/>
       <c r="D366" s="23"/>
     </row>
-    <row r="367" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A367" s="34"/>
       <c r="B367" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C367" s="35"/>
+      <c r="C367" s="36"/>
       <c r="D367" s="30" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="34"/>
       <c r="B368" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C368" s="35"/>
+      <c r="C368" s="36"/>
       <c r="D368" s="23"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="34"/>
       <c r="B369" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C369" s="35"/>
+      <c r="C369" s="36"/>
       <c r="D369" s="23"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="34"/>
       <c r="B370" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C370" s="35"/>
+      <c r="C370" s="36"/>
       <c r="D370" s="23"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="34"/>
       <c r="B371" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C371" s="35"/>
+      <c r="C371" s="36"/>
       <c r="D371" s="23"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="34"/>
       <c r="B372" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="C372" s="35"/>
+      <c r="C372" s="36"/>
       <c r="D372" s="23"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="34"/>
       <c r="B373" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C373" s="35"/>
+      <c r="C373" s="36"/>
       <c r="D373" s="23"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="34"/>
       <c r="B374" s="25"/>
-      <c r="C374" s="35"/>
+      <c r="C374" s="36"/>
       <c r="D374" s="23"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="34">
         <v>7</v>
       </c>
-      <c r="B375" s="37" t="s">
+      <c r="B375" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="C375" s="35" t="s">
+      <c r="C375" s="36" t="s">
         <v>156</v>
       </c>
       <c r="D375" s="30" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="34"/>
-      <c r="B376" s="37"/>
-      <c r="C376" s="35"/>
+      <c r="B376" s="35"/>
+      <c r="C376" s="36"/>
       <c r="D376" s="23"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <v>9</v>
       </c>
@@ -9303,81 +9331,81 @@
         <v>495</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="34">
         <v>10</v>
       </c>
       <c r="B378" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="C378" s="35" t="s">
+      <c r="C378" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D378" s="30" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="34"/>
       <c r="B379" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C379" s="35"/>
+      <c r="C379" s="36"/>
       <c r="D379" s="23"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="34"/>
       <c r="B380" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C380" s="35"/>
+      <c r="C380" s="36"/>
       <c r="D380" s="23"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="34"/>
       <c r="B381" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C381" s="35"/>
+      <c r="C381" s="36"/>
       <c r="D381" s="23"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="34"/>
       <c r="B382" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C382" s="35"/>
+      <c r="C382" s="36"/>
       <c r="D382" s="23"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="34"/>
       <c r="B383" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="C383" s="35"/>
+      <c r="C383" s="36"/>
       <c r="D383" s="23"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="34">
         <v>11</v>
       </c>
-      <c r="B384" s="37" t="s">
+      <c r="B384" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="C384" s="35" t="s">
+      <c r="C384" s="36" t="s">
         <v>481</v>
       </c>
       <c r="D384" s="23" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="34"/>
-      <c r="B385" s="37"/>
-      <c r="C385" s="35"/>
+      <c r="B385" s="35"/>
+      <c r="C385" s="36"/>
       <c r="D385" s="23"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <v>12</v>
       </c>
@@ -9391,7 +9419,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>1</v>
       </c>
@@ -9405,7 +9433,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <v>2</v>
       </c>
@@ -9419,47 +9447,47 @@
         <v>510</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="34">
         <v>3</v>
       </c>
-      <c r="B389" s="37" t="s">
+      <c r="B389" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="C389" s="35" t="s">
+      <c r="C389" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D389" s="30" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="34"/>
-      <c r="B390" s="37"/>
-      <c r="C390" s="35"/>
+      <c r="B390" s="35"/>
+      <c r="C390" s="36"/>
       <c r="D390" s="23"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="34">
         <v>4</v>
       </c>
-      <c r="B391" s="36" t="s">
+      <c r="B391" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="C391" s="35" t="s">
+      <c r="C391" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D391" s="30" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="34"/>
-      <c r="B392" s="36"/>
-      <c r="C392" s="35"/>
+      <c r="B392" s="37"/>
+      <c r="C392" s="36"/>
       <c r="D392" s="23"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <v>5</v>
       </c>
@@ -9473,7 +9501,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>6</v>
       </c>
@@ -9487,7 +9515,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <v>7</v>
       </c>
@@ -9501,7 +9529,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="23" t="s">
         <v>521</v>
@@ -9509,31 +9537,31 @@
       <c r="C396" s="23"/>
       <c r="D396" s="17"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="34">
         <v>1</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C397" s="35" t="s">
+      <c r="C397" s="36" t="s">
         <v>523</v>
       </c>
       <c r="D397" s="30" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A398" s="34"/>
       <c r="B398" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C398" s="35"/>
+      <c r="C398" s="36"/>
       <c r="D398" s="30" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <v>1</v>
       </c>
@@ -9547,7 +9575,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <v>2</v>
       </c>
@@ -9561,27 +9589,27 @@
         <v>530</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="34">
         <v>3</v>
       </c>
-      <c r="B401" s="35" t="s">
+      <c r="B401" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="C401" s="35" t="s">
+      <c r="C401" s="36" t="s">
         <v>201</v>
       </c>
       <c r="D401" s="30" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="34"/>
-      <c r="B402" s="35"/>
-      <c r="C402" s="35"/>
+      <c r="B402" s="36"/>
+      <c r="C402" s="36"/>
       <c r="D402" s="17"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="23" t="s">
         <v>533</v>
@@ -9589,7 +9617,7 @@
       <c r="C403" s="23"/>
       <c r="D403" s="17"/>
     </row>
-    <row r="404" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>1</v>
       </c>
@@ -9603,7 +9631,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>3</v>
       </c>
@@ -9617,169 +9645,169 @@
         <v>537</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="34">
         <v>4</v>
       </c>
       <c r="B406" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C406" s="35" t="s">
+      <c r="C406" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D406" s="30" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="34"/>
       <c r="B407" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C407" s="35"/>
+      <c r="C407" s="36"/>
       <c r="D407" s="23"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="34"/>
       <c r="B408" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C408" s="35"/>
+      <c r="C408" s="36"/>
       <c r="D408" s="23"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="34"/>
       <c r="B409" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C409" s="35"/>
+      <c r="C409" s="36"/>
       <c r="D409" s="23"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="34"/>
       <c r="B410" s="25"/>
-      <c r="C410" s="35"/>
+      <c r="C410" s="36"/>
       <c r="D410" s="23"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="34">
         <v>5</v>
       </c>
       <c r="B411" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="C411" s="35" t="s">
+      <c r="C411" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D411" s="30" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="34"/>
       <c r="B412" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="C412" s="35"/>
+      <c r="C412" s="36"/>
       <c r="D412" s="23"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="34"/>
       <c r="B413" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="C413" s="35"/>
+      <c r="C413" s="36"/>
       <c r="D413" s="23"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="34">
         <v>6</v>
       </c>
-      <c r="B414" s="37" t="s">
+      <c r="B414" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="C414" s="35" t="s">
+      <c r="C414" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D414" s="30" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="34"/>
-      <c r="B415" s="37"/>
-      <c r="C415" s="35"/>
+      <c r="B415" s="35"/>
+      <c r="C415" s="36"/>
       <c r="D415" s="23"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="34">
         <v>7</v>
       </c>
-      <c r="B416" s="37" t="s">
+      <c r="B416" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="C416" s="35" t="s">
+      <c r="C416" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D416" s="30" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="34"/>
-      <c r="B417" s="37"/>
-      <c r="C417" s="35"/>
+      <c r="B417" s="35"/>
+      <c r="C417" s="36"/>
       <c r="D417" s="23"/>
     </row>
-    <row r="418" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="34">
         <v>8</v>
       </c>
       <c r="B418" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C418" s="35" t="s">
+      <c r="C418" s="36" t="s">
         <v>552</v>
       </c>
       <c r="D418" s="30" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="34"/>
       <c r="B419" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C419" s="35"/>
+      <c r="C419" s="36"/>
       <c r="D419" s="23"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="34"/>
       <c r="B420" s="20"/>
-      <c r="C420" s="35"/>
+      <c r="C420" s="36"/>
       <c r="D420" s="23"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="34">
         <v>1</v>
       </c>
-      <c r="B421" s="37" t="s">
+      <c r="B421" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="C421" s="35" t="s">
+      <c r="C421" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D421" s="30" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="34"/>
-      <c r="B422" s="37"/>
-      <c r="C422" s="35"/>
+      <c r="B422" s="35"/>
+      <c r="C422" s="36"/>
       <c r="D422" s="23"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <v>2</v>
       </c>
@@ -9793,7 +9821,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <v>3</v>
       </c>
@@ -9805,7 +9833,7 @@
       </c>
       <c r="D424" s="23"/>
     </row>
-    <row r="425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A425" s="23">
         <v>4</v>
       </c>
@@ -9819,7 +9847,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <v>4</v>
       </c>
@@ -9833,7 +9861,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <v>5</v>
       </c>
@@ -9847,7 +9875,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <v>6</v>
       </c>
@@ -9861,7 +9889,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <v>7</v>
       </c>
@@ -9873,47 +9901,47 @@
       </c>
       <c r="D429" s="23"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="34">
         <v>1</v>
       </c>
-      <c r="B430" s="37" t="s">
+      <c r="B430" s="35" t="s">
         <v>569</v>
       </c>
-      <c r="C430" s="35" t="s">
+      <c r="C430" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D430" s="30" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="34"/>
-      <c r="B431" s="37"/>
-      <c r="C431" s="35"/>
+      <c r="B431" s="35"/>
+      <c r="C431" s="36"/>
       <c r="D431" s="23"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="34">
         <v>2</v>
       </c>
-      <c r="B432" s="37" t="s">
+      <c r="B432" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="C432" s="35" t="s">
+      <c r="C432" s="36" t="s">
         <v>286</v>
       </c>
       <c r="D432" s="30" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="34"/>
-      <c r="B433" s="37"/>
-      <c r="C433" s="35"/>
+      <c r="B433" s="35"/>
+      <c r="C433" s="36"/>
       <c r="D433" s="23"/>
     </row>
-    <row r="434" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <v>3</v>
       </c>
@@ -9927,47 +9955,47 @@
         <v>574</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="34">
         <v>4</v>
       </c>
-      <c r="B435" s="37" t="s">
+      <c r="B435" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="C435" s="35" t="s">
+      <c r="C435" s="36" t="s">
         <v>575</v>
       </c>
       <c r="D435" s="30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="34"/>
-      <c r="B436" s="37"/>
-      <c r="C436" s="35"/>
+      <c r="B436" s="35"/>
+      <c r="C436" s="36"/>
       <c r="D436" s="23"/>
     </row>
-    <row r="437" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="34">
         <v>5</v>
       </c>
-      <c r="B437" s="37" t="s">
+      <c r="B437" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="C437" s="35" t="s">
+      <c r="C437" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D437" s="30" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="34"/>
-      <c r="B438" s="37"/>
-      <c r="C438" s="35"/>
+      <c r="B438" s="35"/>
+      <c r="C438" s="36"/>
       <c r="D438" s="23"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="23" t="s">
         <v>578</v>
@@ -9975,300 +10003,163 @@
       <c r="C439" s="23"/>
       <c r="D439" s="17"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="34">
         <v>1</v>
       </c>
       <c r="B440" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="C440" s="37" t="s">
+      <c r="C440" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D440" s="17" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="34"/>
       <c r="B441" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="C441" s="37"/>
+      <c r="C441" s="35"/>
       <c r="D441" s="17" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A442" s="34"/>
       <c r="B442" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="C442" s="37"/>
+      <c r="C442" s="35"/>
       <c r="D442" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="34"/>
       <c r="B443" s="25"/>
-      <c r="C443" s="37"/>
+      <c r="C443" s="35"/>
       <c r="D443" s="17"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="34">
         <v>1</v>
       </c>
       <c r="B444" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C444" s="37" t="s">
+      <c r="C444" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D444" s="17" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A445" s="34"/>
       <c r="B445" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="C445" s="37"/>
+      <c r="C445" s="35"/>
       <c r="D445" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="34"/>
       <c r="B446" s="25"/>
-      <c r="C446" s="37"/>
+      <c r="C446" s="35"/>
       <c r="D446" s="17"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="34">
         <v>1</v>
       </c>
       <c r="B447" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="C447" s="37" t="s">
+      <c r="C447" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D447" s="17" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A448" s="34"/>
       <c r="B448" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="C448" s="37"/>
+      <c r="C448" s="35"/>
       <c r="D448" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="34"/>
       <c r="B449" s="25"/>
-      <c r="C449" s="37"/>
+      <c r="C449" s="35"/>
       <c r="D449" s="17"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="15"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D280" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="255">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A440:A443"/>
-    <mergeCell ref="C440:C443"/>
-    <mergeCell ref="A444:A446"/>
-    <mergeCell ref="C444:C446"/>
-    <mergeCell ref="A447:A449"/>
-    <mergeCell ref="C447:C449"/>
-    <mergeCell ref="A435:A436"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="A437:A438"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="A432:A433"/>
-    <mergeCell ref="B432:B433"/>
-    <mergeCell ref="C432:C433"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="A418:A420"/>
-    <mergeCell ref="C418:C420"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="C421:C422"/>
-    <mergeCell ref="A406:A410"/>
-    <mergeCell ref="C406:C410"/>
-    <mergeCell ref="A411:A413"/>
-    <mergeCell ref="C411:C413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="A365:A374"/>
-    <mergeCell ref="C365:C374"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="B375:B376"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="A378:A383"/>
-    <mergeCell ref="C378:C383"/>
-    <mergeCell ref="A348:A352"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="A353:A355"/>
-    <mergeCell ref="C353:C355"/>
-    <mergeCell ref="A356:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="C359:C364"/>
-    <mergeCell ref="A332:A335"/>
-    <mergeCell ref="C332:C335"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="A317:A325"/>
-    <mergeCell ref="C317:C325"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="A311:A312"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="C311:C312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="A308:A310"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="C282:C285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="A299:A301"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A233"/>
-    <mergeCell ref="A234:A261"/>
-    <mergeCell ref="A262:A271"/>
-    <mergeCell ref="C262:C271"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="A215:A218"/>
-    <mergeCell ref="C215:C218"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
+  <mergeCells count="259">
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
@@ -10293,51 +10184,192 @@
     <mergeCell ref="B98:B99"/>
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A224:A233"/>
+    <mergeCell ref="A234:A261"/>
+    <mergeCell ref="A262:A271"/>
+    <mergeCell ref="C262:C271"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="A215:A218"/>
+    <mergeCell ref="C215:C218"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="A308:A310"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="A299:A301"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="A317:A325"/>
+    <mergeCell ref="C317:C325"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="A348:A352"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="A353:A355"/>
+    <mergeCell ref="C353:C355"/>
+    <mergeCell ref="A356:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="C359:C364"/>
+    <mergeCell ref="A332:A335"/>
+    <mergeCell ref="C332:C335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="A365:A374"/>
+    <mergeCell ref="C365:C374"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="A378:A383"/>
+    <mergeCell ref="C378:C383"/>
+    <mergeCell ref="A406:A410"/>
+    <mergeCell ref="C406:C410"/>
+    <mergeCell ref="A411:A413"/>
+    <mergeCell ref="C411:C413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="A432:A433"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="A416:A417"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="A418:A420"/>
+    <mergeCell ref="C418:C420"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="A440:A443"/>
+    <mergeCell ref="C440:C443"/>
+    <mergeCell ref="A444:A446"/>
+    <mergeCell ref="C444:C446"/>
+    <mergeCell ref="A447:A449"/>
+    <mergeCell ref="C447:C449"/>
+    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="B435:B436"/>
+    <mergeCell ref="C435:C436"/>
+    <mergeCell ref="A437:A438"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10353,16 +10385,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10379,7 +10411,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -10396,7 +10428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -10413,7 +10445,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -10430,7 +10462,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -10447,7 +10479,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -10464,7 +10496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -10481,7 +10513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -10498,7 +10530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -10515,7 +10547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -10532,7 +10564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -10549,7 +10581,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -10566,7 +10598,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -10583,7 +10615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -10600,7 +10632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -10617,7 +10649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -10634,7 +10666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -10651,7 +10683,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -10668,7 +10700,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -10685,7 +10717,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -10702,7 +10734,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -10719,7 +10751,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -10736,7 +10768,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -10753,7 +10785,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -10770,7 +10802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -10787,7 +10819,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -10804,7 +10836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -10821,7 +10853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -10838,7 +10870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -10855,7 +10887,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -10872,7 +10904,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -10889,7 +10921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -10906,7 +10938,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -10923,7 +10955,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -10940,7 +10972,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -10957,7 +10989,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -10974,7 +11006,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -10991,7 +11023,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -11008,7 +11040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -11025,7 +11057,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -11042,7 +11074,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -11059,7 +11091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -11076,7 +11108,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -11093,7 +11125,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -11110,7 +11142,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -11127,7 +11159,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -11144,7 +11176,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -11161,7 +11193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -11178,7 +11210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -11195,7 +11227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -11212,7 +11244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -11229,7 +11261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -11246,7 +11278,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -11263,7 +11295,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -11280,7 +11312,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -11297,7 +11329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -11314,7 +11346,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -11331,7 +11363,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -11348,7 +11380,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -11365,7 +11397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -11382,7 +11414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -11399,7 +11431,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -11416,7 +11448,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -11433,7 +11465,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -11450,7 +11482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -11467,7 +11499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -11484,7 +11516,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -11501,7 +11533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -11518,7 +11550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -11535,7 +11567,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -11552,7 +11584,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -11569,7 +11601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -11586,7 +11618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -11603,7 +11635,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -11620,7 +11652,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -11637,7 +11669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -11654,7 +11686,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -11671,7 +11703,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -11688,7 +11720,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -11705,7 +11737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -11722,7 +11754,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -11739,7 +11771,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -11756,7 +11788,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -11773,7 +11805,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -11790,7 +11822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -11807,7 +11839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -11824,7 +11856,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -11841,7 +11873,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -11858,7 +11890,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -11875,7 +11907,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -11892,7 +11924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -11909,7 +11941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -11926,7 +11958,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -11943,7 +11975,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -11960,7 +11992,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -11977,7 +12009,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -11994,7 +12026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -12011,7 +12043,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -12028,7 +12060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -12045,7 +12077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -12062,7 +12094,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -12079,7 +12111,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -12096,7 +12128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -12113,7 +12145,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -12130,7 +12162,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -12147,7 +12179,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -12164,7 +12196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -12181,7 +12213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -12198,7 +12230,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -12215,7 +12247,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -12232,7 +12264,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -12249,7 +12281,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -12266,7 +12298,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -12283,7 +12315,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -12300,7 +12332,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -12317,7 +12349,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -12334,7 +12366,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -12351,7 +12383,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -12368,7 +12400,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -12385,7 +12417,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -12402,7 +12434,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -12419,7 +12451,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -12436,7 +12468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -12453,7 +12485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -12470,7 +12502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -12487,7 +12519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -12504,7 +12536,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -12521,7 +12553,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -12538,7 +12570,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -12555,7 +12587,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -12572,7 +12604,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -12589,7 +12621,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -12606,7 +12638,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -12623,7 +12655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -12640,7 +12672,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -12657,7 +12689,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -12674,7 +12706,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -12691,7 +12723,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -12708,7 +12740,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -12725,7 +12757,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -12742,7 +12774,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -12759,7 +12791,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -12776,7 +12808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -12793,7 +12825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -12810,7 +12842,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -12827,7 +12859,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -12844,7 +12876,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -12861,7 +12893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -12878,7 +12910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -12895,7 +12927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -12912,7 +12944,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -12929,7 +12961,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -12946,7 +12978,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -12963,7 +12995,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -12980,7 +13012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -12997,7 +13029,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -13014,7 +13046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -13031,7 +13063,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -13048,7 +13080,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -13065,7 +13097,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -13082,7 +13114,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -13099,7 +13131,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -13116,7 +13148,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -13133,7 +13165,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -13150,7 +13182,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -13167,7 +13199,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -13184,7 +13216,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -13201,7 +13233,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -13218,7 +13250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -13235,7 +13267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -13252,7 +13284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -13269,7 +13301,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -13286,7 +13318,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -13303,7 +13335,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -13320,7 +13352,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -13337,7 +13369,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -13354,7 +13386,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -13371,7 +13403,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>177</v>
       </c>
@@ -13388,7 +13420,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>178</v>
       </c>
@@ -13405,7 +13437,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -13422,7 +13454,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -13439,7 +13471,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -13456,7 +13488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -13473,7 +13505,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -13490,7 +13522,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -13507,7 +13539,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>185</v>
       </c>
@@ -13524,7 +13556,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>186</v>
       </c>
@@ -13541,7 +13573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -13558,7 +13590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -13575,7 +13607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -13592,7 +13624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -13609,7 +13641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -13626,7 +13658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -13643,7 +13675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -13660,7 +13692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -13677,7 +13709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -13694,7 +13726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -13711,7 +13743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -13728,7 +13760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -13745,7 +13777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -13762,7 +13794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -13779,7 +13811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -13796,7 +13828,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -13813,7 +13845,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -13830,7 +13862,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -13847,7 +13879,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -13864,7 +13896,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -13881,7 +13913,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -13898,7 +13930,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -13922,21 +13954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEBC747F347A034FA0018CAF7D99052D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f062dc1f9491f3faec7cf0ae28391ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c9ab29b-20bf-44a4-a666-f4222d918f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78db0b84c272b9d2637594810e5a6fb9" ns2:_="">
     <xsd:import namespace="1c9ab29b-20bf-44a4-a666-f4222d918f76"/>
@@ -14106,24 +14123,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D319-703A-4107-B71F-1050E487FBEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14139,4 +14154,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE1BE4-04CF-4DD8-AD9A-704B5CBEE0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBD7A5-D088-447C-A65F-14CE73AF5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FSD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FSD!$A$1:$E$209</definedName>
     <definedName name="_Toc31101033" localSheetId="0">BRD!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="902">
   <si>
     <t>No</t>
   </si>
@@ -4934,13 +4934,64 @@
     <t>FU.Notifikasi, Resolusi.DistribusiHasilLikuidasi, FU.SLA, FU.Repository</t>
   </si>
   <si>
-    <t>FU.Checklist, FU.Repository, Resolusi.DocRups</t>
-  </si>
-  <si>
-    <t>FU.Checklist, Resolusi.TimLikuidasi, Resolusi.Aset, Resolusi.EvaluasiPencairanAset, Resolusi. PengamananAset</t>
-  </si>
-  <si>
-    <t>FU.Checklist, Resolusi.TimeScheduleKegiatan, Resolusi. MasterKegiatan. Resolusi.PICKegiatan</t>
+    <t>Resolusi.PemberianHaircut, FU.Workflow</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocRups</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.Aset, Resolusi.EvaluasiPencairanAset, Resolusi. PengamananAset</t>
+  </si>
+  <si>
+    <t>Resolusi.TimeScheduleKegiatan, Resolusi. MasterKegiatan. Resolusi.PICKegiatan, Resolusi.PengamananAset, Resolusi.Aset</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocBadanHukum, Resolusi.ChecklistDocBadanHukum</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.Aset, Resolusi.PerhitunganPiutang, Resolusi.PenagihanPiutang</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.TimLikuidasi, Resolusi.LaporanKeuanganBDL,</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi,  Resolusi.PengurusBDL, Resolusi.KewajibanPegawai, Resolusi.TransaksiDanaTalangan, Resolusi.PengajuanDanaTalangan</t>
+  </si>
+  <si>
+    <t>Resolusi.NeracaPenutupAudit, Resolusi.DocAuditNP, Resolusi.KoreksiNeracaPA, Resolusi.ChecklistNeracaPA</t>
+  </si>
+  <si>
+    <t>Resolusi.PengajuanDanaTalangan, Resolusi.PengembalianDanaTalangan</t>
+  </si>
+  <si>
+    <t>Resolusi.DocAuditNP, Resolusi.ChecklistNeracaPA, FU.Repository</t>
+  </si>
+  <si>
+    <t>Resolusi.PengajuanInsentif, Resolusi.TimLikuidasi, Resolusi.TenagaPendukung</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.TenagaPendukung</t>
+  </si>
+  <si>
+    <t>Resolusi.SisaAset, FU.Repository, Resolusi.DocAset, Resolusi.PenagihanPiutang</t>
+  </si>
+  <si>
+    <t>Resolusi.PerpanjanganAnalisaEPPA, Resolusi.Aset, Resolusi.SisaAset, FU.Repository</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>FU.Repository,  Resolusi.PengajuanLanir, Resolusi.TimLikuidasi, Resolusi.DocPertanggungJawabanTL</t>
+  </si>
+  <si>
+    <t>Resolusi.PengawasanAuditLanir, Resolusi.DocPertanggungJawabanTL, Resolusi.TimLikuidasi, FU.Repository</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocPertanggungJawabanTL, Resolusi.TimLikuidasi, Resolusi.DocRUPS</t>
+  </si>
+  <si>
+    <t>Resolusi.DocPertanggungJawabanTL, Resolusi.PengakhiranLikuidasi</t>
   </si>
 </sst>
 </file>
@@ -5194,33 +5245,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5239,6 +5263,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5555,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E431"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166:E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5584,25 +5635,25 @@
       <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="36" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+    <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5612,10 +5663,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5623,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="36"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5634,312 +5685,312 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="36"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="44" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="36"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="51">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="44" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="51">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="44" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="36"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="51">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="44" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="36"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="51">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="44" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="51">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="45" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="51">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="45" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
+      <c r="A24" s="51">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="45" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+      <c r="A26" s="51">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="45" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="38"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="A28" s="46">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="45" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+      <c r="A30" s="46">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -5949,12 +6000,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="45" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -5962,10 +6013,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -5975,19 +6026,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="44"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="40">
+      <c r="A34" s="46">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -5997,12 +6048,12 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="44" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6010,10 +6061,10 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6021,36 +6072,36 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="40">
+      <c r="A37" s="46">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="48" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="44" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="41"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
+      <c r="A39" s="46">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6060,12 +6111,12 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="44" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6073,10 +6124,10 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6086,132 +6137,132 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
+      <c r="A42" s="46">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="44" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="36"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
+      <c r="A44" s="46">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="44" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="41"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="36"/>
+      <c r="E45" s="44"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="40">
+      <c r="A47" s="46">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="44" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="41"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="36"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="41"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="36"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="40">
+      <c r="A52" s="46">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6221,12 +6272,12 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="44" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6234,10 +6285,10 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="44"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6247,10 +6298,10 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="36"/>
+      <c r="E54" s="44"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6258,10 +6309,10 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="36"/>
+      <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6269,207 +6320,207 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="36"/>
+      <c r="E56" s="44"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="40">
+      <c r="A57" s="46">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="48" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="44" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="36"/>
+      <c r="E58" s="44"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="36"/>
+      <c r="E59" s="44"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="40">
+      <c r="A60" s="46">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="44" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="36"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="40">
+      <c r="A62" s="46">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="44" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="36"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="40">
+      <c r="A64" s="46">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="44" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="36"/>
+      <c r="E65" s="44"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="40">
+      <c r="A66" s="46">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="44" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="41"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="36"/>
+      <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="40">
+      <c r="A68" s="46">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="44" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="41"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="36"/>
-    </row>
-    <row r="70" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46" t="s">
+      <c r="E69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="40">
+      <c r="A71" s="46">
         <v>1</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="44" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="41"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="36"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
@@ -6506,76 +6557,76 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="40">
+      <c r="A75" s="46">
         <v>4</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="44" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="41"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="36"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="40">
+      <c r="A77" s="46">
         <v>5</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="44" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="41"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="36"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="40">
+      <c r="A79" s="46">
         <v>6</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="44" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="40"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="41"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="36"/>
+      <c r="E80" s="44"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
@@ -6595,32 +6646,32 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="40">
+      <c r="A82" s="46">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="44" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="40"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="41"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="36"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
@@ -6640,30 +6691,30 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="40">
+      <c r="A85" s="46">
         <v>3</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="44" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="40"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="36"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
@@ -6683,107 +6734,107 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="40">
+      <c r="A88" s="46">
         <v>5</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="48" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="44" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="40"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="41"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="48"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="36"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="40">
+      <c r="A90" s="46">
         <v>6</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="47" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="44" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="36"/>
+      <c r="E91" s="44"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="40">
+      <c r="A92" s="46">
         <v>7</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="48" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="44" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="40"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="41"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="36"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="40">
+      <c r="A94" s="46">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="48" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="44" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="40"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="41"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="36"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="40">
+      <c r="A96" s="46">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6795,12 +6846,12 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="44" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="40"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -6810,7 +6861,7 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="36"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="23">
@@ -6864,7 +6915,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="40">
+      <c r="A101" s="46">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -6876,12 +6927,12 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="44" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="46"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -6891,7 +6942,7 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="36"/>
+      <c r="E102" s="44"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
@@ -6928,90 +6979,90 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="40">
+      <c r="A105" s="46">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="44" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="40"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="41"/>
+      <c r="C106" s="48"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="36"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="40"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="41"/>
+      <c r="C107" s="48"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="36"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="40"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="41"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="36"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="40"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="41"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="36"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="40"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="41"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="36"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="40">
+      <c r="A111" s="46">
         <v>2</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="44" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="40"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="41"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="36"/>
+      <c r="E112" s="44"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="23">
@@ -7031,48 +7082,48 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="40">
+      <c r="A114" s="46">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="48" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="44" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="40"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="41"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="36"/>
+      <c r="E115" s="44"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="40"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="41"/>
+      <c r="C116" s="48"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="36"/>
+      <c r="E116" s="44"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="40"/>
+      <c r="A117" s="46"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="41"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="36"/>
+      <c r="E117" s="44"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
@@ -7092,81 +7143,81 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="40">
+      <c r="A119" s="46">
         <v>6</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C119" s="48" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="36" t="s">
+      <c r="E119" s="44" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="40"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="41"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="36"/>
+      <c r="E120" s="44"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="40">
+      <c r="A121" s="46">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="48" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="44" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="40"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="41"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="36"/>
+      <c r="E122" s="44"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="40"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="41"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="36"/>
+      <c r="E123" s="44"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="40"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="41"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="36"/>
+      <c r="E124" s="44"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="40"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="41"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="36"/>
+      <c r="E125" s="44"/>
     </row>
     <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23">
@@ -7187,425 +7238,425 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="46"/>
-      <c r="D127" s="49"/>
-      <c r="E127" s="50"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="40">
+      <c r="A128" s="46">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="41" t="s">
+      <c r="C128" s="48" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="36" t="s">
+      <c r="E128" s="44" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="40"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="41"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="36"/>
+      <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="40"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="41"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="36"/>
+      <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="40">
+      <c r="A131" s="46">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="36" t="s">
+      <c r="E131" s="44" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="40"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="41"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="36"/>
+      <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="40"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="41"/>
+      <c r="C133" s="48"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="36"/>
+      <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="40"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="41"/>
+      <c r="C134" s="48"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="36"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="40">
+      <c r="A135" s="46">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="41" t="s">
+      <c r="C135" s="48" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="44" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="40"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="41"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="36"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="40"/>
+      <c r="A137" s="46"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="41"/>
+      <c r="C137" s="48"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="36"/>
+      <c r="E137" s="44"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="40"/>
+      <c r="A138" s="46"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="41"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="36"/>
+      <c r="E138" s="44"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="40"/>
+      <c r="A139" s="46"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="41"/>
+      <c r="C139" s="48"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="36"/>
+      <c r="E139" s="44"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="40">
+      <c r="A140" s="46">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="48" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="36" t="s">
+      <c r="E140" s="44" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="40"/>
+      <c r="A141" s="46"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="41"/>
+      <c r="C141" s="48"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="36"/>
+      <c r="E141" s="44"/>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="40">
+      <c r="A142" s="46">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="41" t="s">
+      <c r="C142" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="36" t="s">
+      <c r="E142" s="44" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="40"/>
+      <c r="A143" s="46"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="41"/>
+      <c r="C143" s="48"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="36"/>
+      <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="40">
+      <c r="A144" s="46">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="C144" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="36" t="s">
+      <c r="E144" s="44" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="40"/>
+      <c r="A145" s="46"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="41"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="36"/>
+      <c r="E145" s="44"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="40">
+      <c r="A146" s="46">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C146" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="36" t="s">
+      <c r="E146" s="44" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="40"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="41"/>
+      <c r="C147" s="48"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="36"/>
+      <c r="E147" s="44"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="40">
+      <c r="A148" s="46">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="41" t="s">
+      <c r="C148" s="48" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="36" t="s">
+      <c r="E148" s="44" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="40"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="41"/>
+      <c r="C149" s="48"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="36"/>
+      <c r="E149" s="44"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="40">
+      <c r="A150" s="46">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="41" t="s">
+      <c r="C150" s="48" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="36" t="s">
+      <c r="E150" s="44" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="40"/>
+      <c r="A151" s="46"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="41"/>
+      <c r="C151" s="48"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="36"/>
+      <c r="E151" s="44"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="40">
+      <c r="A152" s="46">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="48" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="36" t="s">
+      <c r="E152" s="44" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="40"/>
+      <c r="A153" s="46"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="41"/>
+      <c r="C153" s="48"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="36"/>
+      <c r="E153" s="44"/>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="40">
+      <c r="A154" s="46">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="41" t="s">
+      <c r="C154" s="48" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="36" t="s">
+      <c r="E154" s="44" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="40"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="41"/>
+      <c r="C155" s="48"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="36"/>
+      <c r="E155" s="44"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="40">
+      <c r="A156" s="46">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="48" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="36" t="s">
+      <c r="E156" s="44" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="40"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="41"/>
+      <c r="C157" s="48"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="36"/>
+      <c r="E157" s="44"/>
     </row>
     <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="40">
+      <c r="A158" s="46">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="41" t="s">
+      <c r="C158" s="48" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="36" t="s">
+      <c r="E158" s="44" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="40"/>
+      <c r="A159" s="46"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="41"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="36"/>
+      <c r="E159" s="44"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="23"/>
-      <c r="B160" s="47" t="s">
+      <c r="B160" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C160" s="48"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="48"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="39"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="23">
@@ -7621,7 +7672,7 @@
         <v>256</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -7636,10 +7687,10 @@
       </c>
       <c r="D162" s="23"/>
       <c r="E162" s="32" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="23">
         <v>3</v>
       </c>
@@ -7653,7 +7704,7 @@
         <v>260</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -7669,6 +7720,9 @@
       <c r="D164" s="23" t="s">
         <v>262</v>
       </c>
+      <c r="E164" s="32" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="23">
@@ -7683,2637 +7737,2700 @@
       <c r="D165" s="23" t="s">
         <v>264</v>
       </c>
+      <c r="E165" s="32" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="40">
+      <c r="A166" s="46">
         <v>3</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="49" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="40"/>
-      <c r="B167" s="42"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="40"/>
-      <c r="B168" s="42"/>
+      <c r="E166" s="44" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="46"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D167" s="23"/>
+      <c r="E167" s="44"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="46">
+        <v>4</v>
+      </c>
+      <c r="B168" s="49" t="s">
+        <v>267</v>
+      </c>
       <c r="C168" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D168" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E168" s="44" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="40">
+      <c r="A169" s="46"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="23"/>
+      <c r="E169" s="44"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="23">
+        <v>5</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E170" s="32" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="23">
+        <v>6</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="46">
+        <v>7</v>
+      </c>
+      <c r="B172" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E172" s="44" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="46"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="23"/>
+      <c r="E173" s="44"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="23">
+        <v>8</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="23">
+        <v>9</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="23">
+        <v>10</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="23">
+        <v>11</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="23">
+        <v>1</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="23">
+        <v>2</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="46">
+        <v>3</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" s="44" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="46"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="44"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="23">
         <v>4</v>
       </c>
-      <c r="B169" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="B182" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E182" s="32" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="46">
+        <v>5</v>
+      </c>
+      <c r="B183" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" s="44" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="46"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="44"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="23">
+        <v>6</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="23"/>
+      <c r="B186" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C186" s="23"/>
+      <c r="D186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="46">
+        <v>1</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C187" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D187" s="23"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="46"/>
+      <c r="B188" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C188" s="47"/>
+      <c r="D188" s="23"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="46"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="47"/>
+      <c r="D189" s="23"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="46">
+        <v>1</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C190" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="23"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="46"/>
+      <c r="B191" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C191" s="48"/>
+      <c r="D191" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="46"/>
+      <c r="B192" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C192" s="48"/>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="46">
+        <v>2</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193" s="23"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="46"/>
+      <c r="B194" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" s="48"/>
+      <c r="D194" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="46"/>
+      <c r="B195" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C195" s="48"/>
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="46"/>
+      <c r="B196" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C196" s="48"/>
+      <c r="D196" s="23"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="46">
+        <v>3</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D169" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="40"/>
-      <c r="B170" s="42"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="23"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="40"/>
-      <c r="B171" s="42"/>
-      <c r="C171" s="22" t="s">
+      <c r="D197" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="46"/>
+      <c r="B198" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="22"/>
+      <c r="D198" s="23"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="46"/>
+      <c r="B199" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C199" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D171" s="23"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="23">
-        <v>5</v>
-      </c>
-      <c r="B172" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C172" s="22" t="s">
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="46"/>
+      <c r="B200" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="23"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="46"/>
+      <c r="B201" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C201" s="21"/>
+      <c r="D201" s="23"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="46">
+        <v>4</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="46"/>
+      <c r="B203" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C203" s="22"/>
+      <c r="D203" s="23"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="46"/>
+      <c r="B204" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C204" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D172" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="23">
-        <v>6</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="40">
-        <v>7</v>
-      </c>
-      <c r="B174" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="40"/>
-      <c r="B175" s="42"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="23"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="40"/>
-      <c r="B176" s="42"/>
-      <c r="C176" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D176" s="23"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="23">
-        <v>8</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="23">
-        <v>9</v>
-      </c>
-      <c r="B178" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="23">
-        <v>10</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="23">
-        <v>11</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D180" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="23">
-        <v>1</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="23">
-        <v>2</v>
-      </c>
-      <c r="B182" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D182" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="40">
-        <v>3</v>
-      </c>
-      <c r="B183" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="C183" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="40"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="23"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="23">
-        <v>4</v>
-      </c>
-      <c r="B185" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="40">
-        <v>5</v>
-      </c>
-      <c r="B186" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="C186" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="40"/>
-      <c r="B187" s="43"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="23"/>
-    </row>
-    <row r="188" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="23">
-        <v>6</v>
-      </c>
-      <c r="B188" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="23"/>
-      <c r="B189" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C189" s="23"/>
-      <c r="D189" s="17"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="40">
-        <v>1</v>
-      </c>
-      <c r="B190" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C190" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D190" s="23"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="40"/>
-      <c r="B191" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C191" s="43"/>
-      <c r="D191" s="23"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="40"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="23"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="40">
-        <v>1</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C193" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="23"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="40"/>
-      <c r="B194" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C194" s="41"/>
-      <c r="D194" s="23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="40"/>
-      <c r="B195" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C195" s="41"/>
-      <c r="D195" s="23"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="40">
-        <v>2</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="C196" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D196" s="23"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="40"/>
-      <c r="B197" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C197" s="41"/>
-      <c r="D197" s="23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="40"/>
-      <c r="B198" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C198" s="41"/>
-      <c r="D198" s="23"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="40"/>
-      <c r="B199" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C199" s="41"/>
-      <c r="D199" s="23"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="40">
-        <v>3</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="40"/>
-      <c r="B201" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C201" s="22"/>
-      <c r="D201" s="23"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="40"/>
-      <c r="B202" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D202" s="23"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="40"/>
-      <c r="B203" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C203" s="21"/>
-      <c r="D203" s="23"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="40"/>
-      <c r="B204" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C204" s="21"/>
       <c r="D204" s="23"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="40">
-        <v>4</v>
-      </c>
-      <c r="B205" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D205" s="23" t="s">
-        <v>316</v>
-      </c>
+      <c r="A205" s="46"/>
+      <c r="B205" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C205" s="21"/>
+      <c r="D205" s="23"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="40"/>
+      <c r="A206" s="46"/>
       <c r="B206" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C206" s="22"/>
+        <v>320</v>
+      </c>
+      <c r="C206" s="21"/>
       <c r="D206" s="23"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="40"/>
+      <c r="A207" s="46"/>
       <c r="B207" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>152</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C207" s="21"/>
       <c r="D207" s="23"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="40"/>
+      <c r="A208" s="46"/>
       <c r="B208" s="26" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="40"/>
+      <c r="A209" s="46"/>
       <c r="B209" s="26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="40"/>
+      <c r="A210" s="46"/>
       <c r="B210" s="26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="40"/>
+      <c r="A211" s="46"/>
       <c r="B211" s="26" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="40"/>
-      <c r="B212" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="23"/>
+    <row r="212" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="46">
+        <v>5</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="40"/>
+      <c r="A213" s="46"/>
       <c r="B213" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="C213" s="21"/>
+        <v>328</v>
+      </c>
+      <c r="C213" s="22"/>
       <c r="D213" s="23"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="40"/>
-      <c r="B214" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="C214" s="21"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>154</v>
+      </c>
       <c r="D214" s="23"/>
     </row>
-    <row r="215" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="40">
-        <v>5</v>
-      </c>
-      <c r="B215" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D215" s="23" t="s">
-        <v>327</v>
-      </c>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="46"/>
+      <c r="B215" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C215" s="21"/>
+      <c r="D215" s="23"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="40"/>
-      <c r="B216" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="C216" s="22"/>
+      <c r="A216" s="46"/>
+      <c r="B216" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C216" s="21"/>
       <c r="D216" s="23"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="40"/>
+      <c r="A217" s="46"/>
       <c r="B217" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>154</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C217" s="21"/>
       <c r="D217" s="23"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="40"/>
+      <c r="A218" s="46"/>
       <c r="B218" s="28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="40"/>
+      <c r="A219" s="46"/>
       <c r="B219" s="28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="40"/>
+      <c r="A220" s="46"/>
       <c r="B220" s="28" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="40"/>
+      <c r="A221" s="46"/>
       <c r="B221" s="28" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="40"/>
+      <c r="A222" s="46"/>
       <c r="B222" s="28" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="40"/>
+      <c r="A223" s="46"/>
       <c r="B223" s="28" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="40"/>
-      <c r="B224" s="28" t="s">
-        <v>336</v>
+      <c r="A224" s="46"/>
+      <c r="B224" s="26" t="s">
+        <v>339</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="40"/>
+      <c r="A225" s="46"/>
       <c r="B225" s="28" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="40"/>
+      <c r="A226" s="46"/>
       <c r="B226" s="28" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="40"/>
-      <c r="B227" s="26" t="s">
-        <v>339</v>
+      <c r="A227" s="46"/>
+      <c r="B227" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="40"/>
+      <c r="A228" s="46"/>
       <c r="B228" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="40"/>
+      <c r="A229" s="46"/>
       <c r="B229" s="28" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="40"/>
+      <c r="A230" s="46"/>
       <c r="B230" s="28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="40"/>
+      <c r="A231" s="46"/>
       <c r="B231" s="28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="40"/>
+      <c r="A232" s="46"/>
       <c r="B232" s="28" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="40"/>
+      <c r="A233" s="46"/>
       <c r="B233" s="28" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="40"/>
+      <c r="A234" s="46"/>
       <c r="B234" s="28" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="40"/>
-      <c r="B235" s="28" t="s">
-        <v>345</v>
+      <c r="A235" s="46"/>
+      <c r="B235" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="40"/>
+      <c r="A236" s="46"/>
       <c r="B236" s="28" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="40"/>
+    <row r="237" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="46"/>
       <c r="B237" s="28" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="40"/>
-      <c r="B238" s="26" t="s">
-        <v>348</v>
+      <c r="A238" s="46"/>
+      <c r="B238" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="40"/>
-      <c r="B239" s="28" t="s">
-        <v>349</v>
-      </c>
+      <c r="A239" s="46"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="21"/>
       <c r="D239" s="23"/>
     </row>
-    <row r="240" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="40"/>
-      <c r="B240" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="C240" s="21"/>
-      <c r="D240" s="23"/>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="46">
+        <v>6</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C240" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="40"/>
-      <c r="B241" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C241" s="21"/>
+      <c r="A241" s="46"/>
+      <c r="B241" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C241" s="48"/>
       <c r="D241" s="23"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="40"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="21"/>
+      <c r="A242" s="46"/>
+      <c r="B242" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C242" s="48"/>
       <c r="D242" s="23"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="40">
-        <v>6</v>
-      </c>
-      <c r="B243" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="C243" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>353</v>
-      </c>
+      <c r="A243" s="46"/>
+      <c r="B243" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C243" s="48"/>
+      <c r="D243" s="23"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="40"/>
+      <c r="A244" s="46"/>
       <c r="B244" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C244" s="41"/>
+        <v>357</v>
+      </c>
+      <c r="C244" s="48"/>
       <c r="D244" s="23"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="40"/>
+      <c r="A245" s="46"/>
       <c r="B245" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C245" s="41"/>
+        <v>358</v>
+      </c>
+      <c r="C245" s="48"/>
       <c r="D245" s="23"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="40"/>
+      <c r="A246" s="46"/>
       <c r="B246" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="C246" s="41"/>
+        <v>359</v>
+      </c>
+      <c r="C246" s="48"/>
       <c r="D246" s="23"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="40"/>
+      <c r="A247" s="46"/>
       <c r="B247" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="C247" s="41"/>
+        <v>360</v>
+      </c>
+      <c r="C247" s="48"/>
       <c r="D247" s="23"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="40"/>
+      <c r="A248" s="46"/>
       <c r="B248" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="C248" s="41"/>
+        <v>361</v>
+      </c>
+      <c r="C248" s="48"/>
       <c r="D248" s="23"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="40"/>
-      <c r="B249" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C249" s="41"/>
+      <c r="A249" s="46"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="48"/>
       <c r="D249" s="23"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="40"/>
-      <c r="B250" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="C250" s="41"/>
-      <c r="D250" s="23"/>
+      <c r="A250" s="23">
+        <v>1</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="40"/>
-      <c r="B251" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="C251" s="41"/>
+      <c r="A251" s="23">
+        <v>2</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>241</v>
+      </c>
       <c r="D251" s="23"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="40"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="41"/>
-      <c r="D252" s="23"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="23">
+        <v>3</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C254" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D254" s="23"/>
+      <c r="D254" s="23" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
-        <v>3</v>
-      </c>
-      <c r="B255" s="25" t="s">
-        <v>365</v>
+        <v>6</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
-        <v>4</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>367</v>
+        <v>7</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A257" s="23">
+        <v>8</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D257" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="23">
+        <v>9</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="23"/>
+      <c r="B259" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C259" s="23"/>
+      <c r="D259" s="17"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="46">
+        <v>1</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C260" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A261" s="46"/>
+      <c r="B261" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C261" s="48"/>
+      <c r="D261" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="46"/>
+      <c r="B262" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C262" s="48"/>
+      <c r="D262" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="46"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="48"/>
+      <c r="D263" s="23"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="46">
+        <v>2</v>
+      </c>
+      <c r="B264" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C264" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="46"/>
+      <c r="B265" s="48"/>
+      <c r="C265" s="48"/>
+      <c r="D265" s="23"/>
+    </row>
+    <row r="266" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="46">
+        <v>3</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C266" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="23"/>
+    </row>
+    <row r="267" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A267" s="46"/>
+      <c r="B267" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C267" s="48"/>
+      <c r="D267" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="46"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="48"/>
+      <c r="D268" s="23"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="46">
+        <v>4</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C269" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="46"/>
+      <c r="B270" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C270" s="48"/>
+      <c r="D270" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="46"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="48"/>
+      <c r="D271" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="46">
         <v>5</v>
       </c>
-      <c r="B257" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="23">
+      <c r="B272" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C272" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="46"/>
+      <c r="B273" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C273" s="48"/>
+      <c r="D273" s="23"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="46"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="48"/>
+      <c r="D274" s="23"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="23">
         <v>6</v>
       </c>
-      <c r="B258" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="23">
+      <c r="B275" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="23">
         <v>7</v>
       </c>
-      <c r="B259" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="23">
-        <v>8</v>
-      </c>
-      <c r="B260" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C260" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="23">
-        <v>9</v>
-      </c>
-      <c r="B261" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D261" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="23"/>
-      <c r="B262" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C262" s="23"/>
-      <c r="D262" s="17"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="40">
+      <c r="B276" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="46">
         <v>1</v>
       </c>
-      <c r="B263" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C263" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A264" s="40"/>
-      <c r="B264" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C264" s="41"/>
-      <c r="D264" s="23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="40"/>
-      <c r="B265" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C265" s="41"/>
-      <c r="D265" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="40"/>
-      <c r="B266" s="22"/>
-      <c r="C266" s="41"/>
-      <c r="D266" s="23"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="40">
+      <c r="B277" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C277" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="46"/>
+      <c r="B278" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C278" s="48"/>
+      <c r="D278" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="46"/>
+      <c r="B279" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C279" s="48"/>
+      <c r="D279" s="23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="46">
         <v>2</v>
       </c>
-      <c r="B267" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="C267" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="40"/>
-      <c r="B268" s="41"/>
-      <c r="C268" s="41"/>
-      <c r="D268" s="23"/>
-    </row>
-    <row r="269" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="40">
+      <c r="B280" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D280" s="23"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="46"/>
+      <c r="B281" s="49"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="23"/>
+    </row>
+    <row r="282" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="46"/>
+      <c r="B282" s="49"/>
+      <c r="C282" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="46">
         <v>3</v>
       </c>
-      <c r="B269" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C269" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D269" s="23"/>
-    </row>
-    <row r="270" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A270" s="40"/>
-      <c r="B270" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="C270" s="41"/>
-      <c r="D270" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="40"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="41"/>
-      <c r="D271" s="23"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="40">
-        <v>4</v>
-      </c>
-      <c r="B272" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C272" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="40"/>
-      <c r="B273" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C273" s="41"/>
-      <c r="D273" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="40"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="41"/>
-      <c r="D274" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="40">
-        <v>5</v>
-      </c>
-      <c r="B275" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C275" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="40"/>
-      <c r="B276" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C276" s="41"/>
-      <c r="D276" s="23"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="40"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="41"/>
-      <c r="D277" s="23"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="23">
-        <v>6</v>
-      </c>
-      <c r="B278" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="23">
-        <v>7</v>
-      </c>
-      <c r="B279" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="40">
-        <v>1</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C280" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D280" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="40"/>
-      <c r="B281" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C281" s="41"/>
-      <c r="D281" s="23" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="40"/>
-      <c r="B282" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C282" s="41"/>
-      <c r="D282" s="23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="40">
-        <v>2</v>
-      </c>
-      <c r="B283" s="42" t="s">
-        <v>407</v>
+      <c r="B283" s="47" t="s">
+        <v>409</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D283" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="40"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="46"/>
+      <c r="B284" s="47"/>
       <c r="C284" s="22"/>
       <c r="D284" s="23"/>
     </row>
-    <row r="285" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="40"/>
-      <c r="B285" s="42"/>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="46"/>
+      <c r="B285" s="47"/>
       <c r="C285" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="40">
-        <v>3</v>
-      </c>
-      <c r="B286" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>50</v>
+        <v>411</v>
+      </c>
+      <c r="D285" s="23"/>
+    </row>
+    <row r="286" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="46">
+        <v>4</v>
+      </c>
+      <c r="B286" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C286" s="48" t="s">
+        <v>413</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="40"/>
-      <c r="B287" s="43"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="23"/>
+      <c r="A287" s="46"/>
+      <c r="B287" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C287" s="48"/>
+      <c r="D287" s="23" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="40"/>
-      <c r="B288" s="43"/>
-      <c r="C288" s="22" t="s">
-        <v>411</v>
-      </c>
+      <c r="A288" s="46"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="48"/>
       <c r="D288" s="23"/>
     </row>
-    <row r="289" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="40">
-        <v>4</v>
-      </c>
-      <c r="B289" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C289" s="41" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="46">
+        <v>5</v>
+      </c>
+      <c r="B289" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C289" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="D289" s="23"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="46"/>
+      <c r="B290" s="49"/>
+      <c r="C290" s="48"/>
+      <c r="D290" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="46">
+        <v>6</v>
+      </c>
+      <c r="B291" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="C291" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D289" s="23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="40"/>
-      <c r="B290" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C290" s="41"/>
-      <c r="D290" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="40"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="41"/>
       <c r="D291" s="23"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="40">
-        <v>5</v>
-      </c>
-      <c r="B292" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="C292" s="41" t="s">
-        <v>418</v>
-      </c>
+      <c r="A292" s="46"/>
+      <c r="B292" s="49"/>
+      <c r="C292" s="48"/>
       <c r="D292" s="23"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="40"/>
-      <c r="B293" s="42"/>
-      <c r="C293" s="41"/>
+      <c r="A293" s="46">
+        <v>7</v>
+      </c>
+      <c r="B293" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C293" s="48" t="s">
+        <v>156</v>
+      </c>
       <c r="D293" s="23" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="40">
-        <v>6</v>
-      </c>
-      <c r="B294" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="C294" s="41" t="s">
-        <v>413</v>
-      </c>
+      <c r="A294" s="46"/>
+      <c r="B294" s="47"/>
+      <c r="C294" s="48"/>
       <c r="D294" s="23"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="40"/>
-      <c r="B295" s="42"/>
-      <c r="C295" s="41"/>
+      <c r="A295" s="46">
+        <v>8</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C295" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="D295" s="23"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="40">
-        <v>7</v>
-      </c>
-      <c r="B296" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="C296" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D296" s="23" t="s">
-        <v>422</v>
+      <c r="A296" s="46"/>
+      <c r="B296" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C296" s="48"/>
+      <c r="D296" s="30" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="40"/>
-      <c r="B297" s="43"/>
-      <c r="C297" s="41"/>
-      <c r="D297" s="23"/>
+      <c r="A297" s="46"/>
+      <c r="B297" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C297" s="48"/>
+      <c r="D297" s="30" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="40">
-        <v>8</v>
-      </c>
-      <c r="B298" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C298" s="41" t="s">
+      <c r="A298" s="46"/>
+      <c r="B298" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C298" s="48"/>
+      <c r="D298" s="30"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="46"/>
+      <c r="B299" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C299" s="48"/>
+      <c r="D299" s="30"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="46"/>
+      <c r="B300" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C300" s="48"/>
+      <c r="D300" s="23"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="46"/>
+      <c r="B301" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C301" s="48"/>
+      <c r="D301" s="30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="46"/>
+      <c r="B302" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C302" s="48"/>
+      <c r="D302" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="46"/>
+      <c r="B303" s="25"/>
+      <c r="C303" s="48"/>
+      <c r="D303" s="23"/>
+    </row>
+    <row r="304" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="46">
+        <v>9</v>
+      </c>
+      <c r="B304" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C304" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="46"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="23"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="23">
+        <v>10</v>
+      </c>
+      <c r="B306" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D306" s="30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="23">
+        <v>11</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C307" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D298" s="23"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="40"/>
-      <c r="B299" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C299" s="41"/>
-      <c r="D299" s="30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="40"/>
-      <c r="B300" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C300" s="41"/>
-      <c r="D300" s="30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="40"/>
-      <c r="B301" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C301" s="41"/>
-      <c r="D301" s="30"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="40"/>
-      <c r="B302" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C302" s="41"/>
-      <c r="D302" s="30"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="40"/>
-      <c r="B303" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C303" s="41"/>
-      <c r="D303" s="23"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="40"/>
-      <c r="B304" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C304" s="41"/>
-      <c r="D304" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="40"/>
-      <c r="B305" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C305" s="41"/>
-      <c r="D305" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="40"/>
-      <c r="B306" s="25"/>
-      <c r="C306" s="41"/>
-      <c r="D306" s="23"/>
-    </row>
-    <row r="307" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="40">
-        <v>9</v>
-      </c>
-      <c r="B307" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="C307" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D307" s="23" t="s">
-        <v>436</v>
+      <c r="D307" s="30" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="40"/>
-      <c r="B308" s="43"/>
-      <c r="C308" s="41"/>
-      <c r="D308" s="23"/>
+      <c r="A308" s="23">
+        <v>12</v>
+      </c>
+      <c r="B308" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" s="30" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="23">
-        <v>10</v>
-      </c>
-      <c r="B309" s="24" t="s">
-        <v>437</v>
+        <v>1</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="23">
-        <v>11</v>
-      </c>
-      <c r="B310" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>68</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="46">
+        <v>2</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C310" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="23">
-        <v>12</v>
-      </c>
-      <c r="B311" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C311" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D311" s="30" t="s">
-        <v>442</v>
-      </c>
+      <c r="A311" s="46"/>
+      <c r="B311" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C311" s="48"/>
+      <c r="D311" s="23"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="23">
-        <v>1</v>
-      </c>
+      <c r="A312" s="46"/>
       <c r="B312" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C312" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A313" s="40">
-        <v>2</v>
-      </c>
-      <c r="B313" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C312" s="48"/>
+      <c r="D312" s="23"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="46"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="48"/>
+      <c r="D313" s="23"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="46">
+        <v>3</v>
+      </c>
+      <c r="B314" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="C313" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="D313" s="30" t="s">
+      <c r="C314" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="40"/>
-      <c r="B314" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C314" s="41"/>
-      <c r="D314" s="23"/>
-    </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="40"/>
-      <c r="B315" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C315" s="41"/>
-      <c r="D315" s="23"/>
+      <c r="A315" s="46"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="48"/>
+      <c r="D315" s="30"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="40"/>
-      <c r="B316" s="25"/>
-      <c r="C316" s="41"/>
-      <c r="D316" s="23"/>
+      <c r="A316" s="23">
+        <v>4</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D316" s="30" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="40">
-        <v>3</v>
-      </c>
-      <c r="B317" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="C317" s="41" t="s">
-        <v>449</v>
+      <c r="A317" s="23">
+        <v>5</v>
+      </c>
+      <c r="B317" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="40"/>
-      <c r="B318" s="43"/>
-      <c r="C318" s="41"/>
-      <c r="D318" s="30"/>
+      <c r="A318" s="23">
+        <v>6</v>
+      </c>
+      <c r="B318" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D318" s="30" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B320" s="24" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D320" s="30" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="23">
-        <v>6</v>
-      </c>
-      <c r="B321" s="25" t="s">
-        <v>454</v>
+        <v>9</v>
+      </c>
+      <c r="B321" s="24" t="s">
+        <v>460</v>
       </c>
       <c r="C321" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="23">
+        <v>10</v>
+      </c>
+      <c r="B322" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D322" s="30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="23"/>
+      <c r="B323" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C323" s="23"/>
+      <c r="D323" s="17"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="46">
+        <v>1</v>
+      </c>
+      <c r="B324" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="C324" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="46"/>
+      <c r="B325" s="47"/>
+      <c r="C325" s="47"/>
+      <c r="D325" s="23"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="46">
+        <v>1</v>
+      </c>
+      <c r="B326" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C326" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326" s="23"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="46"/>
+      <c r="B327" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C327" s="48"/>
+      <c r="D327" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="46"/>
+      <c r="B328" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C328" s="48"/>
+      <c r="D328" s="23"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="46"/>
+      <c r="B329" s="25"/>
+      <c r="C329" s="48"/>
+      <c r="D329" s="23"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="46"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="48"/>
+      <c r="D330" s="23"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="46"/>
+      <c r="B331" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C331" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D331" s="30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="46"/>
+      <c r="B332" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C332" s="48"/>
+      <c r="D332" s="23"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="46"/>
+      <c r="B333" s="25"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="23"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="46"/>
+      <c r="B334" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C334" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D334" s="30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="46"/>
+      <c r="B335" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C335" s="22"/>
+      <c r="D335" s="23"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="46"/>
+      <c r="B336" s="25"/>
+      <c r="C336" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D336" s="23"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="46">
+        <v>2</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C337" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D337" s="30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="46"/>
+      <c r="B338" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C338" s="48"/>
+      <c r="D338" s="23"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="46"/>
+      <c r="B339" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C339" s="48"/>
+      <c r="D339" s="23"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="46"/>
+      <c r="B340" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C340" s="48"/>
+      <c r="D340" s="23"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="46"/>
+      <c r="B341" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C341" s="48"/>
+      <c r="D341" s="23"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="46"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="48"/>
+      <c r="D342" s="23"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="46">
+        <v>3</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C343" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D343" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="46"/>
+      <c r="B344" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C344" s="48"/>
+      <c r="D344" s="23"/>
+    </row>
+    <row r="345" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A345" s="46"/>
+      <c r="B345" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C345" s="48"/>
+      <c r="D345" s="30" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="46"/>
+      <c r="B346" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="C346" s="48"/>
+      <c r="D346" s="23"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="46"/>
+      <c r="B347" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C347" s="48"/>
+      <c r="D347" s="23"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="46"/>
+      <c r="B348" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C348" s="48"/>
+      <c r="D348" s="23"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="46"/>
+      <c r="B349" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C349" s="48"/>
+      <c r="D349" s="23"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="46"/>
+      <c r="B350" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C350" s="48"/>
+      <c r="D350" s="23"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="46"/>
+      <c r="B351" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C351" s="48"/>
+      <c r="D351" s="23"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="46"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="48"/>
+      <c r="D352" s="23"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="46">
         <v>7</v>
       </c>
-      <c r="B322" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="C322" s="22" t="s">
+      <c r="B353" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="C353" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D353" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="46"/>
+      <c r="B354" s="47"/>
+      <c r="C354" s="48"/>
+      <c r="D354" s="23"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="23">
+        <v>9</v>
+      </c>
+      <c r="B355" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C355" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D355" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="46">
+        <v>10</v>
+      </c>
+      <c r="B356" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C356" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" s="30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="46"/>
+      <c r="B357" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C357" s="48"/>
+      <c r="D357" s="23"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="46"/>
+      <c r="B358" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C358" s="48"/>
+      <c r="D358" s="23"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="46"/>
+      <c r="B359" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C359" s="48"/>
+      <c r="D359" s="23"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="46"/>
+      <c r="B360" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C360" s="48"/>
+      <c r="D360" s="23"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="46"/>
+      <c r="B361" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C361" s="48"/>
+      <c r="D361" s="23"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="46">
+        <v>11</v>
+      </c>
+      <c r="B362" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="C362" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D362" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="46"/>
+      <c r="B363" s="47"/>
+      <c r="C363" s="48"/>
+      <c r="D363" s="23"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="23">
+        <v>12</v>
+      </c>
+      <c r="B364" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D364" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="23">
+        <v>1</v>
+      </c>
+      <c r="B365" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C365" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D365" s="30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="23">
+        <v>2</v>
+      </c>
+      <c r="B366" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C366" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D366" s="30" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="46">
+        <v>3</v>
+      </c>
+      <c r="B367" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C367" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D322" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="23">
+      <c r="D367" s="30" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="46"/>
+      <c r="B368" s="47"/>
+      <c r="C368" s="48"/>
+      <c r="D368" s="23"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="46">
+        <v>4</v>
+      </c>
+      <c r="B369" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C369" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D369" s="30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="46"/>
+      <c r="B370" s="49"/>
+      <c r="C370" s="48"/>
+      <c r="D370" s="23"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="23">
+        <v>5</v>
+      </c>
+      <c r="B371" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C371" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D371" s="30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="23">
+        <v>6</v>
+      </c>
+      <c r="B372" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D372" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="23">
+        <v>7</v>
+      </c>
+      <c r="B373" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C373" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D373" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="23"/>
+      <c r="B374" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="C374" s="23"/>
+      <c r="D374" s="17"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="46">
+        <v>1</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C375" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="D375" s="30" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A376" s="46"/>
+      <c r="B376" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C376" s="48"/>
+      <c r="D376" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="23">
+        <v>1</v>
+      </c>
+      <c r="B377" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C377" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D377" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="23">
+        <v>2</v>
+      </c>
+      <c r="B378" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C378" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D378" s="30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="46">
+        <v>3</v>
+      </c>
+      <c r="B379" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C379" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D379" s="30" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="46"/>
+      <c r="B380" s="48"/>
+      <c r="C380" s="48"/>
+      <c r="D380" s="17"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="23"/>
+      <c r="B381" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="C381" s="23"/>
+      <c r="D381" s="17"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="23">
+        <v>1</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C382" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D382" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="23">
+        <v>3</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C383" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D383" s="30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="46">
+        <v>4</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C384" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="46"/>
+      <c r="B385" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C385" s="48"/>
+      <c r="D385" s="23"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="46"/>
+      <c r="B386" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C386" s="48"/>
+      <c r="D386" s="23"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="46"/>
+      <c r="B387" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C387" s="48"/>
+      <c r="D387" s="23"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="46"/>
+      <c r="B388" s="25"/>
+      <c r="C388" s="48"/>
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="46">
+        <v>5</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C389" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D389" s="30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="46"/>
+      <c r="B390" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C390" s="48"/>
+      <c r="D390" s="23"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="46"/>
+      <c r="B391" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C391" s="48"/>
+      <c r="D391" s="23"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="46">
+        <v>6</v>
+      </c>
+      <c r="B392" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C392" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="46"/>
+      <c r="B393" s="47"/>
+      <c r="C393" s="48"/>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="46">
+        <v>7</v>
+      </c>
+      <c r="B394" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C394" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" s="30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="46"/>
+      <c r="B395" s="47"/>
+      <c r="C395" s="48"/>
+      <c r="D395" s="23"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="46">
         <v>8</v>
       </c>
-      <c r="B323" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C323" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D323" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="23">
-        <v>9</v>
-      </c>
-      <c r="B324" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="C324" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D324" s="30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="23">
-        <v>10</v>
-      </c>
-      <c r="B325" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C325" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D325" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="23"/>
-      <c r="B326" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C326" s="23"/>
-      <c r="D326" s="17"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="40">
+      <c r="B396" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C396" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="D396" s="30" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="46"/>
+      <c r="B397" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C397" s="48"/>
+      <c r="D397" s="23"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="46"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="48"/>
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="46">
         <v>1</v>
       </c>
-      <c r="B327" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="C327" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D327" s="23" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="40"/>
-      <c r="B328" s="43"/>
-      <c r="C328" s="43"/>
-      <c r="D328" s="23"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="40">
-        <v>1</v>
-      </c>
-      <c r="B329" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C329" s="41" t="s">
+      <c r="B399" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="C399" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D329" s="23"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="40"/>
-      <c r="B330" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C330" s="41"/>
-      <c r="D330" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="40"/>
-      <c r="B331" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C331" s="41"/>
-      <c r="D331" s="23"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="40"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="41"/>
-      <c r="D332" s="23"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="40"/>
-      <c r="B333" s="25"/>
-      <c r="C333" s="41"/>
-      <c r="D333" s="23"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="40"/>
-      <c r="B334" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C334" s="41" t="s">
+      <c r="D399" s="30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="46"/>
+      <c r="B400" s="47"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="23">
+        <v>2</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C401" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D334" s="30" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="40"/>
-      <c r="B335" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C335" s="41"/>
-      <c r="D335" s="23"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="40"/>
-      <c r="B336" s="25"/>
-      <c r="C336" s="41"/>
-      <c r="D336" s="23"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="40"/>
-      <c r="B337" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C337" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="40"/>
-      <c r="B338" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C338" s="22"/>
-      <c r="D338" s="23"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="40"/>
-      <c r="B339" s="25"/>
-      <c r="C339" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D339" s="23"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="40">
-        <v>2</v>
-      </c>
-      <c r="B340" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C340" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="D340" s="30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="40"/>
-      <c r="B341" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C341" s="41"/>
-      <c r="D341" s="23"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="40"/>
-      <c r="B342" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C342" s="41"/>
-      <c r="D342" s="23"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="40"/>
-      <c r="B343" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C343" s="41"/>
-      <c r="D343" s="23"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="40"/>
-      <c r="B344" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C344" s="41"/>
-      <c r="D344" s="23"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="40"/>
-      <c r="B345" s="25"/>
-      <c r="C345" s="41"/>
-      <c r="D345" s="23"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="40">
+      <c r="D401" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="23">
         <v>3</v>
       </c>
-      <c r="B346" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C346" s="41" t="s">
+      <c r="B402" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C402" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D402" s="23"/>
+    </row>
+    <row r="403" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A403" s="23">
+        <v>4</v>
+      </c>
+      <c r="B403" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C403" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D346" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="40"/>
-      <c r="B347" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C347" s="41"/>
-      <c r="D347" s="23"/>
-    </row>
-    <row r="348" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A348" s="40"/>
-      <c r="B348" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C348" s="41"/>
-      <c r="D348" s="30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="40"/>
-      <c r="B349" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C349" s="41"/>
-      <c r="D349" s="23"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="40"/>
-      <c r="B350" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C350" s="41"/>
-      <c r="D350" s="23"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="40"/>
-      <c r="B351" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C351" s="41"/>
-      <c r="D351" s="23"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="40"/>
-      <c r="B352" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C352" s="41"/>
-      <c r="D352" s="23"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="40"/>
-      <c r="B353" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C353" s="41"/>
-      <c r="D353" s="23"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="40"/>
-      <c r="B354" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="C354" s="41"/>
-      <c r="D354" s="23"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="40"/>
-      <c r="B355" s="25"/>
-      <c r="C355" s="41"/>
-      <c r="D355" s="23"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="40">
-        <v>7</v>
-      </c>
-      <c r="B356" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C356" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D356" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="40"/>
-      <c r="B357" s="43"/>
-      <c r="C357" s="41"/>
-      <c r="D357" s="23"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="23">
-        <v>9</v>
-      </c>
-      <c r="B358" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D358" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="40">
-        <v>10</v>
-      </c>
-      <c r="B359" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C359" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D359" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="40"/>
-      <c r="B360" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C360" s="41"/>
-      <c r="D360" s="23"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="40"/>
-      <c r="B361" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="C361" s="41"/>
-      <c r="D361" s="23"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="40"/>
-      <c r="B362" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C362" s="41"/>
-      <c r="D362" s="23"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="40"/>
-      <c r="B363" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C363" s="41"/>
-      <c r="D363" s="23"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="40"/>
-      <c r="B364" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C364" s="41"/>
-      <c r="D364" s="23"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="40">
-        <v>11</v>
-      </c>
-      <c r="B365" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="C365" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="D365" s="23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="40"/>
-      <c r="B366" s="43"/>
-      <c r="C366" s="41"/>
-      <c r="D366" s="23"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="23">
-        <v>12</v>
-      </c>
-      <c r="B367" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C367" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D367" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="23">
-        <v>1</v>
-      </c>
-      <c r="B368" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C368" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D368" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="23">
-        <v>2</v>
-      </c>
-      <c r="B369" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C369" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D369" s="30" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="40">
-        <v>3</v>
-      </c>
-      <c r="B370" s="43" t="s">
-        <v>511</v>
-      </c>
-      <c r="C370" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D370" s="30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="40"/>
-      <c r="B371" s="43"/>
-      <c r="C371" s="41"/>
-      <c r="D371" s="23"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="40">
-        <v>4</v>
-      </c>
-      <c r="B372" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="C372" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D372" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="40"/>
-      <c r="B373" s="42"/>
-      <c r="C373" s="41"/>
-      <c r="D373" s="23"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="23">
-        <v>5</v>
-      </c>
-      <c r="B374" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C374" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D374" s="30" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="23">
-        <v>6</v>
-      </c>
-      <c r="B375" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C375" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D375" s="30" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="23">
-        <v>7</v>
-      </c>
-      <c r="B376" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D376" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="23"/>
-      <c r="B377" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="C377" s="23"/>
-      <c r="D377" s="17"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="40">
-        <v>1</v>
-      </c>
-      <c r="B378" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C378" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="D378" s="30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A379" s="40"/>
-      <c r="B379" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C379" s="41"/>
-      <c r="D379" s="30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="23">
-        <v>1</v>
-      </c>
-      <c r="B380" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C380" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D380" s="30" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="23">
-        <v>2</v>
-      </c>
-      <c r="B381" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C381" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D381" s="30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="40">
-        <v>3</v>
-      </c>
-      <c r="B382" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="C382" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D382" s="30" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="40"/>
-      <c r="B383" s="41"/>
-      <c r="C383" s="41"/>
-      <c r="D383" s="17"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="23"/>
-      <c r="B384" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="C384" s="23"/>
-      <c r="D384" s="17"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="23">
-        <v>1</v>
-      </c>
-      <c r="B385" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C385" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D385" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="23">
-        <v>3</v>
-      </c>
-      <c r="B386" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C386" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D386" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="40">
-        <v>4</v>
-      </c>
-      <c r="B387" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C387" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D387" s="30" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="40"/>
-      <c r="B388" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C388" s="41"/>
-      <c r="D388" s="23"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="40"/>
-      <c r="B389" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C389" s="41"/>
-      <c r="D389" s="23"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="40"/>
-      <c r="B390" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C390" s="41"/>
-      <c r="D390" s="23"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="40"/>
-      <c r="B391" s="25"/>
-      <c r="C391" s="41"/>
-      <c r="D391" s="23"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="40">
-        <v>5</v>
-      </c>
-      <c r="B392" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C392" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D392" s="30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="40"/>
-      <c r="B393" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C393" s="41"/>
-      <c r="D393" s="23"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="40"/>
-      <c r="B394" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C394" s="41"/>
-      <c r="D394" s="23"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="40">
-        <v>6</v>
-      </c>
-      <c r="B395" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="C395" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D395" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="40"/>
-      <c r="B396" s="43"/>
-      <c r="C396" s="41"/>
-      <c r="D396" s="23"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="40">
-        <v>7</v>
-      </c>
-      <c r="B397" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="C397" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D397" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="40"/>
-      <c r="B398" s="43"/>
-      <c r="C398" s="41"/>
-      <c r="D398" s="23"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="40">
-        <v>8</v>
-      </c>
-      <c r="B399" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C399" s="41" t="s">
-        <v>552</v>
-      </c>
-      <c r="D399" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="40"/>
-      <c r="B400" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C400" s="41"/>
-      <c r="D400" s="23"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="40"/>
-      <c r="B401" s="20"/>
-      <c r="C401" s="41"/>
-      <c r="D401" s="23"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="40">
-        <v>1</v>
-      </c>
-      <c r="B402" s="43" t="s">
-        <v>555</v>
-      </c>
-      <c r="C402" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D402" s="30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="40"/>
-      <c r="B403" s="43"/>
-      <c r="C403" s="41"/>
-      <c r="D403" s="23"/>
+      <c r="D403" s="30" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A405" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C405" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D405" s="23"/>
-    </row>
-    <row r="406" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D405" s="30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="23">
+        <v>6</v>
+      </c>
+      <c r="B406" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C406" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D406" s="30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A407" s="23">
+        <v>7</v>
+      </c>
+      <c r="B407" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C407" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D407" s="23"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="46">
+        <v>1</v>
+      </c>
+      <c r="B408" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="C408" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D408" s="30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="46"/>
+      <c r="B409" s="47"/>
+      <c r="C409" s="48"/>
+      <c r="D409" s="23"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="46">
+        <v>2</v>
+      </c>
+      <c r="B410" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="C410" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D410" s="30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="46"/>
+      <c r="B411" s="47"/>
+      <c r="C411" s="48"/>
+      <c r="D411" s="23"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="23">
+        <v>3</v>
+      </c>
+      <c r="B412" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C412" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D412" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="46">
         <v>4</v>
       </c>
-      <c r="B406" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C406" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D406" s="30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="23">
-        <v>4</v>
-      </c>
-      <c r="B407" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C407" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D407" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A408" s="23">
+      <c r="B413" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C413" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D413" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="46"/>
+      <c r="B414" s="47"/>
+      <c r="C414" s="48"/>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="415" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="46">
         <v>5</v>
       </c>
-      <c r="B408" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C408" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D408" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="23">
-        <v>6</v>
-      </c>
-      <c r="B409" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C409" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D409" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A410" s="23">
-        <v>7</v>
-      </c>
-      <c r="B410" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C410" s="22" t="s">
+      <c r="B415" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C415" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D415" s="30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="46"/>
+      <c r="B416" s="47"/>
+      <c r="C416" s="48"/>
+      <c r="D416" s="23"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="23"/>
+      <c r="B417" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="C417" s="23"/>
+      <c r="D417" s="17"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="46">
+        <v>1</v>
+      </c>
+      <c r="B418" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C418" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D410" s="23"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="40">
+      <c r="D418" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="46"/>
+      <c r="B419" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C419" s="47"/>
+      <c r="D419" s="17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="46"/>
+      <c r="B420" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C420" s="47"/>
+      <c r="D420" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="46"/>
+      <c r="B421" s="25"/>
+      <c r="C421" s="47"/>
+      <c r="D421" s="17"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="46">
         <v>1</v>
       </c>
-      <c r="B411" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D411" s="30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="40"/>
-      <c r="B412" s="43"/>
-      <c r="C412" s="41"/>
-      <c r="D412" s="23"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="40">
-        <v>2</v>
-      </c>
-      <c r="B413" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="C413" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="D413" s="30" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="40"/>
-      <c r="B414" s="43"/>
-      <c r="C414" s="41"/>
-      <c r="D414" s="23"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="23">
-        <v>3</v>
-      </c>
-      <c r="B415" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="C415" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D415" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="40">
-        <v>4</v>
-      </c>
-      <c r="B416" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="C416" s="41" t="s">
-        <v>575</v>
-      </c>
-      <c r="D416" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="40"/>
-      <c r="B417" s="43"/>
-      <c r="C417" s="41"/>
-      <c r="D417" s="23"/>
-    </row>
-    <row r="418" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="40">
-        <v>5</v>
-      </c>
-      <c r="B418" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="C418" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D418" s="30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="40"/>
-      <c r="B419" s="43"/>
-      <c r="C419" s="41"/>
-      <c r="D419" s="23"/>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="23"/>
-      <c r="B420" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="C420" s="23"/>
-      <c r="D420" s="17"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="40">
-        <v>1</v>
-      </c>
-      <c r="B421" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C421" s="43" t="s">
+      <c r="B422" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C422" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D421" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="40"/>
-      <c r="B422" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C422" s="43"/>
       <c r="D422" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="40"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A423" s="46"/>
       <c r="B423" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C423" s="43"/>
+        <v>587</v>
+      </c>
+      <c r="C423" s="47"/>
       <c r="D423" s="17" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="40"/>
+      <c r="A424" s="46"/>
       <c r="B424" s="25"/>
-      <c r="C424" s="43"/>
+      <c r="C424" s="47"/>
       <c r="D424" s="17"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="40">
+      <c r="A425" s="46">
         <v>1</v>
       </c>
       <c r="B425" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C425" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="C425" s="47" t="s">
         <v>132</v>
       </c>
       <c r="D425" s="17" t="s">
@@ -10321,277 +10438,83 @@
       </c>
     </row>
     <row r="426" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A426" s="40"/>
+      <c r="A426" s="46"/>
       <c r="B426" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C426" s="43"/>
+        <v>589</v>
+      </c>
+      <c r="C426" s="47"/>
       <c r="D426" s="17" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="40"/>
+      <c r="A427" s="46"/>
       <c r="B427" s="25"/>
-      <c r="C427" s="43"/>
+      <c r="C427" s="47"/>
       <c r="D427" s="17"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="40">
-        <v>1</v>
-      </c>
-      <c r="B428" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C428" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D428" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A429" s="40"/>
-      <c r="B429" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C429" s="43"/>
-      <c r="D429" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="40"/>
-      <c r="B430" s="25"/>
-      <c r="C430" s="43"/>
-      <c r="D430" s="17"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="15"/>
-      <c r="B431" s="14"/>
-      <c r="C431" s="14"/>
+      <c r="A428" s="15"/>
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D261" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="291">
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A421:A424"/>
-    <mergeCell ref="C421:C424"/>
-    <mergeCell ref="A425:A427"/>
-    <mergeCell ref="C425:C427"/>
-    <mergeCell ref="A428:A430"/>
-    <mergeCell ref="C428:C430"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="A411:A412"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="C411:C412"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="B413:B414"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="A399:A401"/>
-    <mergeCell ref="C399:C401"/>
-    <mergeCell ref="A402:A403"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="C402:C403"/>
-    <mergeCell ref="A387:A391"/>
-    <mergeCell ref="C387:C391"/>
-    <mergeCell ref="A392:A394"/>
-    <mergeCell ref="C392:C394"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="C372:C373"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="A346:A355"/>
-    <mergeCell ref="C346:C355"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="C359:C364"/>
-    <mergeCell ref="A329:A333"/>
-    <mergeCell ref="C329:C333"/>
-    <mergeCell ref="A334:A336"/>
-    <mergeCell ref="C334:C336"/>
-    <mergeCell ref="A337:A339"/>
-    <mergeCell ref="A340:A345"/>
-    <mergeCell ref="C340:C345"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="A327:A328"/>
-    <mergeCell ref="B327:B328"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="A298:A306"/>
-    <mergeCell ref="C298:C306"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="A283:A285"/>
-    <mergeCell ref="B283:B285"/>
-    <mergeCell ref="A286:A288"/>
-    <mergeCell ref="B286:B288"/>
-    <mergeCell ref="A289:A291"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="A280:A282"/>
-    <mergeCell ref="C280:C282"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="A200:A204"/>
-    <mergeCell ref="A205:A214"/>
-    <mergeCell ref="A215:A242"/>
-    <mergeCell ref="A243:A252"/>
-    <mergeCell ref="C243:C252"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="A196:A199"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
+  <autoFilter ref="A1:D258" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
+  <mergeCells count="296">
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10616,55 +10539,224 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A239"/>
+    <mergeCell ref="A240:A249"/>
+    <mergeCell ref="C240:C249"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A280:A282"/>
+    <mergeCell ref="B280:B282"/>
+    <mergeCell ref="A283:A285"/>
+    <mergeCell ref="B283:B285"/>
+    <mergeCell ref="A286:A288"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="C260:C263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="C295:C303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="A326:A330"/>
+    <mergeCell ref="C326:C330"/>
+    <mergeCell ref="A331:A333"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="A334:A336"/>
+    <mergeCell ref="A337:A342"/>
+    <mergeCell ref="C337:C342"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="A343:A352"/>
+    <mergeCell ref="C343:C352"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A356:A361"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="A384:A388"/>
+    <mergeCell ref="C384:C388"/>
+    <mergeCell ref="A389:A391"/>
+    <mergeCell ref="C389:C391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="A369:A370"/>
+    <mergeCell ref="B369:B370"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="A396:A398"/>
+    <mergeCell ref="C396:C398"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="A418:A421"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="A422:A424"/>
+    <mergeCell ref="C422:C424"/>
+    <mergeCell ref="A425:A427"/>
+    <mergeCell ref="C425:C427"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="A415:A416"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14249,21 +14341,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEBC747F347A034FA0018CAF7D99052D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f062dc1f9491f3faec7cf0ae28391ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c9ab29b-20bf-44a4-a666-f4222d918f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78db0b84c272b9d2637594810e5a6fb9" ns2:_="">
     <xsd:import namespace="1c9ab29b-20bf-44a4-a666-f4222d918f76"/>
@@ -14433,24 +14510,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D319-703A-4107-B71F-1050E487FBEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14466,4 +14541,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBD7A5-D088-447C-A65F-14CE73AF5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC37960-1FAF-4B09-A3FF-3EC3D26D7A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FSD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FSD!$A$1:$E$209</definedName>
     <definedName name="_Toc31101033" localSheetId="0">BRD!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="907">
   <si>
     <t>No</t>
   </si>
@@ -4992,6 +4992,21 @@
   </si>
   <si>
     <t>Resolusi.DocPertanggungJawabanTL, Resolusi.PengakhiranLikuidasi</t>
+  </si>
+  <si>
+    <t>FU.Workflow</t>
+  </si>
+  <si>
+    <t>Resolusi.PengajuanRKAB, Resolusi.TimLikuidasi, Resolusi.PICKegiatan, Penjaminan.Bank, Resolusi.Periode.BDL</t>
+  </si>
+  <si>
+    <t>Resolusi.PembubaranBadanHukum, FU.Repository, Resolusi.DocBadanHukum</t>
+  </si>
+  <si>
+    <t>Resolusi.KewajibanPegawai, Resolusi.PengurusBDL, Resolusi.PengajuanPesangon, Resolusi.TransaksiDanaTalangan</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.PengirimanUndanganKAP, Resolusi.JenisKAP, FU.Repository, Resolusi.NeracaPenutupAudit</t>
   </si>
 </sst>
 </file>
@@ -5150,7 +5165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5268,29 +5283,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5606,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166:E167"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5640,7 +5658,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5653,7 +5671,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5666,7 +5684,7 @@
       <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5677,7 +5695,7 @@
       <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5688,13 +5706,13 @@
       <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="45">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -5705,22 +5723,22 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="17"/>
       <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+      <c r="A8" s="45">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
@@ -5729,57 +5747,57 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+      <c r="A13" s="45">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -5790,22 +5808,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="17"/>
       <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="A15" s="45">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -5816,22 +5834,22 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="17"/>
       <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
+      <c r="A17" s="45">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
@@ -5840,131 +5858,131 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
+      <c r="A19" s="45">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="52" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="45">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="52" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="51">
+      <c r="A24" s="45">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="52" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="51">
+      <c r="A26" s="45">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="46" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="52" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
+      <c r="A28" s="47">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -5974,12 +5992,12 @@
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="52" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
@@ -5987,10 +6005,10 @@
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+      <c r="A30" s="47">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6000,12 +6018,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="52" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6013,10 +6031,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6026,19 +6044,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="45"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="47">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6053,7 +6071,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6064,7 +6082,7 @@
       <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6093,7 @@
       <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+      <c r="A37" s="47">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -6090,7 +6108,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
@@ -6101,7 +6119,7 @@
       <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="47">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6116,7 +6134,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6127,7 +6145,7 @@
       <c r="E40" s="44"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6140,7 +6158,7 @@
       <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="46">
+      <c r="A42" s="47">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -6157,7 +6175,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
@@ -6166,7 +6184,7 @@
       <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="46">
+      <c r="A44" s="47">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -6181,7 +6199,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
@@ -6192,7 +6210,7 @@
       <c r="E45" s="44"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
@@ -6203,7 +6221,7 @@
       <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="47">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -6218,7 +6236,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
@@ -6229,7 +6247,7 @@
       <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
@@ -6240,7 +6258,7 @@
       <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
@@ -6251,7 +6269,7 @@
       <c r="E50" s="44"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
@@ -6262,7 +6280,7 @@
       <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="46">
+      <c r="A52" s="47">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6277,7 +6295,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6288,7 +6306,7 @@
       <c r="E53" s="44"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6301,7 +6319,7 @@
       <c r="E54" s="44"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6312,7 +6330,7 @@
       <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6323,7 +6341,7 @@
       <c r="E56" s="44"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
+      <c r="A57" s="47">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
@@ -6338,7 +6356,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
@@ -6349,7 +6367,7 @@
       <c r="E58" s="44"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
@@ -6360,7 +6378,7 @@
       <c r="E59" s="44"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="46">
+      <c r="A60" s="47">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
@@ -6375,7 +6393,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
@@ -6386,7 +6404,7 @@
       <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="46">
+      <c r="A62" s="47">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
@@ -6401,7 +6419,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
@@ -6412,7 +6430,7 @@
       <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="46">
+      <c r="A64" s="47">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
@@ -6427,7 +6445,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
@@ -6438,7 +6456,7 @@
       <c r="E65" s="44"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="46">
+      <c r="A66" s="47">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
@@ -6453,7 +6471,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
@@ -6464,7 +6482,7 @@
       <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="46">
+      <c r="A68" s="47">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6479,7 +6497,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
@@ -6499,10 +6517,10 @@
       <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="46">
+      <c r="A71" s="47">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="50" t="s">
         <v>118</v>
       </c>
       <c r="C71" s="48" t="s">
@@ -6516,8 +6534,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="48"/>
       <c r="D72" s="17"/>
       <c r="E72" s="44"/>
@@ -6557,10 +6575,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="46">
+      <c r="A75" s="47">
         <v>4</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="50" t="s">
         <v>124</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -6574,17 +6592,17 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="48"/>
       <c r="D76" s="17"/>
       <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="46">
+      <c r="A77" s="47">
         <v>5</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="48" t="s">
@@ -6596,8 +6614,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
-      <c r="B78" s="49"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="48"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
@@ -6605,10 +6623,10 @@
       <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="46">
+      <c r="A79" s="47">
         <v>6</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="50" t="s">
         <v>129</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -6620,8 +6638,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="48"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
@@ -6646,7 +6664,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="46">
+      <c r="A82" s="47">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
@@ -6663,7 +6681,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
@@ -6691,10 +6709,10 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="46">
+      <c r="A85" s="47">
         <v>3</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="50" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
@@ -6706,8 +6724,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="46"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
@@ -6734,10 +6752,10 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="46">
+      <c r="A88" s="47">
         <v>5</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C88" s="48" t="s">
@@ -6749,8 +6767,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
-      <c r="B89" s="49"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="48"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
@@ -6758,10 +6776,10 @@
       <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="46">
+      <c r="A90" s="47">
         <v>6</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="51" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
@@ -6773,8 +6791,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
@@ -6782,10 +6800,10 @@
       <c r="E91" s="44"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="46">
+      <c r="A92" s="47">
         <v>7</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="50" t="s">
         <v>155</v>
       </c>
       <c r="C92" s="48" t="s">
@@ -6799,14 +6817,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
-      <c r="B93" s="49"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="48"/>
       <c r="D93" s="17"/>
       <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="46">
+      <c r="A94" s="47">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
@@ -6823,7 +6841,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="46"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
@@ -6834,7 +6852,7 @@
       <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="46">
+      <c r="A96" s="47">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6851,7 +6869,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -6915,7 +6933,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="46">
+      <c r="A101" s="47">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -6932,7 +6950,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -6979,7 +6997,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="46">
+      <c r="A105" s="47">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
@@ -6996,7 +7014,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="46"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
@@ -7005,7 +7023,7 @@
       <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
@@ -7014,7 +7032,7 @@
       <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -7023,7 +7041,7 @@
       <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="46"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -7032,7 +7050,7 @@
       <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="46"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
@@ -7041,10 +7059,10 @@
       <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="46">
+      <c r="A111" s="47">
         <v>2</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="50" t="s">
         <v>189</v>
       </c>
       <c r="C111" s="48" t="s">
@@ -7058,8 +7076,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
-      <c r="B112" s="49"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="48"/>
       <c r="D112" s="17"/>
       <c r="E112" s="44"/>
@@ -7082,7 +7100,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="46">
+      <c r="A114" s="47">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
@@ -7099,7 +7117,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="46"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
@@ -7108,7 +7126,7 @@
       <c r="E115" s="44"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="46"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
@@ -7117,7 +7135,7 @@
       <c r="E116" s="44"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="46"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
@@ -7143,10 +7161,10 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="46">
+      <c r="A119" s="47">
         <v>6</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="50" t="s">
         <v>200</v>
       </c>
       <c r="C119" s="48" t="s">
@@ -7160,14 +7178,14 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="46"/>
-      <c r="B120" s="49"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="48"/>
       <c r="D120" s="17"/>
       <c r="E120" s="44"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="46">
+      <c r="A121" s="47">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -7184,7 +7202,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="46"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
@@ -7193,7 +7211,7 @@
       <c r="E122" s="44"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="46"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
@@ -7202,7 +7220,7 @@
       <c r="E123" s="44"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="46"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
@@ -7211,7 +7229,7 @@
       <c r="E124" s="44"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="46"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
@@ -7246,7 +7264,7 @@
       <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="46">
+      <c r="A128" s="47">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
@@ -7261,7 +7279,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
@@ -7272,7 +7290,7 @@
       <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="46"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
@@ -7283,7 +7301,7 @@
       <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="46">
+      <c r="A131" s="47">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
@@ -7300,7 +7318,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="46"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
@@ -7311,7 +7329,7 @@
       <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="46"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
@@ -7322,7 +7340,7 @@
       <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="46"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
@@ -7331,7 +7349,7 @@
       <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="46">
+      <c r="A135" s="47">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
@@ -7348,7 +7366,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="46"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
@@ -7359,7 +7377,7 @@
       <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="46"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
@@ -7370,7 +7388,7 @@
       <c r="E137" s="44"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="46"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
@@ -7381,7 +7399,7 @@
       <c r="E138" s="44"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="46"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
@@ -7390,7 +7408,7 @@
       <c r="E139" s="44"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="46">
+      <c r="A140" s="47">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
@@ -7407,7 +7425,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="46"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
@@ -7416,7 +7434,7 @@
       <c r="E141" s="44"/>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="46">
+      <c r="A142" s="47">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
@@ -7433,7 +7451,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="46"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
@@ -7442,7 +7460,7 @@
       <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="46">
+      <c r="A144" s="47">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
@@ -7459,7 +7477,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="46"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
@@ -7468,7 +7486,7 @@
       <c r="E145" s="44"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="46">
+      <c r="A146" s="47">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
@@ -7485,7 +7503,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="46"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
@@ -7494,7 +7512,7 @@
       <c r="E147" s="44"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="46">
+      <c r="A148" s="47">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
@@ -7511,7 +7529,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="46"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
@@ -7520,7 +7538,7 @@
       <c r="E149" s="44"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="46">
+      <c r="A150" s="47">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
@@ -7537,7 +7555,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="46"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
@@ -7546,7 +7564,7 @@
       <c r="E151" s="44"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="46">
+      <c r="A152" s="47">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
@@ -7563,7 +7581,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="46"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
@@ -7572,7 +7590,7 @@
       <c r="E153" s="44"/>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="46">
+      <c r="A154" s="47">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
@@ -7589,7 +7607,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="46"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
@@ -7598,7 +7616,7 @@
       <c r="E155" s="44"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="46">
+      <c r="A156" s="47">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
@@ -7615,7 +7633,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="46"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
@@ -7624,7 +7642,7 @@
       <c r="E157" s="44"/>
     </row>
     <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="46">
+      <c r="A158" s="47">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
@@ -7641,7 +7659,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="46"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
@@ -7742,10 +7760,10 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="46">
+      <c r="A166" s="47">
         <v>3</v>
       </c>
-      <c r="B166" s="49" t="s">
+      <c r="B166" s="50" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
@@ -7757,8 +7775,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="46"/>
-      <c r="B167" s="49"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
       </c>
@@ -7766,10 +7784,10 @@
       <c r="E167" s="44"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="46">
+      <c r="A168" s="47">
         <v>4</v>
       </c>
-      <c r="B168" s="49" t="s">
+      <c r="B168" s="50" t="s">
         <v>267</v>
       </c>
       <c r="C168" s="22" t="s">
@@ -7783,8 +7801,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="46"/>
-      <c r="B169" s="49"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
       </c>
@@ -7826,10 +7844,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="46">
+      <c r="A172" s="47">
         <v>7</v>
       </c>
-      <c r="B172" s="49" t="s">
+      <c r="B172" s="50" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="22" t="s">
@@ -7843,8 +7861,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="46"/>
-      <c r="B173" s="49"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
       </c>
@@ -7954,10 +7972,10 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="46">
+      <c r="A180" s="47">
         <v>3</v>
       </c>
-      <c r="B180" s="47" t="s">
+      <c r="B180" s="51" t="s">
         <v>288</v>
       </c>
       <c r="C180" s="48" t="s">
@@ -7971,8 +7989,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="46"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="51"/>
       <c r="C181" s="48"/>
       <c r="D181" s="23"/>
       <c r="E181" s="44"/>
@@ -7995,10 +8013,10 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="46">
+      <c r="A183" s="47">
         <v>5</v>
       </c>
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="51" t="s">
         <v>293</v>
       </c>
       <c r="C183" s="48" t="s">
@@ -8012,8 +8030,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="46"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="51"/>
       <c r="C184" s="48"/>
       <c r="D184" s="23"/>
       <c r="E184" s="44"/>
@@ -8035,42 +8053,48 @@
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="23"/>
-      <c r="B186" s="23" t="s">
+    <row r="186" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="37"/>
+      <c r="B186" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C186" s="23"/>
-      <c r="D186" s="17"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="41"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="46">
+      <c r="A187" s="53">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="47" t="s">
+      <c r="C187" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
+      <c r="E187" s="44" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="46"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="47"/>
+      <c r="C188" s="51"/>
       <c r="D188" s="23"/>
+      <c r="E188" s="44"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="46"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="47"/>
+      <c r="C189" s="51"/>
       <c r="D189" s="23"/>
+      <c r="E189" s="44"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="46">
+      <c r="A190" s="47">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
@@ -8080,9 +8104,12 @@
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
+      <c r="E190" s="44" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="46"/>
+      <c r="A191" s="47"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
@@ -8090,17 +8117,19 @@
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
+      <c r="E191" s="44"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="46"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
       <c r="C192" s="48"/>
       <c r="D192" s="23"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="46">
+      <c r="E192" s="44"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="47">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
@@ -8110,9 +8139,12 @@
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="46"/>
+      <c r="E193" s="44" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="47"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
@@ -8120,25 +8152,28 @@
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="46"/>
+      <c r="E194" s="44"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="47"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
       <c r="C195" s="48"/>
       <c r="D195" s="23"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="46"/>
+      <c r="E195" s="44"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="47"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
       <c r="C196" s="48"/>
       <c r="D196" s="23"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="46">
+      <c r="E196" s="44"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="47">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8150,17 +8185,21 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="46"/>
+      <c r="E197" s="44" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="47"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="46"/>
+      <c r="E198" s="44"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="47"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8168,25 +8207,28 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="46"/>
+      <c r="E199" s="44"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="47"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="46"/>
+      <c r="E200" s="44"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="47"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="46">
+      <c r="E201" s="44"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="47">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8198,17 +8240,21 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="46"/>
+      <c r="E202" s="44" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="47"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="46"/>
+      <c r="E203" s="44"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="47"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8216,65 +8262,73 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="46"/>
+      <c r="E204" s="44"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="47"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="46"/>
+      <c r="E205" s="44"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="47"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="46"/>
+      <c r="E206" s="44"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="47"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="46"/>
+      <c r="E207" s="44"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="47"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="46"/>
+      <c r="E208" s="44"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="47"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="46"/>
+      <c r="E209" s="44"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="47"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="46"/>
+      <c r="E210" s="44"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="47"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-    </row>
-    <row r="212" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="46">
+      <c r="E211" s="44"/>
+    </row>
+    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="47">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8286,17 +8340,19 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="46"/>
+      <c r="E212" s="44"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="47"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="46"/>
+      <c r="E213" s="44"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="47"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8304,321 +8360,354 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="46"/>
+      <c r="E214" s="44"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="47"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="46"/>
+      <c r="E215" s="44"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="47"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="46"/>
+      <c r="E216" s="44"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="47"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="46"/>
+      <c r="E217" s="44"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="47"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="46"/>
+      <c r="E218" s="44"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="47"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="46"/>
+      <c r="E219" s="44"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="47"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="46"/>
+      <c r="E220" s="44"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="47"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="46"/>
+      <c r="E221" s="44"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="47"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="46"/>
+      <c r="E222" s="44"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="47"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="46"/>
+      <c r="E223" s="44"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="47"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="46"/>
+      <c r="E224" s="44"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="47"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="46"/>
+      <c r="E225" s="44"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="47"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="46"/>
+      <c r="E226" s="44"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="47"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="46"/>
+      <c r="E227" s="44"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="47"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="46"/>
+      <c r="E228" s="44"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="47"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="46"/>
+      <c r="E229" s="44"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="47"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="46"/>
+      <c r="E230" s="44"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="47"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="46"/>
+      <c r="E231" s="44"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="47"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="46"/>
+      <c r="E232" s="44"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="47"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="46"/>
+      <c r="E233" s="44"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="47"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="46"/>
+      <c r="E234" s="44"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="47"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="46"/>
+      <c r="E235" s="44"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="47"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-    </row>
-    <row r="237" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="46"/>
+      <c r="E236" s="44"/>
+    </row>
+    <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="47"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="46"/>
+      <c r="E237" s="44"/>
+    </row>
+    <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="47"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="46"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="23"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="46">
+      <c r="E238" s="44"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="47">
         <v>6</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C240" s="48" t="s">
+      <c r="C239" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D240" s="23" t="s">
+      <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
     </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="47"/>
+      <c r="B240" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C240" s="48"/>
+      <c r="D240" s="23"/>
+    </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="46"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C241" s="48"/>
       <c r="D241" s="23"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="46"/>
+      <c r="A242" s="47"/>
       <c r="B242" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C242" s="48"/>
       <c r="D242" s="23"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="46"/>
+      <c r="A243" s="47"/>
       <c r="B243" s="26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C243" s="48"/>
       <c r="D243" s="23"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="46"/>
+      <c r="A244" s="47"/>
       <c r="B244" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C244" s="48"/>
       <c r="D244" s="23"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="46"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C245" s="48"/>
       <c r="D245" s="23"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="46"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C246" s="48"/>
       <c r="D246" s="23"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="46"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C247" s="48"/>
       <c r="D247" s="23"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="46"/>
-      <c r="B248" s="26" t="s">
-        <v>361</v>
-      </c>
+      <c r="A248" s="47"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="48"/>
       <c r="D248" s="23"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="46"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="23"/>
+      <c r="A249" s="23">
+        <v>1</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D249" s="23" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D250" s="23" t="s">
-        <v>363</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D250" s="23"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D251" s="23"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="D251" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C252" s="22" t="s">
         <v>286</v>
@@ -8627,1894 +8716,2035 @@
         <v>366</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A253" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
-        <v>5</v>
-      </c>
-      <c r="B254" s="25" t="s">
-        <v>368</v>
+        <v>6</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D256" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="23">
-        <v>9</v>
-      </c>
-      <c r="B258" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>376</v>
-      </c>
+      <c r="A258" s="23"/>
+      <c r="B258" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C258" s="23"/>
+      <c r="D258" s="17"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="23"/>
-      <c r="B259" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C259" s="23"/>
-      <c r="D259" s="17"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="46">
+      <c r="A259" s="47">
         <v>1</v>
       </c>
+      <c r="B259" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C259" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A260" s="47"/>
       <c r="B260" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C260" s="48" t="s">
-        <v>6</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C260" s="48"/>
       <c r="D260" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A261" s="46"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="47"/>
       <c r="B261" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C261" s="48"/>
       <c r="D261" s="23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="46"/>
-      <c r="B262" s="20" t="s">
-        <v>382</v>
-      </c>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="47"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="48"/>
-      <c r="D262" s="23" t="s">
-        <v>383</v>
-      </c>
+      <c r="D262" s="23"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="46"/>
-      <c r="B263" s="22"/>
-      <c r="C263" s="48"/>
-      <c r="D263" s="23"/>
+      <c r="A263" s="47">
+        <v>2</v>
+      </c>
+      <c r="B263" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C263" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="46">
-        <v>2</v>
-      </c>
-      <c r="B264" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C264" s="48" t="s">
+      <c r="A264" s="47"/>
+      <c r="B264" s="48"/>
+      <c r="C264" s="48"/>
+      <c r="D264" s="23"/>
+    </row>
+    <row r="265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="47">
+        <v>3</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C265" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="23"/>
+    </row>
+    <row r="266" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A266" s="47"/>
+      <c r="B266" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C266" s="48"/>
+      <c r="D266" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="47"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="48"/>
+      <c r="D267" s="23"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="47">
+        <v>4</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C268" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D264" s="23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="46"/>
-      <c r="B265" s="48"/>
-      <c r="C265" s="48"/>
-      <c r="D265" s="23"/>
-    </row>
-    <row r="266" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="46">
-        <v>3</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C266" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" s="23"/>
-    </row>
-    <row r="267" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A267" s="46"/>
-      <c r="B267" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="C267" s="48"/>
-      <c r="D267" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="46"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="48"/>
-      <c r="D268" s="23"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="46">
-        <v>4</v>
-      </c>
+      <c r="D268" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="47"/>
       <c r="B269" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C269" s="48" t="s">
-        <v>45</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C269" s="48"/>
       <c r="D269" s="23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="46"/>
-      <c r="B270" s="25" t="s">
-        <v>391</v>
-      </c>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="47"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="48"/>
       <c r="D270" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="46"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="48"/>
+      <c r="A271" s="47">
+        <v>5</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C271" s="48" t="s">
+        <v>10</v>
+      </c>
       <c r="D271" s="23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="46">
-        <v>5</v>
-      </c>
+      <c r="A272" s="47"/>
       <c r="B272" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C272" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C272" s="48"/>
+      <c r="D272" s="23"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="46"/>
-      <c r="B273" s="25" t="s">
-        <v>396</v>
-      </c>
+      <c r="A273" s="47"/>
+      <c r="B273" s="25"/>
       <c r="C273" s="48"/>
       <c r="D273" s="23"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="46"/>
-      <c r="B274" s="25"/>
-      <c r="C274" s="48"/>
-      <c r="D274" s="23"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="23">
+        <v>6</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A275" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="23">
-        <v>7</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="47">
+        <v>1</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>45</v>
+        <v>401</v>
+      </c>
+      <c r="C276" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="46">
-        <v>1</v>
-      </c>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="47"/>
       <c r="B277" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C277" s="48" t="s">
-        <v>48</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C277" s="48"/>
       <c r="D277" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="46"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="47"/>
       <c r="B278" s="25" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C278" s="48"/>
       <c r="D278" s="23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="46"/>
-      <c r="B279" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C279" s="48"/>
-      <c r="D279" s="23" t="s">
-        <v>406</v>
-      </c>
+      <c r="A279" s="47">
+        <v>2</v>
+      </c>
+      <c r="B279" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D279" s="23"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="46">
-        <v>2</v>
-      </c>
-      <c r="B280" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>142</v>
-      </c>
+      <c r="A280" s="47"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="22"/>
       <c r="D280" s="23"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="46"/>
-      <c r="B281" s="49"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="23"/>
-    </row>
-    <row r="282" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="46"/>
-      <c r="B282" s="49"/>
+    <row r="281" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="47"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="47">
+        <v>3</v>
+      </c>
+      <c r="B282" s="51" t="s">
+        <v>409</v>
+      </c>
       <c r="C282" s="22" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="46">
-        <v>3</v>
-      </c>
-      <c r="B283" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>410</v>
-      </c>
+      <c r="A283" s="47"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="22"/>
+      <c r="D283" s="23"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="46"/>
-      <c r="B284" s="47"/>
-      <c r="C284" s="22"/>
+      <c r="A284" s="47"/>
+      <c r="B284" s="51"/>
+      <c r="C284" s="22" t="s">
+        <v>411</v>
+      </c>
       <c r="D284" s="23"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="46"/>
-      <c r="B285" s="47"/>
-      <c r="C285" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D285" s="23"/>
-    </row>
-    <row r="286" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="46">
+    <row r="285" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="47">
         <v>4</v>
       </c>
+      <c r="B285" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C285" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="47"/>
       <c r="B286" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C286" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="C286" s="48"/>
+      <c r="D286" s="23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="47"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="48"/>
+      <c r="D287" s="23"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="47">
+        <v>5</v>
+      </c>
+      <c r="B288" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="C288" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="D288" s="23"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="47"/>
+      <c r="B289" s="50"/>
+      <c r="C289" s="48"/>
+      <c r="D289" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="47">
+        <v>6</v>
+      </c>
+      <c r="B290" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="C290" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D286" s="23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="46"/>
-      <c r="B287" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C287" s="48"/>
-      <c r="D287" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="46"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="23"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="46">
-        <v>5</v>
-      </c>
-      <c r="B289" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="C289" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="D289" s="23"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="46"/>
-      <c r="B290" s="49"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="23" t="s">
-        <v>419</v>
-      </c>
+      <c r="D290" s="23"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="46">
-        <v>6</v>
-      </c>
-      <c r="B291" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C291" s="48" t="s">
-        <v>413</v>
-      </c>
+      <c r="A291" s="47"/>
+      <c r="B291" s="50"/>
+      <c r="C291" s="48"/>
       <c r="D291" s="23"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="46"/>
-      <c r="B292" s="49"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="23"/>
+      <c r="A292" s="47">
+        <v>7</v>
+      </c>
+      <c r="B292" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C292" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D292" s="23" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="46">
-        <v>7</v>
-      </c>
-      <c r="B293" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="C293" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D293" s="23" t="s">
-        <v>422</v>
-      </c>
+      <c r="A293" s="47"/>
+      <c r="B293" s="51"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="23"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="46"/>
-      <c r="B294" s="47"/>
-      <c r="C294" s="48"/>
+      <c r="A294" s="47">
+        <v>8</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C294" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="D294" s="23"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="46">
-        <v>8</v>
-      </c>
-      <c r="B295" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C295" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D295" s="23"/>
+      <c r="A295" s="47"/>
+      <c r="B295" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C295" s="48"/>
+      <c r="D295" s="30" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="46"/>
+      <c r="A296" s="47"/>
       <c r="B296" s="25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C296" s="48"/>
       <c r="D296" s="30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="46"/>
+      <c r="A297" s="47"/>
       <c r="B297" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C297" s="48"/>
-      <c r="D297" s="30" t="s">
-        <v>427</v>
-      </c>
+      <c r="D297" s="30"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="46"/>
+      <c r="A298" s="47"/>
       <c r="B298" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C298" s="48"/>
       <c r="D298" s="30"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="46"/>
+      <c r="A299" s="47"/>
       <c r="B299" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C299" s="48"/>
-      <c r="D299" s="30"/>
+      <c r="D299" s="23"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="46"/>
+      <c r="A300" s="47"/>
       <c r="B300" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C300" s="48"/>
-      <c r="D300" s="23"/>
+      <c r="D300" s="30" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="46"/>
+      <c r="A301" s="47"/>
       <c r="B301" s="25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C301" s="48"/>
       <c r="D301" s="30" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="46"/>
-      <c r="B302" s="25" t="s">
-        <v>433</v>
-      </c>
+      <c r="A302" s="47"/>
+      <c r="B302" s="25"/>
       <c r="C302" s="48"/>
-      <c r="D302" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="46"/>
-      <c r="B303" s="25"/>
-      <c r="C303" s="48"/>
-      <c r="D303" s="23"/>
-    </row>
-    <row r="304" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="46">
+      <c r="D302" s="23"/>
+    </row>
+    <row r="303" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="47">
         <v>9</v>
       </c>
-      <c r="B304" s="47" t="s">
+      <c r="B303" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C304" s="48" t="s">
+      <c r="C303" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D304" s="23" t="s">
+      <c r="D303" s="23" t="s">
         <v>436</v>
       </c>
     </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="47"/>
+      <c r="B304" s="51"/>
+      <c r="C304" s="48"/>
+      <c r="D304" s="23"/>
+    </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="46"/>
-      <c r="B305" s="47"/>
-      <c r="C305" s="48"/>
-      <c r="D305" s="23"/>
+      <c r="A305" s="23">
+        <v>10</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D305" s="30" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B306" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B307" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C307" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D307" s="30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="23">
-        <v>12</v>
-      </c>
-      <c r="B308" s="24" t="s">
-        <v>441</v>
+        <v>1</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="23">
-        <v>1</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="47">
+        <v>2</v>
       </c>
       <c r="B309" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C309" s="22" t="s">
-        <v>182</v>
+        <v>445</v>
+      </c>
+      <c r="C309" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="46">
-        <v>2</v>
-      </c>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="47"/>
       <c r="B310" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="C310" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>446</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C310" s="48"/>
+      <c r="D310" s="23"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="46"/>
+      <c r="A311" s="47"/>
       <c r="B311" s="25" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C311" s="48"/>
       <c r="D311" s="23"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="46"/>
-      <c r="B312" s="25" t="s">
-        <v>448</v>
-      </c>
+      <c r="A312" s="47"/>
+      <c r="B312" s="25"/>
       <c r="C312" s="48"/>
       <c r="D312" s="23"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="46"/>
-      <c r="B313" s="25"/>
-      <c r="C313" s="48"/>
-      <c r="D313" s="23"/>
+      <c r="A313" s="47">
+        <v>3</v>
+      </c>
+      <c r="B313" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C313" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="D313" s="30" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="46">
-        <v>3</v>
-      </c>
-      <c r="B314" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="C314" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>446</v>
-      </c>
+      <c r="A314" s="47"/>
+      <c r="B314" s="51"/>
+      <c r="C314" s="48"/>
+      <c r="D314" s="30"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="46"/>
-      <c r="B315" s="47"/>
-      <c r="C315" s="48"/>
-      <c r="D315" s="30"/>
+      <c r="A315" s="23">
+        <v>4</v>
+      </c>
+      <c r="B315" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C315" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D315" s="30" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="23">
-        <v>4</v>
-      </c>
-      <c r="B316" s="25" t="s">
-        <v>450</v>
+        <v>5</v>
+      </c>
+      <c r="B316" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D316" s="30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="23">
-        <v>5</v>
-      </c>
-      <c r="B317" s="24" t="s">
-        <v>452</v>
+        <v>6</v>
+      </c>
+      <c r="B317" s="25" t="s">
+        <v>454</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="23">
-        <v>7</v>
-      </c>
-      <c r="B319" s="25" t="s">
-        <v>456</v>
+        <v>8</v>
+      </c>
+      <c r="B319" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B320" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C320" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D320" s="30" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B321" s="24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="23">
+      <c r="A322" s="23"/>
+      <c r="B322" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C322" s="23"/>
+      <c r="D322" s="17"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="47">
+        <v>1</v>
+      </c>
+      <c r="B323" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="C323" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B322" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C322" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D322" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="23"/>
-      <c r="B323" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C323" s="23"/>
-      <c r="D323" s="17"/>
+      <c r="D323" s="23" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="46">
+      <c r="A324" s="47"/>
+      <c r="B324" s="51"/>
+      <c r="C324" s="51"/>
+      <c r="D324" s="23"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="47">
         <v>1</v>
       </c>
-      <c r="B324" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="C324" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="46"/>
-      <c r="B325" s="47"/>
-      <c r="C325" s="47"/>
+      <c r="B325" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C325" s="48" t="s">
+        <v>48</v>
+      </c>
       <c r="D325" s="23"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="46">
-        <v>1</v>
-      </c>
+      <c r="A326" s="47"/>
       <c r="B326" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C326" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D326" s="23"/>
+        <v>468</v>
+      </c>
+      <c r="C326" s="48"/>
+      <c r="D326" s="23" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="46"/>
+      <c r="A327" s="47"/>
       <c r="B327" s="25" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C327" s="48"/>
-      <c r="D327" s="23" t="s">
-        <v>469</v>
-      </c>
+      <c r="D327" s="23"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="46"/>
-      <c r="B328" s="25" t="s">
-        <v>470</v>
-      </c>
+      <c r="A328" s="47"/>
+      <c r="B328" s="25"/>
       <c r="C328" s="48"/>
       <c r="D328" s="23"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="46"/>
+      <c r="A329" s="47"/>
       <c r="B329" s="25"/>
       <c r="C329" s="48"/>
       <c r="D329" s="23"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="46"/>
-      <c r="B330" s="25"/>
-      <c r="C330" s="48"/>
-      <c r="D330" s="23"/>
+      <c r="A330" s="47"/>
+      <c r="B330" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C330" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D330" s="30" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="46"/>
+      <c r="A331" s="47"/>
       <c r="B331" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C331" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D331" s="30" t="s">
-        <v>472</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C331" s="48"/>
+      <c r="D331" s="23"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="46"/>
-      <c r="B332" s="25" t="s">
-        <v>473</v>
-      </c>
+      <c r="A332" s="47"/>
+      <c r="B332" s="25"/>
       <c r="C332" s="48"/>
       <c r="D332" s="23"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="46"/>
-      <c r="B333" s="25"/>
-      <c r="C333" s="48"/>
-      <c r="D333" s="23"/>
+      <c r="A333" s="47"/>
+      <c r="B333" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D333" s="30" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="46"/>
+      <c r="A334" s="47"/>
       <c r="B334" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C334" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D334" s="30" t="s">
-        <v>474</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C334" s="22"/>
+      <c r="D334" s="23"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="46"/>
-      <c r="B335" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C335" s="22"/>
+      <c r="A335" s="47"/>
+      <c r="B335" s="25"/>
+      <c r="C335" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="D335" s="23"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="46"/>
-      <c r="B336" s="25"/>
-      <c r="C336" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D336" s="23"/>
+      <c r="A336" s="47">
+        <v>2</v>
+      </c>
+      <c r="B336" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C336" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D336" s="30" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="46">
-        <v>2</v>
-      </c>
+      <c r="A337" s="47"/>
       <c r="B337" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C337" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>476</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C337" s="48"/>
+      <c r="D337" s="23"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="46"/>
+      <c r="A338" s="47"/>
       <c r="B338" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C338" s="48"/>
       <c r="D338" s="23"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="46"/>
+      <c r="A339" s="47"/>
       <c r="B339" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C339" s="48"/>
       <c r="D339" s="23"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="46"/>
+      <c r="A340" s="47"/>
       <c r="B340" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C340" s="48"/>
       <c r="D340" s="23"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="46"/>
-      <c r="B341" s="25" t="s">
-        <v>480</v>
-      </c>
+      <c r="A341" s="47"/>
+      <c r="B341" s="25"/>
       <c r="C341" s="48"/>
       <c r="D341" s="23"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="46"/>
-      <c r="B342" s="25"/>
-      <c r="C342" s="48"/>
-      <c r="D342" s="23"/>
+      <c r="A342" s="47">
+        <v>3</v>
+      </c>
+      <c r="B342" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C342" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D342" s="30" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="46">
-        <v>3</v>
-      </c>
+      <c r="A343" s="47"/>
       <c r="B343" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C343" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D343" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="46"/>
+        <v>483</v>
+      </c>
+      <c r="C343" s="48"/>
+      <c r="D343" s="23"/>
+    </row>
+    <row r="344" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A344" s="47"/>
       <c r="B344" s="25" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C344" s="48"/>
-      <c r="D344" s="23"/>
-    </row>
-    <row r="345" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A345" s="46"/>
+      <c r="D344" s="30" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="47"/>
       <c r="B345" s="25" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C345" s="48"/>
-      <c r="D345" s="30" t="s">
-        <v>485</v>
-      </c>
+      <c r="D345" s="23"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="46"/>
+      <c r="A346" s="47"/>
       <c r="B346" s="25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C346" s="48"/>
       <c r="D346" s="23"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="46"/>
+      <c r="A347" s="47"/>
       <c r="B347" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C347" s="48"/>
       <c r="D347" s="23"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="46"/>
+      <c r="A348" s="47"/>
       <c r="B348" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C348" s="48"/>
       <c r="D348" s="23"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="46"/>
+      <c r="A349" s="47"/>
       <c r="B349" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C349" s="48"/>
       <c r="D349" s="23"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="46"/>
+      <c r="A350" s="47"/>
       <c r="B350" s="25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C350" s="48"/>
       <c r="D350" s="23"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="46"/>
-      <c r="B351" s="25" t="s">
-        <v>491</v>
-      </c>
+      <c r="A351" s="47"/>
+      <c r="B351" s="25"/>
       <c r="C351" s="48"/>
       <c r="D351" s="23"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="46"/>
-      <c r="B352" s="25"/>
-      <c r="C352" s="48"/>
-      <c r="D352" s="23"/>
+      <c r="A352" s="47">
+        <v>7</v>
+      </c>
+      <c r="B352" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="C352" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D352" s="30" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="46">
-        <v>7</v>
-      </c>
-      <c r="B353" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="C353" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D353" s="30" t="s">
-        <v>493</v>
-      </c>
+      <c r="A353" s="47"/>
+      <c r="B353" s="51"/>
+      <c r="C353" s="48"/>
+      <c r="D353" s="23"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="46"/>
-      <c r="B354" s="47"/>
-      <c r="C354" s="48"/>
-      <c r="D354" s="23"/>
+      <c r="A354" s="23">
+        <v>9</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C354" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D354" s="30" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="23">
-        <v>9</v>
+      <c r="A355" s="47">
+        <v>10</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C355" s="22" t="s">
-        <v>232</v>
+        <v>496</v>
+      </c>
+      <c r="C355" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="D355" s="30" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="46">
-        <v>10</v>
-      </c>
+      <c r="A356" s="47"/>
       <c r="B356" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C356" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D356" s="30" t="s">
-        <v>497</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C356" s="48"/>
+      <c r="D356" s="23"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="46"/>
+      <c r="A357" s="47"/>
       <c r="B357" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C357" s="48"/>
       <c r="D357" s="23"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="46"/>
+      <c r="A358" s="47"/>
       <c r="B358" s="25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C358" s="48"/>
       <c r="D358" s="23"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="46"/>
+      <c r="A359" s="47"/>
       <c r="B359" s="25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C359" s="48"/>
       <c r="D359" s="23"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="46"/>
+      <c r="A360" s="47"/>
       <c r="B360" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C360" s="48"/>
       <c r="D360" s="23"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="46"/>
-      <c r="B361" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C361" s="48"/>
-      <c r="D361" s="23"/>
+      <c r="A361" s="47">
+        <v>11</v>
+      </c>
+      <c r="B361" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="C361" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D361" s="23" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="46">
-        <v>11</v>
-      </c>
-      <c r="B362" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="C362" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D362" s="23" t="s">
-        <v>504</v>
-      </c>
+      <c r="A362" s="47"/>
+      <c r="B362" s="51"/>
+      <c r="C362" s="48"/>
+      <c r="D362" s="23"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="46"/>
-      <c r="B363" s="47"/>
-      <c r="C363" s="48"/>
-      <c r="D363" s="23"/>
+      <c r="A363" s="23">
+        <v>12</v>
+      </c>
+      <c r="B363" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D363" s="23" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D364" s="23" t="s">
-        <v>506</v>
+        <v>182</v>
+      </c>
+      <c r="D364" s="30" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B365" s="25" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="D365" s="30" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="23">
-        <v>2</v>
-      </c>
-      <c r="B366" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C366" s="22" t="s">
-        <v>286</v>
+      <c r="A366" s="47">
+        <v>3</v>
+      </c>
+      <c r="B366" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="C366" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="D366" s="30" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="46">
-        <v>3</v>
-      </c>
-      <c r="B367" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="C367" s="48" t="s">
+      <c r="A367" s="47"/>
+      <c r="B367" s="51"/>
+      <c r="C367" s="48"/>
+      <c r="D367" s="23"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="47">
+        <v>4</v>
+      </c>
+      <c r="B368" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C368" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D367" s="30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="46"/>
-      <c r="B368" s="47"/>
-      <c r="C368" s="48"/>
-      <c r="D368" s="23"/>
+      <c r="D368" s="30" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="46">
-        <v>4</v>
-      </c>
-      <c r="B369" s="49" t="s">
-        <v>513</v>
-      </c>
-      <c r="C369" s="48" t="s">
+      <c r="A369" s="47"/>
+      <c r="B369" s="50"/>
+      <c r="C369" s="48"/>
+      <c r="D369" s="23"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="23">
+        <v>5</v>
+      </c>
+      <c r="B370" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C370" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D369" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="46"/>
-      <c r="B370" s="49"/>
-      <c r="C370" s="48"/>
-      <c r="D370" s="23"/>
+      <c r="D370" s="30" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="23">
-        <v>5</v>
-      </c>
-      <c r="B371" s="24" t="s">
-        <v>515</v>
+        <v>6</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="C371" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D371" s="30" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B372" s="25" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C372" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D372" s="30" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="23">
-        <v>7</v>
-      </c>
-      <c r="B373" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="C373" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D373" s="30" t="s">
-        <v>520</v>
-      </c>
+      <c r="A373" s="23"/>
+      <c r="B373" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="C373" s="23"/>
+      <c r="D373" s="17"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="23"/>
-      <c r="B374" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="C374" s="23"/>
-      <c r="D374" s="17"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="46">
+      <c r="A374" s="47">
         <v>1</v>
       </c>
+      <c r="B374" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C374" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="D374" s="30" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A375" s="47"/>
       <c r="B375" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C375" s="48" t="s">
-        <v>523</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C375" s="48"/>
       <c r="D375" s="30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A376" s="46"/>
-      <c r="B376" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C376" s="48"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="23">
+        <v>1</v>
+      </c>
+      <c r="B376" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="D376" s="30" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="23">
+        <v>2</v>
+      </c>
+      <c r="B377" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C377" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D377" s="30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="47">
+        <v>3</v>
+      </c>
+      <c r="B378" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C378" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D378" s="30" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="47"/>
+      <c r="B379" s="48"/>
+      <c r="C379" s="48"/>
+      <c r="D379" s="17"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="23"/>
+      <c r="B380" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="C380" s="23"/>
+      <c r="D380" s="17"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="23">
         <v>1</v>
       </c>
-      <c r="B377" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C377" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D377" s="30" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="23">
-        <v>2</v>
-      </c>
-      <c r="B378" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C378" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D378" s="30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="46">
-        <v>3</v>
-      </c>
-      <c r="B379" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="C379" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D379" s="30" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="46"/>
-      <c r="B380" s="48"/>
-      <c r="C380" s="48"/>
-      <c r="D380" s="17"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="23"/>
-      <c r="B381" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="C381" s="23"/>
-      <c r="D381" s="17"/>
+      <c r="B381" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C381" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D381" s="23" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B382" s="25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C382" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D382" s="23" t="s">
-        <v>535</v>
+        <v>25</v>
+      </c>
+      <c r="D382" s="30" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="23">
-        <v>3</v>
+      <c r="A383" s="47">
+        <v>4</v>
       </c>
       <c r="B383" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C383" s="22" t="s">
-        <v>25</v>
+        <v>538</v>
+      </c>
+      <c r="C383" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="46">
-        <v>4</v>
-      </c>
+      <c r="A384" s="47"/>
       <c r="B384" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C384" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D384" s="30" t="s">
-        <v>539</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C384" s="48"/>
+      <c r="D384" s="23"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="46"/>
+      <c r="A385" s="47"/>
       <c r="B385" s="25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C385" s="48"/>
       <c r="D385" s="23"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="46"/>
+      <c r="A386" s="47"/>
       <c r="B386" s="25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C386" s="48"/>
       <c r="D386" s="23"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="46"/>
-      <c r="B387" s="25" t="s">
-        <v>542</v>
-      </c>
+      <c r="A387" s="47"/>
+      <c r="B387" s="25"/>
       <c r="C387" s="48"/>
       <c r="D387" s="23"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="46"/>
-      <c r="B388" s="25"/>
-      <c r="C388" s="48"/>
-      <c r="D388" s="23"/>
+      <c r="A388" s="47">
+        <v>5</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C388" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D388" s="30" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="46">
-        <v>5</v>
-      </c>
+      <c r="A389" s="47"/>
       <c r="B389" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C389" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D389" s="30" t="s">
-        <v>544</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C389" s="48"/>
+      <c r="D389" s="23"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="46"/>
+      <c r="A390" s="47"/>
       <c r="B390" s="25" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C390" s="48"/>
       <c r="D390" s="23"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="46"/>
-      <c r="B391" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C391" s="48"/>
-      <c r="D391" s="23"/>
+      <c r="A391" s="47">
+        <v>6</v>
+      </c>
+      <c r="B391" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C391" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391" s="30" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="46">
-        <v>6</v>
-      </c>
-      <c r="B392" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="C392" s="48" t="s">
+      <c r="A392" s="47"/>
+      <c r="B392" s="51"/>
+      <c r="C392" s="48"/>
+      <c r="D392" s="23"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="47">
+        <v>7</v>
+      </c>
+      <c r="B393" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C393" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D392" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="46"/>
-      <c r="B393" s="47"/>
-      <c r="C393" s="48"/>
-      <c r="D393" s="23"/>
+      <c r="D393" s="30" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="46">
-        <v>7</v>
-      </c>
-      <c r="B394" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="C394" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D394" s="30" t="s">
-        <v>550</v>
-      </c>
+      <c r="A394" s="47"/>
+      <c r="B394" s="51"/>
+      <c r="C394" s="48"/>
+      <c r="D394" s="23"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="46"/>
-      <c r="B395" s="47"/>
-      <c r="C395" s="48"/>
-      <c r="D395" s="23"/>
+      <c r="A395" s="47">
+        <v>8</v>
+      </c>
+      <c r="B395" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C395" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="D395" s="30" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="46">
-        <v>8</v>
-      </c>
-      <c r="B396" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C396" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="D396" s="30" t="s">
-        <v>553</v>
-      </c>
+      <c r="A396" s="47"/>
+      <c r="B396" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C396" s="48"/>
+      <c r="D396" s="23"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="46"/>
-      <c r="B397" s="20" t="s">
-        <v>554</v>
-      </c>
+      <c r="A397" s="47"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="48"/>
       <c r="D397" s="23"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="46"/>
-      <c r="B398" s="20"/>
-      <c r="C398" s="48"/>
-      <c r="D398" s="23"/>
+      <c r="A398" s="47">
+        <v>1</v>
+      </c>
+      <c r="B398" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C398" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D398" s="30" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="46">
-        <v>1</v>
-      </c>
-      <c r="B399" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="C399" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D399" s="30" t="s">
-        <v>556</v>
-      </c>
+      <c r="A399" s="47"/>
+      <c r="B399" s="51"/>
+      <c r="C399" s="48"/>
+      <c r="D399" s="23"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="46"/>
-      <c r="B400" s="47"/>
-      <c r="C400" s="48"/>
-      <c r="D400" s="23"/>
+      <c r="A400" s="23">
+        <v>2</v>
+      </c>
+      <c r="B400" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D400" s="30" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D401" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D401" s="23"/>
+    </row>
+    <row r="402" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A402" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B402" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D402" s="23"/>
-    </row>
-    <row r="403" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="D402" s="30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="23">
         <v>4</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>481</v>
+        <v>68</v>
       </c>
       <c r="D403" s="30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A404" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C404" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C405" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D405" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A406" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B406" s="25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D406" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A407" s="23">
-        <v>7</v>
-      </c>
-      <c r="B407" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C407" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D407" s="23"/>
+      <c r="D406" s="23"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="47">
+        <v>1</v>
+      </c>
+      <c r="B407" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="C407" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D407" s="30" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="46">
-        <v>1</v>
-      </c>
-      <c r="B408" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="C408" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D408" s="30" t="s">
-        <v>570</v>
-      </c>
+      <c r="A408" s="47"/>
+      <c r="B408" s="51"/>
+      <c r="C408" s="48"/>
+      <c r="D408" s="23"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="46"/>
-      <c r="B409" s="47"/>
-      <c r="C409" s="48"/>
-      <c r="D409" s="23"/>
+      <c r="A409" s="47">
+        <v>2</v>
+      </c>
+      <c r="B409" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C409" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D409" s="30" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="46">
-        <v>2</v>
-      </c>
-      <c r="B410" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="C410" s="48" t="s">
+      <c r="A410" s="47"/>
+      <c r="B410" s="51"/>
+      <c r="C410" s="48"/>
+      <c r="D410" s="23"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="23">
+        <v>3</v>
+      </c>
+      <c r="B411" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C411" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D410" s="30" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="46"/>
-      <c r="B411" s="47"/>
-      <c r="C411" s="48"/>
-      <c r="D411" s="23"/>
+      <c r="D411" s="30" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="23">
-        <v>3</v>
-      </c>
-      <c r="B412" s="25" t="s">
+      <c r="A412" s="47">
+        <v>4</v>
+      </c>
+      <c r="B412" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="C412" s="22" t="s">
-        <v>286</v>
+      <c r="C412" s="48" t="s">
+        <v>575</v>
       </c>
       <c r="D412" s="30" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="46">
-        <v>4</v>
-      </c>
-      <c r="B413" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="C413" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="D413" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="46"/>
-      <c r="B414" s="47"/>
-      <c r="C414" s="48"/>
-      <c r="D414" s="23"/>
+      <c r="A413" s="47"/>
+      <c r="B413" s="51"/>
+      <c r="C413" s="48"/>
+      <c r="D413" s="23"/>
+    </row>
+    <row r="414" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="47">
+        <v>5</v>
+      </c>
+      <c r="B414" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C414" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D414" s="30" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="415" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="46">
-        <v>5</v>
-      </c>
-      <c r="B415" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="C415" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D415" s="30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="46"/>
-      <c r="B416" s="47"/>
-      <c r="C416" s="48"/>
-      <c r="D416" s="23"/>
+      <c r="A415" s="47"/>
+      <c r="B415" s="51"/>
+      <c r="C415" s="48"/>
+      <c r="D415" s="23"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="23"/>
+      <c r="B416" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="C416" s="23"/>
+      <c r="D416" s="17"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="23"/>
-      <c r="B417" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="C417" s="23"/>
-      <c r="D417" s="17"/>
+      <c r="A417" s="47">
+        <v>1</v>
+      </c>
+      <c r="B417" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C417" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D417" s="17" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="46">
+      <c r="A418" s="47"/>
+      <c r="B418" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C418" s="51"/>
+      <c r="D418" s="17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="47"/>
+      <c r="B419" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C419" s="51"/>
+      <c r="D419" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="47"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="51"/>
+      <c r="D420" s="17"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="47">
         <v>1</v>
       </c>
-      <c r="B418" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C418" s="47" t="s">
+      <c r="B421" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C421" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D418" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="46"/>
-      <c r="B419" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C419" s="47"/>
-      <c r="D419" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="46"/>
-      <c r="B420" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C420" s="47"/>
-      <c r="D420" s="17" t="s">
+      <c r="D421" s="17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A422" s="47"/>
+      <c r="B422" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C422" s="51"/>
+      <c r="D422" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="46"/>
-      <c r="B421" s="25"/>
-      <c r="C421" s="47"/>
-      <c r="D421" s="17"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="46">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="47"/>
+      <c r="B423" s="25"/>
+      <c r="C423" s="51"/>
+      <c r="D423" s="17"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="47">
         <v>1</v>
       </c>
-      <c r="B422" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C422" s="47" t="s">
+      <c r="B424" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C424" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D422" s="17" t="s">
+      <c r="D424" s="17" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A423" s="46"/>
-      <c r="B423" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C423" s="47"/>
-      <c r="D423" s="17" t="s">
+    <row r="425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A425" s="47"/>
+      <c r="B425" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C425" s="51"/>
+      <c r="D425" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="46"/>
-      <c r="B424" s="25"/>
-      <c r="C424" s="47"/>
-      <c r="D424" s="17"/>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="46">
-        <v>1</v>
-      </c>
-      <c r="B425" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C425" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D425" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A426" s="46"/>
-      <c r="B426" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C426" s="47"/>
-      <c r="D426" s="17" t="s">
-        <v>584</v>
-      </c>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="47"/>
+      <c r="B426" s="25"/>
+      <c r="C426" s="51"/>
+      <c r="D426" s="17"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="46"/>
-      <c r="B427" s="25"/>
-      <c r="C427" s="47"/>
-      <c r="D427" s="17"/>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="15"/>
-      <c r="B428" s="14"/>
-      <c r="C428" s="14"/>
+      <c r="A427" s="15"/>
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D258" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="296">
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
+  <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
+  <mergeCells count="302">
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A417:A420"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="A421:A423"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="A424:A426"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="A395:A397"/>
+    <mergeCell ref="C395:C397"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="A383:A387"/>
+    <mergeCell ref="C383:C387"/>
+    <mergeCell ref="A388:A390"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="A342:A351"/>
+    <mergeCell ref="C342:C351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="C355:C360"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="C325:C329"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="A333:A335"/>
+    <mergeCell ref="A336:A341"/>
+    <mergeCell ref="C336:C341"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="A323:A324"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="A294:A302"/>
+    <mergeCell ref="C294:C302"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10539,189 +10769,60 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A239"/>
-    <mergeCell ref="A240:A249"/>
-    <mergeCell ref="C240:C249"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A280:A282"/>
-    <mergeCell ref="B280:B282"/>
-    <mergeCell ref="A283:A285"/>
-    <mergeCell ref="B283:B285"/>
-    <mergeCell ref="A286:A288"/>
-    <mergeCell ref="C286:C288"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="C260:C263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="C295:C303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="A326:A330"/>
-    <mergeCell ref="C326:C330"/>
-    <mergeCell ref="A331:A333"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="A334:A336"/>
-    <mergeCell ref="A337:A342"/>
-    <mergeCell ref="C337:C342"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="A343:A352"/>
-    <mergeCell ref="C343:C352"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="A356:A361"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="A384:A388"/>
-    <mergeCell ref="C384:C388"/>
-    <mergeCell ref="A389:A391"/>
-    <mergeCell ref="C389:C391"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="A369:A370"/>
-    <mergeCell ref="B369:B370"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="A408:A409"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="A396:A398"/>
-    <mergeCell ref="C396:C398"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="A418:A421"/>
-    <mergeCell ref="C418:C421"/>
-    <mergeCell ref="A422:A424"/>
-    <mergeCell ref="C422:C424"/>
-    <mergeCell ref="A425:A427"/>
-    <mergeCell ref="C425:C427"/>
-    <mergeCell ref="A413:A414"/>
-    <mergeCell ref="B413:B414"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="A415:A416"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
     <mergeCell ref="E121:E125"/>
     <mergeCell ref="E128:E130"/>
     <mergeCell ref="E131:E134"/>
@@ -10737,26 +10838,6 @@
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14341,6 +14422,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEBC747F347A034FA0018CAF7D99052D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f062dc1f9491f3faec7cf0ae28391ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c9ab29b-20bf-44a4-a666-f4222d918f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78db0b84c272b9d2637594810e5a6fb9" ns2:_="">
     <xsd:import namespace="1c9ab29b-20bf-44a4-a666-f4222d918f76"/>
@@ -14510,22 +14606,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D319-703A-4107-B71F-1050E487FBEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14541,21 +14639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC37960-1FAF-4B09-A3FF-3EC3D26D7A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D899B4-2797-43D7-AB0B-6BAE149D2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="_Toc31101033" localSheetId="0">BRD!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5280,35 +5281,35 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5626,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202:E211"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5658,7 +5659,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5666,12 +5667,12 @@
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5681,10 +5682,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5692,10 +5693,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5703,283 +5704,283 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="52">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="52">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="45" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="52">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="45" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="52">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="44"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="52">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="45" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="52">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="46" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="52"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="52"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="52">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="46" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="A24" s="52">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="46" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="A26" s="52">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="53" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="46" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="52"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
@@ -5988,11 +5989,11 @@
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="46" t="s">
         <v>830</v>
       </c>
     </row>
@@ -6001,11 +6002,11 @@
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="52"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
@@ -6018,7 +6019,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="46" t="s">
         <v>831</v>
       </c>
     </row>
@@ -6031,7 +6032,7 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="52"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
@@ -6044,7 +6045,7 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
@@ -6053,7 +6054,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="52"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
@@ -6066,7 +6067,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="45" t="s">
         <v>837</v>
       </c>
     </row>
@@ -6079,7 +6080,7 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
@@ -6090,7 +6091,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="44"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="47">
@@ -6099,11 +6100,11 @@
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="45" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6112,11 +6113,11 @@
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="47">
@@ -6129,7 +6130,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="45" t="s">
         <v>833</v>
       </c>
     </row>
@@ -6142,7 +6143,7 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="44"/>
+      <c r="E40" s="45"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
@@ -6155,7 +6156,7 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="45"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="47">
@@ -6164,13 +6165,13 @@
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="45" t="s">
         <v>834</v>
       </c>
     </row>
@@ -6179,9 +6180,9 @@
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="44"/>
+      <c r="E43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="47">
@@ -6190,11 +6191,11 @@
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="45" t="s">
         <v>820</v>
       </c>
     </row>
@@ -6203,22 +6204,22 @@
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="44"/>
+      <c r="E45" s="45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="47">
@@ -6227,11 +6228,11 @@
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="45" t="s">
         <v>835</v>
       </c>
     </row>
@@ -6240,44 +6241,44 @@
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="48"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="48"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="45"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="48"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="44"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="47">
@@ -6290,7 +6291,7 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="45" t="s">
         <v>873</v>
       </c>
     </row>
@@ -6303,7 +6304,7 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
@@ -6316,7 +6317,7 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="45"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
@@ -6327,7 +6328,7 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="45"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
@@ -6338,7 +6339,7 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="44"/>
+      <c r="E56" s="45"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="47">
@@ -6347,11 +6348,11 @@
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="49" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="45" t="s">
         <v>836</v>
       </c>
     </row>
@@ -6360,22 +6361,22 @@
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="44"/>
+      <c r="E58" s="45"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="48"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="44"/>
+      <c r="E59" s="45"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="47">
@@ -6384,11 +6385,11 @@
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="45" t="s">
         <v>838</v>
       </c>
     </row>
@@ -6397,11 +6398,11 @@
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="44"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="47">
@@ -6410,11 +6411,11 @@
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="45" t="s">
         <v>839</v>
       </c>
     </row>
@@ -6423,11 +6424,11 @@
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="48"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="44"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="47">
@@ -6436,11 +6437,11 @@
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="45" t="s">
         <v>840</v>
       </c>
     </row>
@@ -6449,11 +6450,11 @@
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="44"/>
+      <c r="E65" s="45"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="47">
@@ -6462,11 +6463,11 @@
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="45" t="s">
         <v>841</v>
       </c>
     </row>
@@ -6475,11 +6476,11 @@
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="48"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="47">
@@ -6488,11 +6489,11 @@
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="44" t="s">
+      <c r="E68" s="45" t="s">
         <v>842</v>
       </c>
     </row>
@@ -6501,11 +6502,11 @@
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="44"/>
+      <c r="E69" s="45"/>
     </row>
     <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
@@ -6523,22 +6524,22 @@
       <c r="B71" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E71" s="45" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="47"/>
       <c r="B72" s="50"/>
-      <c r="C72" s="48"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="44"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
@@ -6581,22 +6582,22 @@
       <c r="B75" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="49" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="45" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="47"/>
       <c r="B76" s="50"/>
-      <c r="C76" s="48"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="44"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="47">
@@ -6605,22 +6606,22 @@
       <c r="B77" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="44" t="s">
+      <c r="E77" s="45" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="47"/>
       <c r="B78" s="50"/>
-      <c r="C78" s="48"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="45"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="47">
@@ -6629,22 +6630,22 @@
       <c r="B79" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="45" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="47"/>
       <c r="B80" s="50"/>
-      <c r="C80" s="48"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="45"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
@@ -6670,13 +6671,13 @@
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="44" t="s">
+      <c r="E82" s="45" t="s">
         <v>848</v>
       </c>
     </row>
@@ -6685,11 +6686,11 @@
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="48"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="44"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
@@ -6719,7 +6720,7 @@
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="45" t="s">
         <v>850</v>
       </c>
     </row>
@@ -6732,7 +6733,7 @@
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="45"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
@@ -6758,46 +6759,46 @@
       <c r="B88" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="45" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="47"/>
       <c r="B89" s="50"/>
-      <c r="C89" s="48"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="44"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="47">
         <v>6</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="48" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="45" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="47"/>
-      <c r="B91" s="51"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="44"/>
+      <c r="E91" s="45"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="47">
@@ -6806,22 +6807,22 @@
       <c r="B92" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="49" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="45" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="47"/>
       <c r="B93" s="50"/>
-      <c r="C93" s="48"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="44"/>
+      <c r="E93" s="45"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="47">
@@ -6830,13 +6831,13 @@
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="49" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="45" t="s">
         <v>854</v>
       </c>
     </row>
@@ -6845,11 +6846,11 @@
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="48"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="44"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="47">
@@ -6864,7 +6865,7 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="45" t="s">
         <v>855</v>
       </c>
     </row>
@@ -6879,7 +6880,7 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="44"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="23">
@@ -6945,7 +6946,7 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="45" t="s">
         <v>858</v>
       </c>
     </row>
@@ -6960,7 +6961,7 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="44"/>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
@@ -7003,13 +7004,13 @@
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="45" t="s">
         <v>860</v>
       </c>
     </row>
@@ -7018,45 +7019,45 @@
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="48"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="44"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="47"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="48"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="44"/>
+      <c r="E107" s="45"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="47"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="48"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="44"/>
+      <c r="E108" s="45"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="47"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="48"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="44"/>
+      <c r="E109" s="45"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="47"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="48"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="44"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="47">
@@ -7065,22 +7066,22 @@
       <c r="B111" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="E111" s="45" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="47"/>
       <c r="B112" s="50"/>
-      <c r="C112" s="48"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="44"/>
+      <c r="E112" s="45"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="23">
@@ -7106,13 +7107,13 @@
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="49" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="44" t="s">
+      <c r="E114" s="45" t="s">
         <v>871</v>
       </c>
     </row>
@@ -7121,27 +7122,27 @@
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="44"/>
+      <c r="E115" s="45"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="47"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="48"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="44"/>
+      <c r="E116" s="45"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="47"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="48"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="44"/>
+      <c r="E117" s="45"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
@@ -7167,22 +7168,22 @@
       <c r="B119" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="45" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="47"/>
       <c r="B120" s="50"/>
-      <c r="C120" s="48"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="44"/>
+      <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="47">
@@ -7191,13 +7192,13 @@
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="49" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="44" t="s">
+      <c r="E121" s="45" t="s">
         <v>864</v>
       </c>
     </row>
@@ -7206,36 +7207,36 @@
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="48"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="44"/>
+      <c r="E122" s="45"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="47"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="44"/>
+      <c r="E123" s="45"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="47"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="48"/>
+      <c r="C124" s="49"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="44"/>
+      <c r="E124" s="45"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="47"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="48"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="44"/>
+      <c r="E125" s="45"/>
     </row>
     <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23">
@@ -7254,12 +7255,12 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="23"/>
-      <c r="B127" s="37" t="s">
+    <row r="127" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="44"/>
+      <c r="B127" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="37"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
     </row>
@@ -7270,11 +7271,11 @@
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="49" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="44" t="s">
+      <c r="E128" s="45" t="s">
         <v>865</v>
       </c>
     </row>
@@ -7283,22 +7284,22 @@
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="49"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="44"/>
+      <c r="E129" s="45"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="47"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="44"/>
+      <c r="E130" s="45"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="47">
@@ -7307,13 +7308,13 @@
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C131" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="44" t="s">
+      <c r="E131" s="45" t="s">
         <v>866</v>
       </c>
     </row>
@@ -7322,31 +7323,31 @@
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="48"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="44"/>
+      <c r="E132" s="45"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="47"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="48"/>
+      <c r="C133" s="49"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="44"/>
+      <c r="E133" s="45"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="47"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="48"/>
+      <c r="C134" s="49"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="44"/>
+      <c r="E134" s="45"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="47">
@@ -7355,13 +7356,13 @@
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="49" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="44" t="s">
+      <c r="E135" s="45" t="s">
         <v>867</v>
       </c>
     </row>
@@ -7370,42 +7371,42 @@
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="48"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="44"/>
+      <c r="E136" s="45"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="47"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="48"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="44"/>
+      <c r="E137" s="45"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="47"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="48"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="44"/>
+      <c r="E138" s="45"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="47"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="48"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="44"/>
+      <c r="E139" s="45"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="47">
@@ -7414,13 +7415,13 @@
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="49" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="44" t="s">
+      <c r="E140" s="45" t="s">
         <v>869</v>
       </c>
     </row>
@@ -7429,9 +7430,9 @@
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="48"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="44"/>
+      <c r="E141" s="45"/>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="47">
@@ -7440,13 +7441,13 @@
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="44" t="s">
+      <c r="E142" s="45" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7455,9 +7456,9 @@
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="48"/>
+      <c r="C143" s="49"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="44"/>
+      <c r="E143" s="45"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="47">
@@ -7466,13 +7467,13 @@
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C144" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="44" t="s">
+      <c r="E144" s="45" t="s">
         <v>874</v>
       </c>
     </row>
@@ -7481,9 +7482,9 @@
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="48"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="44"/>
+      <c r="E145" s="45"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="47">
@@ -7492,13 +7493,13 @@
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C146" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="44" t="s">
+      <c r="E146" s="45" t="s">
         <v>877</v>
       </c>
     </row>
@@ -7507,9 +7508,9 @@
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="48"/>
+      <c r="C147" s="49"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="44"/>
+      <c r="E147" s="45"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="47">
@@ -7518,13 +7519,13 @@
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="48" t="s">
+      <c r="C148" s="49" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="44" t="s">
+      <c r="E148" s="45" t="s">
         <v>876</v>
       </c>
     </row>
@@ -7533,9 +7534,9 @@
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="48"/>
+      <c r="C149" s="49"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="44"/>
+      <c r="E149" s="45"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="47">
@@ -7544,13 +7545,13 @@
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="49" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="44" t="s">
+      <c r="E150" s="45" t="s">
         <v>875</v>
       </c>
     </row>
@@ -7559,9 +7560,9 @@
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="48"/>
+      <c r="C151" s="49"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="44"/>
+      <c r="E151" s="45"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="47">
@@ -7570,13 +7571,13 @@
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="49" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="44" t="s">
+      <c r="E152" s="45" t="s">
         <v>878</v>
       </c>
     </row>
@@ -7585,9 +7586,9 @@
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="48"/>
+      <c r="C153" s="49"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="44"/>
+      <c r="E153" s="45"/>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="47">
@@ -7596,13 +7597,13 @@
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="49" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="44" t="s">
+      <c r="E154" s="45" t="s">
         <v>879</v>
       </c>
     </row>
@@ -7611,9 +7612,9 @@
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="48"/>
+      <c r="C155" s="49"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="44"/>
+      <c r="E155" s="45"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="47">
@@ -7622,13 +7623,13 @@
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="48" t="s">
+      <c r="C156" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="44" t="s">
+      <c r="E156" s="45" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7637,9 +7638,9 @@
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="48"/>
+      <c r="C157" s="49"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="44"/>
+      <c r="E157" s="45"/>
     </row>
     <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="47">
@@ -7648,13 +7649,13 @@
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="48" t="s">
+      <c r="C158" s="49" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="44" t="s">
+      <c r="E158" s="45" t="s">
         <v>881</v>
       </c>
     </row>
@@ -7663,12 +7664,12 @@
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="49"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="44"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="23"/>
+      <c r="E159" s="45"/>
+    </row>
+    <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="44"/>
       <c r="B160" s="38" t="s">
         <v>254</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-      <c r="E166" s="44" t="s">
+      <c r="E166" s="45" t="s">
         <v>888</v>
       </c>
     </row>
@@ -7781,7 +7782,7 @@
         <v>143</v>
       </c>
       <c r="D167" s="23"/>
-      <c r="E167" s="44"/>
+      <c r="E167" s="45"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="47">
@@ -7796,7 +7797,7 @@
       <c r="D168" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="44" t="s">
+      <c r="E168" s="45" t="s">
         <v>889</v>
       </c>
     </row>
@@ -7807,7 +7808,7 @@
         <v>61</v>
       </c>
       <c r="D169" s="23"/>
-      <c r="E169" s="44"/>
+      <c r="E169" s="45"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="23">
@@ -7856,7 +7857,7 @@
       <c r="D172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E172" s="44" t="s">
+      <c r="E172" s="45" t="s">
         <v>891</v>
       </c>
     </row>
@@ -7867,7 +7868,7 @@
         <v>179</v>
       </c>
       <c r="D173" s="23"/>
-      <c r="E173" s="44"/>
+      <c r="E173" s="45"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="23">
@@ -7975,25 +7976,25 @@
       <c r="A180" s="47">
         <v>3</v>
       </c>
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C180" s="49" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="44" t="s">
+      <c r="E180" s="45" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="47"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="48"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="49"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="44"/>
+      <c r="E181" s="45"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="23">
@@ -8016,25 +8017,25 @@
       <c r="A183" s="47">
         <v>5</v>
       </c>
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E183" s="44" t="s">
+      <c r="E183" s="45" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="47"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="48"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="49"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="44"/>
+      <c r="E184" s="45"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="23">
@@ -8063,35 +8064,35 @@
       <c r="E186" s="41"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="53">
+      <c r="A187" s="47">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
-      <c r="E187" s="44" t="s">
+      <c r="E187" s="45" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="53"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="51"/>
+      <c r="C188" s="48"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="44"/>
+      <c r="E188" s="45"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="53"/>
+      <c r="A189" s="47"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="51"/>
+      <c r="C189" s="48"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="44"/>
+      <c r="E189" s="45"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="47">
@@ -8100,11 +8101,11 @@
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
-      <c r="E190" s="44" t="s">
+      <c r="E190" s="45" t="s">
         <v>903</v>
       </c>
     </row>
@@ -8113,20 +8114,20 @@
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="48"/>
+      <c r="C191" s="49"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E191" s="44"/>
+      <c r="E191" s="45"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="47"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="48"/>
+      <c r="C192" s="49"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="44"/>
+      <c r="E192" s="45"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="47">
@@ -8135,11 +8136,11 @@
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-      <c r="E193" s="44" t="s">
+      <c r="E193" s="45" t="s">
         <v>904</v>
       </c>
     </row>
@@ -8148,29 +8149,29 @@
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="48"/>
+      <c r="C194" s="49"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E194" s="44"/>
+      <c r="E194" s="45"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="47"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="48"/>
+      <c r="C195" s="49"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="44"/>
+      <c r="E195" s="45"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="47"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="48"/>
+      <c r="C196" s="49"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="44"/>
+      <c r="E196" s="45"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="47">
@@ -8185,7 +8186,7 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="44" t="s">
+      <c r="E197" s="45" t="s">
         <v>905</v>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="44"/>
+      <c r="E198" s="45"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="47"/>
@@ -8207,7 +8208,7 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-      <c r="E199" s="44"/>
+      <c r="E199" s="45"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="47"/>
@@ -8216,7 +8217,7 @@
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="44"/>
+      <c r="E200" s="45"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="47"/>
@@ -8225,7 +8226,7 @@
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="44"/>
+      <c r="E201" s="45"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="47">
@@ -8240,7 +8241,7 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E202" s="44" t="s">
+      <c r="E202" s="45" t="s">
         <v>906</v>
       </c>
     </row>
@@ -8251,7 +8252,7 @@
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="44"/>
+      <c r="E203" s="45"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="47"/>
@@ -8262,7 +8263,7 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-      <c r="E204" s="44"/>
+      <c r="E204" s="45"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="47"/>
@@ -8271,7 +8272,7 @@
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="44"/>
+      <c r="E205" s="45"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="47"/>
@@ -8280,7 +8281,7 @@
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="44"/>
+      <c r="E206" s="45"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="47"/>
@@ -8289,7 +8290,7 @@
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="44"/>
+      <c r="E207" s="45"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="47"/>
@@ -8298,7 +8299,7 @@
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="44"/>
+      <c r="E208" s="45"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="47"/>
@@ -8307,7 +8308,7 @@
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="44"/>
+      <c r="E209" s="45"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="47"/>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="44"/>
+      <c r="E210" s="45"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="47"/>
@@ -8325,7 +8326,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="44"/>
+      <c r="E211" s="45"/>
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A212" s="47">
@@ -8340,7 +8341,7 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E212" s="44"/>
+      <c r="E212" s="45"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="47"/>
@@ -8349,7 +8350,7 @@
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="44"/>
+      <c r="E213" s="45"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="47"/>
@@ -8360,7 +8361,7 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-      <c r="E214" s="44"/>
+      <c r="E214" s="45"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="47"/>
@@ -8369,7 +8370,7 @@
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="44"/>
+      <c r="E215" s="45"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="47"/>
@@ -8378,7 +8379,7 @@
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="44"/>
+      <c r="E216" s="45"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="47"/>
@@ -8387,7 +8388,7 @@
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="44"/>
+      <c r="E217" s="45"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="47"/>
@@ -8396,7 +8397,7 @@
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="44"/>
+      <c r="E218" s="45"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="47"/>
@@ -8405,7 +8406,7 @@
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="44"/>
+      <c r="E219" s="45"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="47"/>
@@ -8414,7 +8415,7 @@
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="44"/>
+      <c r="E220" s="45"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="47"/>
@@ -8423,7 +8424,7 @@
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="44"/>
+      <c r="E221" s="45"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="47"/>
@@ -8432,7 +8433,7 @@
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="44"/>
+      <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="47"/>
@@ -8441,7 +8442,7 @@
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="44"/>
+      <c r="E223" s="45"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="47"/>
@@ -8450,7 +8451,7 @@
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="44"/>
+      <c r="E224" s="45"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="47"/>
@@ -8459,7 +8460,7 @@
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="44"/>
+      <c r="E225" s="45"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="47"/>
@@ -8468,7 +8469,7 @@
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="44"/>
+      <c r="E226" s="45"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="47"/>
@@ -8477,7 +8478,7 @@
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="44"/>
+      <c r="E227" s="45"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="47"/>
@@ -8486,7 +8487,7 @@
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="44"/>
+      <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="47"/>
@@ -8495,7 +8496,7 @@
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="44"/>
+      <c r="E229" s="45"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="47"/>
@@ -8504,7 +8505,7 @@
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="44"/>
+      <c r="E230" s="45"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="47"/>
@@ -8513,7 +8514,7 @@
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="44"/>
+      <c r="E231" s="45"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="47"/>
@@ -8522,7 +8523,7 @@
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="44"/>
+      <c r="E232" s="45"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="47"/>
@@ -8531,7 +8532,7 @@
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="44"/>
+      <c r="E233" s="45"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="47"/>
@@ -8540,7 +8541,7 @@
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="44"/>
+      <c r="E234" s="45"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="47"/>
@@ -8549,7 +8550,7 @@
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="44"/>
+      <c r="E235" s="45"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="47"/>
@@ -8558,7 +8559,7 @@
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="44"/>
+      <c r="E236" s="45"/>
     </row>
     <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A237" s="47"/>
@@ -8567,7 +8568,7 @@
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="44"/>
+      <c r="E237" s="45"/>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="47"/>
@@ -8576,7 +8577,7 @@
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="44"/>
+      <c r="E238" s="45"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="47">
@@ -8585,84 +8586,94 @@
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="48" t="s">
+      <c r="C239" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
+      <c r="E239" s="45"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="47"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="48"/>
+      <c r="C240" s="49"/>
       <c r="D240" s="23"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" s="45"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="47"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="48"/>
+      <c r="C241" s="49"/>
       <c r="D241" s="23"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" s="45"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="47"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="48"/>
+      <c r="C242" s="49"/>
       <c r="D242" s="23"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" s="45"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="47"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="48"/>
+      <c r="C243" s="49"/>
       <c r="D243" s="23"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="45"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="47"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="48"/>
+      <c r="C244" s="49"/>
       <c r="D244" s="23"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" s="45"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="47"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="48"/>
+      <c r="C245" s="49"/>
       <c r="D245" s="23"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" s="45"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="47"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="48"/>
+      <c r="C246" s="49"/>
       <c r="D246" s="23"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="45"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="47"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="48"/>
+      <c r="C247" s="49"/>
       <c r="D247" s="23"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="45"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="47"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="48"/>
+      <c r="C248" s="49"/>
       <c r="D248" s="23"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" s="45"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="23">
         <v>1</v>
       </c>
@@ -8676,7 +8687,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="23">
         <v>2</v>
       </c>
@@ -8688,7 +8699,7 @@
       </c>
       <c r="D250" s="23"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="23">
         <v>3</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23">
         <v>4</v>
       </c>
@@ -8716,7 +8727,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A253" s="23">
         <v>5</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
         <v>6</v>
       </c>
@@ -8744,7 +8755,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
         <v>7</v>
       </c>
@@ -8758,7 +8769,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
         <v>8</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="23">
         <v>9</v>
       </c>
@@ -8786,160 +8797,161 @@
         <v>376</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="23"/>
-      <c r="B258" s="23" t="s">
+    <row r="258" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="44"/>
+      <c r="B258" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="C258" s="23"/>
-      <c r="D258" s="17"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C258" s="44"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="41"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="47">
         <v>1</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="48" t="s">
+      <c r="C259" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A260" s="47"/>
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="48"/>
+      <c r="C260" s="49"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="47"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="48"/>
+      <c r="C261" s="49"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="47"/>
       <c r="B262" s="22"/>
-      <c r="C262" s="48"/>
+      <c r="C262" s="49"/>
       <c r="D262" s="23"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="47">
         <v>2</v>
       </c>
-      <c r="B263" s="48" t="s">
+      <c r="B263" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="C263" s="48" t="s">
+      <c r="C263" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="47"/>
-      <c r="B264" s="48"/>
-      <c r="C264" s="48"/>
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
       <c r="D264" s="23"/>
     </row>
-    <row r="265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A265" s="47">
         <v>3</v>
       </c>
       <c r="B265" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C265" s="48" t="s">
+      <c r="C265" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D265" s="23"/>
     </row>
-    <row r="266" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="47"/>
       <c r="B266" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C266" s="48"/>
+      <c r="C266" s="49"/>
       <c r="D266" s="23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="47"/>
       <c r="B267" s="25"/>
-      <c r="C267" s="48"/>
+      <c r="C267" s="49"/>
       <c r="D267" s="23"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="47">
         <v>4</v>
       </c>
       <c r="B268" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C268" s="48" t="s">
+      <c r="C268" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D268" s="23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A269" s="47"/>
       <c r="B269" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C269" s="48"/>
+      <c r="C269" s="49"/>
       <c r="D269" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="47"/>
       <c r="B270" s="22"/>
-      <c r="C270" s="48"/>
+      <c r="C270" s="49"/>
       <c r="D270" s="23" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="47">
         <v>5</v>
       </c>
       <c r="B271" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C271" s="48" t="s">
+      <c r="C271" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D271" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="47"/>
       <c r="B272" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C272" s="48"/>
+      <c r="C272" s="49"/>
       <c r="D272" s="23"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="47"/>
       <c r="B273" s="25"/>
-      <c r="C273" s="48"/>
+      <c r="C273" s="49"/>
       <c r="D273" s="23"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -8977,7 +8989,7 @@
       <c r="B276" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C276" s="48" t="s">
+      <c r="C276" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D276" s="23" t="s">
@@ -8989,7 +9001,7 @@
       <c r="B277" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C277" s="48"/>
+      <c r="C277" s="49"/>
       <c r="D277" s="23" t="s">
         <v>404</v>
       </c>
@@ -8999,7 +9011,7 @@
       <c r="B278" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C278" s="48"/>
+      <c r="C278" s="49"/>
       <c r="D278" s="23" t="s">
         <v>406</v>
       </c>
@@ -9036,7 +9048,7 @@
       <c r="A282" s="47">
         <v>3</v>
       </c>
-      <c r="B282" s="51" t="s">
+      <c r="B282" s="48" t="s">
         <v>409</v>
       </c>
       <c r="C282" s="22" t="s">
@@ -9048,13 +9060,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="47"/>
-      <c r="B283" s="51"/>
+      <c r="B283" s="48"/>
       <c r="C283" s="22"/>
       <c r="D283" s="23"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="47"/>
-      <c r="B284" s="51"/>
+      <c r="B284" s="48"/>
       <c r="C284" s="22" t="s">
         <v>411</v>
       </c>
@@ -9067,7 +9079,7 @@
       <c r="B285" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C285" s="48" t="s">
+      <c r="C285" s="49" t="s">
         <v>413</v>
       </c>
       <c r="D285" s="23" t="s">
@@ -9079,7 +9091,7 @@
       <c r="B286" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C286" s="48"/>
+      <c r="C286" s="49"/>
       <c r="D286" s="23" t="s">
         <v>416</v>
       </c>
@@ -9087,7 +9099,7 @@
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="47"/>
       <c r="B287" s="25"/>
-      <c r="C287" s="48"/>
+      <c r="C287" s="49"/>
       <c r="D287" s="23"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -9097,7 +9109,7 @@
       <c r="B288" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="C288" s="48" t="s">
+      <c r="C288" s="49" t="s">
         <v>418</v>
       </c>
       <c r="D288" s="23"/>
@@ -9105,7 +9117,7 @@
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="47"/>
       <c r="B289" s="50"/>
-      <c r="C289" s="48"/>
+      <c r="C289" s="49"/>
       <c r="D289" s="23" t="s">
         <v>419</v>
       </c>
@@ -9117,7 +9129,7 @@
       <c r="B290" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="C290" s="48" t="s">
+      <c r="C290" s="49" t="s">
         <v>413</v>
       </c>
       <c r="D290" s="23"/>
@@ -9125,17 +9137,17 @@
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="47"/>
       <c r="B291" s="50"/>
-      <c r="C291" s="48"/>
+      <c r="C291" s="49"/>
       <c r="D291" s="23"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="47">
         <v>7</v>
       </c>
-      <c r="B292" s="51" t="s">
+      <c r="B292" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="C292" s="48" t="s">
+      <c r="C292" s="49" t="s">
         <v>156</v>
       </c>
       <c r="D292" s="23" t="s">
@@ -9144,8 +9156,8 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="47"/>
-      <c r="B293" s="51"/>
-      <c r="C293" s="48"/>
+      <c r="B293" s="48"/>
+      <c r="C293" s="49"/>
       <c r="D293" s="23"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -9155,7 +9167,7 @@
       <c r="B294" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C294" s="48" t="s">
+      <c r="C294" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D294" s="23"/>
@@ -9165,7 +9177,7 @@
       <c r="B295" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C295" s="48"/>
+      <c r="C295" s="49"/>
       <c r="D295" s="30" t="s">
         <v>425</v>
       </c>
@@ -9175,7 +9187,7 @@
       <c r="B296" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C296" s="48"/>
+      <c r="C296" s="49"/>
       <c r="D296" s="30" t="s">
         <v>427</v>
       </c>
@@ -9185,7 +9197,7 @@
       <c r="B297" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C297" s="48"/>
+      <c r="C297" s="49"/>
       <c r="D297" s="30"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -9193,7 +9205,7 @@
       <c r="B298" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C298" s="48"/>
+      <c r="C298" s="49"/>
       <c r="D298" s="30"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -9201,7 +9213,7 @@
       <c r="B299" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C299" s="48"/>
+      <c r="C299" s="49"/>
       <c r="D299" s="23"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -9209,7 +9221,7 @@
       <c r="B300" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C300" s="48"/>
+      <c r="C300" s="49"/>
       <c r="D300" s="30" t="s">
         <v>432</v>
       </c>
@@ -9219,7 +9231,7 @@
       <c r="B301" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C301" s="48"/>
+      <c r="C301" s="49"/>
       <c r="D301" s="30" t="s">
         <v>434</v>
       </c>
@@ -9227,17 +9239,17 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="47"/>
       <c r="B302" s="25"/>
-      <c r="C302" s="48"/>
+      <c r="C302" s="49"/>
       <c r="D302" s="23"/>
     </row>
     <row r="303" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="47">
         <v>9</v>
       </c>
-      <c r="B303" s="51" t="s">
+      <c r="B303" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="C303" s="48" t="s">
+      <c r="C303" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D303" s="23" t="s">
@@ -9246,8 +9258,8 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="47"/>
-      <c r="B304" s="51"/>
-      <c r="C304" s="48"/>
+      <c r="B304" s="48"/>
+      <c r="C304" s="49"/>
       <c r="D304" s="23"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -9313,7 +9325,7 @@
       <c r="B309" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C309" s="48" t="s">
+      <c r="C309" s="49" t="s">
         <v>286</v>
       </c>
       <c r="D309" s="30" t="s">
@@ -9325,7 +9337,7 @@
       <c r="B310" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C310" s="48"/>
+      <c r="C310" s="49"/>
       <c r="D310" s="23"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,23 +9345,23 @@
       <c r="B311" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C311" s="48"/>
+      <c r="C311" s="49"/>
       <c r="D311" s="23"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="47"/>
       <c r="B312" s="25"/>
-      <c r="C312" s="48"/>
+      <c r="C312" s="49"/>
       <c r="D312" s="23"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="47">
         <v>3</v>
       </c>
-      <c r="B313" s="51" t="s">
+      <c r="B313" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="C313" s="48" t="s">
+      <c r="C313" s="49" t="s">
         <v>449</v>
       </c>
       <c r="D313" s="30" t="s">
@@ -9358,8 +9370,8 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="47"/>
-      <c r="B314" s="51"/>
-      <c r="C314" s="48"/>
+      <c r="B314" s="48"/>
+      <c r="C314" s="49"/>
       <c r="D314" s="30"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -9446,7 +9458,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="23">
         <v>10</v>
       </c>
@@ -9460,103 +9472,104 @@
         <v>463</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="23"/>
-      <c r="B322" s="23" t="s">
+    <row r="322" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="44"/>
+      <c r="B322" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="C322" s="23"/>
-      <c r="D322" s="17"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C322" s="44"/>
+      <c r="D322" s="40"/>
+      <c r="E322" s="41"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="47">
         <v>1</v>
       </c>
-      <c r="B323" s="51" t="s">
+      <c r="B323" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="C323" s="51" t="s">
+      <c r="C323" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D323" s="23" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="47"/>
-      <c r="B324" s="51"/>
-      <c r="C324" s="51"/>
+      <c r="B324" s="48"/>
+      <c r="C324" s="48"/>
       <c r="D324" s="23"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="47">
         <v>1</v>
       </c>
       <c r="B325" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C325" s="48" t="s">
+      <c r="C325" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D325" s="23"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="47"/>
       <c r="B326" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C326" s="48"/>
+      <c r="C326" s="49"/>
       <c r="D326" s="23" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="47"/>
       <c r="B327" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C327" s="48"/>
+      <c r="C327" s="49"/>
       <c r="D327" s="23"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="47"/>
       <c r="B328" s="25"/>
-      <c r="C328" s="48"/>
+      <c r="C328" s="49"/>
       <c r="D328" s="23"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="47"/>
       <c r="B329" s="25"/>
-      <c r="C329" s="48"/>
+      <c r="C329" s="49"/>
       <c r="D329" s="23"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="47"/>
       <c r="B330" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C330" s="48" t="s">
+      <c r="C330" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D330" s="30" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="47"/>
       <c r="B331" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C331" s="48"/>
+      <c r="C331" s="49"/>
       <c r="D331" s="23"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="47"/>
       <c r="B332" s="25"/>
-      <c r="C332" s="48"/>
+      <c r="C332" s="49"/>
       <c r="D332" s="23"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="47"/>
       <c r="B333" s="25" t="s">
         <v>309</v>
@@ -9568,7 +9581,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="47"/>
       <c r="B334" s="25" t="s">
         <v>475</v>
@@ -9576,7 +9589,7 @@
       <c r="C334" s="22"/>
       <c r="D334" s="23"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="47"/>
       <c r="B335" s="25"/>
       <c r="C335" s="22" t="s">
@@ -9584,14 +9597,14 @@
       </c>
       <c r="D335" s="23"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="47">
         <v>2</v>
       </c>
       <c r="B336" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C336" s="48" t="s">
+      <c r="C336" s="49" t="s">
         <v>413</v>
       </c>
       <c r="D336" s="30" t="s">
@@ -9603,7 +9616,7 @@
       <c r="B337" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C337" s="48"/>
+      <c r="C337" s="49"/>
       <c r="D337" s="23"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -9611,7 +9624,7 @@
       <c r="B338" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C338" s="48"/>
+      <c r="C338" s="49"/>
       <c r="D338" s="23"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -9619,7 +9632,7 @@
       <c r="B339" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C339" s="48"/>
+      <c r="C339" s="49"/>
       <c r="D339" s="23"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -9627,13 +9640,13 @@
       <c r="B340" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C340" s="48"/>
+      <c r="C340" s="49"/>
       <c r="D340" s="23"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="47"/>
       <c r="B341" s="25"/>
-      <c r="C341" s="48"/>
+      <c r="C341" s="49"/>
       <c r="D341" s="23"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -9643,7 +9656,7 @@
       <c r="B342" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="C342" s="48" t="s">
+      <c r="C342" s="49" t="s">
         <v>481</v>
       </c>
       <c r="D342" s="30" t="s">
@@ -9655,7 +9668,7 @@
       <c r="B343" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C343" s="48"/>
+      <c r="C343" s="49"/>
       <c r="D343" s="23"/>
     </row>
     <row r="344" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9663,7 +9676,7 @@
       <c r="B344" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C344" s="48"/>
+      <c r="C344" s="49"/>
       <c r="D344" s="30" t="s">
         <v>485</v>
       </c>
@@ -9673,7 +9686,7 @@
       <c r="B345" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C345" s="48"/>
+      <c r="C345" s="49"/>
       <c r="D345" s="23"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -9681,7 +9694,7 @@
       <c r="B346" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C346" s="48"/>
+      <c r="C346" s="49"/>
       <c r="D346" s="23"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -9689,7 +9702,7 @@
       <c r="B347" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C347" s="48"/>
+      <c r="C347" s="49"/>
       <c r="D347" s="23"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -9697,7 +9710,7 @@
       <c r="B348" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C348" s="48"/>
+      <c r="C348" s="49"/>
       <c r="D348" s="23"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -9705,7 +9718,7 @@
       <c r="B349" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="C349" s="48"/>
+      <c r="C349" s="49"/>
       <c r="D349" s="23"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -9713,23 +9726,23 @@
       <c r="B350" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C350" s="48"/>
+      <c r="C350" s="49"/>
       <c r="D350" s="23"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="47"/>
       <c r="B351" s="25"/>
-      <c r="C351" s="48"/>
+      <c r="C351" s="49"/>
       <c r="D351" s="23"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="47">
         <v>7</v>
       </c>
-      <c r="B352" s="51" t="s">
+      <c r="B352" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="C352" s="48" t="s">
+      <c r="C352" s="49" t="s">
         <v>156</v>
       </c>
       <c r="D352" s="30" t="s">
@@ -9738,8 +9751,8 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="47"/>
-      <c r="B353" s="51"/>
-      <c r="C353" s="48"/>
+      <c r="B353" s="48"/>
+      <c r="C353" s="49"/>
       <c r="D353" s="23"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -9763,7 +9776,7 @@
       <c r="B355" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="C355" s="48" t="s">
+      <c r="C355" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D355" s="30" t="s">
@@ -9775,7 +9788,7 @@
       <c r="B356" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C356" s="48"/>
+      <c r="C356" s="49"/>
       <c r="D356" s="23"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -9783,7 +9796,7 @@
       <c r="B357" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C357" s="48"/>
+      <c r="C357" s="49"/>
       <c r="D357" s="23"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -9791,7 +9804,7 @@
       <c r="B358" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C358" s="48"/>
+      <c r="C358" s="49"/>
       <c r="D358" s="23"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -9799,7 +9812,7 @@
       <c r="B359" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C359" s="48"/>
+      <c r="C359" s="49"/>
       <c r="D359" s="23"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9807,17 +9820,17 @@
       <c r="B360" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="C360" s="48"/>
+      <c r="C360" s="49"/>
       <c r="D360" s="23"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="47">
         <v>11</v>
       </c>
-      <c r="B361" s="51" t="s">
+      <c r="B361" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="C361" s="48" t="s">
+      <c r="C361" s="49" t="s">
         <v>481</v>
       </c>
       <c r="D361" s="23" t="s">
@@ -9826,8 +9839,8 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="47"/>
-      <c r="B362" s="51"/>
-      <c r="C362" s="48"/>
+      <c r="B362" s="48"/>
+      <c r="C362" s="49"/>
       <c r="D362" s="23"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9876,10 +9889,10 @@
       <c r="A366" s="47">
         <v>3</v>
       </c>
-      <c r="B366" s="51" t="s">
+      <c r="B366" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="C366" s="48" t="s">
+      <c r="C366" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D366" s="30" t="s">
@@ -9888,8 +9901,8 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="47"/>
-      <c r="B367" s="51"/>
-      <c r="C367" s="48"/>
+      <c r="B367" s="48"/>
+      <c r="C367" s="49"/>
       <c r="D367" s="23"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -9899,20 +9912,20 @@
       <c r="B368" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="C368" s="48" t="s">
+      <c r="C368" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D368" s="30" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="47"/>
       <c r="B369" s="50"/>
-      <c r="C369" s="48"/>
+      <c r="C369" s="49"/>
       <c r="D369" s="23"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="23">
         <v>5</v>
       </c>
@@ -9926,7 +9939,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="23">
         <v>6</v>
       </c>
@@ -9940,7 +9953,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="23">
         <v>7</v>
       </c>
@@ -9954,39 +9967,40 @@
         <v>520</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="23"/>
-      <c r="B373" s="23" t="s">
+    <row r="373" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="44"/>
+      <c r="B373" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="C373" s="23"/>
-      <c r="D373" s="17"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C373" s="44"/>
+      <c r="D373" s="40"/>
+      <c r="E373" s="41"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="47">
         <v>1</v>
       </c>
       <c r="B374" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C374" s="48" t="s">
+      <c r="C374" s="49" t="s">
         <v>523</v>
       </c>
       <c r="D374" s="30" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="47"/>
       <c r="B375" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C375" s="48"/>
+      <c r="C375" s="49"/>
       <c r="D375" s="30" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="23">
         <v>1</v>
       </c>
@@ -10000,7 +10014,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="23">
         <v>2</v>
       </c>
@@ -10014,35 +10028,36 @@
         <v>530</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="47">
         <v>3</v>
       </c>
-      <c r="B378" s="48" t="s">
+      <c r="B378" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="C378" s="48" t="s">
+      <c r="C378" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D378" s="30" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="47"/>
-      <c r="B379" s="48"/>
-      <c r="C379" s="48"/>
+      <c r="B379" s="49"/>
+      <c r="C379" s="49"/>
       <c r="D379" s="17"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="23"/>
-      <c r="B380" s="23" t="s">
+    <row r="380" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="44"/>
+      <c r="B380" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="C380" s="23"/>
-      <c r="D380" s="17"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C380" s="44"/>
+      <c r="D380" s="40"/>
+      <c r="E380" s="41"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="23">
         <v>1</v>
       </c>
@@ -10056,7 +10071,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="23">
         <v>3</v>
       </c>
@@ -10070,26 +10085,26 @@
         <v>537</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="47">
         <v>4</v>
       </c>
       <c r="B383" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C383" s="48" t="s">
+      <c r="C383" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D383" s="30" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="47"/>
       <c r="B384" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C384" s="48"/>
+      <c r="C384" s="49"/>
       <c r="D384" s="23"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -10097,7 +10112,7 @@
       <c r="B385" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C385" s="48"/>
+      <c r="C385" s="49"/>
       <c r="D385" s="23"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -10105,13 +10120,13 @@
       <c r="B386" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C386" s="48"/>
+      <c r="C386" s="49"/>
       <c r="D386" s="23"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="47"/>
       <c r="B387" s="25"/>
-      <c r="C387" s="48"/>
+      <c r="C387" s="49"/>
       <c r="D387" s="23"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -10121,7 +10136,7 @@
       <c r="B388" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="C388" s="48" t="s">
+      <c r="C388" s="49" t="s">
         <v>125</v>
       </c>
       <c r="D388" s="30" t="s">
@@ -10133,7 +10148,7 @@
       <c r="B389" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="C389" s="48"/>
+      <c r="C389" s="49"/>
       <c r="D389" s="23"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -10141,17 +10156,17 @@
       <c r="B390" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="C390" s="48"/>
+      <c r="C390" s="49"/>
       <c r="D390" s="23"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="47">
         <v>6</v>
       </c>
-      <c r="B391" s="51" t="s">
+      <c r="B391" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="C391" s="48" t="s">
+      <c r="C391" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D391" s="30" t="s">
@@ -10160,18 +10175,18 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="47"/>
-      <c r="B392" s="51"/>
-      <c r="C392" s="48"/>
+      <c r="B392" s="48"/>
+      <c r="C392" s="49"/>
       <c r="D392" s="23"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="47">
         <v>7</v>
       </c>
-      <c r="B393" s="51" t="s">
+      <c r="B393" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="C393" s="48" t="s">
+      <c r="C393" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D393" s="30" t="s">
@@ -10180,8 +10195,8 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="47"/>
-      <c r="B394" s="51"/>
-      <c r="C394" s="48"/>
+      <c r="B394" s="48"/>
+      <c r="C394" s="49"/>
       <c r="D394" s="23"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -10191,7 +10206,7 @@
       <c r="B395" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C395" s="48" t="s">
+      <c r="C395" s="49" t="s">
         <v>552</v>
       </c>
       <c r="D395" s="30" t="s">
@@ -10203,23 +10218,23 @@
       <c r="B396" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C396" s="48"/>
+      <c r="C396" s="49"/>
       <c r="D396" s="23"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="47"/>
       <c r="B397" s="20"/>
-      <c r="C397" s="48"/>
+      <c r="C397" s="49"/>
       <c r="D397" s="23"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="47">
         <v>1</v>
       </c>
-      <c r="B398" s="51" t="s">
+      <c r="B398" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="C398" s="48" t="s">
+      <c r="C398" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D398" s="30" t="s">
@@ -10228,8 +10243,8 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="47"/>
-      <c r="B399" s="51"/>
-      <c r="C399" s="48"/>
+      <c r="B399" s="48"/>
+      <c r="C399" s="49"/>
       <c r="D399" s="23"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -10246,7 +10261,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="23">
         <v>3</v>
       </c>
@@ -10258,7 +10273,7 @@
       </c>
       <c r="D401" s="23"/>
     </row>
-    <row r="402" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A402" s="23">
         <v>4</v>
       </c>
@@ -10272,7 +10287,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="23">
         <v>4</v>
       </c>
@@ -10286,7 +10301,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A404" s="23">
         <v>5</v>
       </c>
@@ -10300,7 +10315,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="23">
         <v>6</v>
       </c>
@@ -10314,7 +10329,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A406" s="23">
         <v>7</v>
       </c>
@@ -10326,47 +10341,47 @@
       </c>
       <c r="D406" s="23"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="47">
         <v>1</v>
       </c>
-      <c r="B407" s="51" t="s">
+      <c r="B407" s="48" t="s">
         <v>569</v>
       </c>
-      <c r="C407" s="48" t="s">
+      <c r="C407" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D407" s="30" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="47"/>
-      <c r="B408" s="51"/>
-      <c r="C408" s="48"/>
+      <c r="B408" s="48"/>
+      <c r="C408" s="49"/>
       <c r="D408" s="23"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="47">
         <v>2</v>
       </c>
-      <c r="B409" s="51" t="s">
+      <c r="B409" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="C409" s="48" t="s">
+      <c r="C409" s="49" t="s">
         <v>286</v>
       </c>
       <c r="D409" s="30" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="47"/>
-      <c r="B410" s="51"/>
-      <c r="C410" s="48"/>
+      <c r="B410" s="48"/>
+      <c r="C410" s="49"/>
       <c r="D410" s="23"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="23">
         <v>3</v>
       </c>
@@ -10380,53 +10395,54 @@
         <v>574</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="47">
         <v>4</v>
       </c>
-      <c r="B412" s="51" t="s">
+      <c r="B412" s="48" t="s">
         <v>573</v>
       </c>
-      <c r="C412" s="48" t="s">
+      <c r="C412" s="49" t="s">
         <v>575</v>
       </c>
       <c r="D412" s="30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="47"/>
-      <c r="B413" s="51"/>
-      <c r="C413" s="48"/>
+      <c r="B413" s="48"/>
+      <c r="C413" s="49"/>
       <c r="D413" s="23"/>
     </row>
-    <row r="414" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="47">
         <v>5</v>
       </c>
-      <c r="B414" s="51" t="s">
+      <c r="B414" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="C414" s="48" t="s">
+      <c r="C414" s="49" t="s">
         <v>204</v>
       </c>
       <c r="D414" s="30" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="47"/>
-      <c r="B415" s="51"/>
-      <c r="C415" s="48"/>
+      <c r="B415" s="48"/>
+      <c r="C415" s="49"/>
       <c r="D415" s="23"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="23"/>
-      <c r="B416" s="23" t="s">
+    <row r="416" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="44"/>
+      <c r="B416" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="C416" s="23"/>
-      <c r="D416" s="17"/>
+      <c r="C416" s="44"/>
+      <c r="D416" s="40"/>
+      <c r="E416" s="41"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="47">
@@ -10435,7 +10451,7 @@
       <c r="B417" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="C417" s="51" t="s">
+      <c r="C417" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D417" s="17" t="s">
@@ -10447,7 +10463,7 @@
       <c r="B418" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="C418" s="51"/>
+      <c r="C418" s="48"/>
       <c r="D418" s="17" t="s">
         <v>582</v>
       </c>
@@ -10457,7 +10473,7 @@
       <c r="B419" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="C419" s="51"/>
+      <c r="C419" s="48"/>
       <c r="D419" s="17" t="s">
         <v>584</v>
       </c>
@@ -10465,7 +10481,7 @@
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="47"/>
       <c r="B420" s="25"/>
-      <c r="C420" s="51"/>
+      <c r="C420" s="48"/>
       <c r="D420" s="17"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -10475,7 +10491,7 @@
       <c r="B421" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C421" s="51" t="s">
+      <c r="C421" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D421" s="17" t="s">
@@ -10487,7 +10503,7 @@
       <c r="B422" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="C422" s="51"/>
+      <c r="C422" s="48"/>
       <c r="D422" s="17" t="s">
         <v>584</v>
       </c>
@@ -10495,7 +10511,7 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="47"/>
       <c r="B423" s="25"/>
-      <c r="C423" s="51"/>
+      <c r="C423" s="48"/>
       <c r="D423" s="17"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -10505,7 +10521,7 @@
       <c r="B424" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="C424" s="51" t="s">
+      <c r="C424" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D424" s="17" t="s">
@@ -10517,7 +10533,7 @@
       <c r="B425" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="C425" s="51"/>
+      <c r="C425" s="48"/>
       <c r="D425" s="17" t="s">
         <v>584</v>
       </c>
@@ -10525,7 +10541,7 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="47"/>
       <c r="B426" s="25"/>
-      <c r="C426" s="51"/>
+      <c r="C426" s="48"/>
       <c r="D426" s="17"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -10535,216 +10551,72 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="302">
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A417:A420"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="A421:A423"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="A424:A426"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="A395:A397"/>
-    <mergeCell ref="C395:C397"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="A383:A387"/>
-    <mergeCell ref="C383:C387"/>
-    <mergeCell ref="A388:A390"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="A342:A351"/>
-    <mergeCell ref="C342:C351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="C355:C360"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="C325:C329"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="A336:A341"/>
-    <mergeCell ref="C336:C341"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="B323:B324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="A294:A302"/>
-    <mergeCell ref="C294:C302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
+  <mergeCells count="303">
+    <mergeCell ref="E239:E248"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10769,75 +10641,220 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="C271:C273"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="A294:A302"/>
+    <mergeCell ref="C294:C302"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="C325:C329"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="A333:A335"/>
+    <mergeCell ref="A336:A341"/>
+    <mergeCell ref="C336:C341"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="A323:A324"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="A342:A351"/>
+    <mergeCell ref="C342:C351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="C355:C360"/>
+    <mergeCell ref="A383:A387"/>
+    <mergeCell ref="C383:C387"/>
+    <mergeCell ref="A388:A390"/>
+    <mergeCell ref="C388:C390"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="A395:A397"/>
+    <mergeCell ref="C395:C397"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="A417:A420"/>
+    <mergeCell ref="C417:C420"/>
+    <mergeCell ref="A421:A423"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="A424:A426"/>
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
     <mergeCell ref="E166:E167"/>
     <mergeCell ref="E168:E169"/>
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="E180:E181"/>
     <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E119:E120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14431,12 +14448,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEBC747F347A034FA0018CAF7D99052D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f062dc1f9491f3faec7cf0ae28391ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c9ab29b-20bf-44a4-a666-f4222d918f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78db0b84c272b9d2637594810e5a6fb9" ns2:_="">
     <xsd:import namespace="1c9ab29b-20bf-44a4-a666-f4222d918f76"/>
@@ -14606,6 +14617,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
@@ -14615,15 +14632,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D319-703A-4107-B71F-1050E487FBEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14639,4 +14647,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC37960-1FAF-4B09-A3FF-3EC3D26D7A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D9F22A-D548-40FB-A7CD-F0681D44F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
     <sheet name="FSD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRD!$A$1:$D$256</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FSD!$A$1:$E$209</definedName>
     <definedName name="_Toc31101033" localSheetId="0">BRD!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="907">
   <si>
     <t>No</t>
   </si>
@@ -4994,9 +4994,6 @@
     <t>Resolusi.DocPertanggungJawabanTL, Resolusi.PengakhiranLikuidasi</t>
   </si>
   <si>
-    <t>FU.Workflow</t>
-  </si>
-  <si>
     <t>Resolusi.PengajuanRKAB, Resolusi.TimLikuidasi, Resolusi.PICKegiatan, Penjaminan.Bank, Resolusi.Periode.BDL</t>
   </si>
   <si>
@@ -5007,6 +5004,9 @@
   </si>
   <si>
     <t>Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.PengirimanUndanganKAP, Resolusi.JenisKAP, FU.Repository, Resolusi.NeracaPenutupAudit</t>
+  </si>
+  <si>
+    <t>FU.Repository, FU.Notifikasi, Resolusi.TimLikuidasi, Resolusi.LaporanKeuanganBDL, LaporanAsetNetto, LaporanBulananTimLikuidasi</t>
   </si>
 </sst>
 </file>
@@ -5112,7 +5112,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5134,6 +5134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5165,7 +5171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5276,14 +5282,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5295,19 +5294,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5624,23 +5648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202:E211"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239:E247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="96.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="96.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="85" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="14"/>
+    <col min="6" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5657,358 +5681,358 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+    <row r="2" spans="1:5" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="19" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="E3" s="56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="47" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="47" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="53">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="47" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="47" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="53">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="47" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="58" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="52"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="E21" s="58"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="58" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="E23" s="58"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="53">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="58" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="53">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="58" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="48">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="58" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="48">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6018,12 +6042,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="58" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6031,10 +6055,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6044,19 +6068,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+      <c r="E33" s="58"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="48">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6066,12 +6090,12 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="47" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6079,10 +6103,10 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6090,36 +6114,36 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="47">
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="48">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="47">
+      <c r="E38" s="47"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="48">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6129,12 +6153,12 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="47" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6142,10 +6166,10 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="E40" s="47"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6155,132 +6179,132 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="47">
+      <c r="E41" s="47"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="47" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
+      <c r="E43" s="47"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="48">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="47" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="E45" s="47"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+      <c r="E46" s="47"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="47" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="48"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="44"/>
-    </row>
-    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="48"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="48"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="44"/>
-    </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="E49" s="47"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="48"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="44"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+      <c r="E50" s="47"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="47">
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="48">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6290,12 +6314,12 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="47" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6303,10 +6327,10 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="44"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="E53" s="47"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6316,10 +6340,10 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="44"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="E54" s="47"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6327,10 +6351,10 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="44"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="E55" s="47"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6338,209 +6362,209 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="44"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
+      <c r="E56" s="47"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="48">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="50" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="47" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="44"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="E58" s="47"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="48"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="44"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="47">
+      <c r="E59" s="47"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="48">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="47" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="48"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="44"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="47">
+      <c r="E61" s="47"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="48">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="47" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="48"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="44"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
+      <c r="E63" s="47"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="48">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="47" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="48"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="44"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="47">
+      <c r="E65" s="47"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="48">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="47" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="48"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="48"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="44"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="47">
+      <c r="E67" s="47"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="48">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="50" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="44" t="s">
+      <c r="E68" s="47" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="48"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="44"/>
-    </row>
-    <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37" t="s">
+      <c r="E69" s="47"/>
+    </row>
+    <row r="70" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
+      <c r="B70" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="37"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="40"/>
       <c r="E70" s="41"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="48">
         <v>1</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E71" s="47" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="48"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="44"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="47"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>2</v>
       </c>
@@ -6557,7 +6581,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>3</v>
       </c>
@@ -6574,79 +6598,79 @@
         <v>845</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47">
+    <row r="75" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="48">
         <v>4</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="47" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="48"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="48"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="44"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="47">
+      <c r="E76" s="47"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="48">
         <v>5</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="44" t="s">
+      <c r="E77" s="47" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="48"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="48"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="44"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="47">
+      <c r="E78" s="47"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="48">
         <v>6</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="44" t="s">
+      <c r="E79" s="47" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="48"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="48"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="50"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="44"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="47"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>7</v>
       </c>
@@ -6663,35 +6687,35 @@
         <v>847</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="47">
+    <row r="82" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="48">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="44" t="s">
+      <c r="E82" s="47" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+    <row r="83" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A83" s="48"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="48"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="44"/>
-    </row>
-    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E83" s="47"/>
+    </row>
+    <row r="84" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>2</v>
       </c>
@@ -6708,33 +6732,33 @@
         <v>849</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="47">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="48">
         <v>3</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="51" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="47" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="50"/>
+    <row r="86" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="44"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="47"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>4</v>
       </c>
@@ -6751,108 +6775,108 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="47">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="48">
         <v>5</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="50" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="47" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="48"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="48"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="44"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="47">
+      <c r="E89" s="47"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="48">
         <v>6</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="47" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="51"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="48"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="44"/>
-    </row>
-    <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47">
+      <c r="E91" s="47"/>
+    </row>
+    <row r="92" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="48">
         <v>7</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="50" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="47" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="48"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="48"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="50"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="44"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="47">
+      <c r="E93" s="47"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="48">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="47" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="48"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="48"/>
+      <c r="C95" s="50"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="44"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="47">
+      <c r="E95" s="47"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="48">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6864,12 +6888,12 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="47" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="48"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -6879,9 +6903,9 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="44"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="47"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>10</v>
       </c>
@@ -6898,7 +6922,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>11</v>
       </c>
@@ -6915,7 +6939,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>12</v>
       </c>
@@ -6932,8 +6956,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="47">
+    <row r="101" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A101" s="48">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -6945,12 +6969,12 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="47" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="48"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -6960,9 +6984,9 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="44"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="47"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>14</v>
       </c>
@@ -6979,7 +7003,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>15</v>
       </c>
@@ -6996,93 +7020,93 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="47">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="48">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="50" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="47" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="48"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="48"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="44"/>
-    </row>
-    <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
+      <c r="E106" s="47"/>
+    </row>
+    <row r="107" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A107" s="48"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="48"/>
+      <c r="C107" s="50"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="44"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+      <c r="E107" s="47"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="48"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="48"/>
+      <c r="C108" s="50"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="44"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+      <c r="E108" s="47"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="48"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="48"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="44"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+      <c r="E109" s="47"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="48"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="48"/>
+      <c r="C110" s="50"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="44"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="47">
+      <c r="E110" s="47"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="48">
         <v>2</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="E111" s="47" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="48"/>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="48"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="50"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="44"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="47"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>3</v>
       </c>
@@ -7099,51 +7123,51 @@
         <v>861</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="47">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="48">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="44" t="s">
+      <c r="E114" s="47" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="48"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="44"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
+      <c r="E115" s="47"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="48"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="48"/>
+      <c r="C116" s="50"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="44"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
+      <c r="E116" s="47"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="48"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="48"/>
+      <c r="C117" s="50"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="44"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E117" s="47"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>5</v>
       </c>
@@ -7160,84 +7184,84 @@
         <v>862</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="47">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="48">
         <v>6</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="50" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="47" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="48"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="48"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="44"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="47">
+      <c r="E120" s="47"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="48">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="50" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="44" t="s">
+      <c r="E121" s="47" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="48"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="48"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="44"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
+      <c r="E122" s="47"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="48"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="50"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="44"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="47"/>
+      <c r="E123" s="47"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="48"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="48"/>
+      <c r="C124" s="50"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="44"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="47"/>
+      <c r="E124" s="47"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="48"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="48"/>
+      <c r="C125" s="50"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="44"/>
-    </row>
-    <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="47"/>
+    </row>
+    <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>7</v>
       </c>
@@ -7254,7 +7278,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="37" t="s">
         <v>210</v>
@@ -7263,411 +7287,411 @@
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="47">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="48">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="50" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="44" t="s">
+      <c r="E128" s="47" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="48"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="50"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="44"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
+      <c r="E129" s="47"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="48"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="50"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="44"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="47">
+      <c r="E130" s="47"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="48">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C131" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="44" t="s">
+      <c r="E131" s="47" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="48"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="48"/>
+      <c r="C132" s="50"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="44"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
+      <c r="E132" s="47"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="48"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="48"/>
+      <c r="C133" s="50"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="44"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
+      <c r="E133" s="47"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="48"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="48"/>
+      <c r="C134" s="50"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="44"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="47">
+      <c r="E134" s="47"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="48">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="44" t="s">
+      <c r="E135" s="47" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="48"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="48"/>
+      <c r="C136" s="50"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="44"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
+      <c r="E136" s="47"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="48"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="48"/>
+      <c r="C137" s="50"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="44"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
+      <c r="E137" s="47"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="48"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="48"/>
+      <c r="C138" s="50"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="44"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
+      <c r="E138" s="47"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="48"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="48"/>
+      <c r="C139" s="50"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="44"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="47">
+      <c r="E139" s="47"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="48">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="50" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="44" t="s">
+      <c r="E140" s="47" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="48"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="48"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="44"/>
-    </row>
-    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="47">
+      <c r="E141" s="47"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="48">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="44" t="s">
+      <c r="E142" s="47" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="48"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="48"/>
+      <c r="C143" s="50"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="44"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="47">
+      <c r="E143" s="47"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="48">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C144" s="50" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="44" t="s">
+      <c r="E144" s="47" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="48"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="48"/>
+      <c r="C145" s="50"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="44"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="47">
+      <c r="E145" s="47"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="48">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C146" s="50" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="44" t="s">
+      <c r="E146" s="47" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="48"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="48"/>
+      <c r="C147" s="50"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="44"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="47">
+      <c r="E147" s="47"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="48">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="48" t="s">
+      <c r="C148" s="50" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="44" t="s">
+      <c r="E148" s="47" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="48"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="48"/>
+      <c r="C149" s="50"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="44"/>
-    </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="47">
+      <c r="E149" s="47"/>
+    </row>
+    <row r="150" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A150" s="48">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="50" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="44" t="s">
+      <c r="E150" s="47" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="48"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="48"/>
+      <c r="C151" s="50"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="44"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="47">
+      <c r="E151" s="47"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="48">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="50" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="44" t="s">
+      <c r="E152" s="47" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="48"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="48"/>
+      <c r="C153" s="50"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="44"/>
-    </row>
-    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="47">
+      <c r="E153" s="47"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="48">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="50" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="44" t="s">
+      <c r="E154" s="47" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="48"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="48"/>
+      <c r="C155" s="50"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="44"/>
-    </row>
-    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="47">
+      <c r="E155" s="47"/>
+    </row>
+    <row r="156" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A156" s="48">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="48" t="s">
+      <c r="C156" s="50" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="44" t="s">
+      <c r="E156" s="47" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="48"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="48"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="44"/>
-    </row>
-    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="47">
+      <c r="E157" s="47"/>
+    </row>
+    <row r="158" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A158" s="48">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="48" t="s">
+      <c r="C158" s="50" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="44" t="s">
+      <c r="E158" s="47" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="48"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="50"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="44"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="47"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="38" t="s">
         <v>254</v>
@@ -7676,7 +7700,7 @@
       <c r="D160" s="40"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>1</v>
       </c>
@@ -7693,7 +7717,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>2</v>
       </c>
@@ -7708,7 +7732,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>3</v>
       </c>
@@ -7725,7 +7749,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>1</v>
       </c>
@@ -7742,7 +7766,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>2</v>
       </c>
@@ -7759,35 +7783,35 @@
         <v>887</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="47">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="48">
         <v>3</v>
       </c>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="51" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-      <c r="E166" s="44" t="s">
+      <c r="E166" s="47" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="50"/>
+    <row r="167" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A167" s="48"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D167" s="23"/>
-      <c r="E167" s="44"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="47">
+      <c r="E167" s="47"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="48">
         <v>4</v>
       </c>
-      <c r="B168" s="50" t="s">
+      <c r="B168" s="51" t="s">
         <v>267</v>
       </c>
       <c r="C168" s="22" t="s">
@@ -7796,20 +7820,20 @@
       <c r="D168" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="44" t="s">
+      <c r="E168" s="47" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="50"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="48"/>
+      <c r="B169" s="51"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D169" s="23"/>
-      <c r="E169" s="44"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="47"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>5</v>
       </c>
@@ -7826,7 +7850,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>6</v>
       </c>
@@ -7843,11 +7867,11 @@
         <v>892</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="47">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="48">
         <v>7</v>
       </c>
-      <c r="B172" s="50" t="s">
+      <c r="B172" s="51" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="22" t="s">
@@ -7856,20 +7880,20 @@
       <c r="D172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E172" s="44" t="s">
+      <c r="E172" s="47" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="50"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="48"/>
+      <c r="B173" s="51"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="23"/>
-      <c r="E173" s="44"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E173" s="47"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>8</v>
       </c>
@@ -7886,7 +7910,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>9</v>
       </c>
@@ -7903,7 +7927,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>10</v>
       </c>
@@ -7920,7 +7944,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>11</v>
       </c>
@@ -7937,7 +7961,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>1</v>
       </c>
@@ -7954,7 +7978,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>2</v>
       </c>
@@ -7971,31 +7995,31 @@
         <v>897</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="47">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="48">
         <v>3</v>
       </c>
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C180" s="50" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="44" t="s">
+      <c r="E180" s="47" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="48"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="48"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="50"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="44"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E181" s="47"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>4</v>
       </c>
@@ -8012,31 +8036,31 @@
         <v>899</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="47">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="48">
         <v>5</v>
       </c>
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="50" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E183" s="44" t="s">
+      <c r="E183" s="47" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="48"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="48"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="50"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="44"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E184" s="47"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>6</v>
       </c>
@@ -8053,127 +8077,127 @@
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="37"/>
-      <c r="B186" s="37" t="s">
+    <row r="186" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="44"/>
+      <c r="B186" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="C186" s="37"/>
+      <c r="C186" s="46"/>
       <c r="D186" s="40"/>
       <c r="E186" s="41"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="53">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="59">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
-      <c r="E187" s="44" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="53"/>
+      <c r="E187" s="47" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="59"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="51"/>
+      <c r="C188" s="49"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="44"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="53"/>
+      <c r="E188" s="47"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="59"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="51"/>
+      <c r="C189" s="49"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="44"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="47">
+      <c r="E189" s="47"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="48">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
-      <c r="E190" s="44" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
+      <c r="E190" s="47" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="48"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="48"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E191" s="44"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
+      <c r="E191" s="47"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="48"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="48"/>
+      <c r="C192" s="50"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="44"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="47">
+      <c r="E192" s="47"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="48">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="50" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-      <c r="E193" s="44" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
+      <c r="E193" s="47" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="48"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="48"/>
+      <c r="C194" s="50"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E194" s="44"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
+      <c r="E194" s="47"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="48"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="48"/>
+      <c r="C195" s="50"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="44"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
+      <c r="E195" s="47"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="48"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="48"/>
+      <c r="C196" s="50"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="44"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="47">
+      <c r="E196" s="47"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="48">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8185,21 +8209,21 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="44" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
+      <c r="E197" s="47" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="48"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="44"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
+      <c r="E198" s="47"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="48"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8207,28 +8231,28 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-      <c r="E199" s="44"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
+      <c r="E199" s="47"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="48"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="44"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
+      <c r="E200" s="47"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="48"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="44"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="47">
+      <c r="E201" s="47"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="48">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8240,21 +8264,21 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E202" s="44" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
+      <c r="E202" s="47" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="48"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="44"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
+      <c r="E203" s="47"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="48"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8262,73 +8286,73 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-      <c r="E204" s="44"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
+      <c r="E204" s="47"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="48"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="44"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
+      <c r="E205" s="47"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="48"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="44"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
+      <c r="E206" s="47"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="48"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="44"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
+      <c r="E207" s="47"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="48"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="44"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
+      <c r="E208" s="47"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="48"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="44"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
+      <c r="E209" s="47"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="48"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="44"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
+      <c r="E210" s="47"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="48"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="44"/>
-    </row>
-    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="47">
+      <c r="E211" s="47"/>
+    </row>
+    <row r="212" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A212" s="48">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8340,19 +8364,21 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E212" s="44"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
+      <c r="E212" s="47" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="48"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="44"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
+      <c r="E213" s="47"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="48"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8360,340 +8386,357 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-      <c r="E214" s="44"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
+      <c r="E214" s="47"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="48"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="44"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
+      <c r="E215" s="47"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="48"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="44"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
+      <c r="E216" s="47"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="48"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="44"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
+      <c r="E217" s="47"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="48"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="44"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
+      <c r="E218" s="47"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="48"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="44"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
+      <c r="E219" s="47"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="48"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="44"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
+      <c r="E220" s="47"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="48"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="44"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
+      <c r="E221" s="47"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="48"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="44"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="47"/>
+      <c r="E222" s="47"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="48"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="44"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="47"/>
+      <c r="E223" s="47"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="48"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="44"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="47"/>
+      <c r="E224" s="47"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="48"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="44"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="47"/>
+      <c r="E225" s="47"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="48"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="44"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="47"/>
+      <c r="E226" s="47"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="48"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="44"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="47"/>
+      <c r="E227" s="47"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="48"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="44"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="47"/>
+      <c r="E228" s="47"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="48"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="44"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="47"/>
+      <c r="E229" s="47"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="48"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="44"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="47"/>
+      <c r="E230" s="47"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="48"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="44"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="47"/>
+      <c r="E231" s="47"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="48"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="44"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="47"/>
+      <c r="E232" s="47"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="48"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="44"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="47"/>
+      <c r="E233" s="47"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="48"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="44"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="47"/>
+      <c r="E234" s="47"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="48"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="44"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="47"/>
+      <c r="E235" s="47"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="48"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="44"/>
-    </row>
-    <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="47"/>
+      <c r="E236" s="47"/>
+    </row>
+    <row r="237" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A237" s="48"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="44"/>
-    </row>
-    <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="47"/>
+      <c r="E237" s="47"/>
+    </row>
+    <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="48"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="44"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="47">
+      <c r="E238" s="47"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="48">
         <v>6</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="48" t="s">
+      <c r="C239" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="47"/>
+      <c r="E239" s="56"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="48"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="48"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="23"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="47"/>
+      <c r="E240" s="56"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="48"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="48"/>
+      <c r="C241" s="45"/>
       <c r="D241" s="23"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="47"/>
+      <c r="E241" s="56"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="48"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="48"/>
+      <c r="C242" s="45"/>
       <c r="D242" s="23"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="47"/>
+      <c r="E242" s="56"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="48"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="48"/>
+      <c r="C243" s="45"/>
       <c r="D243" s="23"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="47"/>
+      <c r="E243" s="56"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="48"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="48"/>
+      <c r="C244" s="45"/>
       <c r="D244" s="23"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="47"/>
+      <c r="E244" s="56"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="48"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="48"/>
+      <c r="C245" s="45"/>
       <c r="D245" s="23"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="47"/>
+      <c r="E245" s="56"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="48"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="48"/>
+      <c r="C246" s="45"/>
       <c r="D246" s="23"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="47"/>
+      <c r="E246" s="56"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="48"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="48"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="23"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="47"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="23"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="56"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="23">
+        <v>1</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D249" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D249" s="23"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D250" s="23"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>286</v>
@@ -8702,2049 +8745,1892 @@
         <v>366</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
-        <v>5</v>
-      </c>
-      <c r="B253" s="25" t="s">
-        <v>368</v>
+        <v>6</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D255" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
+        <v>9</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D256" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="23"/>
+      <c r="B257" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C257" s="23"/>
+      <c r="D257" s="17"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="48">
+        <v>1</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C258" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+      <c r="A259" s="48"/>
+      <c r="B259" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C259" s="50"/>
+      <c r="D259" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A260" s="48"/>
+      <c r="B260" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C260" s="50"/>
+      <c r="D260" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="48"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="50"/>
+      <c r="D261" s="23"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="48">
+        <v>2</v>
+      </c>
+      <c r="B262" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="C262" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="48"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="50"/>
+      <c r="D263" s="23"/>
+    </row>
+    <row r="264" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A264" s="48">
+        <v>3</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C264" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="23"/>
+    </row>
+    <row r="265" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+      <c r="A265" s="48"/>
+      <c r="B265" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C265" s="50"/>
+      <c r="D265" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="48"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="23"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="48">
+        <v>4</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C267" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A268" s="48"/>
+      <c r="B268" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C268" s="50"/>
+      <c r="D268" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="48"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="48">
+        <v>5</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C270" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="48"/>
+      <c r="B271" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C271" s="50"/>
+      <c r="D271" s="23"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="48"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="50"/>
+      <c r="D272" s="23"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="23">
+        <v>6</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A274" s="23">
+        <v>7</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="48">
+        <v>1</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C275" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A276" s="48"/>
+      <c r="B276" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C276" s="50"/>
+      <c r="D276" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="48"/>
+      <c r="B277" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C277" s="50"/>
+      <c r="D277" s="23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="48">
+        <v>2</v>
+      </c>
+      <c r="B278" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D278" s="23"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="48"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="23"/>
+    </row>
+    <row r="280" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A280" s="48"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="48">
+        <v>3</v>
+      </c>
+      <c r="B281" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="48"/>
+      <c r="B282" s="49"/>
+      <c r="C282" s="22"/>
+      <c r="D282" s="23"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="48"/>
+      <c r="B283" s="49"/>
+      <c r="C283" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D283" s="23"/>
+    </row>
+    <row r="284" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A284" s="48">
+        <v>4</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C284" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D284" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="48"/>
+      <c r="B285" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C285" s="50"/>
+      <c r="D285" s="23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="48"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="50"/>
+      <c r="D286" s="23"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="48">
+        <v>5</v>
+      </c>
+      <c r="B287" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C287" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D287" s="23"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="48"/>
+      <c r="B288" s="51"/>
+      <c r="C288" s="50"/>
+      <c r="D288" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="48">
+        <v>6</v>
+      </c>
+      <c r="B289" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C289" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D289" s="23"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="48"/>
+      <c r="B290" s="51"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="23"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="48">
+        <v>7</v>
+      </c>
+      <c r="B291" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C291" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="48"/>
+      <c r="B292" s="49"/>
+      <c r="C292" s="50"/>
+      <c r="D292" s="23"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="48">
         <v>8</v>
       </c>
-      <c r="B256" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D256" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="23">
+      <c r="B293" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C293" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" s="23"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="48"/>
+      <c r="B294" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C294" s="50"/>
+      <c r="D294" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="48"/>
+      <c r="B295" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C295" s="50"/>
+      <c r="D295" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="48"/>
+      <c r="B296" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C296" s="50"/>
+      <c r="D296" s="30"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="48"/>
+      <c r="B297" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C297" s="50"/>
+      <c r="D297" s="30"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="48"/>
+      <c r="B298" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C298" s="50"/>
+      <c r="D298" s="23"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="48"/>
+      <c r="B299" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C299" s="50"/>
+      <c r="D299" s="30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="48"/>
+      <c r="B300" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C300" s="50"/>
+      <c r="D300" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="48"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="50"/>
+      <c r="D301" s="23"/>
+    </row>
+    <row r="302" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="48">
         <v>9</v>
       </c>
-      <c r="B257" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="23"/>
-      <c r="B258" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C258" s="23"/>
-      <c r="D258" s="17"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="47">
-        <v>1</v>
-      </c>
-      <c r="B259" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C259" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A260" s="47"/>
-      <c r="B260" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C260" s="48"/>
-      <c r="D260" s="23" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="47"/>
-      <c r="B261" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C261" s="48"/>
-      <c r="D261" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="47"/>
-      <c r="B262" s="22"/>
-      <c r="C262" s="48"/>
-      <c r="D262" s="23"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="47">
-        <v>2</v>
-      </c>
-      <c r="B263" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C263" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="47"/>
-      <c r="B264" s="48"/>
-      <c r="C264" s="48"/>
-      <c r="D264" s="23"/>
-    </row>
-    <row r="265" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="47">
-        <v>3</v>
-      </c>
-      <c r="B265" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C265" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" s="23"/>
-    </row>
-    <row r="266" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A266" s="47"/>
-      <c r="B266" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="C266" s="48"/>
-      <c r="D266" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="47"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="48"/>
-      <c r="D267" s="23"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="47">
-        <v>4</v>
-      </c>
-      <c r="B268" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C268" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="47"/>
-      <c r="B269" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C269" s="48"/>
-      <c r="D269" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="47"/>
-      <c r="B270" s="22"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="47">
-        <v>5</v>
-      </c>
-      <c r="B271" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C271" s="48" t="s">
+      <c r="B302" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="C302" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="48"/>
+      <c r="B303" s="49"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="23"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="23">
         <v>10</v>
       </c>
-      <c r="D271" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="47"/>
-      <c r="B272" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C272" s="48"/>
-      <c r="D272" s="23"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="47"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="48"/>
-      <c r="D273" s="23"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="23">
-        <v>6</v>
-      </c>
-      <c r="B274" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="23">
-        <v>7</v>
-      </c>
-      <c r="B275" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="47">
-        <v>1</v>
-      </c>
-      <c r="B276" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C276" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="47"/>
-      <c r="B277" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C277" s="48"/>
-      <c r="D277" s="23" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="47"/>
-      <c r="B278" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C278" s="48"/>
-      <c r="D278" s="23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="47">
-        <v>2</v>
-      </c>
-      <c r="B279" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D279" s="23"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="47"/>
-      <c r="B280" s="50"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="23"/>
-    </row>
-    <row r="281" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="47"/>
-      <c r="B281" s="50"/>
-      <c r="C281" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="47">
-        <v>3</v>
-      </c>
-      <c r="B282" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="47"/>
-      <c r="B283" s="51"/>
-      <c r="C283" s="22"/>
-      <c r="D283" s="23"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="47"/>
-      <c r="B284" s="51"/>
-      <c r="C284" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D284" s="23"/>
-    </row>
-    <row r="285" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="47">
-        <v>4</v>
-      </c>
-      <c r="B285" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C285" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="47"/>
-      <c r="B286" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C286" s="48"/>
-      <c r="D286" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="47"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="23"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="47">
-        <v>5</v>
-      </c>
-      <c r="B288" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="C288" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="D288" s="23"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="47"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="47">
-        <v>6</v>
-      </c>
-      <c r="B290" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="C290" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D290" s="23"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="47"/>
-      <c r="B291" s="50"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="23"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="47">
-        <v>7</v>
-      </c>
-      <c r="B292" s="51" t="s">
-        <v>421</v>
-      </c>
-      <c r="C292" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="47"/>
-      <c r="B293" s="51"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="23"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="47">
-        <v>8</v>
-      </c>
-      <c r="B294" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C294" s="48" t="s">
+      <c r="B304" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="23">
+        <v>11</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C305" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D294" s="23"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="47"/>
-      <c r="B295" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C295" s="48"/>
-      <c r="D295" s="30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="47"/>
-      <c r="B296" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C296" s="48"/>
-      <c r="D296" s="30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="47"/>
-      <c r="B297" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C297" s="48"/>
-      <c r="D297" s="30"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="47"/>
-      <c r="B298" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C298" s="48"/>
-      <c r="D298" s="30"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="47"/>
-      <c r="B299" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C299" s="48"/>
-      <c r="D299" s="23"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="47"/>
-      <c r="B300" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C300" s="48"/>
-      <c r="D300" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="47"/>
-      <c r="B301" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C301" s="48"/>
-      <c r="D301" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="47"/>
-      <c r="B302" s="25"/>
-      <c r="C302" s="48"/>
-      <c r="D302" s="23"/>
-    </row>
-    <row r="303" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="47">
-        <v>9</v>
-      </c>
-      <c r="B303" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="C303" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
-      <c r="B304" s="51"/>
-      <c r="C304" s="48"/>
-      <c r="D304" s="23"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="23">
-        <v>10</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="D305" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B306" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C306" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
-        <v>12</v>
-      </c>
-      <c r="B307" s="24" t="s">
-        <v>441</v>
+        <v>1</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D307" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="23">
-        <v>1</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A308" s="48">
+        <v>2</v>
       </c>
       <c r="B308" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C308" s="22" t="s">
-        <v>182</v>
+        <v>445</v>
+      </c>
+      <c r="C308" s="50" t="s">
+        <v>286</v>
       </c>
       <c r="D308" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="47">
-        <v>2</v>
-      </c>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="48"/>
       <c r="B309" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C309" s="50"/>
+      <c r="D309" s="23"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="48"/>
+      <c r="B310" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C310" s="50"/>
+      <c r="D310" s="23"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="48"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="23"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="48">
+        <v>3</v>
+      </c>
+      <c r="B312" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="C309" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D309" s="30" t="s">
+      <c r="C312" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="47"/>
-      <c r="B310" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C310" s="48"/>
-      <c r="D310" s="23"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="47"/>
-      <c r="B311" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C311" s="48"/>
-      <c r="D311" s="23"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="47"/>
-      <c r="B312" s="25"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="23"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="47">
-        <v>3</v>
-      </c>
-      <c r="B313" s="51" t="s">
-        <v>445</v>
-      </c>
-      <c r="C313" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="D313" s="30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="47"/>
-      <c r="B314" s="51"/>
-      <c r="C314" s="48"/>
-      <c r="D314" s="30"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="48"/>
+      <c r="B313" s="49"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="30"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="23">
+        <v>4</v>
+      </c>
+      <c r="B314" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C314" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D314" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
-        <v>4</v>
-      </c>
-      <c r="B315" s="25" t="s">
-        <v>450</v>
+        <v>5</v>
+      </c>
+      <c r="B315" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
-        <v>5</v>
-      </c>
-      <c r="B316" s="24" t="s">
-        <v>452</v>
+        <v>6</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>454</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D316" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B317" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C317" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
-        <v>7</v>
-      </c>
-      <c r="B318" s="25" t="s">
-        <v>456</v>
+        <v>8</v>
+      </c>
+      <c r="B318" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="C318" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B319" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C319" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
+        <v>10</v>
+      </c>
+      <c r="B320" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="C320" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D320" s="30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="23"/>
+      <c r="B321" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C321" s="23"/>
+      <c r="D321" s="17"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="48">
+        <v>1</v>
+      </c>
+      <c r="B322" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="C322" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="48"/>
+      <c r="B323" s="49"/>
+      <c r="C323" s="49"/>
+      <c r="D323" s="23"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="48">
+        <v>1</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D324" s="23"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="48"/>
+      <c r="B325" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C325" s="50"/>
+      <c r="D325" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="48"/>
+      <c r="B326" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C326" s="50"/>
+      <c r="D326" s="23"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="48"/>
+      <c r="B327" s="25"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="23"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="48"/>
+      <c r="B328" s="25"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="23"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="48"/>
+      <c r="B329" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C329" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D329" s="30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="48"/>
+      <c r="B330" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C330" s="50"/>
+      <c r="D330" s="23"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="48"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="23"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="48"/>
+      <c r="B332" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D332" s="30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="48"/>
+      <c r="B333" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C333" s="22"/>
+      <c r="D333" s="23"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="48"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D334" s="23"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="48">
+        <v>2</v>
+      </c>
+      <c r="B335" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C335" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D335" s="30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="48"/>
+      <c r="B336" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C336" s="50"/>
+      <c r="D336" s="23"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="48"/>
+      <c r="B337" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C337" s="50"/>
+      <c r="D337" s="23"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="48"/>
+      <c r="B338" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C338" s="50"/>
+      <c r="D338" s="23"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="48"/>
+      <c r="B339" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C339" s="50"/>
+      <c r="D339" s="23"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="48"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="23"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="48">
+        <v>3</v>
+      </c>
+      <c r="B341" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C341" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="D341" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="48"/>
+      <c r="B342" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C342" s="50"/>
+      <c r="D342" s="23"/>
+    </row>
+    <row r="343" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A343" s="48"/>
+      <c r="B343" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C343" s="50"/>
+      <c r="D343" s="30" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="48"/>
+      <c r="B344" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" s="50"/>
+      <c r="D344" s="23"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="48"/>
+      <c r="B345" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C345" s="50"/>
+      <c r="D345" s="23"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="48"/>
+      <c r="B346" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C346" s="50"/>
+      <c r="D346" s="23"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="48"/>
+      <c r="B347" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C347" s="50"/>
+      <c r="D347" s="23"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="48"/>
+      <c r="B348" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C348" s="50"/>
+      <c r="D348" s="23"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="48"/>
+      <c r="B349" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C349" s="50"/>
+      <c r="D349" s="23"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="48"/>
+      <c r="B350" s="25"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="23"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="48">
+        <v>7</v>
+      </c>
+      <c r="B351" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="C351" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D351" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="48"/>
+      <c r="B352" s="49"/>
+      <c r="C352" s="50"/>
+      <c r="D352" s="23"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="23">
         <v>9</v>
       </c>
-      <c r="B320" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="C320" s="22" t="s">
+      <c r="B353" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C353" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D353" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="48">
+        <v>10</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C354" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" s="30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="48"/>
+      <c r="B355" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C355" s="50"/>
+      <c r="D355" s="23"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="48"/>
+      <c r="B356" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C356" s="50"/>
+      <c r="D356" s="23"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="48"/>
+      <c r="B357" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C357" s="50"/>
+      <c r="D357" s="23"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="48"/>
+      <c r="B358" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C358" s="50"/>
+      <c r="D358" s="23"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="48"/>
+      <c r="B359" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C359" s="50"/>
+      <c r="D359" s="23"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="48">
+        <v>11</v>
+      </c>
+      <c r="B360" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="C360" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="D360" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="48"/>
+      <c r="B361" s="49"/>
+      <c r="C361" s="50"/>
+      <c r="D361" s="23"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="23">
+        <v>12</v>
+      </c>
+      <c r="B362" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C362" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D362" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="23">
+        <v>1</v>
+      </c>
+      <c r="B363" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D363" s="30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="23">
+        <v>2</v>
+      </c>
+      <c r="B364" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D364" s="30" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="48">
+        <v>3</v>
+      </c>
+      <c r="B365" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C365" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D320" s="30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="23">
-        <v>10</v>
-      </c>
-      <c r="B321" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C321" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D321" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="23"/>
-      <c r="B322" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C322" s="23"/>
-      <c r="D322" s="17"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="47">
-        <v>1</v>
-      </c>
-      <c r="B323" s="51" t="s">
-        <v>465</v>
-      </c>
-      <c r="C323" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="47"/>
-      <c r="B324" s="51"/>
-      <c r="C324" s="51"/>
-      <c r="D324" s="23"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="47">
-        <v>1</v>
-      </c>
-      <c r="B325" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C325" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D325" s="23"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="47"/>
-      <c r="B326" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C326" s="48"/>
-      <c r="D326" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="47"/>
-      <c r="B327" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C327" s="48"/>
-      <c r="D327" s="23"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="47"/>
-      <c r="B328" s="25"/>
-      <c r="C328" s="48"/>
-      <c r="D328" s="23"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="47"/>
-      <c r="B329" s="25"/>
-      <c r="C329" s="48"/>
-      <c r="D329" s="23"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="47"/>
-      <c r="B330" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C330" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D330" s="30" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="47"/>
-      <c r="B331" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C331" s="48"/>
-      <c r="D331" s="23"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="47"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="48"/>
-      <c r="D332" s="23"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="47"/>
-      <c r="B333" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C333" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D333" s="30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="47"/>
-      <c r="B334" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C334" s="22"/>
-      <c r="D334" s="23"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="47"/>
-      <c r="B335" s="25"/>
-      <c r="C335" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D335" s="23"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="47">
-        <v>2</v>
-      </c>
-      <c r="B336" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C336" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D336" s="30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="47"/>
-      <c r="B337" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C337" s="48"/>
-      <c r="D337" s="23"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="47"/>
-      <c r="B338" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C338" s="48"/>
-      <c r="D338" s="23"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="47"/>
-      <c r="B339" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C339" s="48"/>
-      <c r="D339" s="23"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="47"/>
-      <c r="B340" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C340" s="48"/>
-      <c r="D340" s="23"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="47"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="48"/>
-      <c r="D341" s="23"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="47">
-        <v>3</v>
-      </c>
-      <c r="B342" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C342" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D342" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="47"/>
-      <c r="B343" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C343" s="48"/>
-      <c r="D343" s="23"/>
-    </row>
-    <row r="344" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A344" s="47"/>
-      <c r="B344" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C344" s="48"/>
-      <c r="D344" s="30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="47"/>
-      <c r="B345" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C345" s="48"/>
-      <c r="D345" s="23"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="47"/>
-      <c r="B346" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C346" s="48"/>
-      <c r="D346" s="23"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="47"/>
-      <c r="B347" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C347" s="48"/>
-      <c r="D347" s="23"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="47"/>
-      <c r="B348" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C348" s="48"/>
-      <c r="D348" s="23"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="47"/>
-      <c r="B349" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C349" s="48"/>
-      <c r="D349" s="23"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="47"/>
-      <c r="B350" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="C350" s="48"/>
-      <c r="D350" s="23"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="47"/>
-      <c r="B351" s="25"/>
-      <c r="C351" s="48"/>
-      <c r="D351" s="23"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="47">
-        <v>7</v>
-      </c>
-      <c r="B352" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="C352" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D352" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="47"/>
-      <c r="B353" s="51"/>
-      <c r="C353" s="48"/>
-      <c r="D353" s="23"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="23">
-        <v>9</v>
-      </c>
-      <c r="B354" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C354" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D354" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="47">
-        <v>10</v>
-      </c>
-      <c r="B355" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C355" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D355" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="47"/>
-      <c r="B356" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C356" s="48"/>
-      <c r="D356" s="23"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="47"/>
-      <c r="B357" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="C357" s="48"/>
-      <c r="D357" s="23"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="47"/>
-      <c r="B358" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C358" s="48"/>
-      <c r="D358" s="23"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="47"/>
-      <c r="B359" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C359" s="48"/>
-      <c r="D359" s="23"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="47"/>
-      <c r="B360" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C360" s="48"/>
-      <c r="D360" s="23"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="47">
-        <v>11</v>
-      </c>
-      <c r="B361" s="51" t="s">
-        <v>503</v>
-      </c>
-      <c r="C361" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D361" s="23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="47"/>
-      <c r="B362" s="51"/>
-      <c r="C362" s="48"/>
-      <c r="D362" s="23"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="23">
-        <v>12</v>
-      </c>
-      <c r="B363" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C363" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D363" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="23">
-        <v>1</v>
-      </c>
-      <c r="B364" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C364" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D364" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="23">
-        <v>2</v>
-      </c>
-      <c r="B365" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C365" s="22" t="s">
-        <v>286</v>
-      </c>
       <c r="D365" s="30" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="47">
-        <v>3</v>
-      </c>
-      <c r="B366" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="C366" s="48" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="48"/>
+      <c r="B366" s="49"/>
+      <c r="C366" s="50"/>
+      <c r="D366" s="23"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="48">
+        <v>4</v>
+      </c>
+      <c r="B367" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C367" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D366" s="30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="47"/>
-      <c r="B367" s="51"/>
-      <c r="C367" s="48"/>
-      <c r="D367" s="23"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="47">
-        <v>4</v>
-      </c>
-      <c r="B368" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C368" s="48" t="s">
+      <c r="D367" s="30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="48"/>
+      <c r="B368" s="51"/>
+      <c r="C368" s="50"/>
+      <c r="D368" s="23"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="23">
+        <v>5</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C369" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D368" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="47"/>
-      <c r="B369" s="50"/>
-      <c r="C369" s="48"/>
-      <c r="D369" s="23"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D369" s="30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
-        <v>5</v>
-      </c>
-      <c r="B370" s="24" t="s">
-        <v>515</v>
+        <v>6</v>
+      </c>
+      <c r="B370" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="C370" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
+        <v>7</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C371" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D371" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="23"/>
+      <c r="B372" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="C372" s="23"/>
+      <c r="D372" s="17"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="48">
+        <v>1</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C373" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D373" s="30" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A374" s="48"/>
+      <c r="B374" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C374" s="50"/>
+      <c r="D374" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="23">
+        <v>1</v>
+      </c>
+      <c r="B375" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C375" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D375" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="23">
+        <v>2</v>
+      </c>
+      <c r="B376" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D376" s="30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="48">
+        <v>3</v>
+      </c>
+      <c r="B377" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C377" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D377" s="30" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="48"/>
+      <c r="B378" s="50"/>
+      <c r="C378" s="50"/>
+      <c r="D378" s="17"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="23"/>
+      <c r="B379" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="C379" s="23"/>
+      <c r="D379" s="17"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="23">
+        <v>1</v>
+      </c>
+      <c r="B380" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C380" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D380" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="23">
+        <v>3</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C381" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D381" s="30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="48">
+        <v>4</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C382" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" s="30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="48"/>
+      <c r="B383" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C383" s="50"/>
+      <c r="D383" s="23"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="48"/>
+      <c r="B384" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C384" s="50"/>
+      <c r="D384" s="23"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="48"/>
+      <c r="B385" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C385" s="50"/>
+      <c r="D385" s="23"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="48"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="50"/>
+      <c r="D386" s="23"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="48">
+        <v>5</v>
+      </c>
+      <c r="B387" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C387" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D387" s="30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="48"/>
+      <c r="B388" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C388" s="50"/>
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="48"/>
+      <c r="B389" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C389" s="50"/>
+      <c r="D389" s="23"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="48">
         <v>6</v>
       </c>
-      <c r="B371" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C371" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="23">
+      <c r="B390" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="C390" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="30" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="48"/>
+      <c r="B391" s="49"/>
+      <c r="C391" s="50"/>
+      <c r="D391" s="23"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="48">
         <v>7</v>
       </c>
-      <c r="B372" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="C372" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D372" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="23"/>
-      <c r="B373" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="C373" s="23"/>
-      <c r="D373" s="17"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="47">
+      <c r="B392" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="C392" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="48"/>
+      <c r="B393" s="49"/>
+      <c r="C393" s="50"/>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="48">
+        <v>8</v>
+      </c>
+      <c r="B394" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C394" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="D394" s="30" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="48"/>
+      <c r="B395" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C395" s="50"/>
+      <c r="D395" s="23"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="48"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="50"/>
+      <c r="D396" s="23"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="48">
         <v>1</v>
       </c>
-      <c r="B374" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C374" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D374" s="30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A375" s="47"/>
-      <c r="B375" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C375" s="48"/>
-      <c r="D375" s="30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="23">
-        <v>1</v>
-      </c>
-      <c r="B376" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D376" s="30" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="23">
+      <c r="B397" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="C397" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D397" s="30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="48"/>
+      <c r="B398" s="49"/>
+      <c r="C398" s="50"/>
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="23">
         <v>2</v>
       </c>
-      <c r="B377" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C377" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D377" s="30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="47">
+      <c r="B399" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C399" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D399" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="23">
         <v>3</v>
       </c>
-      <c r="B378" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="C378" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D378" s="30" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="47"/>
-      <c r="B379" s="48"/>
-      <c r="C379" s="48"/>
-      <c r="D379" s="17"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="23"/>
-      <c r="B380" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="C380" s="23"/>
-      <c r="D380" s="17"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="23">
-        <v>1</v>
-      </c>
-      <c r="B381" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C381" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D381" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="23">
-        <v>3</v>
-      </c>
-      <c r="B382" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C382" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D382" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="47">
+      <c r="B400" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A401" s="23">
         <v>4</v>
       </c>
-      <c r="B383" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C383" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D383" s="30" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="47"/>
-      <c r="B384" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C384" s="48"/>
-      <c r="D384" s="23"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="47"/>
-      <c r="B385" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C385" s="48"/>
-      <c r="D385" s="23"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="47"/>
-      <c r="B386" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C386" s="48"/>
-      <c r="D386" s="23"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="48"/>
-      <c r="D387" s="23"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="47">
-        <v>5</v>
-      </c>
-      <c r="B388" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C388" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D388" s="30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="47"/>
-      <c r="B389" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C389" s="48"/>
-      <c r="D389" s="23"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="47"/>
-      <c r="B390" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C390" s="48"/>
-      <c r="D390" s="23"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="47">
-        <v>6</v>
-      </c>
-      <c r="B391" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C391" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D391" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="47"/>
-      <c r="B392" s="51"/>
-      <c r="C392" s="48"/>
-      <c r="D392" s="23"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="47">
-        <v>7</v>
-      </c>
-      <c r="B393" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="C393" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D393" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="47"/>
-      <c r="B394" s="51"/>
-      <c r="C394" s="48"/>
-      <c r="D394" s="23"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="47">
-        <v>8</v>
-      </c>
-      <c r="B395" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C395" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="D395" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="47"/>
-      <c r="B396" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C396" s="48"/>
-      <c r="D396" s="23"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="47"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="48"/>
-      <c r="D397" s="23"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="47">
-        <v>1</v>
-      </c>
-      <c r="B398" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C398" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D398" s="30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="47"/>
-      <c r="B399" s="51"/>
-      <c r="C399" s="48"/>
-      <c r="D399" s="23"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="23">
-        <v>2</v>
-      </c>
-      <c r="B400" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C400" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D400" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="23">
-        <v>3</v>
-      </c>
       <c r="B401" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D401" s="23"/>
-    </row>
-    <row r="402" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="D401" s="30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>4</v>
       </c>
       <c r="B402" s="25" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>481</v>
+        <v>68</v>
       </c>
       <c r="D402" s="30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C403" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D403" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C404" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D405" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A406" s="23">
-        <v>7</v>
-      </c>
-      <c r="B406" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C406" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D406" s="23"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="47">
+      <c r="D405" s="23"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="48">
         <v>1</v>
       </c>
-      <c r="B407" s="51" t="s">
+      <c r="B406" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="C407" s="48" t="s">
+      <c r="C406" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D407" s="30" t="s">
+      <c r="D406" s="30" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="47"/>
-      <c r="B408" s="51"/>
-      <c r="C408" s="48"/>
-      <c r="D408" s="23"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="47">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="48"/>
+      <c r="B407" s="49"/>
+      <c r="C407" s="50"/>
+      <c r="D407" s="23"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="48">
         <v>2</v>
       </c>
-      <c r="B409" s="51" t="s">
+      <c r="B408" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="C409" s="48" t="s">
+      <c r="C408" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="D409" s="30" t="s">
+      <c r="D408" s="30" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="47"/>
-      <c r="B410" s="51"/>
-      <c r="C410" s="48"/>
-      <c r="D410" s="23"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="23">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="48"/>
+      <c r="B409" s="49"/>
+      <c r="C409" s="50"/>
+      <c r="D409" s="23"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="23">
         <v>3</v>
       </c>
-      <c r="B411" s="25" t="s">
+      <c r="B410" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C411" s="22" t="s">
+      <c r="C410" s="22" t="s">
         <v>286</v>
+      </c>
+      <c r="D410" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="48">
+        <v>4</v>
+      </c>
+      <c r="B411" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="C411" s="50" t="s">
+        <v>575</v>
       </c>
       <c r="D411" s="30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="47">
-        <v>4</v>
-      </c>
-      <c r="B412" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="C412" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="D412" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="47"/>
-      <c r="B413" s="51"/>
-      <c r="C413" s="48"/>
-      <c r="D413" s="23"/>
-    </row>
-    <row r="414" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="47">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="48"/>
+      <c r="B412" s="49"/>
+      <c r="C412" s="50"/>
+      <c r="D412" s="23"/>
+    </row>
+    <row r="413" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="48">
         <v>5</v>
       </c>
-      <c r="B414" s="51" t="s">
+      <c r="B413" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="C414" s="48" t="s">
+      <c r="C413" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D414" s="30" t="s">
+      <c r="D413" s="30" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="47"/>
-      <c r="B415" s="51"/>
-      <c r="C415" s="48"/>
-      <c r="D415" s="23"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="23"/>
-      <c r="B416" s="23" t="s">
+    <row r="414" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="48"/>
+      <c r="B414" s="49"/>
+      <c r="C414" s="50"/>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="23"/>
+      <c r="B415" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C416" s="23"/>
-      <c r="D416" s="17"/>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="47">
+      <c r="C415" s="23"/>
+      <c r="D415" s="17"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="48">
         <v>1</v>
       </c>
+      <c r="B416" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C416" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D416" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="48"/>
       <c r="B417" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C417" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="C417" s="49"/>
+      <c r="D417" s="17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="48"/>
+      <c r="B418" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C418" s="49"/>
+      <c r="D418" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="48"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="49"/>
+      <c r="D419" s="17"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="48">
+        <v>1</v>
+      </c>
+      <c r="B420" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C420" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D417" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="47"/>
-      <c r="B418" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C418" s="51"/>
-      <c r="D418" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="47"/>
-      <c r="B419" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C419" s="51"/>
-      <c r="D419" s="17" t="s">
+      <c r="D420" s="17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A421" s="48"/>
+      <c r="B421" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C421" s="49"/>
+      <c r="D421" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="47"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="51"/>
-      <c r="D420" s="17"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="47">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="48"/>
+      <c r="B422" s="25"/>
+      <c r="C422" s="49"/>
+      <c r="D422" s="17"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="48">
         <v>1</v>
       </c>
-      <c r="B421" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C421" s="51" t="s">
+      <c r="B423" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C423" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D421" s="17" t="s">
+      <c r="D423" s="17" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="47"/>
-      <c r="B422" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C422" s="51"/>
-      <c r="D422" s="17" t="s">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="48"/>
+      <c r="B424" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C424" s="49"/>
+      <c r="D424" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="47"/>
-      <c r="B423" s="25"/>
-      <c r="C423" s="51"/>
-      <c r="D423" s="17"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="47">
-        <v>1</v>
-      </c>
-      <c r="B424" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C424" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D424" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A425" s="47"/>
-      <c r="B425" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C425" s="51"/>
-      <c r="D425" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="47"/>
-      <c r="B426" s="25"/>
-      <c r="C426" s="51"/>
-      <c r="D426" s="17"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="15"/>
-      <c r="B427" s="14"/>
-      <c r="C427" s="14"/>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="48"/>
+      <c r="B425" s="25"/>
+      <c r="C425" s="49"/>
+      <c r="D425" s="17"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="15"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
+  <autoFilter ref="A1:D256" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
   <mergeCells count="302">
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A417:A420"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="A421:A423"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="A424:A426"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="A395:A397"/>
-    <mergeCell ref="C395:C397"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="A383:A387"/>
-    <mergeCell ref="C383:C387"/>
-    <mergeCell ref="A388:A390"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="A342:A351"/>
-    <mergeCell ref="C342:C351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="C355:C360"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="C325:C329"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="A336:A341"/>
-    <mergeCell ref="C336:C341"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="B323:B324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="A294:A302"/>
-    <mergeCell ref="C294:C302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E239:E247"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10769,75 +10655,218 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A247"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="C293:C301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="A324:A328"/>
+    <mergeCell ref="C324:C328"/>
+    <mergeCell ref="A329:A331"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="C335:C340"/>
+    <mergeCell ref="A308:A311"/>
+    <mergeCell ref="C308:C311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="A365:A366"/>
+    <mergeCell ref="B365:B366"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="A341:A350"/>
+    <mergeCell ref="C341:C350"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="A354:A359"/>
+    <mergeCell ref="C354:C359"/>
+    <mergeCell ref="A382:A386"/>
+    <mergeCell ref="C382:C386"/>
+    <mergeCell ref="A387:A389"/>
+    <mergeCell ref="C387:C389"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="A394:A396"/>
+    <mergeCell ref="C394:C396"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="A416:A419"/>
+    <mergeCell ref="C416:C419"/>
+    <mergeCell ref="A420:A422"/>
+    <mergeCell ref="C420:C422"/>
+    <mergeCell ref="A423:A425"/>
+    <mergeCell ref="C423:C425"/>
+    <mergeCell ref="A411:A412"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="A413:A414"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
     <mergeCell ref="E166:E167"/>
     <mergeCell ref="E168:E169"/>
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="E180:E181"/>
     <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E119:E120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10853,16 +10882,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10879,7 +10908,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -10896,7 +10925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -10913,7 +10942,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -10930,7 +10959,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -10947,7 +10976,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -10964,7 +10993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -10981,7 +11010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -10998,7 +11027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -11015,7 +11044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -11032,7 +11061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -11049,7 +11078,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -11066,7 +11095,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -11083,7 +11112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -11100,7 +11129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -11117,7 +11146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -11134,7 +11163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -11151,7 +11180,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -11168,7 +11197,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -11185,7 +11214,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -11202,7 +11231,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -11219,7 +11248,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -11236,7 +11265,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -11253,7 +11282,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -11270,7 +11299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -11287,7 +11316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -11304,7 +11333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -11321,7 +11350,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -11338,7 +11367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -11355,7 +11384,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -11372,7 +11401,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -11389,7 +11418,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -11406,7 +11435,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -11423,7 +11452,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -11440,7 +11469,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -11457,7 +11486,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -11474,7 +11503,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -11491,7 +11520,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -11508,7 +11537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -11525,7 +11554,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -11542,7 +11571,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -11559,7 +11588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -11576,7 +11605,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -11593,7 +11622,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -11610,7 +11639,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -11627,7 +11656,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -11644,7 +11673,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -11661,7 +11690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -11678,7 +11707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -11695,7 +11724,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -11712,7 +11741,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -11729,7 +11758,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -11746,7 +11775,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -11763,7 +11792,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -11780,7 +11809,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -11797,7 +11826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -11814,7 +11843,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -11831,7 +11860,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -11848,7 +11877,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -11865,7 +11894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -11882,7 +11911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -11899,7 +11928,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -11916,7 +11945,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -11933,7 +11962,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -11950,7 +11979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -11967,7 +11996,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -11984,7 +12013,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -12001,7 +12030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -12018,7 +12047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -12035,7 +12064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -12052,7 +12081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -12069,7 +12098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -12086,7 +12115,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -12103,7 +12132,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -12120,7 +12149,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -12137,7 +12166,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -12154,7 +12183,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -12171,7 +12200,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -12188,7 +12217,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -12205,7 +12234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -12222,7 +12251,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -12239,7 +12268,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -12256,7 +12285,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -12273,7 +12302,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -12290,7 +12319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -12307,7 +12336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -12324,7 +12353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -12341,7 +12370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -12358,7 +12387,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -12375,7 +12404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -12392,7 +12421,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -12409,7 +12438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -12426,7 +12455,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -12443,7 +12472,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -12460,7 +12489,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -12477,7 +12506,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -12494,7 +12523,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -12511,7 +12540,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -12528,7 +12557,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -12545,7 +12574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -12562,7 +12591,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -12579,7 +12608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -12596,7 +12625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -12613,7 +12642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -12630,7 +12659,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -12647,7 +12676,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -12664,7 +12693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -12681,7 +12710,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -12698,7 +12727,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -12715,7 +12744,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -12732,7 +12761,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -12749,7 +12778,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -12766,7 +12795,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -12783,7 +12812,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -12800,7 +12829,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -12817,7 +12846,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -12834,7 +12863,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -12851,7 +12880,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -12868,7 +12897,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -12885,7 +12914,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -12902,7 +12931,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -12919,7 +12948,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -12936,7 +12965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -12953,7 +12982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -12970,7 +12999,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -12987,7 +13016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -13004,7 +13033,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -13021,7 +13050,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -13038,7 +13067,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -13055,7 +13084,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -13072,7 +13101,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -13089,7 +13118,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -13106,7 +13135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -13123,7 +13152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -13140,7 +13169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -13157,7 +13186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -13174,7 +13203,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -13191,7 +13220,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -13208,7 +13237,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -13225,7 +13254,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -13242,7 +13271,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -13259,7 +13288,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -13276,7 +13305,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -13293,7 +13322,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -13310,7 +13339,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -13327,7 +13356,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -13344,7 +13373,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -13361,7 +13390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -13378,7 +13407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -13395,7 +13424,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -13412,7 +13441,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -13429,7 +13458,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -13446,7 +13475,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -13463,7 +13492,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -13480,7 +13509,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -13497,7 +13526,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -13514,7 +13543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -13531,7 +13560,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -13548,7 +13577,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -13565,7 +13594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -13582,7 +13611,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -13599,7 +13628,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -13616,7 +13645,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -13633,7 +13662,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -13650,7 +13679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -13667,7 +13696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -13684,7 +13713,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -13701,7 +13730,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -13718,7 +13747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -13735,7 +13764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -13752,7 +13781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -13769,7 +13798,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -13786,7 +13815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -13803,7 +13832,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -13820,7 +13849,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -13837,7 +13866,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -13854,7 +13883,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -13871,7 +13900,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>177</v>
       </c>
@@ -13888,7 +13917,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>178</v>
       </c>
@@ -13905,7 +13934,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -13922,7 +13951,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -13939,7 +13968,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -13956,7 +13985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -13973,7 +14002,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -13990,7 +14019,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -14007,7 +14036,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>185</v>
       </c>
@@ -14024,7 +14053,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>186</v>
       </c>
@@ -14041,7 +14070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -14058,7 +14087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -14075,7 +14104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -14092,7 +14121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -14109,7 +14138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -14126,7 +14155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -14143,7 +14172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -14160,7 +14189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -14177,7 +14206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -14194,7 +14223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -14211,7 +14240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -14228,7 +14257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -14245,7 +14274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -14262,7 +14291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -14279,7 +14308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -14296,7 +14325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -14313,7 +14342,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -14330,7 +14359,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -14347,7 +14376,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -14364,7 +14393,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -14381,7 +14410,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -14398,7 +14427,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -14422,21 +14451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEBC747F347A034FA0018CAF7D99052D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f062dc1f9491f3faec7cf0ae28391ea9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c9ab29b-20bf-44a4-a666-f4222d918f76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78db0b84c272b9d2637594810e5a6fb9" ns2:_="">
     <xsd:import namespace="1c9ab29b-20bf-44a4-a666-f4222d918f76"/>
@@ -14606,24 +14620,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5622D319-703A-4107-B71F-1050E487FBEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14639,4 +14651,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D899B4-2797-43D7-AB0B-6BAE149D2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335946C-E52A-4BFB-954D-B7AB83839DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_Toc31101033" localSheetId="0">BRD!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="920">
   <si>
     <t>No</t>
   </si>
@@ -5007,7 +5006,46 @@
     <t>Resolusi.KewajibanPegawai, Resolusi.PengurusBDL, Resolusi.PengajuanPesangon, Resolusi.TransaksiDanaTalangan</t>
   </si>
   <si>
-    <t>Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.PengirimanUndanganKAP, Resolusi.JenisKAP, FU.Repository, Resolusi.NeracaPenutupAudit</t>
+    <t>Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.JenisKAP, FU.Repository, Resolusi.NeracaPenutupAudit</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.TimLikuidasi, Resolusi.LaporanAsetNetto, Resolusi.LaporanBulananTimLikuidasi,  FU.Notifikasi, Resolusi.DistribusiHasilLikuidasi,  Resolusi.KAP, Resolusi.JenisKAP, Resolusi.QuickReviewSummary</t>
+  </si>
+  <si>
+    <t>Resolusi.EvaluasiPencairanAset, Resolusi.SisaAset, Resolusi.Aset, Resolusi.TimLikuidasi, Resolusi.KewajibanPegawai, FU.Repository, Resolusi.DocPemberianHaircut, Resolusi.PengajuanInsentif</t>
+  </si>
+  <si>
+    <t>Resolusi.PersetujuanHasilEPPA, FU.Repository, Resolusi.PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananBDL, FU.Repository</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananBDL, FU.Repository, Resolusi.DistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananBDL, FU.Repository, Resolusi.DistribusiHasilLikuidasi, Resolusi.JangkaWaktuLikuidasi, Resolusi.DocPertanggungJawabanTL,</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananBDL, FU.Repository, Resolusi.DistribusiHasilLikuidasi, Resolusi.JangkaWaktuLikuidasi, Resolusi.DocPertanggungJawabanTL, Resolusi.PengawasanAuditLanir, Resolusi.PengajuanLanir, Resolusi.TimLikuidasi</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocRKAB, Resolusi.KelengkapanDokumenKAP, Resolusi.DocLANAP, Resolusi.DocLANIR, Resolusi.DocPengajuanInsentif, Resolusi.DocPengajuanPesangon, Resolusi.DocKewajibanPerpajakan, Resolusi.DocPertanggungJawabanTL</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocRKAB, Resolusi.KelengkapanDokumenKAP, Resolusi.DocLANAP, Resolusi.DocLANIR, Resolusi.DocPengajuanInsentif, Resolusi.DocPengajuanPesangon, Resolusi.DocKewajibanPerpajakan, Resolusi.DocPertanggungJawabanTL, Resolusi.DocRUPS</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.PengakhiranLikuidasi</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.TimPendukung, Resolusi.TenagaPendukung, Resolusi.Aset, Resolusi.HonorTimLikuidasi, Resolusi.NilaiTimLikuidasi, Resolusi.KodeCabangBDL, Resolusi.ProfilBDL, Resolusi.Debitur</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.KewajibanPegawai</t>
+  </si>
+  <si>
+    <t>Resolusi.PengamananAset, Resolusi.PICKegiatan, Resolusi.Aset</t>
   </si>
 </sst>
 </file>
@@ -5166,7 +5204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5287,20 +5325,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5310,6 +5342,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5625,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414:C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5659,7 +5703,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5667,12 +5711,12 @@
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5682,10 +5726,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5693,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5704,283 +5748,283 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+      <c r="A8" s="50">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="50">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="50">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="46" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="50">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="46" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="A19" s="50">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="54" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="54" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="54" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="52">
+      <c r="A26" s="50">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="54" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
@@ -5989,11 +6033,11 @@
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="54" t="s">
         <v>830</v>
       </c>
     </row>
@@ -6002,11 +6046,11 @@
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
@@ -6019,7 +6063,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="54" t="s">
         <v>831</v>
       </c>
     </row>
@@ -6032,7 +6076,7 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
@@ -6045,7 +6089,7 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
@@ -6054,7 +6098,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="46"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
@@ -6067,7 +6111,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="46" t="s">
         <v>837</v>
       </c>
     </row>
@@ -6080,7 +6124,7 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
@@ -6091,7 +6135,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="47">
@@ -6100,11 +6144,11 @@
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="46" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6113,11 +6157,11 @@
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="47">
@@ -6130,7 +6174,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="46" t="s">
         <v>833</v>
       </c>
     </row>
@@ -6143,7 +6187,7 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="47"/>
@@ -6156,7 +6200,7 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="45"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="47">
@@ -6165,13 +6209,13 @@
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="46" t="s">
         <v>834</v>
       </c>
     </row>
@@ -6180,9 +6224,9 @@
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="45"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="47">
@@ -6191,11 +6235,11 @@
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="46" t="s">
         <v>820</v>
       </c>
     </row>
@@ -6204,22 +6248,22 @@
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="45"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="47"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="45"/>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="47">
@@ -6228,11 +6272,11 @@
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="46" t="s">
         <v>835</v>
       </c>
     </row>
@@ -6241,44 +6285,44 @@
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="47"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="47"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="45"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="47">
@@ -6291,7 +6335,7 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="46" t="s">
         <v>873</v>
       </c>
     </row>
@@ -6304,7 +6348,7 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="45"/>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
@@ -6317,7 +6361,7 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="45"/>
+      <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
@@ -6328,7 +6372,7 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="45"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
@@ -6339,7 +6383,7 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="45"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="47">
@@ -6348,11 +6392,11 @@
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="48" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="46" t="s">
         <v>836</v>
       </c>
     </row>
@@ -6361,22 +6405,22 @@
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="45"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="45"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="47">
@@ -6385,11 +6429,11 @@
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="46" t="s">
         <v>838</v>
       </c>
     </row>
@@ -6398,11 +6442,11 @@
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="45"/>
+      <c r="E61" s="46"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="47">
@@ -6411,11 +6455,11 @@
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="46" t="s">
         <v>839</v>
       </c>
     </row>
@@ -6424,11 +6468,11 @@
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="49"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="47">
@@ -6437,11 +6481,11 @@
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="46" t="s">
         <v>840</v>
       </c>
     </row>
@@ -6450,11 +6494,11 @@
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="48"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="45"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="47">
@@ -6463,11 +6507,11 @@
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="46" t="s">
         <v>841</v>
       </c>
     </row>
@@ -6476,11 +6520,11 @@
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="45"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="47">
@@ -6489,11 +6533,11 @@
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="48" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="46" t="s">
         <v>842</v>
       </c>
     </row>
@@ -6502,11 +6546,11 @@
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="49"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="45"/>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
@@ -6521,25 +6565,25 @@
       <c r="A71" s="47">
         <v>1</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="46" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="47"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="45"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
@@ -6579,73 +6623,73 @@
       <c r="A75" s="47">
         <v>4</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="46" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="47"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="47">
         <v>5</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="46" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="47"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="49"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="45"/>
+      <c r="E78" s="46"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="47">
         <v>6</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="46" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="47"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="48"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="45"/>
+      <c r="E80" s="46"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
@@ -6671,13 +6715,13 @@
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="46" t="s">
         <v>848</v>
       </c>
     </row>
@@ -6686,11 +6730,11 @@
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="49"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
@@ -6713,27 +6757,27 @@
       <c r="A85" s="47">
         <v>3</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="52" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="45" t="s">
+      <c r="E85" s="46" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="47"/>
-      <c r="B86" s="50"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="45"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
@@ -6756,73 +6800,73 @@
       <c r="A88" s="47">
         <v>5</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="45" t="s">
+      <c r="E88" s="46" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="47"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="49"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="48"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="45"/>
+      <c r="E89" s="46"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="47">
         <v>6</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="53" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="46" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="47"/>
-      <c r="B91" s="48"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="45"/>
+      <c r="E91" s="46"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="47">
         <v>7</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="48" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="46" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="47"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="45"/>
+      <c r="E93" s="46"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="47">
@@ -6831,13 +6875,13 @@
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="48" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="46" t="s">
         <v>854</v>
       </c>
     </row>
@@ -6846,11 +6890,11 @@
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="49"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="45"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="47">
@@ -6865,7 +6909,7 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="46" t="s">
         <v>855</v>
       </c>
     </row>
@@ -6880,7 +6924,7 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="45"/>
+      <c r="E97" s="46"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="23">
@@ -6946,7 +6990,7 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="45" t="s">
+      <c r="E101" s="46" t="s">
         <v>858</v>
       </c>
     </row>
@@ -6961,7 +7005,7 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="45"/>
+      <c r="E102" s="46"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
@@ -7004,13 +7048,13 @@
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="45" t="s">
+      <c r="E105" s="46" t="s">
         <v>860</v>
       </c>
     </row>
@@ -7019,69 +7063,69 @@
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="49"/>
+      <c r="C106" s="48"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="45"/>
+      <c r="E106" s="46"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="47"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="49"/>
+      <c r="C107" s="48"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="45"/>
+      <c r="E107" s="46"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="47"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="49"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="45"/>
+      <c r="E108" s="46"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="47"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="49"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="45"/>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="47"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="49"/>
+      <c r="C110" s="48"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="45"/>
+      <c r="E110" s="46"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="47">
         <v>2</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="45" t="s">
+      <c r="E111" s="46" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="47"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="49"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="23">
@@ -7107,13 +7151,13 @@
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="48" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="45" t="s">
+      <c r="E114" s="46" t="s">
         <v>871</v>
       </c>
     </row>
@@ -7122,27 +7166,27 @@
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="49"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="45"/>
+      <c r="E115" s="46"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="47"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="49"/>
+      <c r="C116" s="48"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="45"/>
+      <c r="E116" s="46"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="47"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="49"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="45"/>
+      <c r="E117" s="46"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
@@ -7165,25 +7209,25 @@
       <c r="A119" s="47">
         <v>6</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="48" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="45" t="s">
+      <c r="E119" s="46" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="47"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="48"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="45"/>
+      <c r="E120" s="46"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="47">
@@ -7192,13 +7236,13 @@
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="48" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="45" t="s">
+      <c r="E121" s="46" t="s">
         <v>864</v>
       </c>
     </row>
@@ -7207,36 +7251,36 @@
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="49"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="45"/>
+      <c r="E122" s="46"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="47"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="45"/>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="47"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="49"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="45"/>
+      <c r="E124" s="46"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="47"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="49"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="45"/>
+      <c r="E125" s="46"/>
     </row>
     <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23">
@@ -7271,11 +7315,11 @@
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="48" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="45" t="s">
+      <c r="E128" s="46" t="s">
         <v>865</v>
       </c>
     </row>
@@ -7284,22 +7328,22 @@
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="49"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="45"/>
+      <c r="E129" s="46"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="47"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="49"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="45"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="47">
@@ -7308,13 +7352,13 @@
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="45" t="s">
+      <c r="E131" s="46" t="s">
         <v>866</v>
       </c>
     </row>
@@ -7323,31 +7367,31 @@
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="49"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="45"/>
+      <c r="E132" s="46"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="47"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="49"/>
+      <c r="C133" s="48"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="45"/>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="47"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="49"/>
+      <c r="C134" s="48"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="45"/>
+      <c r="E134" s="46"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="47">
@@ -7356,13 +7400,13 @@
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="48" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="45" t="s">
+      <c r="E135" s="46" t="s">
         <v>867</v>
       </c>
     </row>
@@ -7371,42 +7415,42 @@
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="49"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="45"/>
+      <c r="E136" s="46"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="47"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="49"/>
+      <c r="C137" s="48"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="45"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="47"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="49"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="45"/>
+      <c r="E138" s="46"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="47"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="49"/>
+      <c r="C139" s="48"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="45"/>
+      <c r="E139" s="46"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="47">
@@ -7415,13 +7459,13 @@
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="48" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="45" t="s">
+      <c r="E140" s="46" t="s">
         <v>869</v>
       </c>
     </row>
@@ -7430,9 +7474,9 @@
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="49"/>
+      <c r="C141" s="48"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="45"/>
+      <c r="E141" s="46"/>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="47">
@@ -7441,13 +7485,13 @@
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="45" t="s">
+      <c r="E142" s="46" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7456,9 +7500,9 @@
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="49"/>
+      <c r="C143" s="48"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="45"/>
+      <c r="E143" s="46"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="47">
@@ -7467,13 +7511,13 @@
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="45" t="s">
+      <c r="E144" s="46" t="s">
         <v>874</v>
       </c>
     </row>
@@ -7482,9 +7526,9 @@
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="49"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="45"/>
+      <c r="E145" s="46"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="47">
@@ -7493,13 +7537,13 @@
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C146" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="45" t="s">
+      <c r="E146" s="46" t="s">
         <v>877</v>
       </c>
     </row>
@@ -7508,9 +7552,9 @@
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="49"/>
+      <c r="C147" s="48"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="45"/>
+      <c r="E147" s="46"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="47">
@@ -7519,13 +7563,13 @@
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="48" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="45" t="s">
+      <c r="E148" s="46" t="s">
         <v>876</v>
       </c>
     </row>
@@ -7534,9 +7578,9 @@
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="49"/>
+      <c r="C149" s="48"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="45"/>
+      <c r="E149" s="46"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="47">
@@ -7545,13 +7589,13 @@
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="48" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="45" t="s">
+      <c r="E150" s="46" t="s">
         <v>875</v>
       </c>
     </row>
@@ -7560,9 +7604,9 @@
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="49"/>
+      <c r="C151" s="48"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="45"/>
+      <c r="E151" s="46"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="47">
@@ -7571,13 +7615,13 @@
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="48" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="45" t="s">
+      <c r="E152" s="46" t="s">
         <v>878</v>
       </c>
     </row>
@@ -7586,9 +7630,9 @@
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="49"/>
+      <c r="C153" s="48"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="45"/>
+      <c r="E153" s="46"/>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="47">
@@ -7597,13 +7641,13 @@
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="48" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="45" t="s">
+      <c r="E154" s="46" t="s">
         <v>879</v>
       </c>
     </row>
@@ -7612,9 +7656,9 @@
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="49"/>
+      <c r="C155" s="48"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="45"/>
+      <c r="E155" s="46"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="47">
@@ -7623,13 +7667,13 @@
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="49" t="s">
+      <c r="C156" s="48" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="45" t="s">
+      <c r="E156" s="46" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7638,9 +7682,9 @@
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="49"/>
+      <c r="C157" s="48"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="45"/>
+      <c r="E157" s="46"/>
     </row>
     <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="47">
@@ -7649,13 +7693,13 @@
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="48" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="45" t="s">
+      <c r="E158" s="46" t="s">
         <v>881</v>
       </c>
     </row>
@@ -7664,9 +7708,9 @@
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="49"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="45"/>
+      <c r="E159" s="46"/>
     </row>
     <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="44"/>
@@ -7764,31 +7808,31 @@
       <c r="A166" s="47">
         <v>3</v>
       </c>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="52" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-      <c r="E166" s="45" t="s">
+      <c r="E166" s="46" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="47"/>
-      <c r="B167" s="50"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D167" s="23"/>
-      <c r="E167" s="45"/>
+      <c r="E167" s="46"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="47">
         <v>4</v>
       </c>
-      <c r="B168" s="50" t="s">
+      <c r="B168" s="52" t="s">
         <v>267</v>
       </c>
       <c r="C168" s="22" t="s">
@@ -7797,18 +7841,18 @@
       <c r="D168" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="45" t="s">
+      <c r="E168" s="46" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="47"/>
-      <c r="B169" s="50"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D169" s="23"/>
-      <c r="E169" s="45"/>
+      <c r="E169" s="46"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="23">
@@ -7848,7 +7892,7 @@
       <c r="A172" s="47">
         <v>7</v>
       </c>
-      <c r="B172" s="50" t="s">
+      <c r="B172" s="52" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="22" t="s">
@@ -7857,18 +7901,18 @@
       <c r="D172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E172" s="45" t="s">
+      <c r="E172" s="46" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="47"/>
-      <c r="B173" s="50"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="23"/>
-      <c r="E173" s="45"/>
+      <c r="E173" s="46"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="23">
@@ -7976,25 +8020,25 @@
       <c r="A180" s="47">
         <v>3</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="48" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="45" t="s">
+      <c r="E180" s="46" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="47"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="49"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="48"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="45"/>
+      <c r="E181" s="46"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="23">
@@ -8017,25 +8061,25 @@
       <c r="A183" s="47">
         <v>5</v>
       </c>
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="C183" s="48" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E183" s="45" t="s">
+      <c r="E183" s="46" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="47"/>
-      <c r="B184" s="48"/>
-      <c r="C184" s="49"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="48"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="45"/>
+      <c r="E184" s="46"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="23">
@@ -8070,11 +8114,11 @@
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="48" t="s">
+      <c r="C187" s="53" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
-      <c r="E187" s="45" t="s">
+      <c r="E187" s="46" t="s">
         <v>902</v>
       </c>
     </row>
@@ -8083,16 +8127,16 @@
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="48"/>
+      <c r="C188" s="53"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="45"/>
+      <c r="E188" s="46"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="47"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="48"/>
+      <c r="C189" s="53"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="45"/>
+      <c r="E189" s="46"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="47">
@@ -8101,11 +8145,11 @@
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="49" t="s">
+      <c r="C190" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
-      <c r="E190" s="45" t="s">
+      <c r="E190" s="46" t="s">
         <v>903</v>
       </c>
     </row>
@@ -8114,20 +8158,20 @@
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="49"/>
+      <c r="C191" s="48"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E191" s="45"/>
+      <c r="E191" s="46"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="47"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="49"/>
+      <c r="C192" s="48"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="45"/>
+      <c r="E192" s="46"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="47">
@@ -8136,11 +8180,11 @@
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="49" t="s">
+      <c r="C193" s="48" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-      <c r="E193" s="45" t="s">
+      <c r="E193" s="46" t="s">
         <v>904</v>
       </c>
     </row>
@@ -8149,29 +8193,29 @@
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="49"/>
+      <c r="C194" s="48"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E194" s="45"/>
+      <c r="E194" s="46"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="47"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="49"/>
+      <c r="C195" s="48"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="45"/>
+      <c r="E195" s="46"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="47"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="49"/>
+      <c r="C196" s="48"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="45"/>
+      <c r="E196" s="46"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="47">
@@ -8186,7 +8230,7 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="45" t="s">
+      <c r="E197" s="46" t="s">
         <v>905</v>
       </c>
     </row>
@@ -8197,7 +8241,7 @@
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="45"/>
+      <c r="E198" s="46"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="47"/>
@@ -8208,7 +8252,7 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-      <c r="E199" s="45"/>
+      <c r="E199" s="46"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="47"/>
@@ -8217,7 +8261,7 @@
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="45"/>
+      <c r="E200" s="46"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="47"/>
@@ -8226,7 +8270,7 @@
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="45"/>
+      <c r="E201" s="46"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="47">
@@ -8241,7 +8285,7 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E202" s="45" t="s">
+      <c r="E202" s="46" t="s">
         <v>906</v>
       </c>
     </row>
@@ -8252,7 +8296,7 @@
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="45"/>
+      <c r="E203" s="46"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="47"/>
@@ -8263,7 +8307,7 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-      <c r="E204" s="45"/>
+      <c r="E204" s="46"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="47"/>
@@ -8272,7 +8316,7 @@
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="45"/>
+      <c r="E205" s="46"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="47"/>
@@ -8281,7 +8325,7 @@
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="45"/>
+      <c r="E206" s="46"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="47"/>
@@ -8290,7 +8334,7 @@
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="45"/>
+      <c r="E207" s="46"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="47"/>
@@ -8299,7 +8343,7 @@
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="45"/>
+      <c r="E208" s="46"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="47"/>
@@ -8308,7 +8352,7 @@
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="45"/>
+      <c r="E209" s="46"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="47"/>
@@ -8317,7 +8361,7 @@
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="45"/>
+      <c r="E210" s="46"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="47"/>
@@ -8326,7 +8370,7 @@
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="45"/>
+      <c r="E211" s="46"/>
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A212" s="47">
@@ -8341,7 +8385,9 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E212" s="45"/>
+      <c r="E212" s="46" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="47"/>
@@ -8350,7 +8396,7 @@
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="45"/>
+      <c r="E213" s="46"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="47"/>
@@ -8361,7 +8407,7 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-      <c r="E214" s="45"/>
+      <c r="E214" s="46"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="47"/>
@@ -8370,7 +8416,7 @@
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="45"/>
+      <c r="E215" s="46"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="47"/>
@@ -8379,7 +8425,7 @@
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="45"/>
+      <c r="E216" s="46"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="47"/>
@@ -8388,7 +8434,7 @@
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="45"/>
+      <c r="E217" s="46"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="47"/>
@@ -8397,7 +8443,7 @@
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="45"/>
+      <c r="E218" s="46"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="47"/>
@@ -8406,7 +8452,7 @@
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="45"/>
+      <c r="E219" s="46"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="47"/>
@@ -8415,7 +8461,7 @@
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="45"/>
+      <c r="E220" s="46"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="47"/>
@@ -8424,7 +8470,7 @@
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="45"/>
+      <c r="E221" s="46"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="47"/>
@@ -8433,7 +8479,7 @@
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="45"/>
+      <c r="E222" s="46"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="47"/>
@@ -8442,7 +8488,7 @@
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="45"/>
+      <c r="E223" s="46"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="47"/>
@@ -8451,7 +8497,7 @@
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="45"/>
+      <c r="E224" s="46"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="47"/>
@@ -8460,7 +8506,7 @@
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="45"/>
+      <c r="E225" s="46"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="47"/>
@@ -8469,7 +8515,7 @@
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="45"/>
+      <c r="E226" s="46"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="47"/>
@@ -8478,7 +8524,7 @@
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="45"/>
+      <c r="E227" s="46"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="47"/>
@@ -8487,7 +8533,7 @@
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="45"/>
+      <c r="E228" s="46"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="47"/>
@@ -8496,7 +8542,7 @@
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="45"/>
+      <c r="E229" s="46"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="47"/>
@@ -8505,7 +8551,7 @@
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="45"/>
+      <c r="E230" s="46"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="47"/>
@@ -8514,7 +8560,7 @@
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="45"/>
+      <c r="E231" s="46"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="47"/>
@@ -8523,7 +8569,7 @@
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="45"/>
+      <c r="E232" s="46"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="47"/>
@@ -8532,7 +8578,7 @@
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="45"/>
+      <c r="E233" s="46"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="47"/>
@@ -8541,7 +8587,7 @@
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="45"/>
+      <c r="E234" s="46"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="47"/>
@@ -8550,7 +8596,7 @@
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="45"/>
+      <c r="E235" s="46"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="47"/>
@@ -8559,7 +8605,7 @@
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="45"/>
+      <c r="E236" s="46"/>
     </row>
     <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A237" s="47"/>
@@ -8568,7 +8614,7 @@
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="45"/>
+      <c r="E237" s="46"/>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="47"/>
@@ -8577,7 +8623,7 @@
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="45"/>
+      <c r="E238" s="46"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="47">
@@ -8586,94 +8632,96 @@
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="49" t="s">
+      <c r="C239" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="E239" s="45"/>
+      <c r="E239" s="46" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="47"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="49"/>
+      <c r="C240" s="48"/>
       <c r="D240" s="23"/>
-      <c r="E240" s="45"/>
+      <c r="E240" s="46"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="47"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="49"/>
+      <c r="C241" s="48"/>
       <c r="D241" s="23"/>
-      <c r="E241" s="45"/>
+      <c r="E241" s="46"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="47"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="49"/>
+      <c r="C242" s="48"/>
       <c r="D242" s="23"/>
-      <c r="E242" s="45"/>
+      <c r="E242" s="46"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="47"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="49"/>
+      <c r="C243" s="48"/>
       <c r="D243" s="23"/>
-      <c r="E243" s="45"/>
+      <c r="E243" s="46"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="47"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="49"/>
+      <c r="C244" s="48"/>
       <c r="D244" s="23"/>
-      <c r="E244" s="45"/>
+      <c r="E244" s="46"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="47"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="49"/>
+      <c r="C245" s="48"/>
       <c r="D245" s="23"/>
-      <c r="E245" s="45"/>
+      <c r="E245" s="46"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="47"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="49"/>
+      <c r="C246" s="48"/>
       <c r="D246" s="23"/>
-      <c r="E246" s="45"/>
+      <c r="E246" s="46"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="47"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="49"/>
+      <c r="C247" s="48"/>
       <c r="D247" s="23"/>
-      <c r="E247" s="45"/>
+      <c r="E247" s="46"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="47"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="49"/>
+      <c r="C248" s="48"/>
       <c r="D248" s="23"/>
-      <c r="E248" s="45"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E248" s="46"/>
+    </row>
+    <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A249" s="23">
         <v>1</v>
       </c>
@@ -8685,6 +8733,9 @@
       </c>
       <c r="D249" s="23" t="s">
         <v>363</v>
+      </c>
+      <c r="E249" s="32" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -8698,6 +8749,9 @@
         <v>241</v>
       </c>
       <c r="D250" s="23"/>
+      <c r="E250" s="32" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="23">
@@ -8712,6 +8766,9 @@
       <c r="D251" s="23" t="s">
         <v>366</v>
       </c>
+      <c r="E251" s="45" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="252" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23">
@@ -8726,6 +8783,9 @@
       <c r="D252" s="23" t="s">
         <v>366</v>
       </c>
+      <c r="E252" s="45" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A253" s="23">
@@ -8740,8 +8800,11 @@
       <c r="D253" s="23" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E253" s="45" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A254" s="23">
         <v>6</v>
       </c>
@@ -8754,8 +8817,11 @@
       <c r="D254" s="23" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E254" s="45" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A255" s="23">
         <v>7</v>
       </c>
@@ -8768,8 +8834,11 @@
       <c r="D255" s="23" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E255" s="32" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A256" s="23">
         <v>8</v>
       </c>
@@ -8781,6 +8850,9 @@
       </c>
       <c r="D256" s="23" t="s">
         <v>373</v>
+      </c>
+      <c r="E256" s="45" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8795,6 +8867,9 @@
       </c>
       <c r="D257" s="23" t="s">
         <v>376</v>
+      </c>
+      <c r="E257" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -8813,11 +8888,14 @@
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="49" t="s">
+      <c r="C259" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>379</v>
+      </c>
+      <c r="E259" s="46" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -8825,1798 +8903,2037 @@
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="49"/>
+      <c r="C260" s="48"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
+      <c r="E260" s="46"/>
     </row>
     <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="47"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="49"/>
+      <c r="C261" s="48"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
+      <c r="E261" s="46"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="47"/>
-      <c r="B262" s="22"/>
-      <c r="C262" s="49"/>
-      <c r="D262" s="23"/>
+      <c r="A262" s="47">
+        <v>2</v>
+      </c>
+      <c r="B262" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C262" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E262" s="46" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="47">
-        <v>2</v>
-      </c>
-      <c r="B263" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="C263" s="49" t="s">
+      <c r="A263" s="47"/>
+      <c r="B263" s="48"/>
+      <c r="C263" s="48"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="46"/>
+    </row>
+    <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="47">
+        <v>3</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C264" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="23"/>
+      <c r="E264" s="46" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A265" s="47"/>
+      <c r="B265" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C265" s="48"/>
+      <c r="D265" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E265" s="46"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="47">
+        <v>4</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C266" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D263" s="23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="47"/>
-      <c r="B264" s="49"/>
-      <c r="C264" s="49"/>
-      <c r="D264" s="23"/>
-    </row>
-    <row r="265" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="47">
-        <v>3</v>
-      </c>
-      <c r="B265" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C265" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" s="23"/>
-    </row>
-    <row r="266" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A266" s="47"/>
-      <c r="B266" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="C266" s="49"/>
       <c r="D266" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="E266" s="46"/>
+    </row>
+    <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="47"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="49"/>
-      <c r="D267" s="23"/>
+      <c r="B267" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C267" s="48"/>
+      <c r="D267" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E267" s="46"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C268" s="49" t="s">
-        <v>45</v>
+        <v>394</v>
+      </c>
+      <c r="C268" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="E268" s="46"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="47"/>
       <c r="B269" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C269" s="49"/>
-      <c r="D269" s="23" t="s">
-        <v>392</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C269" s="48"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="46"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="47"/>
-      <c r="B270" s="22"/>
-      <c r="C270" s="49"/>
+      <c r="A270" s="23">
+        <v>6</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="D270" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="47">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="23">
+        <v>7</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="47">
+        <v>1</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C272" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E272" s="46"/>
+    </row>
+    <row r="273" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="47"/>
+      <c r="B273" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C273" s="48"/>
+      <c r="D273" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E273" s="46"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="47"/>
+      <c r="B274" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C274" s="48"/>
+      <c r="D274" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E274" s="46"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="47">
+        <v>2</v>
+      </c>
+      <c r="B275" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D275" s="23"/>
+      <c r="E275" s="46"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="47"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="46"/>
+    </row>
+    <row r="277" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="47"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E277" s="46"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="47">
+        <v>3</v>
+      </c>
+      <c r="B278" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E278" s="46"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="47"/>
+      <c r="B279" s="53"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="46"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="47"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D280" s="23"/>
+      <c r="E280" s="46"/>
+    </row>
+    <row r="281" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="47">
+        <v>4</v>
+      </c>
+      <c r="B281" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C281" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E281" s="46"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="47"/>
+      <c r="B282" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C282" s="48"/>
+      <c r="D282" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E282" s="46"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="47"/>
+      <c r="B283" s="25"/>
+      <c r="C283" s="48"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="46"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="47">
         <v>5</v>
       </c>
-      <c r="B271" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C271" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="47"/>
-      <c r="B272" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C272" s="49"/>
-      <c r="D272" s="23"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="47"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="49"/>
-      <c r="D273" s="23"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="23">
+      <c r="B284" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C284" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="D284" s="23"/>
+      <c r="E284" s="46"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="47"/>
+      <c r="B285" s="52"/>
+      <c r="C285" s="48"/>
+      <c r="D285" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E285" s="46"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="47">
         <v>6</v>
       </c>
-      <c r="B274" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="23">
+      <c r="B286" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C286" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D286" s="23"/>
+      <c r="E286" s="46"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="47"/>
+      <c r="B287" s="52"/>
+      <c r="C287" s="48"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="46"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="47">
         <v>7</v>
       </c>
-      <c r="B275" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D275" s="23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="47">
-        <v>1</v>
-      </c>
-      <c r="B276" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C276" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="47"/>
-      <c r="B277" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C277" s="49"/>
-      <c r="D277" s="23" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="47"/>
-      <c r="B278" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C278" s="49"/>
-      <c r="D278" s="23" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="47">
-        <v>2</v>
-      </c>
-      <c r="B279" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D279" s="23"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="47"/>
-      <c r="B280" s="50"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="23"/>
-    </row>
-    <row r="281" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="47"/>
-      <c r="B281" s="50"/>
-      <c r="C281" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="47">
-        <v>3</v>
-      </c>
-      <c r="B282" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="47"/>
-      <c r="B283" s="48"/>
-      <c r="C283" s="22"/>
-      <c r="D283" s="23"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="47"/>
-      <c r="B284" s="48"/>
-      <c r="C284" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D284" s="23"/>
-    </row>
-    <row r="285" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="47">
-        <v>4</v>
-      </c>
-      <c r="B285" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C285" s="49" t="s">
-        <v>413</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="47"/>
-      <c r="B286" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C286" s="49"/>
-      <c r="D286" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="47"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="49"/>
-      <c r="D287" s="23"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="47">
-        <v>5</v>
-      </c>
-      <c r="B288" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="C288" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="D288" s="23"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B288" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C288" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E288" s="46"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="47"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="49"/>
-      <c r="D289" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B289" s="53"/>
+      <c r="C289" s="48"/>
+      <c r="D289" s="23"/>
+      <c r="E289" s="46"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="47">
-        <v>6</v>
-      </c>
-      <c r="B290" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="C290" s="49" t="s">
-        <v>413</v>
+        <v>8</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C290" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="D290" s="23"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" s="46"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="47"/>
-      <c r="B291" s="50"/>
-      <c r="C291" s="49"/>
-      <c r="D291" s="23"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="47">
-        <v>7</v>
-      </c>
-      <c r="B292" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="C292" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B291" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C291" s="48"/>
+      <c r="D291" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E291" s="46"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="47"/>
+      <c r="B292" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C292" s="48"/>
+      <c r="D292" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E292" s="46"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="47"/>
-      <c r="B293" s="48"/>
-      <c r="C293" s="49"/>
-      <c r="D293" s="23"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="47">
-        <v>8</v>
-      </c>
-      <c r="B294" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C294" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D294" s="23"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B293" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C293" s="48"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="46"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="47"/>
+      <c r="B294" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C294" s="48"/>
+      <c r="D294" s="30"/>
+      <c r="E294" s="46"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="47"/>
       <c r="B295" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C295" s="49"/>
-      <c r="D295" s="30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="C295" s="48"/>
+      <c r="D295" s="23"/>
+      <c r="E295" s="46"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="47"/>
       <c r="B296" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C296" s="49"/>
+        <v>431</v>
+      </c>
+      <c r="C296" s="48"/>
       <c r="D296" s="30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="E296" s="46"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="47"/>
       <c r="B297" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C297" s="49"/>
-      <c r="D297" s="30"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="C297" s="48"/>
+      <c r="D297" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E297" s="46"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="47"/>
-      <c r="B298" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C298" s="49"/>
-      <c r="D298" s="30"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="47"/>
-      <c r="B299" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C299" s="49"/>
-      <c r="D299" s="23"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B298" s="25"/>
+      <c r="C298" s="48"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="46"/>
+    </row>
+    <row r="299" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="47">
+        <v>9</v>
+      </c>
+      <c r="B299" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C299" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E299" s="46"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="47"/>
-      <c r="B300" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C300" s="49"/>
-      <c r="D300" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="47"/>
-      <c r="B301" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C301" s="49"/>
+      <c r="B300" s="53"/>
+      <c r="C300" s="48"/>
+      <c r="D300" s="23"/>
+      <c r="E300" s="46"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="23">
+        <v>10</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="D301" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="47"/>
-      <c r="B302" s="25"/>
-      <c r="C302" s="49"/>
-      <c r="D302" s="23"/>
-    </row>
-    <row r="303" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="47">
-        <v>9</v>
-      </c>
-      <c r="B303" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="C303" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
-      <c r="B304" s="48"/>
-      <c r="C304" s="49"/>
-      <c r="D304" s="23"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="23">
-        <v>10</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>132</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="23">
+        <v>11</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" s="30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="23">
+        <v>12</v>
+      </c>
+      <c r="B303" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="23">
+        <v>1</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="47">
+        <v>2</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C305" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="23">
-        <v>11</v>
-      </c>
-      <c r="B306" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C306" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D306" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="23">
-        <v>12</v>
-      </c>
-      <c r="B307" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D307" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="23">
-        <v>1</v>
-      </c>
-      <c r="B308" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C308" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D308" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="E305" s="46"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="47"/>
+      <c r="B306" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C306" s="48"/>
+      <c r="D306" s="23"/>
+      <c r="E306" s="46"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="47"/>
+      <c r="B307" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C307" s="48"/>
+      <c r="D307" s="23"/>
+      <c r="E307" s="46"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="47"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="23"/>
+      <c r="E308" s="46"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="47">
-        <v>2</v>
-      </c>
-      <c r="B309" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="C309" s="49" t="s">
-        <v>286</v>
+      <c r="C309" s="48" t="s">
+        <v>449</v>
       </c>
       <c r="D309" s="30" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" s="46"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="47"/>
-      <c r="B310" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C310" s="49"/>
-      <c r="D310" s="23"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="47"/>
+      <c r="B310" s="53"/>
+      <c r="C310" s="48"/>
+      <c r="D310" s="30"/>
+      <c r="E310" s="46"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="23">
+        <v>4</v>
+      </c>
       <c r="B311" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C311" s="49"/>
-      <c r="D311" s="23"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="47"/>
-      <c r="B312" s="25"/>
-      <c r="C312" s="49"/>
-      <c r="D312" s="23"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="47">
-        <v>3</v>
-      </c>
-      <c r="B313" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="C313" s="49" t="s">
-        <v>449</v>
+        <v>450</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D311" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="23">
+        <v>5</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D312" s="30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="23">
+        <v>6</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="47"/>
-      <c r="B314" s="48"/>
-      <c r="C314" s="49"/>
-      <c r="D314" s="30"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="23">
+        <v>7</v>
+      </c>
+      <c r="B314" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C314" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D314" s="30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="23">
-        <v>4</v>
-      </c>
-      <c r="B315" s="25" t="s">
-        <v>450</v>
+        <v>8</v>
+      </c>
+      <c r="B315" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D316" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="23">
-        <v>6</v>
-      </c>
-      <c r="B317" s="25" t="s">
-        <v>454</v>
+        <v>10</v>
+      </c>
+      <c r="B317" s="24" t="s">
+        <v>462</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="23">
-        <v>7</v>
-      </c>
-      <c r="B318" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="C318" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D318" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="23">
-        <v>8</v>
-      </c>
-      <c r="B319" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C319" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D319" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="23">
-        <v>9</v>
-      </c>
-      <c r="B320" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="C320" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D320" s="30" t="s">
-        <v>461</v>
-      </c>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="44"/>
+      <c r="B318" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C318" s="44"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="41"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="47">
+        <v>1</v>
+      </c>
+      <c r="B319" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="C319" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E319" s="46"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="47"/>
+      <c r="B320" s="53"/>
+      <c r="C320" s="53"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="46"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="23">
-        <v>10</v>
-      </c>
-      <c r="B321" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C321" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D321" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="44"/>
-      <c r="B322" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="C322" s="44"/>
-      <c r="D322" s="40"/>
-      <c r="E322" s="41"/>
+      <c r="A321" s="47">
+        <v>1</v>
+      </c>
+      <c r="B321" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C321" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D321" s="23"/>
+      <c r="E321" s="46"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="47"/>
+      <c r="B322" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C322" s="48"/>
+      <c r="D322" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E322" s="46"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="47">
-        <v>1</v>
-      </c>
-      <c r="B323" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="C323" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>466</v>
-      </c>
+      <c r="A323" s="47"/>
+      <c r="B323" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C323" s="48"/>
+      <c r="D323" s="23"/>
+      <c r="E323" s="46"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="47"/>
-      <c r="B324" s="48"/>
+      <c r="B324" s="25"/>
       <c r="C324" s="48"/>
       <c r="D324" s="23"/>
+      <c r="E324" s="46"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="47">
-        <v>1</v>
-      </c>
-      <c r="B325" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C325" s="49" t="s">
-        <v>48</v>
-      </c>
+      <c r="A325" s="47"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="48"/>
       <c r="D325" s="23"/>
+      <c r="E325" s="46"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="47"/>
       <c r="B326" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C326" s="49"/>
-      <c r="D326" s="23" t="s">
-        <v>469</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C326" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D326" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E326" s="46"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="47"/>
       <c r="B327" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C327" s="49"/>
+        <v>473</v>
+      </c>
+      <c r="C327" s="48"/>
       <c r="D327" s="23"/>
+      <c r="E327" s="46"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="47"/>
       <c r="B328" s="25"/>
-      <c r="C328" s="49"/>
+      <c r="C328" s="48"/>
       <c r="D328" s="23"/>
+      <c r="E328" s="46"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="47"/>
-      <c r="B329" s="25"/>
-      <c r="C329" s="49"/>
-      <c r="D329" s="23"/>
+      <c r="B329" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D329" s="30" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="47"/>
       <c r="B330" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C330" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D330" s="30" t="s">
-        <v>472</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C330" s="22"/>
+      <c r="D330" s="23"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="47"/>
-      <c r="B331" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C331" s="49"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="D331" s="23"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="47"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="49"/>
-      <c r="D332" s="23"/>
+      <c r="A332" s="47">
+        <v>2</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C332" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D332" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E332" s="46"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="47"/>
       <c r="B333" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C333" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D333" s="30" t="s">
-        <v>474</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C333" s="48"/>
+      <c r="D333" s="23"/>
+      <c r="E333" s="46"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="47"/>
       <c r="B334" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C334" s="22"/>
+        <v>478</v>
+      </c>
+      <c r="C334" s="48"/>
       <c r="D334" s="23"/>
+      <c r="E334" s="46"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="47"/>
-      <c r="B335" s="25"/>
-      <c r="C335" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="B335" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C335" s="48"/>
       <c r="D335" s="23"/>
+      <c r="E335" s="46"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="47">
-        <v>2</v>
-      </c>
+      <c r="A336" s="47"/>
       <c r="B336" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C336" s="49" t="s">
-        <v>413</v>
-      </c>
-      <c r="D336" s="30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="47"/>
+        <v>480</v>
+      </c>
+      <c r="C336" s="48"/>
+      <c r="D336" s="23"/>
+      <c r="E336" s="46"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="47">
+        <v>3</v>
+      </c>
       <c r="B337" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C337" s="49"/>
-      <c r="D337" s="23"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="C337" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D337" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E337" s="46"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="47"/>
       <c r="B338" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C338" s="49"/>
+        <v>483</v>
+      </c>
+      <c r="C338" s="48"/>
       <c r="D338" s="23"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" s="46"/>
+    </row>
+    <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A339" s="47"/>
       <c r="B339" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C339" s="49"/>
-      <c r="D339" s="23"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="C339" s="48"/>
+      <c r="D339" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E339" s="46"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="47"/>
       <c r="B340" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C340" s="49"/>
+        <v>486</v>
+      </c>
+      <c r="C340" s="48"/>
       <c r="D340" s="23"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" s="46"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="47"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="49"/>
+      <c r="B341" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C341" s="48"/>
       <c r="D341" s="23"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="47">
-        <v>3</v>
-      </c>
+      <c r="E341" s="46"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="47"/>
       <c r="B342" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C342" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="D342" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="C342" s="48"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="46"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="47"/>
       <c r="B343" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C343" s="49"/>
+        <v>489</v>
+      </c>
+      <c r="C343" s="48"/>
       <c r="D343" s="23"/>
-    </row>
-    <row r="344" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E343" s="46"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="47"/>
       <c r="B344" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C344" s="49"/>
-      <c r="D344" s="30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="C344" s="48"/>
+      <c r="D344" s="23"/>
+      <c r="E344" s="46"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="47"/>
       <c r="B345" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C345" s="49"/>
+        <v>491</v>
+      </c>
+      <c r="C345" s="48"/>
       <c r="D345" s="23"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="47"/>
-      <c r="B346" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C346" s="49"/>
-      <c r="D346" s="23"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" s="46"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="47">
+        <v>7</v>
+      </c>
+      <c r="B346" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="C346" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D346" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E346" s="46"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="47"/>
-      <c r="B347" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C347" s="49"/>
+      <c r="B347" s="53"/>
+      <c r="C347" s="48"/>
       <c r="D347" s="23"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="47"/>
+      <c r="E347" s="46"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="23">
+        <v>9</v>
+      </c>
       <c r="B348" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C348" s="49"/>
-      <c r="D348" s="23"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="47"/>
+        <v>494</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D348" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="47">
+        <v>10</v>
+      </c>
       <c r="B349" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C349" s="49"/>
-      <c r="D349" s="23"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="C349" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E349" s="46"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="47"/>
       <c r="B350" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="C350" s="49"/>
+        <v>498</v>
+      </c>
+      <c r="C350" s="48"/>
       <c r="D350" s="23"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" s="46"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="47"/>
-      <c r="B351" s="25"/>
-      <c r="C351" s="49"/>
+      <c r="B351" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C351" s="48"/>
       <c r="D351" s="23"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="47">
+      <c r="E351" s="46"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="47"/>
+      <c r="B352" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C352" s="48"/>
+      <c r="D352" s="23"/>
+      <c r="E352" s="46"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="47"/>
+      <c r="B353" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C353" s="48"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="46"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="47"/>
+      <c r="B354" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C354" s="48"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="46"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="47">
+        <v>11</v>
+      </c>
+      <c r="B355" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C355" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D355" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E355" s="46"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="47"/>
+      <c r="B356" s="53"/>
+      <c r="C356" s="48"/>
+      <c r="D356" s="23"/>
+      <c r="E356" s="46"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="23">
+        <v>12</v>
+      </c>
+      <c r="B357" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D357" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="23">
+        <v>1</v>
+      </c>
+      <c r="B358" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C358" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D358" s="30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="23">
+        <v>2</v>
+      </c>
+      <c r="B359" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D359" s="30" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="47">
+        <v>3</v>
+      </c>
+      <c r="B360" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="C360" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D360" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E360" s="46"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="47"/>
+      <c r="B361" s="53"/>
+      <c r="C361" s="48"/>
+      <c r="D361" s="23"/>
+      <c r="E361" s="46"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="47">
+        <v>4</v>
+      </c>
+      <c r="B362" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="C362" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D362" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E362" s="46"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="47"/>
+      <c r="B363" s="52"/>
+      <c r="C363" s="48"/>
+      <c r="D363" s="23"/>
+      <c r="E363" s="46"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="23">
+        <v>5</v>
+      </c>
+      <c r="B364" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D364" s="30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="23">
+        <v>6</v>
+      </c>
+      <c r="B365" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C365" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D365" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="23">
         <v>7</v>
       </c>
-      <c r="B352" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="C352" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D352" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="47"/>
-      <c r="B353" s="48"/>
-      <c r="C353" s="49"/>
-      <c r="D353" s="23"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="23">
-        <v>9</v>
-      </c>
-      <c r="B354" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C354" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D354" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="47">
-        <v>10</v>
-      </c>
-      <c r="B355" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C355" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D355" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="47"/>
-      <c r="B356" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C356" s="49"/>
-      <c r="D356" s="23"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="47"/>
-      <c r="B357" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="C357" s="49"/>
-      <c r="D357" s="23"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="47"/>
-      <c r="B358" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C358" s="49"/>
-      <c r="D358" s="23"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="47"/>
-      <c r="B359" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C359" s="49"/>
-      <c r="D359" s="23"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="47"/>
-      <c r="B360" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C360" s="49"/>
-      <c r="D360" s="23"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="47">
-        <v>11</v>
-      </c>
-      <c r="B361" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="C361" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="D361" s="23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="47"/>
-      <c r="B362" s="48"/>
-      <c r="C362" s="49"/>
-      <c r="D362" s="23"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="23">
-        <v>12</v>
-      </c>
-      <c r="B363" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C363" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D363" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="23">
+      <c r="B366" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C366" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D366" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="44"/>
+      <c r="B367" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C367" s="44"/>
+      <c r="D367" s="40"/>
+      <c r="E367" s="41"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="47">
         <v>1</v>
       </c>
-      <c r="B364" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C364" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D364" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="23">
-        <v>2</v>
-      </c>
-      <c r="B365" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C365" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D365" s="30" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="47">
-        <v>3</v>
-      </c>
-      <c r="B366" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="C366" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="D366" s="30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="47"/>
-      <c r="B367" s="48"/>
-      <c r="C367" s="49"/>
-      <c r="D367" s="23"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="47">
-        <v>4</v>
-      </c>
-      <c r="B368" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C368" s="49" t="s">
-        <v>201</v>
+      <c r="B368" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C368" s="48" t="s">
+        <v>523</v>
       </c>
       <c r="D368" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="E368" s="46"/>
+    </row>
+    <row r="369" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A369" s="47"/>
-      <c r="B369" s="50"/>
-      <c r="C369" s="49"/>
-      <c r="D369" s="23"/>
+      <c r="B369" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C369" s="48"/>
+      <c r="D369" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E369" s="46"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="23">
-        <v>5</v>
-      </c>
-      <c r="B370" s="24" t="s">
-        <v>515</v>
+        <v>1</v>
+      </c>
+      <c r="B370" s="22" t="s">
+        <v>527</v>
       </c>
       <c r="C370" s="22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="23">
-        <v>6</v>
-      </c>
-      <c r="B371" s="25" t="s">
-        <v>517</v>
+        <v>2</v>
+      </c>
+      <c r="B371" s="22" t="s">
+        <v>529</v>
       </c>
       <c r="C371" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D371" s="30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="47">
+        <v>3</v>
+      </c>
+      <c r="B372" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C372" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D371" s="30" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="23">
-        <v>7</v>
-      </c>
-      <c r="B372" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="C372" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="D372" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="44"/>
-      <c r="B373" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="C373" s="44"/>
-      <c r="D373" s="40"/>
-      <c r="E373" s="41"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="47">
+        <v>532</v>
+      </c>
+      <c r="E372" s="46"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="47"/>
+      <c r="B373" s="48"/>
+      <c r="C373" s="48"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="46"/>
+    </row>
+    <row r="374" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="44"/>
+      <c r="B374" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C374" s="44"/>
+      <c r="D374" s="40"/>
+      <c r="E374" s="41"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="23">
         <v>1</v>
       </c>
-      <c r="B374" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C374" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="D374" s="30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A375" s="47"/>
-      <c r="B375" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C375" s="49"/>
-      <c r="D375" s="30" t="s">
-        <v>526</v>
+      <c r="B375" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C375" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="23" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="23">
-        <v>1</v>
-      </c>
-      <c r="B376" s="22" t="s">
-        <v>527</v>
+        <v>3</v>
+      </c>
+      <c r="B376" s="25" t="s">
+        <v>536</v>
       </c>
       <c r="C376" s="22" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="D376" s="30" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="23">
-        <v>2</v>
-      </c>
-      <c r="B377" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C377" s="22" t="s">
-        <v>204</v>
+      <c r="A377" s="47">
+        <v>4</v>
+      </c>
+      <c r="B377" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C377" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="D377" s="30" t="s">
-        <v>530</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="E377" s="46"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="47">
-        <v>3</v>
-      </c>
-      <c r="B378" s="49" t="s">
-        <v>531</v>
-      </c>
-      <c r="C378" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="D378" s="30" t="s">
-        <v>532</v>
-      </c>
+      <c r="A378" s="47"/>
+      <c r="B378" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C378" s="48"/>
+      <c r="D378" s="23"/>
+      <c r="E378" s="46"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="47"/>
-      <c r="B379" s="49"/>
-      <c r="C379" s="49"/>
-      <c r="D379" s="17"/>
-    </row>
-    <row r="380" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="44"/>
-      <c r="B380" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C380" s="44"/>
-      <c r="D380" s="40"/>
-      <c r="E380" s="41"/>
+      <c r="B379" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C379" s="48"/>
+      <c r="D379" s="23"/>
+      <c r="E379" s="46"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="47"/>
+      <c r="B380" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C380" s="48"/>
+      <c r="D380" s="23"/>
+      <c r="E380" s="46"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="23">
+      <c r="A381" s="47">
+        <v>5</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C381" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D381" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="E381" s="46"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="47"/>
+      <c r="B382" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C382" s="48"/>
+      <c r="D382" s="23"/>
+      <c r="E382" s="46"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="47"/>
+      <c r="B383" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C383" s="48"/>
+      <c r="D383" s="23"/>
+      <c r="E383" s="46"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="47">
+        <v>6</v>
+      </c>
+      <c r="B384" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="C384" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="E384" s="46"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="47"/>
+      <c r="B385" s="53"/>
+      <c r="C385" s="48"/>
+      <c r="D385" s="23"/>
+      <c r="E385" s="46"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="47">
+        <v>7</v>
+      </c>
+      <c r="B386" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="C386" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E386" s="46"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="47"/>
+      <c r="B387" s="53"/>
+      <c r="C387" s="48"/>
+      <c r="D387" s="23"/>
+      <c r="E387" s="46"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="47">
+        <v>8</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C388" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="D388" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="E388" s="46"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="47"/>
+      <c r="B389" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C389" s="48"/>
+      <c r="D389" s="23"/>
+      <c r="E389" s="46"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="47">
         <v>1</v>
       </c>
-      <c r="B381" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C381" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D381" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="23">
+      <c r="B390" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C390" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="E390" s="46"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="47"/>
+      <c r="B391" s="53"/>
+      <c r="C391" s="48"/>
+      <c r="D391" s="23"/>
+      <c r="E391" s="46"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="23">
+        <v>2</v>
+      </c>
+      <c r="B392" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C392" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="23">
         <v>3</v>
       </c>
-      <c r="B382" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C382" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D382" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="47">
+      <c r="B393" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C393" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A394" s="23">
         <v>4</v>
       </c>
-      <c r="B383" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C383" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D383" s="30" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="47"/>
-      <c r="B384" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C384" s="49"/>
-      <c r="D384" s="23"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="47"/>
-      <c r="B385" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C385" s="49"/>
-      <c r="D385" s="23"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="47"/>
-      <c r="B386" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C386" s="49"/>
-      <c r="D386" s="23"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="49"/>
-      <c r="D387" s="23"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="47">
+      <c r="B394" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C394" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D394" s="30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="23">
+        <v>4</v>
+      </c>
+      <c r="B395" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C395" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D395" s="30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A396" s="23">
         <v>5</v>
       </c>
-      <c r="B388" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C388" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D388" s="30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="47"/>
-      <c r="B389" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C389" s="49"/>
-      <c r="D389" s="23"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="47"/>
-      <c r="B390" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C390" s="49"/>
-      <c r="D390" s="23"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="47">
+      <c r="B396" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C396" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D396" s="30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="23">
         <v>6</v>
       </c>
-      <c r="B391" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="C391" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D391" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="47"/>
-      <c r="B392" s="48"/>
-      <c r="C392" s="49"/>
-      <c r="D392" s="23"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="47">
+      <c r="B397" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C397" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D397" s="30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A398" s="23">
         <v>7</v>
       </c>
-      <c r="B393" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="C393" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D393" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="47"/>
-      <c r="B394" s="48"/>
-      <c r="C394" s="49"/>
-      <c r="D394" s="23"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="47">
-        <v>8</v>
-      </c>
-      <c r="B395" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C395" s="49" t="s">
-        <v>552</v>
-      </c>
-      <c r="D395" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="47"/>
-      <c r="B396" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C396" s="49"/>
-      <c r="D396" s="23"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A397" s="47"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="49"/>
-      <c r="D397" s="23"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="47">
+      <c r="B398" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C398" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="47">
         <v>1</v>
       </c>
-      <c r="B398" s="48" t="s">
-        <v>555</v>
-      </c>
-      <c r="C398" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D398" s="30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="47"/>
-      <c r="B399" s="48"/>
-      <c r="C399" s="49"/>
-      <c r="D399" s="23"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="23">
+      <c r="B399" s="53" t="s">
+        <v>569</v>
+      </c>
+      <c r="C399" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D399" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E399" s="46"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="47"/>
+      <c r="B400" s="53"/>
+      <c r="C400" s="48"/>
+      <c r="D400" s="23"/>
+      <c r="E400" s="46"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="47">
         <v>2</v>
       </c>
-      <c r="B400" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C400" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D400" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="23">
-        <v>3</v>
-      </c>
-      <c r="B401" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C401" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D401" s="23"/>
-    </row>
-    <row r="402" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A402" s="23">
-        <v>4</v>
-      </c>
-      <c r="B402" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C402" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D402" s="30" t="s">
-        <v>561</v>
-      </c>
+      <c r="B401" s="53" t="s">
+        <v>571</v>
+      </c>
+      <c r="C401" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D401" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E401" s="46"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="47"/>
+      <c r="B402" s="53"/>
+      <c r="C402" s="48"/>
+      <c r="D402" s="23"/>
+      <c r="E402" s="46"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="23">
+        <v>3</v>
+      </c>
+      <c r="B403" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C403" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D403" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="47">
         <v>4</v>
       </c>
-      <c r="B403" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C403" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D403" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A404" s="23">
+      <c r="B404" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="C404" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D404" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="E404" s="46"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="47"/>
+      <c r="B405" s="53"/>
+      <c r="C405" s="48"/>
+      <c r="D405" s="23"/>
+      <c r="E405" s="46"/>
+    </row>
+    <row r="406" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="47">
         <v>5</v>
       </c>
-      <c r="B404" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C404" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D404" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="23">
-        <v>6</v>
-      </c>
-      <c r="B405" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C405" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D405" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A406" s="23">
-        <v>7</v>
-      </c>
-      <c r="B406" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C406" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D406" s="23"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="47">
-        <v>1</v>
-      </c>
-      <c r="B407" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="C407" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D407" s="30" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="47"/>
-      <c r="B408" s="48"/>
-      <c r="C408" s="49"/>
-      <c r="D408" s="23"/>
+      <c r="B406" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="C406" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D406" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E406" s="55"/>
+    </row>
+    <row r="407" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="47"/>
+      <c r="B407" s="53"/>
+      <c r="C407" s="48"/>
+      <c r="D407" s="23"/>
+      <c r="E407" s="55"/>
+    </row>
+    <row r="408" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="44"/>
+      <c r="B408" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="C408" s="44"/>
+      <c r="D408" s="40"/>
+      <c r="E408" s="41"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="47">
-        <v>2</v>
-      </c>
-      <c r="B409" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="C409" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D409" s="30" t="s">
-        <v>572</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C409" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E409" s="46"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="47"/>
-      <c r="B410" s="48"/>
-      <c r="C410" s="49"/>
-      <c r="D410" s="23"/>
+      <c r="B410" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C410" s="53"/>
+      <c r="D410" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E410" s="46"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="23">
-        <v>3</v>
-      </c>
-      <c r="B411" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="C411" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D411" s="30" t="s">
-        <v>574</v>
-      </c>
+      <c r="A411" s="47"/>
+      <c r="B411" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C411" s="53"/>
+      <c r="D411" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E411" s="46"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="47">
-        <v>4</v>
-      </c>
-      <c r="B412" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="C412" s="49" t="s">
-        <v>575</v>
-      </c>
-      <c r="D412" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C412" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D412" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E412" s="46"/>
+    </row>
+    <row r="413" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A413" s="47"/>
-      <c r="B413" s="48"/>
-      <c r="C413" s="49"/>
-      <c r="D413" s="23"/>
-    </row>
-    <row r="414" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C413" s="53"/>
+      <c r="D413" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E413" s="46"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="47">
-        <v>5</v>
-      </c>
-      <c r="B414" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="C414" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D414" s="30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B414" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C414" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D414" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E414" s="46"/>
+    </row>
+    <row r="415" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A415" s="47"/>
-      <c r="B415" s="48"/>
-      <c r="C415" s="49"/>
-      <c r="D415" s="23"/>
-    </row>
-    <row r="416" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="44"/>
-      <c r="B416" s="44" t="s">
-        <v>578</v>
-      </c>
-      <c r="C416" s="44"/>
-      <c r="D416" s="40"/>
-      <c r="E416" s="41"/>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="47">
-        <v>1</v>
-      </c>
-      <c r="B417" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C417" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D417" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="47"/>
-      <c r="B418" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C418" s="48"/>
-      <c r="D418" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="47"/>
-      <c r="B419" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C419" s="48"/>
-      <c r="D419" s="17" t="s">
+      <c r="B415" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C415" s="53"/>
+      <c r="D415" s="17" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A420" s="47"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="48"/>
-      <c r="D420" s="17"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="47">
-        <v>1</v>
-      </c>
-      <c r="B421" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C421" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D421" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="47"/>
-      <c r="B422" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C422" s="48"/>
-      <c r="D422" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="47"/>
-      <c r="B423" s="25"/>
-      <c r="C423" s="48"/>
-      <c r="D423" s="17"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="47">
-        <v>1</v>
-      </c>
-      <c r="B424" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C424" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D424" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A425" s="47"/>
-      <c r="B425" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C425" s="48"/>
-      <c r="D425" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="47"/>
-      <c r="B426" s="25"/>
-      <c r="C426" s="48"/>
-      <c r="D426" s="17"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="15"/>
-      <c r="B427" s="14"/>
-      <c r="C427" s="14"/>
+      <c r="E415" s="46"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="15"/>
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="303">
-    <mergeCell ref="E239:E248"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
+  <mergeCells count="344">
+    <mergeCell ref="E404:E405"/>
+    <mergeCell ref="E406:E407"/>
+    <mergeCell ref="E409:E411"/>
+    <mergeCell ref="E412:E413"/>
+    <mergeCell ref="E414:E415"/>
+    <mergeCell ref="E372:E373"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="E381:E383"/>
+    <mergeCell ref="E384:E385"/>
+    <mergeCell ref="E386:E387"/>
+    <mergeCell ref="E388:E389"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="E399:E400"/>
+    <mergeCell ref="E401:E402"/>
+    <mergeCell ref="E326:E328"/>
+    <mergeCell ref="E332:E336"/>
+    <mergeCell ref="E337:E345"/>
+    <mergeCell ref="E346:E347"/>
+    <mergeCell ref="E349:E354"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="E362:E363"/>
+    <mergeCell ref="E368:E369"/>
+    <mergeCell ref="E284:E285"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="E290:E298"/>
+    <mergeCell ref="E299:E300"/>
+    <mergeCell ref="E305:E308"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="E319:E320"/>
+    <mergeCell ref="E321:E325"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="E275:E277"/>
+    <mergeCell ref="E278:E280"/>
+    <mergeCell ref="E281:E283"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A409:A411"/>
+    <mergeCell ref="C409:C411"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="C377:C380"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="C381:C383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="C372:C373"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="A337:A345"/>
+    <mergeCell ref="C337:C345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="A349:A354"/>
+    <mergeCell ref="C349:C354"/>
+    <mergeCell ref="A321:A325"/>
+    <mergeCell ref="C321:C325"/>
+    <mergeCell ref="A326:A328"/>
+    <mergeCell ref="C326:C328"/>
+    <mergeCell ref="A329:A331"/>
+    <mergeCell ref="A332:A336"/>
+    <mergeCell ref="C332:C336"/>
+    <mergeCell ref="A305:A308"/>
+    <mergeCell ref="C305:C308"/>
+    <mergeCell ref="A309:A310"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="A290:A298"/>
+    <mergeCell ref="C290:C298"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10641,220 +10958,75 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="C259:C262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="C271:C273"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="A294:A302"/>
-    <mergeCell ref="C294:C302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="C325:C329"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="A336:A341"/>
-    <mergeCell ref="C336:C341"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="B323:B324"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="A342:A351"/>
-    <mergeCell ref="C342:C351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="C355:C360"/>
-    <mergeCell ref="A383:A387"/>
-    <mergeCell ref="C383:C387"/>
-    <mergeCell ref="A388:A390"/>
-    <mergeCell ref="C388:C390"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="A395:A397"/>
-    <mergeCell ref="C395:C397"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="A417:A420"/>
-    <mergeCell ref="C417:C420"/>
-    <mergeCell ref="A421:A423"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="A424:A426"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="E239:E248"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14439,12 +14611,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14618,15 +14787,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14650,10 +14823,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335946C-E52A-4BFB-954D-B7AB83839DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FEB9F-662A-47AD-8C21-38D426C242EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="941">
   <si>
     <t>No</t>
   </si>
@@ -5042,10 +5042,73 @@
     <t>Resolusi.TimLikuidasi, Resolusi.TimPendukung, Resolusi.TenagaPendukung, Resolusi.Aset, Resolusi.HonorTimLikuidasi, Resolusi.NilaiTimLikuidasi, Resolusi.KodeCabangBDL, Resolusi.ProfilBDL, Resolusi.Debitur</t>
   </si>
   <si>
-    <t>Resolusi.TimLikuidasi, Resolusi.KewajibanPegawai</t>
-  </si>
-  <si>
-    <t>Resolusi.PengamananAset, Resolusi.PICKegiatan, Resolusi.Aset</t>
+    <t>Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.AdministrasiKAP, Resolusi.NilaiTimLikuidasi, Resolusi.NilaiAspekAdministratif, Resolusi.KelengkapanDokumenKAP, Resolusi.TeknisPengalamanKAP</t>
+  </si>
+  <si>
+    <t>Resolusi.PengamananAset, Resolusi.PICKegiatan, Resolusi.Aset, FU.Integrasi, Resolusi.RencanaCIU, Resolusi.TimeScheduleKegiatan</t>
+  </si>
+  <si>
+    <t>Resolusi.Aset, Resolusi.PengamananAset, Resolusi.ChecklistDocSisaAset, Resolusi.SisaAset, FU.Repository</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.TimLikuidasi, Resolusi.TimLikuidasi, Resolusi.KAP, Resolusi.AdministrasiKAP, Resolusi.NilaiTimLikuidasi, Resolusi.NilaiAspekAdministratif, Resolusi.KelengkapanDokumenKAP, Resolusi.TeknisPengalamanKAP</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.DocRKAB, Resolusi.PeriodeBDL, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.DocLAPAN, FU.Repository, Resolusi.DocLANAP</t>
+  </si>
+  <si>
+    <t>Resolusi.ProfilBDL,  Resolusi.PengurusBDL, Penjaminan.Bank, FU.Repository, Resolusi.KewajibanPegawai, Resolusi.PengajuanDanaTalangan, Resolusi.TransaksiDanaTalangan</t>
+  </si>
+  <si>
+    <t>Resolusi.SisaAset, Resolusi.Aset, Resolusi.PengamananAset, Resolusi.ChecklistDocSisaAset, Resolusi.NeracaPenutupAudit, Resolusi.KoreksiNeracaPA, Resolusi.ChecklistNeracaPA</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanAsetNetto, FU.Repository, Resolusi.DocLANAP, Resolusi.DocLAPAN, Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananBDL, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>FU.Integrasi, Resolusi.NeracaPenutupAudit, Resolusi.KoreksiNeracaPA</t>
+  </si>
+  <si>
+    <t>Resolusi.TimLikuidasi, Resolusi.TenagaPendukung, Resolusi.PengajuanInsentif</t>
+  </si>
+  <si>
+    <t>Resolusi.Debitur, FU.Repository, Resolusi.PenagihanPiutang, Resolusi.PerhitunganPiutang, Resolusi.TenagaPendukung</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.FU.TemplateDoc, Resolusi.ChecklistDocSisaAset, Resolusi.SisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.TimLikuidasi</t>
+  </si>
+  <si>
+    <t>Resolusi.LaporanBulanan, Resolusi.LaporanBulananKredit, Resolusi.LaporanBulananABA, Resolusi.Aset, Resolusi.SisaAset, Resolusi.TimLikuidasi, Resolusi.LaporanKeuanganBDL, Resolusi.LaporanBulananTimLikuidasi, Resolusi.LaporanAsetNetto, FU.Repository</t>
+  </si>
+  <si>
+    <t>Resolusi.Debitur,  Resolusi.TimLikuidasi, FU.TemplateDoc, FU.Repository, Resolusi.DistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>Resolusi.PengawasanAuditLanir, Resolusi.Debitur,  Resolusi.TimLikuidasi, FU.TemplateDoc, FU.Repository, Resolusi.DistribusiHasilLikuidasi, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset</t>
+  </si>
+  <si>
+    <t>FU.TemplateDoc, FU.Repository, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset, PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA, Resolusi.PersetujuanHasilEPPA</t>
+  </si>
+  <si>
+    <t>FU.TemplateDoc, FU.Repository, Resolusi.DocLANIR, Resolusi.PengajuanLanir, Resolusi.DocPertanggungJawabanTL, Resolusi.TimLikuidasi</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.PengakhiranLikuidasi, Resolusi.DistribusiHasilLikuidasi, Resolusi.ChecklistDocRUPS, Resolusi.DocRUPS</t>
+  </si>
+  <si>
+    <t>FU.Repository, FU.TemplateDoc, Resolusi.ChecklistDocRUPS, Resolusi.DocRUPS, Resolusi.DocPertanggungJawabanTL</t>
+  </si>
+  <si>
+    <t>FU.Repository, FU.TemplateDoc, Resolusi.ChecklistDocRUPS, Resolusi.DocRUPS, Resolusi.DocPertanggungJawabanTL, Resolusi.LossRate, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset, PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA, Resolusi.PersetujuanHasilEPPA</t>
+  </si>
+  <si>
+    <t>FU.Repository, FU.TemplateDoc, Resolusi.ChecklistDocRUPS, Resolusi.DocRUPS, Resolusi.DocPertanggungJawabanTL, Resolusi.ProfilBDL</t>
+  </si>
+  <si>
+    <t>Resolusi.ProfilBDL, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset, PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA, Resolusi.PersetujuanHasilEPPA</t>
   </si>
 </sst>
 </file>
@@ -5204,7 +5267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5328,11 +5391,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5342,18 +5420,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5669,16 +5735,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E416"/>
+  <dimension ref="A1:E411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414:C415"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" style="16" customWidth="1"/>
     <col min="3" max="3" width="96.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="85" style="32" customWidth="1"/>
@@ -5703,7 +5769,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5711,12 +5777,12 @@
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5726,10 +5792,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5737,10 +5803,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5748,312 +5814,312 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="55">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="55">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="A13" s="55">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="47" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="55">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="47" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="A17" s="55">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="47" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
+      <c r="A19" s="55">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="49" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="54"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="55">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="49" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
+      <c r="A24" s="55">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="49" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
+      <c r="A26" s="55">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="49" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="49" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
+      <c r="A30" s="50">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6063,12 +6129,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="49" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6076,10 +6142,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="54"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6089,19 +6155,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="54"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="54"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+      <c r="A34" s="50">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6111,12 +6177,12 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="47" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6124,10 +6190,10 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6135,36 +6201,36 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="47">
+      <c r="A37" s="50">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="52" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="47" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="47">
+      <c r="A39" s="50">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6174,12 +6240,12 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="47" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6187,10 +6253,10 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="47"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6200,132 +6266,132 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="47"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="47">
+      <c r="A42" s="50">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="47" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="47">
+      <c r="A44" s="50">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="47" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+      <c r="A47" s="50">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="47" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="48"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="47"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="48"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="48"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="47"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="47">
+      <c r="A52" s="50">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6335,12 +6401,12 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="47" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6348,10 +6414,10 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6361,10 +6427,10 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="46"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6372,10 +6438,10 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="46"/>
+      <c r="E55" s="47"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6383,174 +6449,174 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="46"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
+      <c r="A57" s="50">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="52" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="47" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="47"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="48"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="47"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="47">
+      <c r="A60" s="50">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="47" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="46"/>
+      <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="47">
+      <c r="A62" s="50">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="47" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="48"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="47"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
+      <c r="A64" s="50">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="47" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="47"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="47">
+      <c r="A66" s="50">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="46" t="s">
+      <c r="E66" s="47" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="48"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="47"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="47">
+      <c r="A68" s="50">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="47" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="46"/>
+      <c r="E69" s="47"/>
     </row>
     <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
@@ -6562,28 +6628,28 @@
       <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
+      <c r="A71" s="50">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="47" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="46"/>
+      <c r="E72" s="47"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
@@ -6620,76 +6686,76 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47">
+      <c r="A75" s="50">
         <v>4</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="52" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="47" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="48"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="46"/>
+      <c r="E76" s="47"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="47">
+      <c r="A77" s="50">
         <v>5</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="47" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="48"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="46"/>
+      <c r="E78" s="47"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="47">
+      <c r="A79" s="50">
         <v>6</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="47" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="48"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="47"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="23">
@@ -6709,32 +6775,32 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="47">
+      <c r="A82" s="50">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="47" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="48"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="47"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="23">
@@ -6754,30 +6820,30 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="47">
+      <c r="A85" s="50">
         <v>3</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="53" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="47" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="46"/>
+      <c r="E86" s="47"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
@@ -6797,107 +6863,107 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="47">
+      <c r="A88" s="50">
         <v>5</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="47" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="48"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="46"/>
+      <c r="E89" s="47"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="47">
+      <c r="A90" s="50">
         <v>6</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="51" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="46" t="s">
+      <c r="E90" s="47" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="53"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="46"/>
+      <c r="E91" s="47"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47">
+      <c r="A92" s="50">
         <v>7</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="47" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="48"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="46"/>
+      <c r="E93" s="47"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="47">
+      <c r="A94" s="50">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="52" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="47" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="48"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="46"/>
+      <c r="E95" s="47"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="47">
+      <c r="A96" s="50">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6909,12 +6975,12 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="46" t="s">
+      <c r="E96" s="47" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -6924,7 +6990,7 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="46"/>
+      <c r="E97" s="47"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="23">
@@ -6978,7 +7044,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="47">
+      <c r="A101" s="50">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -6990,12 +7056,12 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="46" t="s">
+      <c r="E101" s="47" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -7005,7 +7071,7 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="46"/>
+      <c r="E102" s="47"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="23">
@@ -7042,90 +7108,90 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="47">
+      <c r="A105" s="50">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="46" t="s">
+      <c r="E105" s="47" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="48"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="46"/>
+      <c r="E106" s="47"/>
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="48"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="46"/>
+      <c r="E107" s="47"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="48"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="46"/>
+      <c r="E108" s="47"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="48"/>
+      <c r="C109" s="52"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="46"/>
+      <c r="E109" s="47"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="48"/>
+      <c r="C110" s="52"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="46"/>
+      <c r="E110" s="47"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="47">
+      <c r="A111" s="50">
         <v>2</v>
       </c>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="46" t="s">
+      <c r="E111" s="47" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="48"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="46"/>
+      <c r="E112" s="47"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="23">
@@ -7145,48 +7211,48 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="47">
+      <c r="A114" s="50">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="46" t="s">
+      <c r="E114" s="47" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="46"/>
+      <c r="E115" s="47"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="48"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="46"/>
+      <c r="E116" s="47"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="48"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="46"/>
+      <c r="E117" s="47"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
@@ -7206,81 +7272,81 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="47">
+      <c r="A119" s="50">
         <v>6</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="46" t="s">
+      <c r="E119" s="47" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="48"/>
+      <c r="A120" s="50"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="46"/>
+      <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="47">
+      <c r="A121" s="50">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="46" t="s">
+      <c r="E121" s="47" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="48"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="46"/>
+      <c r="E122" s="47"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="52"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="46"/>
+      <c r="E123" s="47"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="47"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="48"/>
+      <c r="C124" s="52"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="46"/>
+      <c r="E124" s="47"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="47"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="48"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="46"/>
+      <c r="E125" s="47"/>
     </row>
     <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23">
@@ -7309,408 +7375,408 @@
       <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="47">
+      <c r="A128" s="50">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="48" t="s">
+      <c r="C128" s="52" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="46" t="s">
+      <c r="E128" s="47" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="46"/>
+      <c r="E129" s="47"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="46"/>
+      <c r="E130" s="47"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="47">
+      <c r="A131" s="50">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C131" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="46" t="s">
+      <c r="E131" s="47" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="48"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="46"/>
+      <c r="E132" s="47"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="48"/>
+      <c r="C133" s="52"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="46"/>
+      <c r="E133" s="47"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="48"/>
+      <c r="C134" s="52"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="46"/>
+      <c r="E134" s="47"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="47">
+      <c r="A135" s="50">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="52" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="46" t="s">
+      <c r="E135" s="47" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="48"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="46"/>
+      <c r="E136" s="47"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="48"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="46"/>
+      <c r="E137" s="47"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="48"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="46"/>
+      <c r="E138" s="47"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="48"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="46"/>
+      <c r="E139" s="47"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="47">
+      <c r="A140" s="50">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="52" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="46" t="s">
+      <c r="E140" s="47" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="48"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="46"/>
+      <c r="E141" s="47"/>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="47">
+      <c r="A142" s="50">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="52" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="46" t="s">
+      <c r="E142" s="47" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="48"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="46"/>
+      <c r="E143" s="47"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="47">
+      <c r="A144" s="50">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="48" t="s">
+      <c r="C144" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="46" t="s">
+      <c r="E144" s="47" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="48"/>
+      <c r="C145" s="52"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="46"/>
+      <c r="E145" s="47"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="47">
+      <c r="A146" s="50">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C146" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="46" t="s">
+      <c r="E146" s="47" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="48"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="46"/>
+      <c r="E147" s="47"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="47">
+      <c r="A148" s="50">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="48" t="s">
+      <c r="C148" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="46" t="s">
+      <c r="E148" s="47" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="48"/>
+      <c r="C149" s="52"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="46"/>
+      <c r="E149" s="47"/>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="47">
+      <c r="A150" s="50">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="46" t="s">
+      <c r="E150" s="47" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="48"/>
+      <c r="C151" s="52"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="46"/>
+      <c r="E151" s="47"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="47">
+      <c r="A152" s="50">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="46" t="s">
+      <c r="E152" s="47" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="48"/>
+      <c r="C153" s="52"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="46"/>
+      <c r="E153" s="47"/>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="47">
+      <c r="A154" s="50">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="46" t="s">
+      <c r="E154" s="47" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="48"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="46"/>
+      <c r="E155" s="47"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="47">
+      <c r="A156" s="50">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="48" t="s">
+      <c r="C156" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="46" t="s">
+      <c r="E156" s="47" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="48"/>
+      <c r="C157" s="52"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="46"/>
+      <c r="E157" s="47"/>
     </row>
     <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="47">
+      <c r="A158" s="50">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="48" t="s">
+      <c r="C158" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="46" t="s">
+      <c r="E158" s="47" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="46"/>
+      <c r="E159" s="47"/>
     </row>
     <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="44"/>
@@ -7805,34 +7871,34 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="47">
+      <c r="A166" s="50">
         <v>3</v>
       </c>
-      <c r="B166" s="52" t="s">
+      <c r="B166" s="53" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-      <c r="E166" s="46" t="s">
+      <c r="E166" s="47" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="52"/>
+      <c r="A167" s="50"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D167" s="23"/>
-      <c r="E167" s="46"/>
+      <c r="E167" s="47"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="47">
+      <c r="A168" s="50">
         <v>4</v>
       </c>
-      <c r="B168" s="52" t="s">
+      <c r="B168" s="53" t="s">
         <v>267</v>
       </c>
       <c r="C168" s="22" t="s">
@@ -7841,18 +7907,18 @@
       <c r="D168" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="46" t="s">
+      <c r="E168" s="47" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="52"/>
+      <c r="A169" s="50"/>
+      <c r="B169" s="53"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D169" s="23"/>
-      <c r="E169" s="46"/>
+      <c r="E169" s="47"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="23">
@@ -7889,10 +7955,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="47">
+      <c r="A172" s="50">
         <v>7</v>
       </c>
-      <c r="B172" s="52" t="s">
+      <c r="B172" s="53" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="22" t="s">
@@ -7901,18 +7967,18 @@
       <c r="D172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E172" s="46" t="s">
+      <c r="E172" s="47" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="52"/>
+      <c r="A173" s="50"/>
+      <c r="B173" s="53"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="23"/>
-      <c r="E173" s="46"/>
+      <c r="E173" s="47"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="23">
@@ -8017,28 +8083,28 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="47">
+      <c r="A180" s="50">
         <v>3</v>
       </c>
-      <c r="B180" s="53" t="s">
+      <c r="B180" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C180" s="52" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="46" t="s">
+      <c r="E180" s="47" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="48"/>
+      <c r="A181" s="50"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="52"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="46"/>
+      <c r="E181" s="47"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="23">
@@ -8058,28 +8124,28 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="47">
+      <c r="A183" s="50">
         <v>5</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="48" t="s">
+      <c r="C183" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E183" s="46" t="s">
+      <c r="E183" s="47" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="48"/>
+      <c r="A184" s="50"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="52"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="46"/>
+      <c r="E184" s="47"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="23">
@@ -8108,117 +8174,117 @@
       <c r="E186" s="41"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="47">
+      <c r="A187" s="50">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="53" t="s">
+      <c r="C187" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
-      <c r="E187" s="46" t="s">
+      <c r="E187" s="47" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
+      <c r="A188" s="50"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="53"/>
+      <c r="C188" s="51"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="46"/>
+      <c r="E188" s="47"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="53"/>
+      <c r="C189" s="51"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="46"/>
+      <c r="E189" s="47"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="47">
+      <c r="A190" s="50">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
-      <c r="E190" s="46" t="s">
+      <c r="E190" s="47" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="48"/>
+      <c r="C191" s="52"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E191" s="46"/>
+      <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="48"/>
+      <c r="C192" s="52"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="46"/>
+      <c r="E192" s="47"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="47">
+      <c r="A193" s="50">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-      <c r="E193" s="46" t="s">
+      <c r="E193" s="47" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
+      <c r="A194" s="50"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="48"/>
+      <c r="C194" s="52"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E194" s="46"/>
+      <c r="E194" s="47"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="48"/>
+      <c r="C195" s="52"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="46"/>
+      <c r="E195" s="47"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
+      <c r="A196" s="50"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="48"/>
+      <c r="C196" s="52"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="46"/>
+      <c r="E196" s="47"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="47">
+      <c r="A197" s="50">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8230,21 +8296,21 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="46" t="s">
+      <c r="E197" s="47" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
+      <c r="A198" s="50"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="46"/>
+      <c r="E198" s="47"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8252,28 +8318,28 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-      <c r="E199" s="46"/>
+      <c r="E199" s="47"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
+      <c r="A200" s="50"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="46"/>
+      <c r="E200" s="47"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="46"/>
+      <c r="E201" s="47"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="47">
+      <c r="A202" s="50">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8285,21 +8351,21 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E202" s="46" t="s">
+      <c r="E202" s="47" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="46"/>
+      <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8307,73 +8373,73 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-      <c r="E204" s="46"/>
+      <c r="E204" s="47"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="46"/>
+      <c r="E205" s="47"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="46"/>
+      <c r="E206" s="47"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="46"/>
+      <c r="E207" s="47"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="46"/>
+      <c r="E208" s="47"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="46"/>
+      <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="46"/>
+      <c r="E210" s="47"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="46"/>
+      <c r="E211" s="47"/>
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="47">
+      <c r="A212" s="50">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8385,21 +8451,21 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E212" s="46" t="s">
+      <c r="E212" s="47" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="46"/>
+      <c r="E213" s="47"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8407,319 +8473,319 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-      <c r="E214" s="46"/>
+      <c r="E214" s="47"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="46"/>
+      <c r="E215" s="47"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
+      <c r="A216" s="50"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="46"/>
+      <c r="E216" s="47"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="46"/>
+      <c r="E217" s="47"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="46"/>
+      <c r="E218" s="47"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="46"/>
+      <c r="E219" s="47"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="46"/>
+      <c r="E220" s="47"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="46"/>
+      <c r="E221" s="47"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="46"/>
+      <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="47"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="46"/>
+      <c r="E223" s="47"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="47"/>
+      <c r="A224" s="50"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="46"/>
+      <c r="E224" s="47"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="47"/>
+      <c r="A225" s="50"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="46"/>
+      <c r="E225" s="47"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="47"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="46"/>
+      <c r="E226" s="47"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="47"/>
+      <c r="A227" s="50"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="46"/>
+      <c r="E227" s="47"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="47"/>
+      <c r="A228" s="50"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="46"/>
+      <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="47"/>
+      <c r="A229" s="50"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="46"/>
+      <c r="E229" s="47"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="47"/>
+      <c r="A230" s="50"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="46"/>
+      <c r="E230" s="47"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="47"/>
+      <c r="A231" s="50"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="46"/>
+      <c r="E231" s="47"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="47"/>
+      <c r="A232" s="50"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="46"/>
+      <c r="E232" s="47"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="47"/>
+      <c r="A233" s="50"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="46"/>
+      <c r="E233" s="47"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="47"/>
+      <c r="A234" s="50"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="46"/>
+      <c r="E234" s="47"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="47"/>
+      <c r="A235" s="50"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="46"/>
+      <c r="E235" s="47"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="47"/>
+      <c r="A236" s="50"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="46"/>
+      <c r="E236" s="47"/>
     </row>
     <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="47"/>
+      <c r="A237" s="50"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="46"/>
+      <c r="E237" s="47"/>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="47"/>
+      <c r="A238" s="50"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="46"/>
+      <c r="E238" s="47"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="47">
+      <c r="A239" s="50">
         <v>6</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="48" t="s">
+      <c r="C239" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="E239" s="46" t="s">
+      <c r="E239" s="47" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="47"/>
+      <c r="A240" s="50"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="48"/>
+      <c r="C240" s="52"/>
       <c r="D240" s="23"/>
-      <c r="E240" s="46"/>
+      <c r="E240" s="47"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="47"/>
+      <c r="A241" s="50"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="48"/>
+      <c r="C241" s="52"/>
       <c r="D241" s="23"/>
-      <c r="E241" s="46"/>
+      <c r="E241" s="47"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="47"/>
+      <c r="A242" s="50"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="48"/>
+      <c r="C242" s="52"/>
       <c r="D242" s="23"/>
-      <c r="E242" s="46"/>
+      <c r="E242" s="47"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="47"/>
+      <c r="A243" s="50"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="48"/>
+      <c r="C243" s="52"/>
       <c r="D243" s="23"/>
-      <c r="E243" s="46"/>
+      <c r="E243" s="47"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="47"/>
+      <c r="A244" s="50"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="48"/>
+      <c r="C244" s="52"/>
       <c r="D244" s="23"/>
-      <c r="E244" s="46"/>
+      <c r="E244" s="47"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="47"/>
+      <c r="A245" s="50"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="48"/>
+      <c r="C245" s="52"/>
       <c r="D245" s="23"/>
-      <c r="E245" s="46"/>
+      <c r="E245" s="47"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="47"/>
+      <c r="A246" s="50"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="48"/>
+      <c r="C246" s="52"/>
       <c r="D246" s="23"/>
-      <c r="E246" s="46"/>
+      <c r="E246" s="47"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="47"/>
+      <c r="A247" s="50"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="48"/>
+      <c r="C247" s="52"/>
       <c r="D247" s="23"/>
-      <c r="E247" s="46"/>
+      <c r="E247" s="47"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="47"/>
+      <c r="A248" s="50"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="48"/>
+      <c r="C248" s="52"/>
       <c r="D248" s="23"/>
-      <c r="E248" s="46"/>
+      <c r="E248" s="47"/>
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A249" s="23">
@@ -8882,143 +8948,147 @@
       <c r="E258" s="41"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="47">
+      <c r="A259" s="50">
         <v>1</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="48" t="s">
+      <c r="C259" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="46" t="s">
+      <c r="E259" s="47" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A260" s="47"/>
+      <c r="A260" s="50"/>
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="48"/>
+      <c r="C260" s="52"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="E260" s="46"/>
+      <c r="E260" s="47"/>
     </row>
     <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="47"/>
+      <c r="A261" s="50"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="48"/>
+      <c r="C261" s="52"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E261" s="46"/>
+      <c r="E261" s="47"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="47">
+      <c r="A262" s="50">
         <v>2</v>
       </c>
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="48" t="s">
+      <c r="C262" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D262" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="E262" s="46" t="s">
+      <c r="E262" s="47" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="47"/>
-      <c r="B263" s="48"/>
-      <c r="C263" s="48"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
       <c r="D263" s="23"/>
-      <c r="E263" s="46"/>
+      <c r="E263" s="47"/>
     </row>
     <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="47">
+      <c r="A264" s="50">
         <v>3</v>
       </c>
       <c r="B264" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C264" s="48" t="s">
+      <c r="C264" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D264" s="23"/>
-      <c r="E264" s="46" t="s">
+      <c r="E264" s="47" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A265" s="47"/>
+      <c r="A265" s="50"/>
       <c r="B265" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C265" s="48"/>
+      <c r="C265" s="52"/>
       <c r="D265" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="46"/>
+      <c r="E265" s="47"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="47">
+      <c r="A266" s="50">
         <v>4</v>
       </c>
       <c r="B266" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="48" t="s">
+      <c r="C266" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D266" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E266" s="46"/>
+      <c r="E266" s="47" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="47"/>
+      <c r="A267" s="50"/>
       <c r="B267" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="48"/>
+      <c r="C267" s="52"/>
       <c r="D267" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="E267" s="46"/>
+      <c r="E267" s="47"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="47">
+      <c r="A268" s="50">
         <v>5</v>
       </c>
       <c r="B268" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C268" s="48" t="s">
+      <c r="C268" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E268" s="46"/>
+      <c r="E268" s="47" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="47"/>
+      <c r="A269" s="50"/>
       <c r="B269" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C269" s="48"/>
+      <c r="C269" s="52"/>
       <c r="D269" s="23"/>
-      <c r="E269" s="46"/>
+      <c r="E269" s="47"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="23">
@@ -9033,8 +9103,11 @@
       <c r="D270" s="23" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E270" s="32" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A271" s="23">
         <v>7</v>
       </c>
@@ -9047,1893 +9120,1734 @@
       <c r="D271" s="23" t="s">
         <v>400</v>
       </c>
+      <c r="E271" s="32" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="47">
+      <c r="A272" s="50">
         <v>1</v>
       </c>
       <c r="B272" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C272" s="48" t="s">
+      <c r="C272" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D272" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E272" s="46"/>
+      <c r="E272" s="47" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="273" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="47"/>
+      <c r="A273" s="50"/>
       <c r="B273" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="48"/>
+      <c r="C273" s="52"/>
       <c r="D273" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="E273" s="46"/>
+      <c r="E273" s="47"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="47"/>
+      <c r="A274" s="50"/>
       <c r="B274" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C274" s="48"/>
+      <c r="C274" s="52"/>
       <c r="D274" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="E274" s="46"/>
+      <c r="E274" s="47"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="47">
+      <c r="A275" s="50">
         <v>2</v>
       </c>
-      <c r="B275" s="52" t="s">
+      <c r="B275" s="53" t="s">
         <v>407</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D275" s="23"/>
-      <c r="E275" s="46"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="47"/>
-      <c r="B276" s="52"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="23"/>
-      <c r="E276" s="46"/>
-    </row>
-    <row r="277" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="47"/>
-      <c r="B277" s="52"/>
+      <c r="E275" s="47" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="50"/>
+      <c r="B276" s="53"/>
+      <c r="C276" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E276" s="47"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="50">
+        <v>3</v>
+      </c>
+      <c r="B277" s="51" t="s">
+        <v>409</v>
+      </c>
       <c r="C277" s="22" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E277" s="46"/>
+        <v>410</v>
+      </c>
+      <c r="E277" s="47" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="47">
+      <c r="A278" s="50"/>
+      <c r="B278" s="51"/>
+      <c r="C278" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D278" s="23"/>
+      <c r="E278" s="47"/>
+    </row>
+    <row r="279" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="50">
+        <v>4</v>
+      </c>
+      <c r="B279" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C279" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E279" s="47" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="50"/>
+      <c r="B280" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C280" s="52"/>
+      <c r="D280" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E280" s="47"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="50">
+        <v>5</v>
+      </c>
+      <c r="B281" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C281" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="D281" s="23"/>
+      <c r="E281" s="47" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="50"/>
+      <c r="B282" s="53"/>
+      <c r="C282" s="52"/>
+      <c r="D282" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E282" s="47"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="50">
+        <v>6</v>
+      </c>
+      <c r="B283" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C283" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D283" s="23"/>
+      <c r="E283" s="47" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="50"/>
+      <c r="B284" s="53"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="23"/>
+      <c r="E284" s="47"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="50">
+        <v>7</v>
+      </c>
+      <c r="B285" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C285" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E285" s="47" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="50"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="52"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="47"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="50">
+        <v>8</v>
+      </c>
+      <c r="B287" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C287" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" s="23"/>
+      <c r="E287" s="47" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="50"/>
+      <c r="B288" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C288" s="52"/>
+      <c r="D288" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E288" s="47"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="50"/>
+      <c r="B289" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C289" s="52"/>
+      <c r="D289" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E289" s="47"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="50"/>
+      <c r="B290" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C290" s="52"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="47"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="50"/>
+      <c r="B291" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C291" s="52"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="47"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="50"/>
+      <c r="B292" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C292" s="52"/>
+      <c r="D292" s="23"/>
+      <c r="E292" s="47"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="50"/>
+      <c r="B293" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C293" s="52"/>
+      <c r="D293" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="E293" s="47"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="50"/>
+      <c r="B294" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C294" s="52"/>
+      <c r="D294" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E294" s="47"/>
+    </row>
+    <row r="295" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="50">
+        <v>9</v>
+      </c>
+      <c r="B295" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="C295" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E295" s="47" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="50"/>
+      <c r="B296" s="51"/>
+      <c r="C296" s="52"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="47"/>
+    </row>
+    <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="23">
+        <v>10</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D297" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E297" s="32" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="23">
+        <v>11</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E298" s="32" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A299" s="23">
+        <v>12</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="E299" s="32" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A300" s="23">
+        <v>1</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D300" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="E300" s="32" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="50">
+        <v>2</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C301" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D301" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E301" s="47" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="50"/>
+      <c r="B302" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C302" s="52"/>
+      <c r="D302" s="23"/>
+      <c r="E302" s="47"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="50"/>
+      <c r="B303" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C303" s="52"/>
+      <c r="D303" s="23"/>
+      <c r="E303" s="47"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="50">
         <v>3</v>
       </c>
-      <c r="B278" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="C278" s="22" t="s">
+      <c r="B304" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C304" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E304" s="47" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="50"/>
+      <c r="B305" s="51"/>
+      <c r="C305" s="52"/>
+      <c r="D305" s="30"/>
+      <c r="E305" s="47"/>
+    </row>
+    <row r="306" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="23">
+        <v>4</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D306" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="E306" s="32" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="23">
+        <v>5</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D307" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="E307" s="32" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="23">
+        <v>6</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D308" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E308" s="32" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="23">
+        <v>7</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D309" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E309" s="32" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A310" s="23">
+        <v>8</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D310" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="E310" s="32" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="23">
+        <v>9</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D311" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="E311" s="46" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A312" s="23">
+        <v>10</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D312" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E312" s="32" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="44"/>
+      <c r="B313" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C313" s="44"/>
+      <c r="D313" s="40"/>
+      <c r="E313" s="41"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="50">
+        <v>1</v>
+      </c>
+      <c r="B314" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="C314" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E314" s="47"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="50"/>
+      <c r="B315" s="51"/>
+      <c r="C315" s="51"/>
+      <c r="D315" s="23"/>
+      <c r="E315" s="47"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="50">
+        <v>1</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C316" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D316" s="23"/>
+      <c r="E316" s="47"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="50"/>
+      <c r="B317" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C317" s="52"/>
+      <c r="D317" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E317" s="47"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="50"/>
+      <c r="B318" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C318" s="52"/>
+      <c r="D318" s="23"/>
+      <c r="E318" s="47"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="50"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="52"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="47"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="50"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="52"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="47"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="50"/>
+      <c r="B321" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C321" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D321" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E321" s="47"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="50"/>
+      <c r="B322" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C322" s="52"/>
+      <c r="D322" s="23"/>
+      <c r="E322" s="47"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="50"/>
+      <c r="B323" s="25"/>
+      <c r="C323" s="52"/>
+      <c r="D323" s="23"/>
+      <c r="E323" s="47"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="50"/>
+      <c r="B324" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C324" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E278" s="46"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="47"/>
-      <c r="B279" s="53"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="23"/>
-      <c r="E279" s="46"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="47"/>
-      <c r="B280" s="53"/>
-      <c r="C280" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D280" s="23"/>
-      <c r="E280" s="46"/>
-    </row>
-    <row r="281" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="47">
+      <c r="D324" s="30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="50"/>
+      <c r="B325" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="C325" s="22"/>
+      <c r="D325" s="23"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="50"/>
+      <c r="B326" s="25"/>
+      <c r="C326" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D326" s="23"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="50">
+        <v>2</v>
+      </c>
+      <c r="B327" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C327" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D327" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E327" s="47"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="50"/>
+      <c r="B328" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C328" s="52"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="47"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="50"/>
+      <c r="B329" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C329" s="52"/>
+      <c r="D329" s="23"/>
+      <c r="E329" s="47"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="50"/>
+      <c r="B330" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C330" s="52"/>
+      <c r="D330" s="23"/>
+      <c r="E330" s="47"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="50"/>
+      <c r="B331" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C331" s="52"/>
+      <c r="D331" s="23"/>
+      <c r="E331" s="47"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="50">
+        <v>3</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C332" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D332" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E332" s="47"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="50"/>
+      <c r="B333" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C333" s="52"/>
+      <c r="D333" s="23"/>
+      <c r="E333" s="47"/>
+    </row>
+    <row r="334" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="50"/>
+      <c r="B334" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C334" s="52"/>
+      <c r="D334" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E334" s="47"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="50"/>
+      <c r="B335" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="C335" s="52"/>
+      <c r="D335" s="23"/>
+      <c r="E335" s="47"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="50"/>
+      <c r="B336" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C336" s="52"/>
+      <c r="D336" s="23"/>
+      <c r="E336" s="47"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="50"/>
+      <c r="B337" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C337" s="52"/>
+      <c r="D337" s="23"/>
+      <c r="E337" s="47"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="50"/>
+      <c r="B338" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C338" s="52"/>
+      <c r="D338" s="23"/>
+      <c r="E338" s="47"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="50"/>
+      <c r="B339" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C339" s="52"/>
+      <c r="D339" s="23"/>
+      <c r="E339" s="47"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="50"/>
+      <c r="B340" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C340" s="52"/>
+      <c r="D340" s="23"/>
+      <c r="E340" s="47"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="50">
+        <v>7</v>
+      </c>
+      <c r="B341" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="C341" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D341" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E341" s="47"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="50"/>
+      <c r="B342" s="51"/>
+      <c r="C342" s="52"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="47"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="23">
+        <v>9</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D343" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="50">
+        <v>10</v>
+      </c>
+      <c r="B344" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C344" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E344" s="47"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="50"/>
+      <c r="B345" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C345" s="52"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="47"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="50"/>
+      <c r="B346" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C346" s="52"/>
+      <c r="D346" s="23"/>
+      <c r="E346" s="47"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="50"/>
+      <c r="B347" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C347" s="52"/>
+      <c r="D347" s="23"/>
+      <c r="E347" s="47"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="50"/>
+      <c r="B348" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C348" s="52"/>
+      <c r="D348" s="23"/>
+      <c r="E348" s="47"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="50"/>
+      <c r="B349" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C349" s="52"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="47"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="50">
+        <v>11</v>
+      </c>
+      <c r="B350" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="C350" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D350" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E350" s="47"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="50"/>
+      <c r="B351" s="51"/>
+      <c r="C351" s="52"/>
+      <c r="D351" s="23"/>
+      <c r="E351" s="47"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="23">
+        <v>12</v>
+      </c>
+      <c r="B352" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D352" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="23">
+        <v>1</v>
+      </c>
+      <c r="B353" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C353" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D353" s="30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="23">
+        <v>2</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C354" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D354" s="30" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="50">
+        <v>3</v>
+      </c>
+      <c r="B355" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="C355" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D355" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E355" s="47"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="50"/>
+      <c r="B356" s="51"/>
+      <c r="C356" s="52"/>
+      <c r="D356" s="23"/>
+      <c r="E356" s="47"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="50">
         <v>4</v>
       </c>
-      <c r="B281" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="C281" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E281" s="46"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="47"/>
-      <c r="B282" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C282" s="48"/>
-      <c r="D282" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="E282" s="46"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="47"/>
-      <c r="B283" s="25"/>
-      <c r="C283" s="48"/>
-      <c r="D283" s="23"/>
-      <c r="E283" s="46"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="47">
-        <v>5</v>
-      </c>
-      <c r="B284" s="52" t="s">
-        <v>417</v>
-      </c>
-      <c r="C284" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="D284" s="23"/>
-      <c r="E284" s="46"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="47"/>
-      <c r="B285" s="52"/>
-      <c r="C285" s="48"/>
-      <c r="D285" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="E285" s="46"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="47">
-        <v>6</v>
-      </c>
-      <c r="B286" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C286" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D286" s="23"/>
-      <c r="E286" s="46"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="47"/>
-      <c r="B287" s="52"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="23"/>
-      <c r="E287" s="46"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="47">
-        <v>7</v>
-      </c>
-      <c r="B288" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="C288" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="E288" s="46"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="47"/>
-      <c r="B289" s="53"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="23"/>
-      <c r="E289" s="46"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="47">
-        <v>8</v>
-      </c>
-      <c r="B290" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C290" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D290" s="23"/>
-      <c r="E290" s="46"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="47"/>
-      <c r="B291" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="C291" s="48"/>
-      <c r="D291" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="E291" s="46"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="47"/>
-      <c r="B292" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C292" s="48"/>
-      <c r="D292" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="E292" s="46"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="47"/>
-      <c r="B293" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C293" s="48"/>
-      <c r="D293" s="30"/>
-      <c r="E293" s="46"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="47"/>
-      <c r="B294" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C294" s="48"/>
-      <c r="D294" s="30"/>
-      <c r="E294" s="46"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="47"/>
-      <c r="B295" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C295" s="48"/>
-      <c r="D295" s="23"/>
-      <c r="E295" s="46"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="47"/>
-      <c r="B296" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C296" s="48"/>
-      <c r="D296" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="E296" s="46"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="47"/>
-      <c r="B297" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C297" s="48"/>
-      <c r="D297" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="E297" s="46"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="47"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="23"/>
-      <c r="E298" s="46"/>
-    </row>
-    <row r="299" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="47">
-        <v>9</v>
-      </c>
-      <c r="B299" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="C299" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D299" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E299" s="46"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="47"/>
-      <c r="B300" s="53"/>
-      <c r="C300" s="48"/>
-      <c r="D300" s="23"/>
-      <c r="E300" s="46"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="23">
-        <v>10</v>
-      </c>
-      <c r="B301" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="C301" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D301" s="30" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="23">
-        <v>11</v>
-      </c>
-      <c r="B302" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C302" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D302" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="23">
-        <v>12</v>
-      </c>
-      <c r="B303" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C303" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D303" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="23">
-        <v>1</v>
-      </c>
-      <c r="B304" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C304" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="47">
-        <v>2</v>
-      </c>
-      <c r="B305" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="C305" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D305" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="E305" s="46"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="47"/>
-      <c r="B306" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C306" s="48"/>
-      <c r="D306" s="23"/>
-      <c r="E306" s="46"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="47"/>
-      <c r="B307" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C307" s="48"/>
-      <c r="D307" s="23"/>
-      <c r="E307" s="46"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="47"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="48"/>
-      <c r="D308" s="23"/>
-      <c r="E308" s="46"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="47">
-        <v>3</v>
-      </c>
-      <c r="B309" s="53" t="s">
-        <v>445</v>
-      </c>
-      <c r="C309" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="D309" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="E309" s="46"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="47"/>
-      <c r="B310" s="53"/>
-      <c r="C310" s="48"/>
-      <c r="D310" s="30"/>
-      <c r="E310" s="46"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="23">
-        <v>4</v>
-      </c>
-      <c r="B311" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="C311" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D311" s="30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="23">
-        <v>5</v>
-      </c>
-      <c r="B312" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="C312" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="23">
-        <v>6</v>
-      </c>
-      <c r="B313" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="C313" s="22" t="s">
+      <c r="B357" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="C357" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="D313" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="23">
-        <v>7</v>
-      </c>
-      <c r="B314" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="C314" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="23">
-        <v>8</v>
-      </c>
-      <c r="B315" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C315" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D315" s="30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="23">
-        <v>9</v>
-      </c>
-      <c r="B316" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="C316" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D316" s="30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="23">
-        <v>10</v>
-      </c>
-      <c r="B317" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C317" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D317" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="44"/>
-      <c r="B318" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="C318" s="44"/>
-      <c r="D318" s="40"/>
-      <c r="E318" s="41"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="47">
-        <v>1</v>
-      </c>
-      <c r="B319" s="53" t="s">
-        <v>465</v>
-      </c>
-      <c r="C319" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D319" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E319" s="46"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="47"/>
-      <c r="B320" s="53"/>
-      <c r="C320" s="53"/>
-      <c r="D320" s="23"/>
-      <c r="E320" s="46"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="47">
-        <v>1</v>
-      </c>
-      <c r="B321" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C321" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D321" s="23"/>
-      <c r="E321" s="46"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="47"/>
-      <c r="B322" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="C322" s="48"/>
-      <c r="D322" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="E322" s="46"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="47"/>
-      <c r="B323" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C323" s="48"/>
-      <c r="D323" s="23"/>
-      <c r="E323" s="46"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="47"/>
-      <c r="B324" s="25"/>
-      <c r="C324" s="48"/>
-      <c r="D324" s="23"/>
-      <c r="E324" s="46"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="47"/>
-      <c r="B325" s="25"/>
-      <c r="C325" s="48"/>
-      <c r="D325" s="23"/>
-      <c r="E325" s="46"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="47"/>
-      <c r="B326" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C326" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D326" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E326" s="46"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="47"/>
-      <c r="B327" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C327" s="48"/>
-      <c r="D327" s="23"/>
-      <c r="E327" s="46"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="47"/>
-      <c r="B328" s="25"/>
-      <c r="C328" s="48"/>
-      <c r="D328" s="23"/>
-      <c r="E328" s="46"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="47"/>
-      <c r="B329" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C329" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D329" s="30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="47"/>
-      <c r="B330" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C330" s="22"/>
-      <c r="D330" s="23"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="47"/>
-      <c r="B331" s="25"/>
-      <c r="C331" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D331" s="23"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="47">
-        <v>2</v>
-      </c>
-      <c r="B332" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C332" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D332" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="E332" s="46"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="47"/>
-      <c r="B333" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C333" s="48"/>
-      <c r="D333" s="23"/>
-      <c r="E333" s="46"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="47"/>
-      <c r="B334" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C334" s="48"/>
-      <c r="D334" s="23"/>
-      <c r="E334" s="46"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="47"/>
-      <c r="B335" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C335" s="48"/>
-      <c r="D335" s="23"/>
-      <c r="E335" s="46"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="47"/>
-      <c r="B336" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C336" s="48"/>
-      <c r="D336" s="23"/>
-      <c r="E336" s="46"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="47">
-        <v>3</v>
-      </c>
-      <c r="B337" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C337" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="E337" s="46"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="47"/>
-      <c r="B338" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C338" s="48"/>
-      <c r="D338" s="23"/>
-      <c r="E338" s="46"/>
-    </row>
-    <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="47"/>
-      <c r="B339" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C339" s="48"/>
-      <c r="D339" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E339" s="46"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="47"/>
-      <c r="B340" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C340" s="48"/>
-      <c r="D340" s="23"/>
-      <c r="E340" s="46"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="47"/>
-      <c r="B341" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C341" s="48"/>
-      <c r="D341" s="23"/>
-      <c r="E341" s="46"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="47"/>
-      <c r="B342" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C342" s="48"/>
-      <c r="D342" s="23"/>
-      <c r="E342" s="46"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="47"/>
-      <c r="B343" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C343" s="48"/>
-      <c r="D343" s="23"/>
-      <c r="E343" s="46"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="47"/>
-      <c r="B344" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C344" s="48"/>
-      <c r="D344" s="23"/>
-      <c r="E344" s="46"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="47"/>
-      <c r="B345" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="C345" s="48"/>
-      <c r="D345" s="23"/>
-      <c r="E345" s="46"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="47">
-        <v>7</v>
-      </c>
-      <c r="B346" s="53" t="s">
-        <v>492</v>
-      </c>
-      <c r="C346" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D346" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="E346" s="46"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="47"/>
-      <c r="B347" s="53"/>
-      <c r="C347" s="48"/>
-      <c r="D347" s="23"/>
-      <c r="E347" s="46"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="23">
-        <v>9</v>
-      </c>
-      <c r="B348" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D348" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="47">
-        <v>10</v>
-      </c>
-      <c r="B349" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C349" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D349" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="E349" s="46"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="47"/>
-      <c r="B350" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C350" s="48"/>
-      <c r="D350" s="23"/>
-      <c r="E350" s="46"/>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="47"/>
-      <c r="B351" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="C351" s="48"/>
-      <c r="D351" s="23"/>
-      <c r="E351" s="46"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="47"/>
-      <c r="B352" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C352" s="48"/>
-      <c r="D352" s="23"/>
-      <c r="E352" s="46"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="47"/>
-      <c r="B353" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C353" s="48"/>
-      <c r="D353" s="23"/>
-      <c r="E353" s="46"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="47"/>
-      <c r="B354" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C354" s="48"/>
-      <c r="D354" s="23"/>
-      <c r="E354" s="46"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="47">
-        <v>11</v>
-      </c>
-      <c r="B355" s="53" t="s">
-        <v>503</v>
-      </c>
-      <c r="C355" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="D355" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="E355" s="46"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="47"/>
-      <c r="B356" s="53"/>
-      <c r="C356" s="48"/>
-      <c r="D356" s="23"/>
-      <c r="E356" s="46"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="23">
-        <v>12</v>
-      </c>
-      <c r="B357" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C357" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D357" s="23" t="s">
-        <v>506</v>
-      </c>
+      <c r="D357" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E357" s="47"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="23">
-        <v>1</v>
-      </c>
-      <c r="B358" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D358" s="30" t="s">
-        <v>508</v>
-      </c>
+      <c r="A358" s="50"/>
+      <c r="B358" s="53"/>
+      <c r="C358" s="52"/>
+      <c r="D358" s="23"/>
+      <c r="E358" s="47"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="23">
-        <v>2</v>
-      </c>
-      <c r="B359" s="25" t="s">
-        <v>509</v>
+        <v>5</v>
+      </c>
+      <c r="B359" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D359" s="30" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="47">
-        <v>3</v>
-      </c>
-      <c r="B360" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="C360" s="48" t="s">
+      <c r="A360" s="23">
+        <v>6</v>
+      </c>
+      <c r="B360" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C360" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D360" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E360" s="46"/>
+        <v>518</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="47"/>
-      <c r="B361" s="53"/>
-      <c r="C361" s="48"/>
-      <c r="D361" s="23"/>
-      <c r="E361" s="46"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="47">
-        <v>4</v>
-      </c>
-      <c r="B362" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="C362" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D362" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="E362" s="46"/>
+      <c r="A361" s="23">
+        <v>7</v>
+      </c>
+      <c r="B361" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D361" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="44"/>
+      <c r="B362" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C362" s="44"/>
+      <c r="D362" s="40"/>
+      <c r="E362" s="41"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="47"/>
-      <c r="B363" s="52"/>
-      <c r="C363" s="48"/>
-      <c r="D363" s="23"/>
-      <c r="E363" s="46"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="23">
-        <v>5</v>
-      </c>
-      <c r="B364" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C364" s="22" t="s">
-        <v>201</v>
-      </c>
+      <c r="A363" s="50">
+        <v>1</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C363" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D363" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E363" s="47"/>
+    </row>
+    <row r="364" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="50"/>
+      <c r="B364" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C364" s="52"/>
       <c r="D364" s="30" t="s">
-        <v>516</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E364" s="47"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="23">
-        <v>6</v>
-      </c>
-      <c r="B365" s="25" t="s">
-        <v>517</v>
+        <v>1</v>
+      </c>
+      <c r="B365" s="22" t="s">
+        <v>527</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D365" s="30" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="23">
-        <v>7</v>
-      </c>
-      <c r="B366" s="25" t="s">
-        <v>519</v>
+        <v>2</v>
+      </c>
+      <c r="B366" s="22" t="s">
+        <v>529</v>
       </c>
       <c r="C366" s="22" t="s">
         <v>204</v>
       </c>
       <c r="D366" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="44"/>
-      <c r="B367" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="C367" s="44"/>
-      <c r="D367" s="40"/>
-      <c r="E367" s="41"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="50">
+        <v>3</v>
+      </c>
+      <c r="B367" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C367" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D367" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E367" s="47"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="47">
-        <v>1</v>
-      </c>
-      <c r="B368" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C368" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D368" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E368" s="46"/>
-    </row>
-    <row r="369" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="47"/>
-      <c r="B369" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C369" s="48"/>
-      <c r="D369" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E369" s="46"/>
+      <c r="A368" s="50"/>
+      <c r="B368" s="52"/>
+      <c r="C368" s="52"/>
+      <c r="D368" s="17"/>
+      <c r="E368" s="47"/>
+    </row>
+    <row r="369" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="44"/>
+      <c r="B369" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C369" s="44"/>
+      <c r="D369" s="40"/>
+      <c r="E369" s="41"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="23">
         <v>1</v>
       </c>
-      <c r="B370" s="22" t="s">
-        <v>527</v>
+      <c r="B370" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="C370" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D370" s="30" t="s">
-        <v>528</v>
+        <v>15</v>
+      </c>
+      <c r="D370" s="23" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="23">
+        <v>3</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C371" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D371" s="30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="50">
+        <v>4</v>
+      </c>
+      <c r="B372" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C372" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D372" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="E372" s="47"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="50"/>
+      <c r="B373" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C373" s="52"/>
+      <c r="D373" s="23"/>
+      <c r="E373" s="47"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="50"/>
+      <c r="B374" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C374" s="52"/>
+      <c r="D374" s="23"/>
+      <c r="E374" s="47"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="50"/>
+      <c r="B375" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="C375" s="52"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="47"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="50">
+        <v>5</v>
+      </c>
+      <c r="B376" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C376" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D376" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="E376" s="47"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="50"/>
+      <c r="B377" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C377" s="52"/>
+      <c r="D377" s="23"/>
+      <c r="E377" s="47"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="50"/>
+      <c r="B378" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C378" s="52"/>
+      <c r="D378" s="23"/>
+      <c r="E378" s="47"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="50">
+        <v>6</v>
+      </c>
+      <c r="B379" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C379" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="E379" s="47"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="50"/>
+      <c r="B380" s="51"/>
+      <c r="C380" s="52"/>
+      <c r="D380" s="23"/>
+      <c r="E380" s="47"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="50">
+        <v>7</v>
+      </c>
+      <c r="B381" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C381" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E381" s="47"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="50"/>
+      <c r="B382" s="51"/>
+      <c r="C382" s="52"/>
+      <c r="D382" s="23"/>
+      <c r="E382" s="47"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="50">
+        <v>8</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C383" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="D383" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="E383" s="47"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="50"/>
+      <c r="B384" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C384" s="52"/>
+      <c r="D384" s="23"/>
+      <c r="E384" s="47"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="50">
+        <v>1</v>
+      </c>
+      <c r="B385" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C385" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D385" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="E385" s="47"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="50"/>
+      <c r="B386" s="51"/>
+      <c r="C386" s="52"/>
+      <c r="D386" s="23"/>
+      <c r="E386" s="47"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="23">
         <v>2</v>
       </c>
-      <c r="B371" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C371" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="47">
+      <c r="B387" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C387" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D387" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="23">
         <v>3</v>
       </c>
-      <c r="B372" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="C372" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D372" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="E372" s="46"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="47"/>
-      <c r="B373" s="48"/>
-      <c r="C373" s="48"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="46"/>
-    </row>
-    <row r="374" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="44"/>
-      <c r="B374" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C374" s="44"/>
-      <c r="D374" s="40"/>
-      <c r="E374" s="41"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="23">
-        <v>1</v>
-      </c>
-      <c r="B375" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C375" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D375" s="23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="23">
-        <v>3</v>
-      </c>
-      <c r="B376" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D376" s="30" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="47">
+      <c r="B388" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C388" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A389" s="23">
         <v>4</v>
       </c>
-      <c r="B377" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C377" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D377" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="E377" s="46"/>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="47"/>
-      <c r="B378" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C378" s="48"/>
-      <c r="D378" s="23"/>
-      <c r="E378" s="46"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="47"/>
-      <c r="B379" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C379" s="48"/>
-      <c r="D379" s="23"/>
-      <c r="E379" s="46"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="47"/>
-      <c r="B380" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C380" s="48"/>
-      <c r="D380" s="23"/>
-      <c r="E380" s="46"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="47">
+      <c r="B389" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C389" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D389" s="30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="23">
+        <v>4</v>
+      </c>
+      <c r="B390" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C390" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D390" s="30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A391" s="23">
         <v>5</v>
       </c>
-      <c r="B381" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C381" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D381" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="E381" s="46"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="47"/>
-      <c r="B382" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C382" s="48"/>
-      <c r="D382" s="23"/>
-      <c r="E382" s="46"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="47"/>
-      <c r="B383" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C383" s="48"/>
-      <c r="D383" s="23"/>
-      <c r="E383" s="46"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="47">
-        <v>6</v>
-      </c>
-      <c r="B384" s="53" t="s">
-        <v>547</v>
-      </c>
-      <c r="C384" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D384" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="E384" s="46"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="47"/>
-      <c r="B385" s="53"/>
-      <c r="C385" s="48"/>
-      <c r="D385" s="23"/>
-      <c r="E385" s="46"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="47">
-        <v>7</v>
-      </c>
-      <c r="B386" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="C386" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D386" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="E386" s="46"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
-      <c r="B387" s="53"/>
-      <c r="C387" s="48"/>
-      <c r="D387" s="23"/>
-      <c r="E387" s="46"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="47">
-        <v>8</v>
-      </c>
-      <c r="B388" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C388" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="D388" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="E388" s="46"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="47"/>
-      <c r="B389" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C389" s="48"/>
-      <c r="D389" s="23"/>
-      <c r="E389" s="46"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="47">
-        <v>1</v>
-      </c>
-      <c r="B390" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="C390" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D390" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="E390" s="46"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="47"/>
-      <c r="B391" s="53"/>
-      <c r="C391" s="48"/>
-      <c r="D391" s="23"/>
-      <c r="E391" s="46"/>
+      <c r="B391" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C391" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D391" s="30" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="23">
+        <v>6</v>
+      </c>
+      <c r="B392" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C392" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A393" s="23">
+        <v>7</v>
+      </c>
+      <c r="B393" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C393" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="50">
+        <v>1</v>
+      </c>
+      <c r="B394" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="C394" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D394" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E394" s="47"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="50"/>
+      <c r="B395" s="51"/>
+      <c r="C395" s="52"/>
+      <c r="D395" s="23"/>
+      <c r="E395" s="47"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="50">
         <v>2</v>
       </c>
-      <c r="B392" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C392" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D392" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="23">
+      <c r="B396" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="C396" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D396" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E396" s="47"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="50"/>
+      <c r="B397" s="51"/>
+      <c r="C397" s="52"/>
+      <c r="D397" s="23"/>
+      <c r="E397" s="47"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="23">
         <v>3</v>
       </c>
-      <c r="B393" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C393" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D393" s="23"/>
-    </row>
-    <row r="394" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A394" s="23">
+      <c r="B398" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C398" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D398" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="50">
         <v>4</v>
       </c>
-      <c r="B394" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C394" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D394" s="30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="23">
-        <v>4</v>
-      </c>
-      <c r="B395" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C395" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D395" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A396" s="23">
+      <c r="B399" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="C399" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="D399" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="E399" s="47"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="50"/>
+      <c r="B400" s="51"/>
+      <c r="C400" s="52"/>
+      <c r="D400" s="23"/>
+      <c r="E400" s="47"/>
+    </row>
+    <row r="401" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="50">
         <v>5</v>
       </c>
-      <c r="B396" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C396" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D396" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="23">
-        <v>6</v>
-      </c>
-      <c r="B397" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C397" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D397" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="23">
-        <v>7</v>
-      </c>
-      <c r="B398" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C398" s="22" t="s">
+      <c r="B401" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C401" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D401" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E401" s="48"/>
+    </row>
+    <row r="402" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="50"/>
+      <c r="B402" s="51"/>
+      <c r="C402" s="52"/>
+      <c r="D402" s="23"/>
+      <c r="E402" s="48"/>
+    </row>
+    <row r="403" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="44"/>
+      <c r="B403" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="C403" s="44"/>
+      <c r="D403" s="40"/>
+      <c r="E403" s="41"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="50">
+        <v>1</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C404" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D398" s="23"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="47">
+      <c r="D404" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E404" s="47"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="50"/>
+      <c r="B405" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C405" s="51"/>
+      <c r="D405" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E405" s="47"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="50"/>
+      <c r="B406" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C406" s="51"/>
+      <c r="D406" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E406" s="47"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="50">
         <v>1</v>
       </c>
-      <c r="B399" s="53" t="s">
-        <v>569</v>
-      </c>
-      <c r="C399" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D399" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E399" s="46"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="47"/>
-      <c r="B400" s="53"/>
-      <c r="C400" s="48"/>
-      <c r="D400" s="23"/>
-      <c r="E400" s="46"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="47">
-        <v>2</v>
-      </c>
-      <c r="B401" s="53" t="s">
-        <v>571</v>
-      </c>
-      <c r="C401" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D401" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="E401" s="46"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="47"/>
-      <c r="B402" s="53"/>
-      <c r="C402" s="48"/>
-      <c r="D402" s="23"/>
-      <c r="E402" s="46"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="23">
-        <v>3</v>
-      </c>
-      <c r="B403" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="C403" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D403" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="47">
-        <v>4</v>
-      </c>
-      <c r="B404" s="53" t="s">
-        <v>573</v>
-      </c>
-      <c r="C404" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="D404" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="E404" s="46"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="47"/>
-      <c r="B405" s="53"/>
-      <c r="C405" s="48"/>
-      <c r="D405" s="23"/>
-      <c r="E405" s="46"/>
-    </row>
-    <row r="406" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="47">
-        <v>5</v>
-      </c>
-      <c r="B406" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="C406" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D406" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="E406" s="55"/>
-    </row>
-    <row r="407" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="47"/>
-      <c r="B407" s="53"/>
-      <c r="C407" s="48"/>
-      <c r="D407" s="23"/>
-      <c r="E407" s="55"/>
-    </row>
-    <row r="408" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="44"/>
-      <c r="B408" s="44" t="s">
-        <v>578</v>
-      </c>
-      <c r="C408" s="44"/>
-      <c r="D408" s="40"/>
-      <c r="E408" s="41"/>
+      <c r="B407" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C407" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E407" s="47"/>
+    </row>
+    <row r="408" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A408" s="50"/>
+      <c r="B408" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C408" s="51"/>
+      <c r="D408" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E408" s="47"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="47">
+      <c r="A409" s="50">
         <v>1</v>
       </c>
       <c r="B409" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C409" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="C409" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E409" s="46"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="47"/>
+        <v>586</v>
+      </c>
+      <c r="E409" s="47"/>
+    </row>
+    <row r="410" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A410" s="50"/>
       <c r="B410" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C410" s="53"/>
+        <v>589</v>
+      </c>
+      <c r="C410" s="51"/>
       <c r="D410" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E410" s="46"/>
+        <v>584</v>
+      </c>
+      <c r="E410" s="47"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="47"/>
-      <c r="B411" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C411" s="53"/>
-      <c r="D411" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E411" s="46"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="47">
-        <v>1</v>
-      </c>
-      <c r="B412" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C412" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D412" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E412" s="46"/>
-    </row>
-    <row r="413" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A413" s="47"/>
-      <c r="B413" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C413" s="53"/>
-      <c r="D413" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E413" s="46"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="47">
-        <v>1</v>
-      </c>
-      <c r="B414" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C414" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="D414" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E414" s="46"/>
-    </row>
-    <row r="415" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A415" s="47"/>
-      <c r="B415" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C415" s="53"/>
-      <c r="D415" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E415" s="46"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="15"/>
-      <c r="B416" s="14"/>
-      <c r="C416" s="14"/>
+      <c r="A411" s="15"/>
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
   <mergeCells count="344">
-    <mergeCell ref="E404:E405"/>
-    <mergeCell ref="E406:E407"/>
-    <mergeCell ref="E409:E411"/>
-    <mergeCell ref="E412:E413"/>
-    <mergeCell ref="E414:E415"/>
-    <mergeCell ref="E372:E373"/>
-    <mergeCell ref="E377:E380"/>
-    <mergeCell ref="E381:E383"/>
-    <mergeCell ref="E384:E385"/>
-    <mergeCell ref="E386:E387"/>
-    <mergeCell ref="E388:E389"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="E399:E400"/>
-    <mergeCell ref="E401:E402"/>
-    <mergeCell ref="E326:E328"/>
-    <mergeCell ref="E332:E336"/>
-    <mergeCell ref="E337:E345"/>
-    <mergeCell ref="E346:E347"/>
-    <mergeCell ref="E349:E354"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="E360:E361"/>
-    <mergeCell ref="E362:E363"/>
-    <mergeCell ref="E368:E369"/>
-    <mergeCell ref="E284:E285"/>
-    <mergeCell ref="E286:E287"/>
-    <mergeCell ref="E288:E289"/>
-    <mergeCell ref="E290:E298"/>
-    <mergeCell ref="E299:E300"/>
-    <mergeCell ref="E305:E308"/>
-    <mergeCell ref="E309:E310"/>
-    <mergeCell ref="E319:E320"/>
-    <mergeCell ref="E321:E325"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="E275:E277"/>
-    <mergeCell ref="E278:E280"/>
-    <mergeCell ref="E281:E283"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A409:A411"/>
-    <mergeCell ref="C409:C411"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="A404:A405"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="A386:A387"/>
-    <mergeCell ref="B386:B387"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="C377:C380"/>
-    <mergeCell ref="A381:A383"/>
-    <mergeCell ref="C381:C383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="C372:C373"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="A360:A361"/>
-    <mergeCell ref="B360:B361"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="A337:A345"/>
-    <mergeCell ref="C337:C345"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="A349:A354"/>
-    <mergeCell ref="C349:C354"/>
-    <mergeCell ref="A321:A325"/>
-    <mergeCell ref="C321:C325"/>
-    <mergeCell ref="A326:A328"/>
-    <mergeCell ref="C326:C328"/>
-    <mergeCell ref="A329:A331"/>
-    <mergeCell ref="A332:A336"/>
-    <mergeCell ref="C332:C336"/>
-    <mergeCell ref="A305:A308"/>
-    <mergeCell ref="C305:C308"/>
-    <mergeCell ref="A309:A310"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="A290:A298"/>
-    <mergeCell ref="C290:C298"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E239:E248"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -10958,75 +10872,257 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="E239:E248"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="A287:A294"/>
+    <mergeCell ref="C287:C294"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="C316:C320"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="C321:C323"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="A327:A331"/>
+    <mergeCell ref="C327:C331"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="A332:A340"/>
+    <mergeCell ref="C332:C340"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="A344:A349"/>
+    <mergeCell ref="C344:C349"/>
+    <mergeCell ref="A372:A375"/>
+    <mergeCell ref="C372:C375"/>
+    <mergeCell ref="A376:A378"/>
+    <mergeCell ref="C376:C378"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="A357:A358"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="C357:C358"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="A383:A384"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="A404:A406"/>
+    <mergeCell ref="C404:C406"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="E287:E294"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="E316:E320"/>
+    <mergeCell ref="E321:E323"/>
+    <mergeCell ref="E327:E331"/>
+    <mergeCell ref="E332:E340"/>
+    <mergeCell ref="E341:E342"/>
+    <mergeCell ref="E344:E349"/>
+    <mergeCell ref="E350:E351"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="E357:E358"/>
+    <mergeCell ref="E363:E364"/>
+    <mergeCell ref="E399:E400"/>
+    <mergeCell ref="E401:E402"/>
+    <mergeCell ref="E404:E406"/>
+    <mergeCell ref="E407:E408"/>
+    <mergeCell ref="E409:E410"/>
+    <mergeCell ref="E367:E368"/>
+    <mergeCell ref="E372:E375"/>
+    <mergeCell ref="E376:E378"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="E383:E384"/>
+    <mergeCell ref="E385:E386"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="E396:E397"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14611,9 +14707,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14787,19 +14886,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14823,9 +14918,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FEB9F-662A-47AD-8C21-38D426C242EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0AA4B-BC2D-4FE7-B8E8-70C6669A7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="944">
   <si>
     <t>No</t>
   </si>
@@ -5109,6 +5109,15 @@
   </si>
   <si>
     <t>Resolusi.ProfilBDL, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset, PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA, Resolusi.PersetujuanHasilEPPA</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.DocRKAB, Resolusi.PengajuanRKAB, FU.Checklist, Resolusi.DocBadanHukum, Resolusi.PembubaranBadanHukum, Resolusi.PengurusBDL, Resolusi.KewajibanPegawai, Resolusi.ChecklistDocBadanHukum, Resolusi.ChecklistDocKewajibanPegawai, Resolusi.PengajuanDanaTalangan</t>
+  </si>
+  <si>
+    <t>FU.Repository, Resolusi.RincianHasilPenilaianKAP, Resolusi.NeracaPenutupAudit, Resolusi.ProfilBDL, Resolusi.SisaAset, Resolusi.ChecklistDocSisaAset, Resolusi.Aset, Resolusi.DocAset, Resolusi.ChecklistDocAset, Resolusi.PengamananAset, PerpanjanganAnalisaEPPA, Resolusi.HistoryPerpanjanganEPPA, Resolusi.PersetujuanHasilEPPA</t>
   </si>
 </sst>
 </file>
@@ -5267,7 +5276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5394,23 +5403,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5420,6 +5417,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5735,10 +5747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
-  <dimension ref="A1:E411"/>
+  <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323:E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5769,7 +5781,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5782,7 +5794,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5807,7 @@
       <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5806,7 +5818,7 @@
       <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5817,13 +5829,13 @@
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -5834,22 +5846,22 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="17"/>
       <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
+      <c r="A8" s="51">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
@@ -5858,57 +5870,57 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
+      <c r="A13" s="51">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -5919,22 +5931,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="17"/>
       <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55">
+      <c r="A15" s="51">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -5945,22 +5957,22 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="17"/>
       <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
+      <c r="A17" s="51">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
@@ -5969,157 +5981,157 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55">
+      <c r="A19" s="51">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="55" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
+      <c r="A22" s="51">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="55" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="55">
+      <c r="A24" s="51">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="55" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="55">
+      <c r="A26" s="51">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="55" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="A28" s="48">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="55" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
+      <c r="A30" s="48">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6129,12 +6141,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="55" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6142,10 +6154,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="49"/>
+      <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6155,19 +6167,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
+      <c r="A34" s="48">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6182,7 +6194,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6193,7 +6205,7 @@
       <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6204,13 +6216,13 @@
       <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
+      <c r="A37" s="48">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
@@ -6219,18 +6231,18 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
+      <c r="A39" s="48">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6244,8 +6256,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6256,7 +6268,7 @@
       <c r="E40" s="47"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6269,13 +6281,13 @@
       <c r="E41" s="47"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="50">
+      <c r="A42" s="48">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -6286,22 +6298,22 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="17"/>
       <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="A44" s="48">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
@@ -6310,35 +6322,35 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="52"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="48">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
@@ -6347,51 +6359,51 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
       <c r="E48" s="47"/>
     </row>
-    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="48"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E49" s="47"/>
     </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="47"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="48">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6406,7 +6418,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6417,7 +6429,7 @@
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6430,7 +6442,7 @@
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6441,7 +6453,7 @@
       <c r="E55" s="47"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6452,13 +6464,13 @@
       <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
+      <c r="A57" s="48">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="49" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
@@ -6467,35 +6479,35 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="47"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="52"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
       <c r="E59" s="47"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
+      <c r="A60" s="48">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
@@ -6504,24 +6516,24 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
+      <c r="A62" s="48">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
@@ -6530,24 +6542,24 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="52"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="47"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="50">
+      <c r="A64" s="48">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
@@ -6556,24 +6568,24 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E65" s="47"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="50">
+      <c r="A66" s="48">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
@@ -6582,24 +6594,24 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="52"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E67" s="47"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="50">
+      <c r="A68" s="48">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
@@ -6608,11 +6620,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="52"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
@@ -6628,13 +6640,13 @@
       <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="50">
+      <c r="A71" s="48">
         <v>1</v>
       </c>
       <c r="B71" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -6645,9 +6657,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="53"/>
-      <c r="C72" s="52"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="17"/>
       <c r="E72" s="47"/>
     </row>
@@ -6686,13 +6698,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="50">
+      <c r="A75" s="48">
         <v>4</v>
       </c>
       <c r="B75" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="49" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -6703,20 +6715,20 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="53"/>
-      <c r="C76" s="52"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="17"/>
       <c r="E76" s="47"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="50">
+      <c r="A77" s="48">
         <v>5</v>
       </c>
       <c r="B77" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
@@ -6725,22 +6737,22 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="53"/>
-      <c r="C78" s="52"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E78" s="47"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="50">
+      <c r="A79" s="48">
         <v>6</v>
       </c>
       <c r="B79" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
@@ -6749,9 +6761,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
@@ -6775,13 +6787,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="50">
+      <c r="A82" s="48">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -6791,12 +6803,12 @@
         <v>848</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="48"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="52"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
@@ -6820,7 +6832,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="50">
+      <c r="A85" s="48">
         <v>3</v>
       </c>
       <c r="B85" s="53" t="s">
@@ -6835,7 +6847,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="53"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
@@ -6863,13 +6875,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="50">
+      <c r="A88" s="48">
         <v>5</v>
       </c>
       <c r="B88" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
@@ -6878,19 +6890,19 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="52"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="47"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="50">
+      <c r="A90" s="48">
         <v>6</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="54" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
@@ -6902,8 +6914,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
-      <c r="B91" s="51"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
@@ -6911,13 +6923,13 @@
       <c r="E91" s="47"/>
     </row>
     <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="50">
+      <c r="A92" s="48">
         <v>7</v>
       </c>
       <c r="B92" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="49" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -6928,20 +6940,20 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="53"/>
-      <c r="C93" s="52"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="17"/>
       <c r="E93" s="47"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="50">
+      <c r="A94" s="48">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="49" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -6952,18 +6964,18 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="52"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
       <c r="E95" s="47"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="50">
+      <c r="A96" s="48">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6980,7 +6992,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -7043,8 +7055,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="50">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="48">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -7061,7 +7073,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="50"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="23">
         <v>15</v>
       </c>
@@ -7108,13 +7120,13 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="50">
+      <c r="A105" s="48">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -7124,59 +7136,59 @@
         <v>860</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="48"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="52"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="17"/>
       <c r="E106" s="47"/>
     </row>
-    <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="48"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="52"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="17"/>
       <c r="E107" s="47"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="52"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="17"/>
       <c r="E108" s="47"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="50"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="52"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="17"/>
       <c r="E109" s="47"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="50"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="52"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="17"/>
       <c r="E110" s="47"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="50">
+      <c r="A111" s="48">
         <v>2</v>
       </c>
       <c r="B111" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
@@ -7187,9 +7199,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="50"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="53"/>
-      <c r="C112" s="52"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="17"/>
       <c r="E112" s="47"/>
     </row>
@@ -7211,13 +7223,13 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="50">
+      <c r="A114" s="48">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="52" t="s">
+      <c r="C114" s="49" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -7228,29 +7240,29 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="50"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="52"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="17"/>
       <c r="E115" s="47"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="50"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="52"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="17"/>
       <c r="E116" s="47"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="50"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="52"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="17"/>
       <c r="E117" s="47"/>
     </row>
@@ -7272,13 +7284,13 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="50">
+      <c r="A119" s="48">
         <v>6</v>
       </c>
       <c r="B119" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
@@ -7289,20 +7301,20 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="50"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="53"/>
-      <c r="C120" s="52"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="17"/>
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="50">
+      <c r="A121" s="48">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="49" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -7313,38 +7325,38 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="50"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="52"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="17"/>
       <c r="E122" s="47"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="50"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="52"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="17"/>
       <c r="E123" s="47"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="50"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="52"/>
+      <c r="C124" s="49"/>
       <c r="D124" s="17"/>
       <c r="E124" s="47"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="50"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="52"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="17"/>
       <c r="E125" s="47"/>
     </row>
@@ -7375,13 +7387,13 @@
       <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="50">
+      <c r="A128" s="48">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="52" t="s">
+      <c r="C128" s="49" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
@@ -7390,35 +7402,35 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="52"/>
+      <c r="C129" s="49"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
       <c r="E129" s="47"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="52"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
       <c r="E130" s="47"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="50">
+      <c r="A131" s="48">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="52" t="s">
+      <c r="C131" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
@@ -7429,44 +7441,44 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="52"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E132" s="47"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="50"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="52"/>
+      <c r="C133" s="49"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
       <c r="E133" s="47"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="50"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="52"/>
+      <c r="C134" s="49"/>
       <c r="D134" s="17"/>
       <c r="E134" s="47"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="50">
+      <c r="A135" s="48">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="52" t="s">
+      <c r="C135" s="49" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
@@ -7477,55 +7489,55 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="50"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="52"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
       <c r="E136" s="47"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="52"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
       <c r="E137" s="47"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="52"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E138" s="47"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
+      <c r="A139" s="48"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="52"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="17"/>
       <c r="E139" s="47"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="50">
+      <c r="A140" s="48">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="49" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
@@ -7536,22 +7548,22 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="50"/>
+      <c r="A141" s="48"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="52"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="17"/>
       <c r="E141" s="47"/>
     </row>
-    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="50">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="48">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7562,22 +7574,22 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="50"/>
+      <c r="A143" s="48"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="52"/>
+      <c r="C143" s="49"/>
       <c r="D143" s="17"/>
       <c r="E143" s="47"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="50">
+      <c r="A144" s="48">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="52" t="s">
+      <c r="C144" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -7588,22 +7600,22 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="50"/>
+      <c r="A145" s="48"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="52"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="17"/>
       <c r="E145" s="47"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="50">
+      <c r="A146" s="48">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="52" t="s">
+      <c r="C146" s="49" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -7614,22 +7626,22 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="50"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="52"/>
+      <c r="C147" s="49"/>
       <c r="D147" s="17"/>
       <c r="E147" s="47"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="50">
+      <c r="A148" s="48">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="52" t="s">
+      <c r="C148" s="49" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -7640,22 +7652,22 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="50"/>
+      <c r="A149" s="48"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="52"/>
+      <c r="C149" s="49"/>
       <c r="D149" s="17"/>
       <c r="E149" s="47"/>
     </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="50">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="48">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="52" t="s">
+      <c r="C150" s="49" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
@@ -7666,22 +7678,22 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="50"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="52"/>
+      <c r="C151" s="49"/>
       <c r="D151" s="17"/>
       <c r="E151" s="47"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="50">
+      <c r="A152" s="48">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="52" t="s">
+      <c r="C152" s="49" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
@@ -7692,22 +7704,22 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="50"/>
+      <c r="A153" s="48"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="52"/>
+      <c r="C153" s="49"/>
       <c r="D153" s="17"/>
       <c r="E153" s="47"/>
     </row>
-    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="50">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="48">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="49" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
@@ -7718,22 +7730,22 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="50"/>
+      <c r="A155" s="48"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="52"/>
+      <c r="C155" s="49"/>
       <c r="D155" s="17"/>
       <c r="E155" s="47"/>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="50">
+      <c r="A156" s="48">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
@@ -7744,22 +7756,22 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="50"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="52"/>
+      <c r="C157" s="49"/>
       <c r="D157" s="17"/>
       <c r="E157" s="47"/>
     </row>
-    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="50">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="48">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="49" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
@@ -7770,11 +7782,11 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="50"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="52"/>
+      <c r="C159" s="49"/>
       <c r="D159" s="17"/>
       <c r="E159" s="47"/>
     </row>
@@ -7871,7 +7883,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="50">
+      <c r="A166" s="48">
         <v>3</v>
       </c>
       <c r="B166" s="53" t="s">
@@ -7886,7 +7898,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="50"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="53"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
@@ -7895,7 +7907,7 @@
       <c r="E167" s="47"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="50">
+      <c r="A168" s="48">
         <v>4</v>
       </c>
       <c r="B168" s="53" t="s">
@@ -7912,7 +7924,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="50"/>
+      <c r="A169" s="48"/>
       <c r="B169" s="53"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
@@ -7955,7 +7967,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="50">
+      <c r="A172" s="48">
         <v>7</v>
       </c>
       <c r="B172" s="53" t="s">
@@ -7972,7 +7984,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="50"/>
+      <c r="A173" s="48"/>
       <c r="B173" s="53"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
@@ -8083,13 +8095,13 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="50">
+      <c r="A180" s="48">
         <v>3</v>
       </c>
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="52" t="s">
+      <c r="C180" s="49" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
@@ -8100,9 +8112,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="50"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="52"/>
+      <c r="A181" s="48"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="49"/>
       <c r="D181" s="23"/>
       <c r="E181" s="47"/>
     </row>
@@ -8124,13 +8136,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="50">
+      <c r="A183" s="48">
         <v>5</v>
       </c>
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="49" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
@@ -8141,9 +8153,9 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="50"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="52"/>
+      <c r="A184" s="48"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="49"/>
       <c r="D184" s="23"/>
       <c r="E184" s="47"/>
     </row>
@@ -8174,13 +8186,13 @@
       <c r="E186" s="41"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="50">
+      <c r="A187" s="48">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="54" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
@@ -8189,29 +8201,29 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="50"/>
+      <c r="A188" s="48"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="51"/>
+      <c r="C188" s="54"/>
       <c r="D188" s="23"/>
       <c r="E188" s="47"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="50"/>
+      <c r="A189" s="48"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="51"/>
+      <c r="C189" s="54"/>
       <c r="D189" s="23"/>
       <c r="E189" s="47"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="50">
+      <c r="A190" s="48">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="52" t="s">
+      <c r="C190" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
@@ -8220,33 +8232,33 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="50"/>
+      <c r="A191" s="48"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="52"/>
+      <c r="C191" s="49"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
       <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="50"/>
+      <c r="A192" s="48"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="52"/>
+      <c r="C192" s="49"/>
       <c r="D192" s="23"/>
       <c r="E192" s="47"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="50">
+      <c r="A193" s="48">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="52" t="s">
+      <c r="C193" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
@@ -8255,36 +8267,36 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="50"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="52"/>
+      <c r="C194" s="49"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
       <c r="E194" s="47"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="50"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="52"/>
+      <c r="C195" s="49"/>
       <c r="D195" s="23"/>
       <c r="E195" s="47"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="50"/>
+      <c r="A196" s="48"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="52"/>
+      <c r="C196" s="49"/>
       <c r="D196" s="23"/>
       <c r="E196" s="47"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="50">
+      <c r="A197" s="48">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8301,7 +8313,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="50"/>
+      <c r="A198" s="48"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
@@ -8310,7 +8322,7 @@
       <c r="E198" s="47"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="50"/>
+      <c r="A199" s="48"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8321,7 +8333,7 @@
       <c r="E199" s="47"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="50"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
@@ -8330,7 +8342,7 @@
       <c r="E200" s="47"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="50"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
@@ -8339,7 +8351,7 @@
       <c r="E201" s="47"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="50">
+      <c r="A202" s="48">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8356,7 +8368,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="50"/>
+      <c r="A203" s="48"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
@@ -8365,7 +8377,7 @@
       <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="50"/>
+      <c r="A204" s="48"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8376,7 +8388,7 @@
       <c r="E204" s="47"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="50"/>
+      <c r="A205" s="48"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
@@ -8385,7 +8397,7 @@
       <c r="E205" s="47"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="50"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
@@ -8394,7 +8406,7 @@
       <c r="E206" s="47"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="50"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
@@ -8403,7 +8415,7 @@
       <c r="E207" s="47"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="50"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
@@ -8412,7 +8424,7 @@
       <c r="E208" s="47"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="50"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
@@ -8421,7 +8433,7 @@
       <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="50"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
@@ -8430,7 +8442,7 @@
       <c r="E210" s="47"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="50"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
@@ -8439,7 +8451,7 @@
       <c r="E211" s="47"/>
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="50">
+      <c r="A212" s="48">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8456,7 +8468,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="50"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
@@ -8465,7 +8477,7 @@
       <c r="E213" s="47"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="50"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8476,7 +8488,7 @@
       <c r="E214" s="47"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="50"/>
+      <c r="A215" s="48"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
@@ -8485,7 +8497,7 @@
       <c r="E215" s="47"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="50"/>
+      <c r="A216" s="48"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
@@ -8494,7 +8506,7 @@
       <c r="E216" s="47"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="50"/>
+      <c r="A217" s="48"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
@@ -8503,7 +8515,7 @@
       <c r="E217" s="47"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="50"/>
+      <c r="A218" s="48"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
@@ -8512,7 +8524,7 @@
       <c r="E218" s="47"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="50"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
@@ -8521,7 +8533,7 @@
       <c r="E219" s="47"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="50"/>
+      <c r="A220" s="48"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
@@ -8530,7 +8542,7 @@
       <c r="E220" s="47"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="50"/>
+      <c r="A221" s="48"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
@@ -8539,7 +8551,7 @@
       <c r="E221" s="47"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="50"/>
+      <c r="A222" s="48"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
@@ -8548,7 +8560,7 @@
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="50"/>
+      <c r="A223" s="48"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
@@ -8557,7 +8569,7 @@
       <c r="E223" s="47"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="50"/>
+      <c r="A224" s="48"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
@@ -8566,7 +8578,7 @@
       <c r="E224" s="47"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
+      <c r="A225" s="48"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
@@ -8575,7 +8587,7 @@
       <c r="E225" s="47"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
+      <c r="A226" s="48"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
@@ -8584,7 +8596,7 @@
       <c r="E226" s="47"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
+      <c r="A227" s="48"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
@@ -8593,7 +8605,7 @@
       <c r="E227" s="47"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
@@ -8602,7 +8614,7 @@
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
@@ -8611,7 +8623,7 @@
       <c r="E229" s="47"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
@@ -8620,7 +8632,7 @@
       <c r="E230" s="47"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
@@ -8629,7 +8641,7 @@
       <c r="E231" s="47"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
@@ -8638,7 +8650,7 @@
       <c r="E232" s="47"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
@@ -8647,7 +8659,7 @@
       <c r="E233" s="47"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
@@ -8656,7 +8668,7 @@
       <c r="E234" s="47"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
@@ -8665,7 +8677,7 @@
       <c r="E235" s="47"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
@@ -8673,8 +8685,8 @@
       <c r="D236" s="23"/>
       <c r="E236" s="47"/>
     </row>
-    <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="48"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
@@ -8683,7 +8695,7 @@
       <c r="E237" s="47"/>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
@@ -8692,13 +8704,13 @@
       <c r="E238" s="47"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="50">
+      <c r="A239" s="48">
         <v>6</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="52" t="s">
+      <c r="C239" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
@@ -8709,81 +8721,81 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="52"/>
+      <c r="C240" s="49"/>
       <c r="D240" s="23"/>
       <c r="E240" s="47"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="52"/>
+      <c r="C241" s="49"/>
       <c r="D241" s="23"/>
       <c r="E241" s="47"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
+      <c r="A242" s="48"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="52"/>
+      <c r="C242" s="49"/>
       <c r="D242" s="23"/>
       <c r="E242" s="47"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
+      <c r="A243" s="48"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="52"/>
+      <c r="C243" s="49"/>
       <c r="D243" s="23"/>
       <c r="E243" s="47"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
+      <c r="A244" s="48"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="52"/>
+      <c r="C244" s="49"/>
       <c r="D244" s="23"/>
       <c r="E244" s="47"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
+      <c r="A245" s="48"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="52"/>
+      <c r="C245" s="49"/>
       <c r="D245" s="23"/>
       <c r="E245" s="47"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
+      <c r="A246" s="48"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="52"/>
+      <c r="C246" s="49"/>
       <c r="D246" s="23"/>
       <c r="E246" s="47"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
+      <c r="A247" s="48"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="52"/>
+      <c r="C247" s="49"/>
       <c r="D247" s="23"/>
       <c r="E247" s="47"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
+      <c r="A248" s="48"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="52"/>
+      <c r="C248" s="49"/>
       <c r="D248" s="23"/>
       <c r="E248" s="47"/>
     </row>
@@ -8948,13 +8960,13 @@
       <c r="E258" s="41"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="50">
+      <c r="A259" s="48">
         <v>1</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="52" t="s">
+      <c r="C259" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
@@ -8965,35 +8977,35 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
+      <c r="A260" s="48"/>
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="52"/>
+      <c r="C260" s="49"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
       <c r="E260" s="47"/>
     </row>
     <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
+      <c r="A261" s="48"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="52"/>
+      <c r="C261" s="49"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
       <c r="E261" s="47"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="50">
+      <c r="A262" s="48">
         <v>2</v>
       </c>
-      <c r="B262" s="52" t="s">
+      <c r="B262" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="52" t="s">
+      <c r="C262" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D262" s="23" t="s">
@@ -9004,20 +9016,20 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="52"/>
-      <c r="C263" s="52"/>
+      <c r="A263" s="48"/>
+      <c r="B263" s="49"/>
+      <c r="C263" s="49"/>
       <c r="D263" s="23"/>
       <c r="E263" s="47"/>
     </row>
     <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="50">
+      <c r="A264" s="48">
         <v>3</v>
       </c>
       <c r="B264" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C264" s="52" t="s">
+      <c r="C264" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D264" s="23"/>
@@ -9025,25 +9037,25 @@
         <v>919</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
+    <row r="265" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A265" s="48"/>
       <c r="B265" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C265" s="52"/>
+      <c r="C265" s="49"/>
       <c r="D265" s="23" t="s">
         <v>388</v>
       </c>
       <c r="E265" s="47"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="50">
+      <c r="A266" s="48">
         <v>4</v>
       </c>
       <c r="B266" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D266" s="23" t="s">
@@ -9053,25 +9065,25 @@
         <v>918</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="50"/>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="48"/>
       <c r="B267" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="52"/>
+      <c r="C267" s="49"/>
       <c r="D267" s="23" t="s">
         <v>392</v>
       </c>
       <c r="E267" s="47"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="50">
+      <c r="A268" s="48">
         <v>5</v>
       </c>
       <c r="B268" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C268" s="52" t="s">
+      <c r="C268" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="23" t="s">
@@ -9082,11 +9094,11 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="50"/>
+      <c r="A269" s="48"/>
       <c r="B269" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C269" s="52"/>
+      <c r="C269" s="49"/>
       <c r="D269" s="23"/>
       <c r="E269" s="47"/>
     </row>
@@ -9125,13 +9137,13 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="50">
+      <c r="A272" s="48">
         <v>1</v>
       </c>
       <c r="B272" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C272" s="52" t="s">
+      <c r="C272" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D272" s="23" t="s">
@@ -9142,29 +9154,29 @@
       </c>
     </row>
     <row r="273" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="50"/>
+      <c r="A273" s="48"/>
       <c r="B273" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="52"/>
+      <c r="C273" s="49"/>
       <c r="D273" s="23" t="s">
         <v>404</v>
       </c>
       <c r="E273" s="47"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="50"/>
+      <c r="A274" s="48"/>
       <c r="B274" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C274" s="52"/>
+      <c r="C274" s="49"/>
       <c r="D274" s="23" t="s">
         <v>406</v>
       </c>
       <c r="E274" s="47"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="50">
+      <c r="A275" s="48">
         <v>2</v>
       </c>
       <c r="B275" s="53" t="s">
@@ -9179,7 +9191,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="50"/>
+      <c r="A276" s="48"/>
       <c r="B276" s="53"/>
       <c r="C276" s="22" t="s">
         <v>143</v>
@@ -9190,10 +9202,10 @@
       <c r="E276" s="47"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="50">
+      <c r="A277" s="48">
         <v>3</v>
       </c>
-      <c r="B277" s="51" t="s">
+      <c r="B277" s="54" t="s">
         <v>409</v>
       </c>
       <c r="C277" s="22" t="s">
@@ -9207,8 +9219,8 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="50"/>
-      <c r="B278" s="51"/>
+      <c r="A278" s="48"/>
+      <c r="B278" s="54"/>
       <c r="C278" s="22" t="s">
         <v>411</v>
       </c>
@@ -9216,13 +9228,13 @@
       <c r="E278" s="47"/>
     </row>
     <row r="279" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="50">
+      <c r="A279" s="48">
         <v>4</v>
       </c>
       <c r="B279" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C279" s="52" t="s">
+      <c r="C279" s="49" t="s">
         <v>413</v>
       </c>
       <c r="D279" s="23" t="s">
@@ -9233,24 +9245,24 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="50"/>
+      <c r="A280" s="48"/>
       <c r="B280" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C280" s="52"/>
+      <c r="C280" s="49"/>
       <c r="D280" s="23" t="s">
         <v>416</v>
       </c>
       <c r="E280" s="47"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="50">
+      <c r="A281" s="48">
         <v>5</v>
       </c>
       <c r="B281" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="C281" s="52" t="s">
+      <c r="C281" s="49" t="s">
         <v>418</v>
       </c>
       <c r="D281" s="23"/>
@@ -9259,22 +9271,22 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="50"/>
+      <c r="A282" s="48"/>
       <c r="B282" s="53"/>
-      <c r="C282" s="52"/>
+      <c r="C282" s="49"/>
       <c r="D282" s="23" t="s">
         <v>419</v>
       </c>
       <c r="E282" s="47"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="50">
+      <c r="A283" s="48">
         <v>6</v>
       </c>
       <c r="B283" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="C283" s="52" t="s">
+      <c r="C283" s="49" t="s">
         <v>413</v>
       </c>
       <c r="D283" s="23"/>
@@ -9283,20 +9295,20 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="50"/>
+      <c r="A284" s="48"/>
       <c r="B284" s="53"/>
-      <c r="C284" s="52"/>
+      <c r="C284" s="49"/>
       <c r="D284" s="23"/>
       <c r="E284" s="47"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="50">
+      <c r="A285" s="48">
         <v>7</v>
       </c>
-      <c r="B285" s="51" t="s">
+      <c r="B285" s="54" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="52" t="s">
+      <c r="C285" s="49" t="s">
         <v>156</v>
       </c>
       <c r="D285" s="23" t="s">
@@ -9307,20 +9319,20 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="50"/>
-      <c r="B286" s="51"/>
-      <c r="C286" s="52"/>
+      <c r="A286" s="48"/>
+      <c r="B286" s="54"/>
+      <c r="C286" s="49"/>
       <c r="D286" s="23"/>
       <c r="E286" s="47"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="50">
+      <c r="A287" s="48">
         <v>8</v>
       </c>
       <c r="B287" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="52" t="s">
+      <c r="C287" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D287" s="23"/>
@@ -9329,84 +9341,84 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="50"/>
+      <c r="A288" s="48"/>
       <c r="B288" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C288" s="52"/>
+      <c r="C288" s="49"/>
       <c r="D288" s="30" t="s">
         <v>425</v>
       </c>
       <c r="E288" s="47"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="50"/>
+      <c r="A289" s="48"/>
       <c r="B289" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C289" s="52"/>
+      <c r="C289" s="49"/>
       <c r="D289" s="30" t="s">
         <v>427</v>
       </c>
       <c r="E289" s="47"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="50"/>
+      <c r="A290" s="48"/>
       <c r="B290" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C290" s="52"/>
+      <c r="C290" s="49"/>
       <c r="D290" s="30"/>
       <c r="E290" s="47"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="50"/>
+      <c r="A291" s="48"/>
       <c r="B291" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C291" s="52"/>
+      <c r="C291" s="49"/>
       <c r="D291" s="30"/>
       <c r="E291" s="47"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="50"/>
+      <c r="A292" s="48"/>
       <c r="B292" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C292" s="52"/>
+      <c r="C292" s="49"/>
       <c r="D292" s="23"/>
       <c r="E292" s="47"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="50"/>
+      <c r="A293" s="48"/>
       <c r="B293" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C293" s="52"/>
+      <c r="C293" s="49"/>
       <c r="D293" s="30" t="s">
         <v>432</v>
       </c>
       <c r="E293" s="47"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="50"/>
+      <c r="A294" s="48"/>
       <c r="B294" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C294" s="52"/>
+      <c r="C294" s="49"/>
       <c r="D294" s="30" t="s">
         <v>434</v>
       </c>
       <c r="E294" s="47"/>
     </row>
     <row r="295" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="50">
+      <c r="A295" s="48">
         <v>9</v>
       </c>
-      <c r="B295" s="51" t="s">
+      <c r="B295" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="C295" s="52" t="s">
+      <c r="C295" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D295" s="23" t="s">
@@ -9417,9 +9429,9 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="50"/>
-      <c r="B296" s="51"/>
-      <c r="C296" s="52"/>
+      <c r="A296" s="48"/>
+      <c r="B296" s="54"/>
+      <c r="C296" s="49"/>
       <c r="D296" s="23"/>
       <c r="E296" s="47"/>
     </row>
@@ -9492,13 +9504,13 @@
       </c>
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="50">
+      <c r="A301" s="48">
         <v>2</v>
       </c>
       <c r="B301" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C301" s="52" t="s">
+      <c r="C301" s="49" t="s">
         <v>286</v>
       </c>
       <c r="D301" s="30" t="s">
@@ -9509,31 +9521,31 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="50"/>
+      <c r="A302" s="48"/>
       <c r="B302" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C302" s="52"/>
+      <c r="C302" s="49"/>
       <c r="D302" s="23"/>
       <c r="E302" s="47"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="50"/>
+      <c r="A303" s="48"/>
       <c r="B303" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C303" s="52"/>
+      <c r="C303" s="49"/>
       <c r="D303" s="23"/>
       <c r="E303" s="47"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="50">
+      <c r="A304" s="48">
         <v>3</v>
       </c>
-      <c r="B304" s="51" t="s">
+      <c r="B304" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="C304" s="52" t="s">
+      <c r="C304" s="49" t="s">
         <v>449</v>
       </c>
       <c r="D304" s="30" t="s">
@@ -9544,9 +9556,9 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="50"/>
-      <c r="B305" s="51"/>
-      <c r="C305" s="52"/>
+      <c r="A305" s="48"/>
+      <c r="B305" s="54"/>
+      <c r="C305" s="49"/>
       <c r="D305" s="30"/>
       <c r="E305" s="47"/>
     </row>
@@ -9679,1106 +9691,1404 @@
       <c r="E313" s="41"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="50">
+      <c r="A314" s="48">
         <v>1</v>
       </c>
-      <c r="B314" s="51" t="s">
+      <c r="B314" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="C314" s="51" t="s">
+      <c r="C314" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D314" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="E314" s="47"/>
+      <c r="E314" s="47" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="50"/>
-      <c r="B315" s="51"/>
-      <c r="C315" s="51"/>
+      <c r="A315" s="48"/>
+      <c r="B315" s="54"/>
+      <c r="C315" s="54"/>
       <c r="D315" s="23"/>
       <c r="E315" s="47"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="50">
+      <c r="A316" s="57">
         <v>1</v>
       </c>
       <c r="B316" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C316" s="52" t="s">
+      <c r="C316" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D316" s="23"/>
-      <c r="E316" s="47"/>
+      <c r="E316" s="47" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="50"/>
+      <c r="A317" s="57"/>
       <c r="B317" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C317" s="52"/>
+      <c r="C317" s="49"/>
       <c r="D317" s="23" t="s">
         <v>469</v>
       </c>
       <c r="E317" s="47"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="50"/>
+      <c r="A318" s="57"/>
       <c r="B318" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C318" s="52"/>
+      <c r="C318" s="49"/>
       <c r="D318" s="23"/>
       <c r="E318" s="47"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="50"/>
-      <c r="B319" s="25"/>
-      <c r="C319" s="52"/>
-      <c r="D319" s="23"/>
+      <c r="A319" s="57"/>
+      <c r="B319" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C319" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D319" s="30" t="s">
+        <v>472</v>
+      </c>
       <c r="E319" s="47"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="50"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="52"/>
+      <c r="A320" s="57"/>
+      <c r="B320" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C320" s="49"/>
       <c r="D320" s="23"/>
       <c r="E320" s="47"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="50"/>
+      <c r="A321" s="57"/>
       <c r="B321" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C321" s="52" t="s">
-        <v>149</v>
+        <v>309</v>
+      </c>
+      <c r="C321" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="D321" s="30" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E321" s="47"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="50"/>
+      <c r="A322" s="57"/>
       <c r="B322" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C322" s="52"/>
+        <v>475</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="D322" s="23"/>
       <c r="E322" s="47"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="50"/>
-      <c r="B323" s="25"/>
-      <c r="C323" s="52"/>
-      <c r="D323" s="23"/>
-      <c r="E323" s="47"/>
+      <c r="A323" s="48">
+        <v>2</v>
+      </c>
+      <c r="B323" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C323" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="D323" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E323" s="47" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="50"/>
+      <c r="A324" s="48"/>
       <c r="B324" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C324" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D324" s="30" t="s">
-        <v>474</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C324" s="49"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="47"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="50"/>
+      <c r="A325" s="48"/>
       <c r="B325" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C325" s="22"/>
+        <v>478</v>
+      </c>
+      <c r="C325" s="49"/>
       <c r="D325" s="23"/>
+      <c r="E325" s="47"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="50"/>
-      <c r="B326" s="25"/>
-      <c r="C326" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A326" s="48"/>
+      <c r="B326" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C326" s="49"/>
       <c r="D326" s="23"/>
+      <c r="E326" s="47"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="50">
-        <v>2</v>
-      </c>
+      <c r="A327" s="48"/>
       <c r="B327" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C327" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="D327" s="30" t="s">
-        <v>476</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C327" s="49"/>
+      <c r="D327" s="23"/>
       <c r="E327" s="47"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="50"/>
+      <c r="A328" s="48">
+        <v>3</v>
+      </c>
       <c r="B328" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C328" s="52"/>
-      <c r="D328" s="23"/>
+        <v>326</v>
+      </c>
+      <c r="C328" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="D328" s="30" t="s">
+        <v>482</v>
+      </c>
       <c r="E328" s="47"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="50"/>
+      <c r="A329" s="48"/>
       <c r="B329" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="C329" s="52"/>
+        <v>483</v>
+      </c>
+      <c r="C329" s="49"/>
       <c r="D329" s="23"/>
       <c r="E329" s="47"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="50"/>
+      <c r="A330" s="48"/>
       <c r="B330" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C330" s="52"/>
-      <c r="D330" s="23"/>
+        <v>484</v>
+      </c>
+      <c r="C330" s="49"/>
+      <c r="D330" s="30" t="s">
+        <v>485</v>
+      </c>
       <c r="E330" s="47"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="50"/>
+      <c r="A331" s="48"/>
       <c r="B331" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C331" s="52"/>
+        <v>486</v>
+      </c>
+      <c r="C331" s="49"/>
       <c r="D331" s="23"/>
       <c r="E331" s="47"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="50">
-        <v>3</v>
-      </c>
+      <c r="A332" s="48"/>
       <c r="B332" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C332" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="D332" s="30" t="s">
-        <v>482</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C332" s="49"/>
+      <c r="D332" s="23"/>
       <c r="E332" s="47"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="50"/>
+      <c r="A333" s="48"/>
       <c r="B333" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C333" s="52"/>
+        <v>488</v>
+      </c>
+      <c r="C333" s="49"/>
       <c r="D333" s="23"/>
       <c r="E333" s="47"/>
     </row>
-    <row r="334" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A334" s="50"/>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="48"/>
       <c r="B334" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C334" s="52"/>
-      <c r="D334" s="30" t="s">
-        <v>485</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C334" s="49"/>
+      <c r="D334" s="23"/>
       <c r="E334" s="47"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="50"/>
+      <c r="A335" s="48"/>
       <c r="B335" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="C335" s="52"/>
+        <v>490</v>
+      </c>
+      <c r="C335" s="49"/>
       <c r="D335" s="23"/>
       <c r="E335" s="47"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="50"/>
+      <c r="A336" s="48"/>
       <c r="B336" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C336" s="52"/>
+        <v>491</v>
+      </c>
+      <c r="C336" s="49"/>
       <c r="D336" s="23"/>
       <c r="E336" s="47"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="50"/>
-      <c r="B337" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C337" s="52"/>
-      <c r="D337" s="23"/>
+      <c r="A337" s="48">
+        <v>7</v>
+      </c>
+      <c r="B337" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="C337" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D337" s="30" t="s">
+        <v>493</v>
+      </c>
       <c r="E337" s="47"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="50"/>
-      <c r="B338" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="C338" s="52"/>
+      <c r="A338" s="48"/>
+      <c r="B338" s="54"/>
+      <c r="C338" s="49"/>
       <c r="D338" s="23"/>
       <c r="E338" s="47"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="50"/>
+      <c r="A339" s="23">
+        <v>9</v>
+      </c>
       <c r="B339" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C339" s="52"/>
-      <c r="D339" s="23"/>
-      <c r="E339" s="47"/>
+        <v>494</v>
+      </c>
+      <c r="C339" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D339" s="30" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="50"/>
+      <c r="A340" s="48">
+        <v>10</v>
+      </c>
       <c r="B340" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="C340" s="52"/>
-      <c r="D340" s="23"/>
+        <v>496</v>
+      </c>
+      <c r="C340" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" s="30" t="s">
+        <v>497</v>
+      </c>
       <c r="E340" s="47"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="50">
-        <v>7</v>
-      </c>
-      <c r="B341" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="C341" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D341" s="30" t="s">
-        <v>493</v>
-      </c>
+      <c r="A341" s="48"/>
+      <c r="B341" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C341" s="49"/>
+      <c r="D341" s="23"/>
       <c r="E341" s="47"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="50"/>
-      <c r="B342" s="51"/>
-      <c r="C342" s="52"/>
+      <c r="A342" s="48"/>
+      <c r="B342" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C342" s="49"/>
       <c r="D342" s="23"/>
       <c r="E342" s="47"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="23">
-        <v>9</v>
-      </c>
+      <c r="A343" s="48"/>
       <c r="B343" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C343" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D343" s="30" t="s">
-        <v>495</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C343" s="49"/>
+      <c r="D343" s="23"/>
+      <c r="E343" s="47"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="50">
-        <v>10</v>
-      </c>
+      <c r="A344" s="48"/>
       <c r="B344" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C344" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D344" s="30" t="s">
-        <v>497</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C344" s="49"/>
+      <c r="D344" s="23"/>
       <c r="E344" s="47"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="50"/>
+      <c r="A345" s="48"/>
       <c r="B345" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C345" s="52"/>
+        <v>502</v>
+      </c>
+      <c r="C345" s="49"/>
       <c r="D345" s="23"/>
       <c r="E345" s="47"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="50"/>
-      <c r="B346" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="C346" s="52"/>
-      <c r="D346" s="23"/>
+      <c r="A346" s="48">
+        <v>11</v>
+      </c>
+      <c r="B346" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="C346" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="D346" s="23" t="s">
+        <v>504</v>
+      </c>
       <c r="E346" s="47"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="50"/>
-      <c r="B347" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C347" s="52"/>
+      <c r="A347" s="48"/>
+      <c r="B347" s="54"/>
+      <c r="C347" s="49"/>
       <c r="D347" s="23"/>
       <c r="E347" s="47"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="50"/>
+      <c r="A348" s="23">
+        <v>12</v>
+      </c>
       <c r="B348" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C348" s="52"/>
-      <c r="D348" s="23"/>
-      <c r="E348" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D348" s="23" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="50"/>
+      <c r="A349" s="23">
+        <v>1</v>
+      </c>
       <c r="B349" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="C349" s="52"/>
-      <c r="D349" s="23"/>
-      <c r="E349" s="47"/>
+        <v>507</v>
+      </c>
+      <c r="C349" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D349" s="30" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="50">
-        <v>11</v>
-      </c>
-      <c r="B350" s="51" t="s">
-        <v>503</v>
-      </c>
-      <c r="C350" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="D350" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="E350" s="47"/>
+      <c r="A350" s="23">
+        <v>2</v>
+      </c>
+      <c r="B350" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C350" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D350" s="30" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="50"/>
-      <c r="B351" s="51"/>
-      <c r="C351" s="52"/>
-      <c r="D351" s="23"/>
+      <c r="A351" s="48">
+        <v>3</v>
+      </c>
+      <c r="B351" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C351" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D351" s="30" t="s">
+        <v>512</v>
+      </c>
       <c r="E351" s="47"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="23">
-        <v>12</v>
-      </c>
-      <c r="B352" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C352" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D352" s="23" t="s">
-        <v>506</v>
-      </c>
+      <c r="A352" s="48"/>
+      <c r="B352" s="54"/>
+      <c r="C352" s="49"/>
+      <c r="D352" s="23"/>
+      <c r="E352" s="47"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="23">
+      <c r="A353" s="48">
+        <v>4</v>
+      </c>
+      <c r="B353" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="C353" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D353" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E353" s="47"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="48"/>
+      <c r="B354" s="53"/>
+      <c r="C354" s="49"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="47"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="23">
+        <v>5</v>
+      </c>
+      <c r="B355" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C355" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D355" s="30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="23">
+        <v>6</v>
+      </c>
+      <c r="B356" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C356" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D356" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="23">
+        <v>7</v>
+      </c>
+      <c r="B357" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D357" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="44"/>
+      <c r="B358" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C358" s="44"/>
+      <c r="D358" s="40"/>
+      <c r="E358" s="41"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="48">
         <v>1</v>
       </c>
-      <c r="B353" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D353" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="23">
-        <v>2</v>
-      </c>
-      <c r="B354" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C354" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D354" s="30" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="50">
-        <v>3</v>
-      </c>
-      <c r="B355" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="C355" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D355" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E355" s="47"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="50"/>
-      <c r="B356" s="51"/>
-      <c r="C356" s="52"/>
-      <c r="D356" s="23"/>
-      <c r="E356" s="47"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="50">
-        <v>4</v>
-      </c>
-      <c r="B357" s="53" t="s">
-        <v>513</v>
-      </c>
-      <c r="C357" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D357" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="E357" s="47"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="50"/>
-      <c r="B358" s="53"/>
-      <c r="C358" s="52"/>
-      <c r="D358" s="23"/>
-      <c r="E358" s="47"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="23">
-        <v>5</v>
-      </c>
-      <c r="B359" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C359" s="22" t="s">
-        <v>201</v>
+      <c r="B359" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C359" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="D359" s="30" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="23">
-        <v>6</v>
-      </c>
-      <c r="B360" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>201</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="E359" s="47"/>
+    </row>
+    <row r="360" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A360" s="48"/>
+      <c r="B360" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C360" s="49"/>
       <c r="D360" s="30" t="s">
-        <v>518</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E360" s="47"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="23">
-        <v>7</v>
-      </c>
-      <c r="B361" s="25" t="s">
-        <v>519</v>
+        <v>1</v>
+      </c>
+      <c r="B361" s="22" t="s">
+        <v>527</v>
       </c>
       <c r="C361" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D361" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="23">
+        <v>2</v>
+      </c>
+      <c r="B362" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C362" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D361" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="44"/>
-      <c r="B362" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="C362" s="44"/>
-      <c r="D362" s="40"/>
-      <c r="E362" s="41"/>
+      <c r="D362" s="30" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="50">
-        <v>1</v>
-      </c>
-      <c r="B363" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="C363" s="52" t="s">
-        <v>523</v>
+      <c r="A363" s="48">
+        <v>3</v>
+      </c>
+      <c r="B363" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C363" s="49" t="s">
+        <v>201</v>
       </c>
       <c r="D363" s="30" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E363" s="47"/>
     </row>
-    <row r="364" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A364" s="50"/>
-      <c r="B364" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C364" s="52"/>
-      <c r="D364" s="30" t="s">
-        <v>526</v>
-      </c>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="48"/>
+      <c r="B364" s="49"/>
+      <c r="C364" s="49"/>
+      <c r="D364" s="17"/>
       <c r="E364" s="47"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="23">
-        <v>1</v>
-      </c>
-      <c r="B365" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C365" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D365" s="30" t="s">
-        <v>528</v>
-      </c>
+    <row r="365" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="44"/>
+      <c r="B365" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C365" s="44"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="41"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="23">
-        <v>2</v>
-      </c>
-      <c r="B366" s="22" t="s">
-        <v>529</v>
+        <v>1</v>
+      </c>
+      <c r="B366" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D366" s="30" t="s">
-        <v>530</v>
+        <v>15</v>
+      </c>
+      <c r="D366" s="23" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="50">
+      <c r="A367" s="23">
         <v>3</v>
       </c>
-      <c r="B367" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="C367" s="52" t="s">
-        <v>201</v>
+      <c r="B367" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C367" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D367" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="E367" s="47"/>
+        <v>537</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="50"/>
-      <c r="B368" s="52"/>
-      <c r="C368" s="52"/>
-      <c r="D368" s="17"/>
+      <c r="A368" s="48">
+        <v>4</v>
+      </c>
+      <c r="B368" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C368" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D368" s="30" t="s">
+        <v>539</v>
+      </c>
       <c r="E368" s="47"/>
     </row>
-    <row r="369" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="44"/>
-      <c r="B369" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C369" s="44"/>
-      <c r="D369" s="40"/>
-      <c r="E369" s="41"/>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="48"/>
+      <c r="B369" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C369" s="49"/>
+      <c r="D369" s="23"/>
+      <c r="E369" s="47"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="23">
-        <v>1</v>
-      </c>
+      <c r="A370" s="48"/>
       <c r="B370" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C370" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D370" s="23" t="s">
-        <v>535</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C370" s="49"/>
+      <c r="D370" s="23"/>
+      <c r="E370" s="47"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="23">
-        <v>3</v>
-      </c>
+      <c r="A371" s="48"/>
       <c r="B371" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="C371" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>537</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C371" s="49"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="47"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="50">
-        <v>4</v>
+      <c r="A372" s="48">
+        <v>5</v>
       </c>
       <c r="B372" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="C372" s="52" t="s">
-        <v>45</v>
+        <v>543</v>
+      </c>
+      <c r="C372" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="D372" s="30" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="E372" s="47"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="50"/>
+      <c r="A373" s="48"/>
       <c r="B373" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C373" s="52"/>
+        <v>545</v>
+      </c>
+      <c r="C373" s="49"/>
       <c r="D373" s="23"/>
       <c r="E373" s="47"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="50"/>
+      <c r="A374" s="48"/>
       <c r="B374" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C374" s="52"/>
+        <v>546</v>
+      </c>
+      <c r="C374" s="49"/>
       <c r="D374" s="23"/>
       <c r="E374" s="47"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="50"/>
-      <c r="B375" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C375" s="52"/>
-      <c r="D375" s="23"/>
+      <c r="A375" s="48">
+        <v>6</v>
+      </c>
+      <c r="B375" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C375" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" s="30" t="s">
+        <v>548</v>
+      </c>
       <c r="E375" s="47"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="50">
-        <v>5</v>
-      </c>
-      <c r="B376" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C376" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D376" s="30" t="s">
-        <v>544</v>
-      </c>
+      <c r="A376" s="48"/>
+      <c r="B376" s="54"/>
+      <c r="C376" s="49"/>
+      <c r="D376" s="23"/>
       <c r="E376" s="47"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="50"/>
-      <c r="B377" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C377" s="52"/>
-      <c r="D377" s="23"/>
+      <c r="A377" s="48">
+        <v>7</v>
+      </c>
+      <c r="B377" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="C377" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" s="30" t="s">
+        <v>550</v>
+      </c>
       <c r="E377" s="47"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="50"/>
-      <c r="B378" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C378" s="52"/>
+      <c r="A378" s="48"/>
+      <c r="B378" s="54"/>
+      <c r="C378" s="49"/>
       <c r="D378" s="23"/>
       <c r="E378" s="47"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="50">
-        <v>6</v>
-      </c>
-      <c r="B379" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C379" s="52" t="s">
-        <v>10</v>
+      <c r="A379" s="48">
+        <v>8</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C379" s="49" t="s">
+        <v>552</v>
       </c>
       <c r="D379" s="30" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="E379" s="47"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="50"/>
-      <c r="B380" s="51"/>
-      <c r="C380" s="52"/>
+      <c r="A380" s="48"/>
+      <c r="B380" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C380" s="49"/>
       <c r="D380" s="23"/>
       <c r="E380" s="47"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="50">
-        <v>7</v>
-      </c>
-      <c r="B381" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="C381" s="52" t="s">
-        <v>10</v>
+      <c r="A381" s="48">
+        <v>1</v>
+      </c>
+      <c r="B381" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="C381" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E381" s="47"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="50"/>
-      <c r="B382" s="51"/>
-      <c r="C382" s="52"/>
+      <c r="A382" s="48"/>
+      <c r="B382" s="54"/>
+      <c r="C382" s="49"/>
       <c r="D382" s="23"/>
       <c r="E382" s="47"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="50">
-        <v>8</v>
+      <c r="A383" s="23">
+        <v>2</v>
       </c>
       <c r="B383" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C383" s="52" t="s">
-        <v>552</v>
+        <v>557</v>
+      </c>
+      <c r="C383" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="E383" s="47"/>
+        <v>558</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="50"/>
-      <c r="B384" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C384" s="52"/>
+      <c r="A384" s="23">
+        <v>3</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="C384" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="D384" s="23"/>
-      <c r="E384" s="47"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="50">
-        <v>1</v>
-      </c>
-      <c r="B385" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C385" s="52" t="s">
-        <v>48</v>
+      <c r="A385" s="23">
+        <v>4</v>
+      </c>
+      <c r="B385" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C385" s="22" t="s">
+        <v>481</v>
       </c>
       <c r="D385" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="E385" s="47"/>
+        <v>561</v>
+      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="50"/>
-      <c r="B386" s="51"/>
-      <c r="C386" s="52"/>
-      <c r="D386" s="23"/>
-      <c r="E386" s="47"/>
+      <c r="A386" s="23">
+        <v>4</v>
+      </c>
+      <c r="B386" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C386" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D386" s="30" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B387" s="25" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D387" s="30" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B388" s="25" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C388" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D388" s="23"/>
+      <c r="D388" s="30" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="389" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A389" s="23">
+        <v>7</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C389" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D389" s="23"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="48">
+        <v>1</v>
+      </c>
+      <c r="B390" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="C390" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D390" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E390" s="47"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="48"/>
+      <c r="B391" s="54"/>
+      <c r="C391" s="49"/>
+      <c r="D391" s="23"/>
+      <c r="E391" s="47"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="48">
+        <v>2</v>
+      </c>
+      <c r="B392" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C392" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E392" s="47"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="48"/>
+      <c r="B393" s="54"/>
+      <c r="C393" s="49"/>
+      <c r="D393" s="23"/>
+      <c r="E393" s="47"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="23">
+        <v>3</v>
+      </c>
+      <c r="B394" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C394" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D394" s="30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="48">
         <v>4</v>
       </c>
-      <c r="B389" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C389" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D389" s="30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="23">
-        <v>4</v>
-      </c>
-      <c r="B390" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C390" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D390" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A391" s="23">
+      <c r="B395" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="C395" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="D395" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="E395" s="47"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="48"/>
+      <c r="B396" s="54"/>
+      <c r="C396" s="49"/>
+      <c r="D396" s="23"/>
+      <c r="E396" s="47"/>
+    </row>
+    <row r="397" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="48">
         <v>5</v>
       </c>
-      <c r="B391" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C391" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D391" s="30" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="23">
-        <v>6</v>
-      </c>
-      <c r="B392" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C392" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D392" s="30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A393" s="23">
-        <v>7</v>
-      </c>
-      <c r="B393" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="C393" s="22" t="s">
+      <c r="B397" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="C397" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D397" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E397" s="56"/>
+    </row>
+    <row r="398" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="48"/>
+      <c r="B398" s="54"/>
+      <c r="C398" s="49"/>
+      <c r="D398" s="23"/>
+      <c r="E398" s="56"/>
+    </row>
+    <row r="399" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="44"/>
+      <c r="B399" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="C399" s="44"/>
+      <c r="D399" s="40"/>
+      <c r="E399" s="41"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="48">
+        <v>1</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C400" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D393" s="23"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="50">
+      <c r="D400" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E400" s="47"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="48"/>
+      <c r="B401" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C401" s="54"/>
+      <c r="D401" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E401" s="47"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="48"/>
+      <c r="B402" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C402" s="54"/>
+      <c r="D402" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E402" s="47"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="48">
         <v>1</v>
       </c>
-      <c r="B394" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="C394" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D394" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E394" s="47"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="50"/>
-      <c r="B395" s="51"/>
-      <c r="C395" s="52"/>
-      <c r="D395" s="23"/>
-      <c r="E395" s="47"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="50">
-        <v>2</v>
-      </c>
-      <c r="B396" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="C396" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D396" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="E396" s="47"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="50"/>
-      <c r="B397" s="51"/>
-      <c r="C397" s="52"/>
-      <c r="D397" s="23"/>
-      <c r="E397" s="47"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="23">
-        <v>3</v>
-      </c>
-      <c r="B398" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="C398" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D398" s="30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="50">
-        <v>4</v>
-      </c>
-      <c r="B399" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="C399" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="D399" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="E399" s="47"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="50"/>
-      <c r="B400" s="51"/>
-      <c r="C400" s="52"/>
-      <c r="D400" s="23"/>
-      <c r="E400" s="47"/>
-    </row>
-    <row r="401" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="50">
-        <v>5</v>
-      </c>
-      <c r="B401" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="C401" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D401" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="E401" s="48"/>
-    </row>
-    <row r="402" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="50"/>
-      <c r="B402" s="51"/>
-      <c r="C402" s="52"/>
-      <c r="D402" s="23"/>
-      <c r="E402" s="48"/>
-    </row>
-    <row r="403" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="44"/>
-      <c r="B403" s="44" t="s">
-        <v>578</v>
-      </c>
-      <c r="C403" s="44"/>
-      <c r="D403" s="40"/>
-      <c r="E403" s="41"/>
+      <c r="B403" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C403" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D403" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E403" s="47"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="50">
+      <c r="A404" s="48"/>
+      <c r="B404" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C404" s="54"/>
+      <c r="D404" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E404" s="47"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="48">
         <v>1</v>
       </c>
-      <c r="B404" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C404" s="51" t="s">
+      <c r="B405" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C405" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D404" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E404" s="47"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="50"/>
-      <c r="B405" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C405" s="51"/>
       <c r="D405" s="17" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E405" s="47"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="50"/>
+      <c r="A406" s="48"/>
       <c r="B406" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C406" s="51"/>
+        <v>589</v>
+      </c>
+      <c r="C406" s="54"/>
       <c r="D406" s="17" t="s">
         <v>584</v>
       </c>
       <c r="E406" s="47"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="50">
-        <v>1</v>
-      </c>
-      <c r="B407" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C407" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D407" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E407" s="47"/>
-    </row>
-    <row r="408" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A408" s="50"/>
-      <c r="B408" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C408" s="51"/>
-      <c r="D408" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E408" s="47"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="50">
-        <v>1</v>
-      </c>
-      <c r="B409" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C409" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="E409" s="47"/>
-    </row>
-    <row r="410" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A410" s="50"/>
-      <c r="B410" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C410" s="51"/>
-      <c r="D410" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E410" s="47"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="15"/>
-      <c r="B411" s="14"/>
-      <c r="C411" s="14"/>
+      <c r="A407" s="15"/>
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
-  <mergeCells count="344">
+  <mergeCells count="341">
+    <mergeCell ref="E395:E396"/>
+    <mergeCell ref="E397:E398"/>
+    <mergeCell ref="E400:E402"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="E405:E406"/>
+    <mergeCell ref="E363:E364"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="E375:E376"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="E392:E393"/>
+    <mergeCell ref="E323:E327"/>
+    <mergeCell ref="E328:E336"/>
+    <mergeCell ref="E337:E338"/>
+    <mergeCell ref="E340:E345"/>
+    <mergeCell ref="E346:E347"/>
+    <mergeCell ref="E351:E352"/>
+    <mergeCell ref="E353:E354"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="E316:E322"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="E287:E294"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A400:A402"/>
+    <mergeCell ref="C400:C402"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="A405:A406"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="A368:A371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="A372:A374"/>
+    <mergeCell ref="C372:C374"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="A328:A336"/>
+    <mergeCell ref="C328:C336"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="A340:A345"/>
+    <mergeCell ref="C340:C345"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="C323:C327"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="A287:A294"/>
+    <mergeCell ref="C287:C294"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="E239:E248"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="E47:E51"/>
@@ -10803,326 +11113,6 @@
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="A287:A294"/>
-    <mergeCell ref="C287:C294"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="C316:C320"/>
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="C321:C323"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="A327:A331"/>
-    <mergeCell ref="C327:C331"/>
-    <mergeCell ref="A301:A303"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="A332:A340"/>
-    <mergeCell ref="C332:C340"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="A344:A349"/>
-    <mergeCell ref="C344:C349"/>
-    <mergeCell ref="A372:A375"/>
-    <mergeCell ref="C372:C375"/>
-    <mergeCell ref="A376:A378"/>
-    <mergeCell ref="C376:C378"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="C357:C358"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="A404:A406"/>
-    <mergeCell ref="C404:C406"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="E287:E294"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="E304:E305"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="E316:E320"/>
-    <mergeCell ref="E321:E323"/>
-    <mergeCell ref="E327:E331"/>
-    <mergeCell ref="E332:E340"/>
-    <mergeCell ref="E341:E342"/>
-    <mergeCell ref="E344:E349"/>
-    <mergeCell ref="E350:E351"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="E357:E358"/>
-    <mergeCell ref="E363:E364"/>
-    <mergeCell ref="E399:E400"/>
-    <mergeCell ref="E401:E402"/>
-    <mergeCell ref="E404:E406"/>
-    <mergeCell ref="E407:E408"/>
-    <mergeCell ref="E409:E410"/>
-    <mergeCell ref="E367:E368"/>
-    <mergeCell ref="E372:E375"/>
-    <mergeCell ref="E376:E378"/>
-    <mergeCell ref="E379:E380"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="E383:E384"/>
-    <mergeCell ref="E385:E386"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="E396:E397"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14707,12 +14697,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14886,15 +14873,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14918,10 +14909,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0AA4B-BC2D-4FE7-B8E8-70C6669A7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416454E9-33CC-423F-AB18-6E3E4DF8623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
@@ -5403,11 +5403,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5418,20 +5430,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5749,21 +5749,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323:E327"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316:A322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="96.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.453125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="96.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="85" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="14"/>
+    <col min="6" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5780,8 +5780,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50">
+    <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -5793,8 +5793,8 @@
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5806,8 +5806,8 @@
       </c>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5817,8 +5817,8 @@
       <c r="D4" s="17"/>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5828,14 +5828,14 @@
       <c r="D5" s="17"/>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" ht="110.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+    <row r="6" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -5845,23 +5845,23 @@
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="17"/>
       <c r="E7" s="47"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="55">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
@@ -5869,58 +5869,58 @@
         <v>823</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="55">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -5930,23 +5930,23 @@
         <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="17"/>
       <c r="E14" s="47"/>
     </row>
-    <row r="15" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+    <row r="15" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -5956,23 +5956,23 @@
         <v>825</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="17"/>
       <c r="E16" s="47"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="55">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
@@ -5980,158 +5980,158 @@
         <v>826</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="47"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="55">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="49" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="55">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="49" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="55"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="51">
+      <c r="E23" s="49"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="49" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="51">
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="55">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="49" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="E27" s="49"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="49" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
+      <c r="E29" s="49"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6141,12 +6141,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="49" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+    <row r="31" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6154,10 +6154,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="E31" s="49"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6167,19 +6167,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="55"/>
-    </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="E32" s="49"/>
+    </row>
+    <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
+      <c r="E33" s="49"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="50">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6193,8 +6193,8 @@
         <v>837</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6204,8 +6204,8 @@
       </c>
       <c r="E35" s="47"/>
     </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6215,14 +6215,14 @@
       <c r="D36" s="17"/>
       <c r="E36" s="47"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="50">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="52" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
@@ -6230,19 +6230,19 @@
         <v>832</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="47"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6256,8 +6256,8 @@
         <v>833</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6267,8 +6267,8 @@
       </c>
       <c r="E40" s="47"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6280,14 +6280,14 @@
       </c>
       <c r="E41" s="47"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="48">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="50">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -6297,23 +6297,23 @@
         <v>834</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="17"/>
       <c r="E43" s="47"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="48">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="50">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
@@ -6321,36 +6321,36 @@
         <v>820</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+    <row r="45" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="47"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="47"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
@@ -6358,52 +6358,52 @@
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
       <c r="E48" s="47"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E49" s="47"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
       <c r="E50" s="47"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="47"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="48">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="50">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6417,8 +6417,8 @@
         <v>873</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6428,8 +6428,8 @@
       </c>
       <c r="E53" s="47"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6441,8 +6441,8 @@
       </c>
       <c r="E54" s="47"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6452,8 +6452,8 @@
       </c>
       <c r="E55" s="47"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6463,14 +6463,14 @@
       </c>
       <c r="E56" s="47"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="48">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="50">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="52" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
@@ -6478,36 +6478,36 @@
         <v>836</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="50"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="47"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
       <c r="E59" s="47"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="48">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="50">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
@@ -6515,25 +6515,25 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="50"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="47"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="48">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="50">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
@@ -6541,25 +6541,25 @@
         <v>839</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="49"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="47"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="48">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="50">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
@@ -6567,25 +6567,25 @@
         <v>840</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E65" s="47"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="48">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="50">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
@@ -6593,25 +6593,25 @@
         <v>841</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E67" s="47"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="48">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="50">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
@@ -6619,18 +6619,18 @@
         <v>842</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="50"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="49"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E69" s="47"/>
     </row>
-    <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="37" t="s">
         <v>117</v>
@@ -6639,14 +6639,14 @@
       <c r="D70" s="40"/>
       <c r="E70" s="41"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="48">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="50">
         <v>1</v>
       </c>
       <c r="B71" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -6656,14 +6656,14 @@
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="50"/>
       <c r="B72" s="53"/>
-      <c r="C72" s="49"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="17"/>
       <c r="E72" s="47"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>2</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>3</v>
       </c>
@@ -6697,14 +6697,14 @@
         <v>845</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="48">
+    <row r="75" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="50">
         <v>4</v>
       </c>
       <c r="B75" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="52" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -6714,21 +6714,21 @@
         <v>846</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="50"/>
       <c r="B76" s="53"/>
-      <c r="C76" s="49"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="17"/>
       <c r="E76" s="47"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="48">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="50">
         <v>5</v>
       </c>
       <c r="B77" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
@@ -6736,23 +6736,23 @@
         <v>844</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="50"/>
       <c r="B78" s="53"/>
-      <c r="C78" s="49"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E78" s="47"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="48">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="50">
         <v>6</v>
       </c>
       <c r="B79" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
@@ -6760,16 +6760,16 @@
         <v>844</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="48"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="50"/>
       <c r="B80" s="53"/>
-      <c r="C80" s="49"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
       <c r="E80" s="47"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>7</v>
       </c>
@@ -6786,14 +6786,14 @@
         <v>847</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="48">
+    <row r="82" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="50">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -6803,18 +6803,18 @@
         <v>848</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="48"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="50"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="49"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
       <c r="E83" s="47"/>
     </row>
-    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>2</v>
       </c>
@@ -6831,8 +6831,8 @@
         <v>849</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="48">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="50">
         <v>3</v>
       </c>
       <c r="B85" s="53" t="s">
@@ -6846,8 +6846,8 @@
         <v>850</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+    <row r="86" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A86" s="50"/>
       <c r="B86" s="53"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="E86" s="47"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>4</v>
       </c>
@@ -6874,14 +6874,14 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="48">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="50">
         <v>5</v>
       </c>
       <c r="B88" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
@@ -6889,20 +6889,20 @@
         <v>852</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="50"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="49"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="47"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="48">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="50">
         <v>6</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="51" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
@@ -6913,23 +6913,23 @@
         <v>853</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
-      <c r="B91" s="54"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="47"/>
     </row>
-    <row r="92" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="48">
+    <row r="92" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="50">
         <v>7</v>
       </c>
       <c r="B92" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -6939,21 +6939,21 @@
         <v>851</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="50"/>
       <c r="B93" s="53"/>
-      <c r="C93" s="49"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="17"/>
       <c r="E93" s="47"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="48">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="50">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="52" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -6963,19 +6963,19 @@
         <v>854</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="50"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="49"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
       <c r="E95" s="47"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="48">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="50">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6991,8 +6991,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="50"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="E97" s="47"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>10</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>11</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>12</v>
       </c>
@@ -7055,8 +7055,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="48">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="50">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -7072,8 +7072,8 @@
         <v>858</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="48"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="50"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="E102" s="47"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>14</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>15</v>
       </c>
@@ -7119,14 +7119,14 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="48">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="50">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -7136,59 +7136,59 @@
         <v>860</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="48"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="50"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="49"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="17"/>
       <c r="E106" s="47"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="48"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="50"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="49"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="17"/>
       <c r="E107" s="47"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="48"/>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="50"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="49"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="17"/>
       <c r="E108" s="47"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="48"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="50"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="49"/>
+      <c r="C109" s="52"/>
       <c r="D109" s="17"/>
       <c r="E109" s="47"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="48"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="50"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="49"/>
+      <c r="C110" s="52"/>
       <c r="D110" s="17"/>
       <c r="E110" s="47"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="48">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="50">
         <v>2</v>
       </c>
       <c r="B111" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
@@ -7198,14 +7198,14 @@
         <v>868</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="48"/>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="50"/>
       <c r="B112" s="53"/>
-      <c r="C112" s="49"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="17"/>
       <c r="E112" s="47"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>3</v>
       </c>
@@ -7222,14 +7222,14 @@
         <v>861</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="48">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="50">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -7239,34 +7239,34 @@
         <v>871</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="48"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="50"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="49"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="17"/>
       <c r="E115" s="47"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="48"/>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="50"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="49"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="17"/>
       <c r="E116" s="47"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="48"/>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="50"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="49"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="17"/>
       <c r="E117" s="47"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>5</v>
       </c>
@@ -7283,14 +7283,14 @@
         <v>862</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="48">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="50">
         <v>6</v>
       </c>
       <c r="B119" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
@@ -7300,21 +7300,21 @@
         <v>863</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="48"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="50"/>
       <c r="B120" s="53"/>
-      <c r="C120" s="49"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="17"/>
       <c r="E120" s="47"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="48">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="50">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -7324,43 +7324,43 @@
         <v>864</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="48"/>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="50"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="49"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="17"/>
       <c r="E122" s="47"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="48"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="50"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="52"/>
       <c r="D123" s="17"/>
       <c r="E123" s="47"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="50"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="49"/>
+      <c r="C124" s="52"/>
       <c r="D124" s="17"/>
       <c r="E124" s="47"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="48"/>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="50"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="49"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="17"/>
       <c r="E125" s="47"/>
     </row>
-    <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>7</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="44"/>
       <c r="B127" s="44" t="s">
         <v>210</v>
@@ -7386,14 +7386,14 @@
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="48">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="50">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="52" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
@@ -7401,36 +7401,36 @@
         <v>865</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="48"/>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="50"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="49"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
       <c r="E129" s="47"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="48"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="50"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="49"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
       <c r="E130" s="47"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="48">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="50">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
@@ -7440,45 +7440,45 @@
         <v>866</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="48"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="50"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="49"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E132" s="47"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="48"/>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="50"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="49"/>
+      <c r="C133" s="52"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
       <c r="E133" s="47"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="48"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="50"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="49"/>
+      <c r="C134" s="52"/>
       <c r="D134" s="17"/>
       <c r="E134" s="47"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="48">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="50">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="52" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
@@ -7488,56 +7488,56 @@
         <v>867</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="48"/>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="50"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="49"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
       <c r="E136" s="47"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="48"/>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="50"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="49"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
       <c r="E137" s="47"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="48"/>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="50"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="49"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E138" s="47"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="48"/>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="50"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="49"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="17"/>
       <c r="E139" s="47"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="48">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="50">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="52" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
@@ -7547,23 +7547,23 @@
         <v>869</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="48"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="50"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="49"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="17"/>
       <c r="E141" s="47"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="48">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="50">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="52" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -7573,23 +7573,23 @@
         <v>870</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="48"/>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="50"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="49"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="17"/>
       <c r="E143" s="47"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="48">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="50">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
@@ -7599,23 +7599,23 @@
         <v>874</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="48"/>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="50"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="49"/>
+      <c r="C145" s="52"/>
       <c r="D145" s="17"/>
       <c r="E145" s="47"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="48">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="50">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C146" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -7625,23 +7625,23 @@
         <v>877</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="48"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="50"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="49"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="17"/>
       <c r="E147" s="47"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="48">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="50">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -7651,23 +7651,23 @@
         <v>876</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="48"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="50"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="49"/>
+      <c r="C149" s="52"/>
       <c r="D149" s="17"/>
       <c r="E149" s="47"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="48">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="50">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
@@ -7677,23 +7677,23 @@
         <v>875</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="48"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="50"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="49"/>
+      <c r="C151" s="52"/>
       <c r="D151" s="17"/>
       <c r="E151" s="47"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="48">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="50">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
@@ -7703,23 +7703,23 @@
         <v>878</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="48"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="50"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="49"/>
+      <c r="C153" s="52"/>
       <c r="D153" s="17"/>
       <c r="E153" s="47"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="48">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="50">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
@@ -7729,23 +7729,23 @@
         <v>879</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="48"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="50"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="49"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="17"/>
       <c r="E155" s="47"/>
     </row>
-    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="48">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="50">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="49" t="s">
+      <c r="C156" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
@@ -7755,23 +7755,23 @@
         <v>880</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="48"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="50"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="49"/>
+      <c r="C157" s="52"/>
       <c r="D157" s="17"/>
       <c r="E157" s="47"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="48">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="50">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
@@ -7781,16 +7781,16 @@
         <v>881</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="48"/>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="50"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="49"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="17"/>
       <c r="E159" s="47"/>
     </row>
-    <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="44"/>
       <c r="B160" s="38" t="s">
         <v>254</v>
@@ -7799,7 +7799,7 @@
       <c r="D160" s="40"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>1</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>2</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>3</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>1</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>2</v>
       </c>
@@ -7882,8 +7882,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="48">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="50">
         <v>3</v>
       </c>
       <c r="B166" s="53" t="s">
@@ -7897,8 +7897,8 @@
         <v>888</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="48"/>
+    <row r="167" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A167" s="50"/>
       <c r="B167" s="53"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
@@ -7906,8 +7906,8 @@
       <c r="D167" s="23"/>
       <c r="E167" s="47"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="48">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="50">
         <v>4</v>
       </c>
       <c r="B168" s="53" t="s">
@@ -7923,8 +7923,8 @@
         <v>889</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="48"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="50"/>
       <c r="B169" s="53"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
@@ -7932,7 +7932,7 @@
       <c r="D169" s="23"/>
       <c r="E169" s="47"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>5</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>6</v>
       </c>
@@ -7966,8 +7966,8 @@
         <v>892</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="48">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="50">
         <v>7</v>
       </c>
       <c r="B172" s="53" t="s">
@@ -7983,8 +7983,8 @@
         <v>891</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="48"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="50"/>
       <c r="B173" s="53"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
@@ -7992,7 +7992,7 @@
       <c r="D173" s="23"/>
       <c r="E173" s="47"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>8</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>9</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>10</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>11</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>1</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>2</v>
       </c>
@@ -8094,14 +8094,14 @@
         <v>897</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="48">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="50">
         <v>3</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="52" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
@@ -8111,14 +8111,14 @@
         <v>898</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="48"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="49"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="50"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="52"/>
       <c r="D181" s="23"/>
       <c r="E181" s="47"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>4</v>
       </c>
@@ -8135,14 +8135,14 @@
         <v>899</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="48">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="50">
         <v>5</v>
       </c>
-      <c r="B183" s="54" t="s">
+      <c r="B183" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="C183" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
@@ -8152,14 +8152,14 @@
         <v>900</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="48"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="49"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="50"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="52"/>
       <c r="D184" s="23"/>
       <c r="E184" s="47"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>6</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="37"/>
       <c r="B186" s="37" t="s">
         <v>297</v>
@@ -8185,14 +8185,14 @@
       <c r="D186" s="40"/>
       <c r="E186" s="41"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="48">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="50">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
@@ -8200,30 +8200,30 @@
         <v>902</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="48"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="50"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="54"/>
+      <c r="C188" s="51"/>
       <c r="D188" s="23"/>
       <c r="E188" s="47"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="48"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="50"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="54"/>
+      <c r="C189" s="51"/>
       <c r="D189" s="23"/>
       <c r="E189" s="47"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="48">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="50">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="49" t="s">
+      <c r="C190" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
@@ -8231,34 +8231,34 @@
         <v>903</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="48"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="50"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="49"/>
+      <c r="C191" s="52"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
       <c r="E191" s="47"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="48"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="50"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="49"/>
+      <c r="C192" s="52"/>
       <c r="D192" s="23"/>
       <c r="E192" s="47"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="48">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="50">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="49" t="s">
+      <c r="C193" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
@@ -8266,37 +8266,37 @@
         <v>904</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="48"/>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="50"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="49"/>
+      <c r="C194" s="52"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
       <c r="E194" s="47"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="48"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="50"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="49"/>
+      <c r="C195" s="52"/>
       <c r="D195" s="23"/>
       <c r="E195" s="47"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="48"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="50"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="49"/>
+      <c r="C196" s="52"/>
       <c r="D196" s="23"/>
       <c r="E196" s="47"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="48">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="50">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8312,8 +8312,8 @@
         <v>905</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="48"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="50"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
@@ -8321,8 +8321,8 @@
       <c r="D198" s="23"/>
       <c r="E198" s="47"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="48"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="50"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8332,8 +8332,8 @@
       <c r="D199" s="23"/>
       <c r="E199" s="47"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="48"/>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="50"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
@@ -8341,8 +8341,8 @@
       <c r="D200" s="23"/>
       <c r="E200" s="47"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="48"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="50"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
@@ -8350,8 +8350,8 @@
       <c r="D201" s="23"/>
       <c r="E201" s="47"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="48">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="50">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8367,8 +8367,8 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="48"/>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="50"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
@@ -8376,8 +8376,8 @@
       <c r="D203" s="23"/>
       <c r="E203" s="47"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="48"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="50"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8387,8 +8387,8 @@
       <c r="D204" s="23"/>
       <c r="E204" s="47"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="48"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="50"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
@@ -8396,8 +8396,8 @@
       <c r="D205" s="23"/>
       <c r="E205" s="47"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="48"/>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="50"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
@@ -8405,8 +8405,8 @@
       <c r="D206" s="23"/>
       <c r="E206" s="47"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="48"/>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="50"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
@@ -8414,8 +8414,8 @@
       <c r="D207" s="23"/>
       <c r="E207" s="47"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="48"/>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="50"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
@@ -8423,8 +8423,8 @@
       <c r="D208" s="23"/>
       <c r="E208" s="47"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="48"/>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="50"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
@@ -8432,8 +8432,8 @@
       <c r="D209" s="23"/>
       <c r="E209" s="47"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="48"/>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="50"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
@@ -8441,8 +8441,8 @@
       <c r="D210" s="23"/>
       <c r="E210" s="47"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="48"/>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="50"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
@@ -8450,8 +8450,8 @@
       <c r="D211" s="23"/>
       <c r="E211" s="47"/>
     </row>
-    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="48">
+    <row r="212" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A212" s="50">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8467,8 +8467,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="48"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="50"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
@@ -8476,8 +8476,8 @@
       <c r="D213" s="23"/>
       <c r="E213" s="47"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="48"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="50"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8487,8 +8487,8 @@
       <c r="D214" s="23"/>
       <c r="E214" s="47"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="48"/>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="50"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
@@ -8496,8 +8496,8 @@
       <c r="D215" s="23"/>
       <c r="E215" s="47"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="48"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="50"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
@@ -8505,8 +8505,8 @@
       <c r="D216" s="23"/>
       <c r="E216" s="47"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="48"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="50"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
@@ -8514,8 +8514,8 @@
       <c r="D217" s="23"/>
       <c r="E217" s="47"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="48"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="50"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
@@ -8523,8 +8523,8 @@
       <c r="D218" s="23"/>
       <c r="E218" s="47"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="48"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="50"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
@@ -8532,8 +8532,8 @@
       <c r="D219" s="23"/>
       <c r="E219" s="47"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="48"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="50"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
@@ -8541,8 +8541,8 @@
       <c r="D220" s="23"/>
       <c r="E220" s="47"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="48"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="50"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
@@ -8550,8 +8550,8 @@
       <c r="D221" s="23"/>
       <c r="E221" s="47"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="48"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="50"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
@@ -8559,8 +8559,8 @@
       <c r="D222" s="23"/>
       <c r="E222" s="47"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="50"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
@@ -8568,8 +8568,8 @@
       <c r="D223" s="23"/>
       <c r="E223" s="47"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="48"/>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="50"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
@@ -8577,8 +8577,8 @@
       <c r="D224" s="23"/>
       <c r="E224" s="47"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="48"/>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="50"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
@@ -8586,8 +8586,8 @@
       <c r="D225" s="23"/>
       <c r="E225" s="47"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="48"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="50"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
@@ -8595,8 +8595,8 @@
       <c r="D226" s="23"/>
       <c r="E226" s="47"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="48"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="50"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
@@ -8604,8 +8604,8 @@
       <c r="D227" s="23"/>
       <c r="E227" s="47"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="48"/>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="50"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
@@ -8613,8 +8613,8 @@
       <c r="D228" s="23"/>
       <c r="E228" s="47"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="48"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="50"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
@@ -8622,8 +8622,8 @@
       <c r="D229" s="23"/>
       <c r="E229" s="47"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="48"/>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="50"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
@@ -8631,8 +8631,8 @@
       <c r="D230" s="23"/>
       <c r="E230" s="47"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="48"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="50"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
@@ -8640,8 +8640,8 @@
       <c r="D231" s="23"/>
       <c r="E231" s="47"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="48"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="50"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
@@ -8649,8 +8649,8 @@
       <c r="D232" s="23"/>
       <c r="E232" s="47"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="48"/>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="50"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
@@ -8658,8 +8658,8 @@
       <c r="D233" s="23"/>
       <c r="E233" s="47"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="48"/>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="50"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
@@ -8667,8 +8667,8 @@
       <c r="D234" s="23"/>
       <c r="E234" s="47"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="48"/>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="50"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
@@ -8676,8 +8676,8 @@
       <c r="D235" s="23"/>
       <c r="E235" s="47"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="48"/>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="50"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
@@ -8685,8 +8685,8 @@
       <c r="D236" s="23"/>
       <c r="E236" s="47"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="48"/>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="50"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
@@ -8694,8 +8694,8 @@
       <c r="D237" s="23"/>
       <c r="E237" s="47"/>
     </row>
-    <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="48"/>
+    <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="50"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
@@ -8703,14 +8703,14 @@
       <c r="D238" s="23"/>
       <c r="E238" s="47"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="48">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="50">
         <v>6</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="49" t="s">
+      <c r="C239" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
@@ -8720,86 +8720,86 @@
         <v>908</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="48"/>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="50"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="49"/>
+      <c r="C240" s="52"/>
       <c r="D240" s="23"/>
       <c r="E240" s="47"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="48"/>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="50"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="49"/>
+      <c r="C241" s="52"/>
       <c r="D241" s="23"/>
       <c r="E241" s="47"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="48"/>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="50"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="49"/>
+      <c r="C242" s="52"/>
       <c r="D242" s="23"/>
       <c r="E242" s="47"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="48"/>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="50"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="49"/>
+      <c r="C243" s="52"/>
       <c r="D243" s="23"/>
       <c r="E243" s="47"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="48"/>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="50"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="49"/>
+      <c r="C244" s="52"/>
       <c r="D244" s="23"/>
       <c r="E244" s="47"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="48"/>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="50"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="49"/>
+      <c r="C245" s="52"/>
       <c r="D245" s="23"/>
       <c r="E245" s="47"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="48"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="50"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="49"/>
+      <c r="C246" s="52"/>
       <c r="D246" s="23"/>
       <c r="E246" s="47"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="48"/>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="50"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="49"/>
+      <c r="C247" s="52"/>
       <c r="D247" s="23"/>
       <c r="E247" s="47"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="48"/>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="50"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="49"/>
+      <c r="C248" s="52"/>
       <c r="D248" s="23"/>
       <c r="E248" s="47"/>
     </row>
-    <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>1</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>2</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>3</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>4</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>5</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>6</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>7</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>8</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>9</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="258" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="44"/>
       <c r="B258" s="44" t="s">
         <v>377</v>
@@ -8959,14 +8959,14 @@
       <c r="D258" s="40"/>
       <c r="E258" s="41"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="48">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="50">
         <v>1</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="49" t="s">
+      <c r="C259" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
@@ -8976,36 +8976,36 @@
         <v>917</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A260" s="48"/>
+    <row r="260" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A260" s="50"/>
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="49"/>
+      <c r="C260" s="52"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
       <c r="E260" s="47"/>
     </row>
-    <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="48"/>
+    <row r="261" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A261" s="50"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="49"/>
+      <c r="C261" s="52"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
       <c r="E261" s="47"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="48">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="50">
         <v>2</v>
       </c>
-      <c r="B262" s="49" t="s">
+      <c r="B262" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="49" t="s">
+      <c r="C262" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D262" s="23" t="s">
@@ -9015,21 +9015,21 @@
         <v>918</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="48"/>
-      <c r="B263" s="49"/>
-      <c r="C263" s="49"/>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="50"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
       <c r="D263" s="23"/>
       <c r="E263" s="47"/>
     </row>
-    <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="48">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="50">
         <v>3</v>
       </c>
       <c r="B264" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C264" s="49" t="s">
+      <c r="C264" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D264" s="23"/>
@@ -9037,25 +9037,25 @@
         <v>919</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A265" s="48"/>
+    <row r="265" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A265" s="50"/>
       <c r="B265" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C265" s="49"/>
+      <c r="C265" s="52"/>
       <c r="D265" s="23" t="s">
         <v>388</v>
       </c>
       <c r="E265" s="47"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="48">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="50">
         <v>4</v>
       </c>
       <c r="B266" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="49" t="s">
+      <c r="C266" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D266" s="23" t="s">
@@ -9065,25 +9065,25 @@
         <v>918</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="48"/>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="50"/>
       <c r="B267" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="49"/>
+      <c r="C267" s="52"/>
       <c r="D267" s="23" t="s">
         <v>392</v>
       </c>
       <c r="E267" s="47"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="48">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="50">
         <v>5</v>
       </c>
       <c r="B268" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C268" s="49" t="s">
+      <c r="C268" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="23" t="s">
@@ -9093,16 +9093,16 @@
         <v>920</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="48"/>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="50"/>
       <c r="B269" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C269" s="49"/>
+      <c r="C269" s="52"/>
       <c r="D269" s="23"/>
       <c r="E269" s="47"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>6</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>7</v>
       </c>
@@ -9136,14 +9136,14 @@
         <v>921</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="48">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="50">
         <v>1</v>
       </c>
       <c r="B272" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C272" s="49" t="s">
+      <c r="C272" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D272" s="23" t="s">
@@ -9153,30 +9153,30 @@
         <v>922</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="48"/>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="50"/>
       <c r="B273" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="49"/>
+      <c r="C273" s="52"/>
       <c r="D273" s="23" t="s">
         <v>404</v>
       </c>
       <c r="E273" s="47"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="48"/>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="50"/>
       <c r="B274" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C274" s="49"/>
+      <c r="C274" s="52"/>
       <c r="D274" s="23" t="s">
         <v>406</v>
       </c>
       <c r="E274" s="47"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="48">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="50">
         <v>2</v>
       </c>
       <c r="B275" s="53" t="s">
@@ -9190,8 +9190,8 @@
         <v>923</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="48"/>
+    <row r="276" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A276" s="50"/>
       <c r="B276" s="53"/>
       <c r="C276" s="22" t="s">
         <v>143</v>
@@ -9201,11 +9201,11 @@
       </c>
       <c r="E276" s="47"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="48">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="50">
         <v>3</v>
       </c>
-      <c r="B277" s="54" t="s">
+      <c r="B277" s="51" t="s">
         <v>409</v>
       </c>
       <c r="C277" s="22" t="s">
@@ -9218,23 +9218,23 @@
         <v>924</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="48"/>
-      <c r="B278" s="54"/>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="50"/>
+      <c r="B278" s="51"/>
       <c r="C278" s="22" t="s">
         <v>411</v>
       </c>
       <c r="D278" s="23"/>
       <c r="E278" s="47"/>
     </row>
-    <row r="279" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="48">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="50">
         <v>4</v>
       </c>
       <c r="B279" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C279" s="49" t="s">
+      <c r="C279" s="52" t="s">
         <v>413</v>
       </c>
       <c r="D279" s="23" t="s">
@@ -9244,25 +9244,25 @@
         <v>925</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="48"/>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="50"/>
       <c r="B280" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C280" s="49"/>
+      <c r="C280" s="52"/>
       <c r="D280" s="23" t="s">
         <v>416</v>
       </c>
       <c r="E280" s="47"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="48">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="50">
         <v>5</v>
       </c>
       <c r="B281" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="C281" s="49" t="s">
+      <c r="C281" s="52" t="s">
         <v>418</v>
       </c>
       <c r="D281" s="23"/>
@@ -9270,23 +9270,23 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="48"/>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="50"/>
       <c r="B282" s="53"/>
-      <c r="C282" s="49"/>
+      <c r="C282" s="52"/>
       <c r="D282" s="23" t="s">
         <v>419</v>
       </c>
       <c r="E282" s="47"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="48">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="50">
         <v>6</v>
       </c>
       <c r="B283" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="C283" s="49" t="s">
+      <c r="C283" s="52" t="s">
         <v>413</v>
       </c>
       <c r="D283" s="23"/>
@@ -9294,21 +9294,21 @@
         <v>927</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="48"/>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="50"/>
       <c r="B284" s="53"/>
-      <c r="C284" s="49"/>
+      <c r="C284" s="52"/>
       <c r="D284" s="23"/>
       <c r="E284" s="47"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="48">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="50">
         <v>7</v>
       </c>
-      <c r="B285" s="54" t="s">
+      <c r="B285" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="49" t="s">
+      <c r="C285" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D285" s="23" t="s">
@@ -9318,21 +9318,21 @@
         <v>928</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="48"/>
-      <c r="B286" s="54"/>
-      <c r="C286" s="49"/>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="50"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="52"/>
       <c r="D286" s="23"/>
       <c r="E286" s="47"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="48">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="50">
         <v>8</v>
       </c>
       <c r="B287" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="49" t="s">
+      <c r="C287" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D287" s="23"/>
@@ -9340,85 +9340,85 @@
         <v>929</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="48"/>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="50"/>
       <c r="B288" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C288" s="49"/>
+      <c r="C288" s="52"/>
       <c r="D288" s="30" t="s">
         <v>425</v>
       </c>
       <c r="E288" s="47"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="48"/>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="50"/>
       <c r="B289" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C289" s="49"/>
+      <c r="C289" s="52"/>
       <c r="D289" s="30" t="s">
         <v>427</v>
       </c>
       <c r="E289" s="47"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="48"/>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="50"/>
       <c r="B290" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C290" s="49"/>
+      <c r="C290" s="52"/>
       <c r="D290" s="30"/>
       <c r="E290" s="47"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="48"/>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="50"/>
       <c r="B291" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C291" s="49"/>
+      <c r="C291" s="52"/>
       <c r="D291" s="30"/>
       <c r="E291" s="47"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="48"/>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="50"/>
       <c r="B292" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C292" s="49"/>
+      <c r="C292" s="52"/>
       <c r="D292" s="23"/>
       <c r="E292" s="47"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="48"/>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="50"/>
       <c r="B293" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C293" s="49"/>
+      <c r="C293" s="52"/>
       <c r="D293" s="30" t="s">
         <v>432</v>
       </c>
       <c r="E293" s="47"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="48"/>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="50"/>
       <c r="B294" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C294" s="49"/>
+      <c r="C294" s="52"/>
       <c r="D294" s="30" t="s">
         <v>434</v>
       </c>
       <c r="E294" s="47"/>
     </row>
-    <row r="295" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="48">
+    <row r="295" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="50">
         <v>9</v>
       </c>
-      <c r="B295" s="54" t="s">
+      <c r="B295" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C295" s="49" t="s">
+      <c r="C295" s="52" t="s">
         <v>132</v>
       </c>
       <c r="D295" s="23" t="s">
@@ -9428,14 +9428,14 @@
         <v>930</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="48"/>
-      <c r="B296" s="54"/>
-      <c r="C296" s="49"/>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="50"/>
+      <c r="B296" s="51"/>
+      <c r="C296" s="52"/>
       <c r="D296" s="23"/>
       <c r="E296" s="47"/>
     </row>
-    <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>10</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>11</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>12</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>1</v>
       </c>
@@ -9503,14 +9503,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="48">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="50">
         <v>2</v>
       </c>
       <c r="B301" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C301" s="49" t="s">
+      <c r="C301" s="52" t="s">
         <v>286</v>
       </c>
       <c r="D301" s="30" t="s">
@@ -9520,32 +9520,32 @@
         <v>932</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="48"/>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="50"/>
       <c r="B302" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C302" s="49"/>
+      <c r="C302" s="52"/>
       <c r="D302" s="23"/>
       <c r="E302" s="47"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="48"/>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="50"/>
       <c r="B303" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C303" s="49"/>
+      <c r="C303" s="52"/>
       <c r="D303" s="23"/>
       <c r="E303" s="47"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="48">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="50">
         <v>3</v>
       </c>
-      <c r="B304" s="54" t="s">
+      <c r="B304" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="C304" s="49" t="s">
+      <c r="C304" s="52" t="s">
         <v>449</v>
       </c>
       <c r="D304" s="30" t="s">
@@ -9555,14 +9555,14 @@
         <v>933</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="48"/>
-      <c r="B305" s="54"/>
-      <c r="C305" s="49"/>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="50"/>
+      <c r="B305" s="51"/>
+      <c r="C305" s="52"/>
       <c r="D305" s="30"/>
       <c r="E305" s="47"/>
     </row>
-    <row r="306" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>4</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>5</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>6</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>7</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="52" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>8</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>9</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="39" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>10</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="44"/>
       <c r="B313" s="44" t="s">
         <v>464</v>
@@ -9690,14 +9690,14 @@
       <c r="D313" s="40"/>
       <c r="E313" s="41"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="48">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="50">
         <v>1</v>
       </c>
-      <c r="B314" s="54" t="s">
+      <c r="B314" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="C314" s="54" t="s">
+      <c r="C314" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D314" s="23" t="s">
@@ -9707,21 +9707,21 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="48"/>
-      <c r="B315" s="54"/>
-      <c r="C315" s="54"/>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="50"/>
+      <c r="B315" s="51"/>
+      <c r="C315" s="51"/>
       <c r="D315" s="23"/>
       <c r="E315" s="47"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="57">
         <v>1</v>
       </c>
       <c r="B316" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C316" s="49" t="s">
+      <c r="C316" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D316" s="23"/>
@@ -9729,32 +9729,32 @@
         <v>942</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="57"/>
       <c r="B317" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C317" s="49"/>
+      <c r="C317" s="52"/>
       <c r="D317" s="23" t="s">
         <v>469</v>
       </c>
       <c r="E317" s="47"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="57"/>
       <c r="B318" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C318" s="49"/>
+      <c r="C318" s="52"/>
       <c r="D318" s="23"/>
       <c r="E318" s="47"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="57"/>
       <c r="B319" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="49" t="s">
+      <c r="C319" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D319" s="30" t="s">
@@ -9762,16 +9762,16 @@
       </c>
       <c r="E319" s="47"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="57"/>
       <c r="B320" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C320" s="49"/>
+      <c r="C320" s="52"/>
       <c r="D320" s="23"/>
       <c r="E320" s="47"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="57"/>
       <c r="B321" s="25" t="s">
         <v>309</v>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="E321" s="47"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="57"/>
       <c r="B322" s="25" t="s">
         <v>475</v>
@@ -9795,14 +9795,14 @@
       <c r="D322" s="23"/>
       <c r="E322" s="47"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="48">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="50">
         <v>2</v>
       </c>
       <c r="B323" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C323" s="49" t="s">
+      <c r="C323" s="52" t="s">
         <v>413</v>
       </c>
       <c r="D323" s="30" t="s">
@@ -9812,50 +9812,50 @@
         <v>943</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="48"/>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="50"/>
       <c r="B324" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C324" s="49"/>
+      <c r="C324" s="52"/>
       <c r="D324" s="23"/>
       <c r="E324" s="47"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="48"/>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="50"/>
       <c r="B325" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C325" s="49"/>
+      <c r="C325" s="52"/>
       <c r="D325" s="23"/>
       <c r="E325" s="47"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="48"/>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="50"/>
       <c r="B326" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C326" s="49"/>
+      <c r="C326" s="52"/>
       <c r="D326" s="23"/>
       <c r="E326" s="47"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="48"/>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="50"/>
       <c r="B327" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C327" s="49"/>
+      <c r="C327" s="52"/>
       <c r="D327" s="23"/>
       <c r="E327" s="47"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="48">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="50">
         <v>3</v>
       </c>
       <c r="B328" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="49" t="s">
+      <c r="C328" s="52" t="s">
         <v>481</v>
       </c>
       <c r="D328" s="30" t="s">
@@ -9863,88 +9863,88 @@
       </c>
       <c r="E328" s="47"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="48"/>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="50"/>
       <c r="B329" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C329" s="49"/>
+      <c r="C329" s="52"/>
       <c r="D329" s="23"/>
       <c r="E329" s="47"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="48"/>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="50"/>
       <c r="B330" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C330" s="49"/>
+      <c r="C330" s="52"/>
       <c r="D330" s="30" t="s">
         <v>485</v>
       </c>
       <c r="E330" s="47"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="48"/>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="50"/>
       <c r="B331" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C331" s="49"/>
+      <c r="C331" s="52"/>
       <c r="D331" s="23"/>
       <c r="E331" s="47"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="48"/>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="50"/>
       <c r="B332" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C332" s="49"/>
+      <c r="C332" s="52"/>
       <c r="D332" s="23"/>
       <c r="E332" s="47"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="48"/>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="50"/>
       <c r="B333" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C333" s="49"/>
+      <c r="C333" s="52"/>
       <c r="D333" s="23"/>
       <c r="E333" s="47"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="48"/>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="50"/>
       <c r="B334" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C334" s="49"/>
+      <c r="C334" s="52"/>
       <c r="D334" s="23"/>
       <c r="E334" s="47"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="48"/>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="50"/>
       <c r="B335" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="C335" s="49"/>
+      <c r="C335" s="52"/>
       <c r="D335" s="23"/>
       <c r="E335" s="47"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="48"/>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="50"/>
       <c r="B336" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C336" s="49"/>
+      <c r="C336" s="52"/>
       <c r="D336" s="23"/>
       <c r="E336" s="47"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="48">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="50">
         <v>7</v>
       </c>
-      <c r="B337" s="54" t="s">
+      <c r="B337" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="C337" s="49" t="s">
+      <c r="C337" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D337" s="30" t="s">
@@ -9952,14 +9952,14 @@
       </c>
       <c r="E337" s="47"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="48"/>
-      <c r="B338" s="54"/>
-      <c r="C338" s="49"/>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="50"/>
+      <c r="B338" s="51"/>
+      <c r="C338" s="52"/>
       <c r="D338" s="23"/>
       <c r="E338" s="47"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>9</v>
       </c>
@@ -9973,14 +9973,14 @@
         <v>495</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="48">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="50">
         <v>10</v>
       </c>
       <c r="B340" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="C340" s="49" t="s">
+      <c r="C340" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D340" s="30" t="s">
@@ -9988,59 +9988,59 @@
       </c>
       <c r="E340" s="47"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="48"/>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="50"/>
       <c r="B341" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C341" s="49"/>
+      <c r="C341" s="52"/>
       <c r="D341" s="23"/>
       <c r="E341" s="47"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="48"/>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="50"/>
       <c r="B342" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C342" s="49"/>
+      <c r="C342" s="52"/>
       <c r="D342" s="23"/>
       <c r="E342" s="47"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="48"/>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="50"/>
       <c r="B343" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C343" s="49"/>
+      <c r="C343" s="52"/>
       <c r="D343" s="23"/>
       <c r="E343" s="47"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="48"/>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="50"/>
       <c r="B344" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C344" s="49"/>
+      <c r="C344" s="52"/>
       <c r="D344" s="23"/>
       <c r="E344" s="47"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="48"/>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="50"/>
       <c r="B345" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="C345" s="49"/>
+      <c r="C345" s="52"/>
       <c r="D345" s="23"/>
       <c r="E345" s="47"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="48">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="50">
         <v>11</v>
       </c>
-      <c r="B346" s="54" t="s">
+      <c r="B346" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="C346" s="49" t="s">
+      <c r="C346" s="52" t="s">
         <v>481</v>
       </c>
       <c r="D346" s="23" t="s">
@@ -10048,14 +10048,14 @@
       </c>
       <c r="E346" s="47"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="48"/>
-      <c r="B347" s="54"/>
-      <c r="C347" s="49"/>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="50"/>
+      <c r="B347" s="51"/>
+      <c r="C347" s="52"/>
       <c r="D347" s="23"/>
       <c r="E347" s="47"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>12</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>1</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>2</v>
       </c>
@@ -10097,14 +10097,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="48">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="50">
         <v>3</v>
       </c>
-      <c r="B351" s="54" t="s">
+      <c r="B351" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="C351" s="49" t="s">
+      <c r="C351" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D351" s="30" t="s">
@@ -10112,21 +10112,21 @@
       </c>
       <c r="E351" s="47"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="48"/>
-      <c r="B352" s="54"/>
-      <c r="C352" s="49"/>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="50"/>
+      <c r="B352" s="51"/>
+      <c r="C352" s="52"/>
       <c r="D352" s="23"/>
       <c r="E352" s="47"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="48">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="50">
         <v>4</v>
       </c>
       <c r="B353" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="C353" s="49" t="s">
+      <c r="C353" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D353" s="30" t="s">
@@ -10134,14 +10134,14 @@
       </c>
       <c r="E353" s="47"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="48"/>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="50"/>
       <c r="B354" s="53"/>
-      <c r="C354" s="49"/>
+      <c r="C354" s="52"/>
       <c r="D354" s="23"/>
       <c r="E354" s="47"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <v>5</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>6</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>7</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="44"/>
       <c r="B358" s="44" t="s">
         <v>521</v>
@@ -10192,14 +10192,14 @@
       <c r="D358" s="40"/>
       <c r="E358" s="41"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="48">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="50">
         <v>1</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C359" s="49" t="s">
+      <c r="C359" s="52" t="s">
         <v>523</v>
       </c>
       <c r="D359" s="30" t="s">
@@ -10207,18 +10207,18 @@
       </c>
       <c r="E359" s="47"/>
     </row>
-    <row r="360" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="48"/>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="50"/>
       <c r="B360" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C360" s="49"/>
+      <c r="C360" s="52"/>
       <c r="D360" s="30" t="s">
         <v>526</v>
       </c>
       <c r="E360" s="47"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <v>1</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <v>2</v>
       </c>
@@ -10246,14 +10246,14 @@
         <v>530</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="48">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="50">
         <v>3</v>
       </c>
-      <c r="B363" s="49" t="s">
+      <c r="B363" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="C363" s="49" t="s">
+      <c r="C363" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D363" s="30" t="s">
@@ -10261,14 +10261,14 @@
       </c>
       <c r="E363" s="47"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="48"/>
-      <c r="B364" s="49"/>
-      <c r="C364" s="49"/>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="50"/>
+      <c r="B364" s="52"/>
+      <c r="C364" s="52"/>
       <c r="D364" s="17"/>
       <c r="E364" s="47"/>
     </row>
-    <row r="365" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="44"/>
       <c r="B365" s="44" t="s">
         <v>533</v>
@@ -10277,7 +10277,7 @@
       <c r="D365" s="40"/>
       <c r="E365" s="41"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>1</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <v>3</v>
       </c>
@@ -10305,14 +10305,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="48">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="50">
         <v>4</v>
       </c>
       <c r="B368" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C368" s="49" t="s">
+      <c r="C368" s="52" t="s">
         <v>45</v>
       </c>
       <c r="D368" s="30" t="s">
@@ -10320,41 +10320,41 @@
       </c>
       <c r="E368" s="47"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="48"/>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="50"/>
       <c r="B369" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C369" s="49"/>
+      <c r="C369" s="52"/>
       <c r="D369" s="23"/>
       <c r="E369" s="47"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="48"/>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="50"/>
       <c r="B370" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C370" s="49"/>
+      <c r="C370" s="52"/>
       <c r="D370" s="23"/>
       <c r="E370" s="47"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="48"/>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="50"/>
       <c r="B371" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C371" s="49"/>
+      <c r="C371" s="52"/>
       <c r="D371" s="23"/>
       <c r="E371" s="47"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="48">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="50">
         <v>5</v>
       </c>
       <c r="B372" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="C372" s="49" t="s">
+      <c r="C372" s="52" t="s">
         <v>125</v>
       </c>
       <c r="D372" s="30" t="s">
@@ -10362,32 +10362,32 @@
       </c>
       <c r="E372" s="47"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="48"/>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="50"/>
       <c r="B373" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="C373" s="49"/>
+      <c r="C373" s="52"/>
       <c r="D373" s="23"/>
       <c r="E373" s="47"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="48"/>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="50"/>
       <c r="B374" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="C374" s="49"/>
+      <c r="C374" s="52"/>
       <c r="D374" s="23"/>
       <c r="E374" s="47"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="48">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="50">
         <v>6</v>
       </c>
-      <c r="B375" s="54" t="s">
+      <c r="B375" s="51" t="s">
         <v>547</v>
       </c>
-      <c r="C375" s="49" t="s">
+      <c r="C375" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D375" s="30" t="s">
@@ -10395,21 +10395,21 @@
       </c>
       <c r="E375" s="47"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="48"/>
-      <c r="B376" s="54"/>
-      <c r="C376" s="49"/>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="50"/>
+      <c r="B376" s="51"/>
+      <c r="C376" s="52"/>
       <c r="D376" s="23"/>
       <c r="E376" s="47"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="48">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="50">
         <v>7</v>
       </c>
-      <c r="B377" s="54" t="s">
+      <c r="B377" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="C377" s="49" t="s">
+      <c r="C377" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D377" s="30" t="s">
@@ -10417,21 +10417,21 @@
       </c>
       <c r="E377" s="47"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="48"/>
-      <c r="B378" s="54"/>
-      <c r="C378" s="49"/>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="50"/>
+      <c r="B378" s="51"/>
+      <c r="C378" s="52"/>
       <c r="D378" s="23"/>
       <c r="E378" s="47"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="48">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="50">
         <v>8</v>
       </c>
       <c r="B379" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C379" s="49" t="s">
+      <c r="C379" s="52" t="s">
         <v>552</v>
       </c>
       <c r="D379" s="30" t="s">
@@ -10439,23 +10439,23 @@
       </c>
       <c r="E379" s="47"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="48"/>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="50"/>
       <c r="B380" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C380" s="49"/>
+      <c r="C380" s="52"/>
       <c r="D380" s="23"/>
       <c r="E380" s="47"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="48">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="50">
         <v>1</v>
       </c>
-      <c r="B381" s="54" t="s">
+      <c r="B381" s="51" t="s">
         <v>555</v>
       </c>
-      <c r="C381" s="49" t="s">
+      <c r="C381" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D381" s="30" t="s">
@@ -10463,14 +10463,14 @@
       </c>
       <c r="E381" s="47"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="48"/>
-      <c r="B382" s="54"/>
-      <c r="C382" s="49"/>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="50"/>
+      <c r="B382" s="51"/>
+      <c r="C382" s="52"/>
       <c r="D382" s="23"/>
       <c r="E382" s="47"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>2</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <v>3</v>
       </c>
@@ -10496,7 +10496,7 @@
       </c>
       <c r="D384" s="23"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <v>4</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <v>4</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>5</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <v>6</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>7</v>
       </c>
@@ -10564,14 +10564,14 @@
       </c>
       <c r="D389" s="23"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="48">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="50">
         <v>1</v>
       </c>
-      <c r="B390" s="54" t="s">
+      <c r="B390" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="C390" s="49" t="s">
+      <c r="C390" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D390" s="30" t="s">
@@ -10579,21 +10579,21 @@
       </c>
       <c r="E390" s="47"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="48"/>
-      <c r="B391" s="54"/>
-      <c r="C391" s="49"/>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="50"/>
+      <c r="B391" s="51"/>
+      <c r="C391" s="52"/>
       <c r="D391" s="23"/>
       <c r="E391" s="47"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="48">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="50">
         <v>2</v>
       </c>
-      <c r="B392" s="54" t="s">
+      <c r="B392" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="C392" s="49" t="s">
+      <c r="C392" s="52" t="s">
         <v>286</v>
       </c>
       <c r="D392" s="30" t="s">
@@ -10601,14 +10601,14 @@
       </c>
       <c r="E392" s="47"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="48"/>
-      <c r="B393" s="54"/>
-      <c r="C393" s="49"/>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="50"/>
+      <c r="B393" s="51"/>
+      <c r="C393" s="52"/>
       <c r="D393" s="23"/>
       <c r="E393" s="47"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>3</v>
       </c>
@@ -10622,14 +10622,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="48">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="50">
         <v>4</v>
       </c>
-      <c r="B395" s="54" t="s">
+      <c r="B395" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="C395" s="49" t="s">
+      <c r="C395" s="52" t="s">
         <v>575</v>
       </c>
       <c r="D395" s="30" t="s">
@@ -10637,36 +10637,36 @@
       </c>
       <c r="E395" s="47"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="48"/>
-      <c r="B396" s="54"/>
-      <c r="C396" s="49"/>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="50"/>
+      <c r="B396" s="51"/>
+      <c r="C396" s="52"/>
       <c r="D396" s="23"/>
       <c r="E396" s="47"/>
     </row>
-    <row r="397" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="48">
+    <row r="397" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="50">
         <v>5</v>
       </c>
-      <c r="B397" s="54" t="s">
+      <c r="B397" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="C397" s="49" t="s">
+      <c r="C397" s="52" t="s">
         <v>204</v>
       </c>
       <c r="D397" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="E397" s="56"/>
-    </row>
-    <row r="398" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="48"/>
-      <c r="B398" s="54"/>
-      <c r="C398" s="49"/>
+      <c r="E397" s="48"/>
+    </row>
+    <row r="398" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="50"/>
+      <c r="B398" s="51"/>
+      <c r="C398" s="52"/>
       <c r="D398" s="23"/>
-      <c r="E398" s="56"/>
-    </row>
-    <row r="399" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E398" s="48"/>
+    </row>
+    <row r="399" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="44"/>
       <c r="B399" s="44" t="s">
         <v>578</v>
@@ -10675,14 +10675,14 @@
       <c r="D399" s="40"/>
       <c r="E399" s="41"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="48">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="50">
         <v>1</v>
       </c>
       <c r="B400" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="C400" s="54" t="s">
+      <c r="C400" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D400" s="17" t="s">
@@ -10690,36 +10690,36 @@
       </c>
       <c r="E400" s="47"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="48"/>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="50"/>
       <c r="B401" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="C401" s="54"/>
+      <c r="C401" s="51"/>
       <c r="D401" s="17" t="s">
         <v>582</v>
       </c>
       <c r="E401" s="47"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="48"/>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="50"/>
       <c r="B402" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="C402" s="54"/>
+      <c r="C402" s="51"/>
       <c r="D402" s="17" t="s">
         <v>584</v>
       </c>
       <c r="E402" s="47"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="48">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="50">
         <v>1</v>
       </c>
       <c r="B403" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C403" s="54" t="s">
+      <c r="C403" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D403" s="17" t="s">
@@ -10727,25 +10727,25 @@
       </c>
       <c r="E403" s="47"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="48"/>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="50"/>
       <c r="B404" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="C404" s="54"/>
+      <c r="C404" s="51"/>
       <c r="D404" s="17" t="s">
         <v>584</v>
       </c>
       <c r="E404" s="47"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="48">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="50">
         <v>1</v>
       </c>
       <c r="B405" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="C405" s="54" t="s">
+      <c r="C405" s="51" t="s">
         <v>132</v>
       </c>
       <c r="D405" s="17" t="s">
@@ -10753,18 +10753,18 @@
       </c>
       <c r="E405" s="47"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="48"/>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="50"/>
       <c r="B406" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="C406" s="54"/>
+      <c r="C406" s="51"/>
       <c r="D406" s="17" t="s">
         <v>584</v>
       </c>
       <c r="E406" s="47"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="15"/>
       <c r="B407" s="14"/>
       <c r="C407" s="14"/>
@@ -10772,254 +10772,75 @@
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
   <mergeCells count="341">
-    <mergeCell ref="E395:E396"/>
-    <mergeCell ref="E397:E398"/>
-    <mergeCell ref="E400:E402"/>
-    <mergeCell ref="E403:E404"/>
-    <mergeCell ref="E405:E406"/>
-    <mergeCell ref="E363:E364"/>
-    <mergeCell ref="E368:E371"/>
-    <mergeCell ref="E372:E374"/>
-    <mergeCell ref="E375:E376"/>
-    <mergeCell ref="E377:E378"/>
-    <mergeCell ref="E379:E380"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="E392:E393"/>
-    <mergeCell ref="E323:E327"/>
-    <mergeCell ref="E328:E336"/>
-    <mergeCell ref="E337:E338"/>
-    <mergeCell ref="E340:E345"/>
-    <mergeCell ref="E346:E347"/>
-    <mergeCell ref="E351:E352"/>
-    <mergeCell ref="E353:E354"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="E316:E322"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="E287:E294"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="E304:E305"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A400:A402"/>
-    <mergeCell ref="C400:C402"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="A405:A406"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="A368:A371"/>
-    <mergeCell ref="C368:C371"/>
-    <mergeCell ref="A372:A374"/>
-    <mergeCell ref="C372:C374"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="B375:B376"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="B363:B364"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="A328:A336"/>
-    <mergeCell ref="C328:C336"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="A340:A345"/>
-    <mergeCell ref="C340:C345"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="C323:C327"/>
-    <mergeCell ref="A301:A303"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="A287:A294"/>
-    <mergeCell ref="C287:C294"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E239:E248"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -11044,75 +10865,254 @@
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="E239:E248"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="A287:A294"/>
+    <mergeCell ref="C287:C294"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="C323:C327"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="A328:A336"/>
+    <mergeCell ref="C328:C336"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="A340:A345"/>
+    <mergeCell ref="C340:C345"/>
+    <mergeCell ref="A368:A371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="A372:A374"/>
+    <mergeCell ref="C372:C374"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="A400:A402"/>
+    <mergeCell ref="C400:C402"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="A405:A406"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="E287:E294"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="E323:E327"/>
+    <mergeCell ref="E328:E336"/>
+    <mergeCell ref="E337:E338"/>
+    <mergeCell ref="E340:E345"/>
+    <mergeCell ref="E346:E347"/>
+    <mergeCell ref="E351:E352"/>
+    <mergeCell ref="E353:E354"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="E316:E322"/>
+    <mergeCell ref="E395:E396"/>
+    <mergeCell ref="E397:E398"/>
+    <mergeCell ref="E400:E402"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="E405:E406"/>
+    <mergeCell ref="E363:E364"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="E375:E376"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="E392:E393"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11128,16 +11128,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" s="2" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>177</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>178</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>185</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>186</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -14697,9 +14697,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14873,19 +14876,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14909,9 +14908,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416454E9-33CC-423F-AB18-6E3E4DF8623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB1B181-4C3B-4266-BB04-21DDBA3498C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
@@ -5375,20 +5375,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5400,26 +5386,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5430,8 +5410,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5749,15 +5751,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}">
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316:A322"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.453125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="96.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="108.81640625" style="16" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" style="14" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="85" style="32" customWidth="1"/>
     <col min="6" max="16384" width="8.81640625" style="14"/>
@@ -5780,21 +5782,21 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+    <row r="2" spans="1:5" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5804,10 +5806,10 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
@@ -5815,10 +5817,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="47"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5826,312 +5828,312 @@
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="110.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="47">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="43" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+      <c r="A8" s="47">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
+      <c r="A13" s="47">
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="43" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
+      <c r="A15" s="47">
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
+      <c r="A17" s="47">
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="43" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
+      <c r="A19" s="47">
         <v>7</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="52" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55">
+      <c r="A22" s="47">
         <v>8</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="52" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55">
+      <c r="A24" s="47">
         <v>9</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="52" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="55">
+      <c r="A26" s="47">
         <v>10</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="52" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="50">
+      <c r="A28" s="44">
         <v>1</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="52" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
+      <c r="A30" s="44">
         <v>2</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -6141,12 +6143,12 @@
         <v>50</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="52" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6154,10 +6156,10 @@
       <c r="D31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="49"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6167,19 +6169,19 @@
       <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="50">
+      <c r="A34" s="44">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -6189,12 +6191,12 @@
         <v>54</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="43" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
@@ -6202,10 +6204,10 @@
       <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="20" t="s">
         <v>37</v>
       </c>
@@ -6213,36 +6215,36 @@
         <v>56</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="47"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="50">
+      <c r="A37" s="44">
         <v>4</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="45" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="43" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="50">
+      <c r="A39" s="44">
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -6252,12 +6254,12 @@
         <v>61</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="43" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
       </c>
@@ -6265,10 +6267,10 @@
       <c r="D40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="20" t="s">
         <v>64</v>
       </c>
@@ -6278,132 +6280,132 @@
       <c r="D41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="47"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+      <c r="A42" s="44">
         <v>6</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="43" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="47"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="50">
+      <c r="A44" s="44">
         <v>1</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="43" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="52"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="50">
+      <c r="A47" s="44">
         <v>2</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="43" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="50">
+      <c r="A52" s="44">
         <v>3</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -6413,12 +6415,12 @@
         <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="43" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
       </c>
@@ -6426,10 +6428,10 @@
       <c r="D53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="47"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="20" t="s">
         <v>89</v>
       </c>
@@ -6439,10 +6441,10 @@
       <c r="D54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="20" t="s">
         <v>92</v>
       </c>
@@ -6450,10 +6452,10 @@
       <c r="D55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="47"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="20" t="s">
         <v>94</v>
       </c>
@@ -6461,207 +6463,207 @@
       <c r="D56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="50">
+      <c r="A57" s="44">
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="45" t="s">
         <v>97</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="43" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="47"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="52"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="47"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="50">
+      <c r="A60" s="44">
         <v>5</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="43" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="47"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="50">
+      <c r="A62" s="44">
         <v>6</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="43" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="52"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="47"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="50">
+      <c r="A64" s="44">
         <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="43" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="47"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="50">
+      <c r="A66" s="44">
         <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="45" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="43" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="50"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="52"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="50">
+      <c r="A68" s="44">
         <v>9</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="45" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="43" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="52"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="47"/>
-    </row>
-    <row r="70" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37" t="s">
+      <c r="E69" s="43"/>
+    </row>
+    <row r="70" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="55"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="50">
+      <c r="A71" s="44">
         <v>1</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E71" s="43" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="52"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="47"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
@@ -6698,76 +6700,76 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="50">
+      <c r="A75" s="44">
         <v>4</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="45" t="s">
         <v>125</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="43" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="50"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="52"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="47"/>
+      <c r="E76" s="43"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="50">
+      <c r="A77" s="44">
         <v>5</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="47" t="s">
+      <c r="E77" s="43" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="50"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="47"/>
+      <c r="E78" s="43"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="50">
+      <c r="A79" s="44">
         <v>6</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="47" t="s">
+      <c r="E79" s="43" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="50"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="52"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="47"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
@@ -6787,32 +6789,32 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A82" s="50">
+      <c r="A82" s="44">
         <v>1</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E82" s="43" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="50"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="52"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="47"/>
+      <c r="E83" s="43"/>
     </row>
     <row r="84" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
@@ -6832,30 +6834,30 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="50">
+      <c r="A85" s="44">
         <v>3</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="43" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A86" s="50"/>
-      <c r="B86" s="53"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E86" s="47"/>
+      <c r="E86" s="43"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
@@ -6875,107 +6877,107 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="50">
+      <c r="A88" s="44">
         <v>5</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="45" t="s">
         <v>149</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="43" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="50"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="47"/>
+      <c r="E89" s="43"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="50">
+      <c r="A90" s="44">
         <v>6</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="43" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="50"/>
-      <c r="B91" s="51"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="47"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="50">
+      <c r="A92" s="44">
         <v>7</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="45" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="43" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="45"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="47"/>
+      <c r="E93" s="43"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="50">
+      <c r="A94" s="44">
         <v>8</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="45" t="s">
         <v>159</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="43" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="52"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="47"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="50">
+      <c r="A96" s="44">
         <v>9</v>
       </c>
       <c r="B96" s="24" t="s">
@@ -6987,12 +6989,12 @@
       <c r="D96" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="43" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="24" t="s">
         <v>165</v>
       </c>
@@ -7002,7 +7004,7 @@
       <c r="D97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="47"/>
+      <c r="E97" s="43"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
@@ -7056,7 +7058,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="50">
+      <c r="A101" s="44">
         <v>13</v>
       </c>
       <c r="B101" s="24" t="s">
@@ -7068,12 +7070,12 @@
       <c r="D101" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="43" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="50"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="24" t="s">
         <v>177</v>
       </c>
@@ -7083,7 +7085,7 @@
       <c r="D102" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="47"/>
+      <c r="E102" s="43"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
@@ -7120,90 +7122,90 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="50">
+      <c r="A105" s="44">
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="45" t="s">
         <v>182</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E105" s="47" t="s">
+      <c r="E105" s="43" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="50"/>
+      <c r="A106" s="44"/>
       <c r="B106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="52"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="47"/>
+      <c r="E106" s="43"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="50"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="52"/>
+      <c r="C107" s="45"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="47"/>
+      <c r="E107" s="43"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="50"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="52"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="47"/>
+      <c r="E108" s="43"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="52"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="47"/>
+      <c r="E109" s="43"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="50"/>
+      <c r="A110" s="44"/>
       <c r="B110" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="52"/>
+      <c r="C110" s="45"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="47"/>
+      <c r="E110" s="43"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="50">
+      <c r="A111" s="44">
         <v>2</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="47" t="s">
+      <c r="E111" s="43" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="50"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="52"/>
+      <c r="A112" s="44"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="47"/>
+      <c r="E112" s="43"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
@@ -7223,48 +7225,48 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="50">
+      <c r="A114" s="44">
         <v>4</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="52" t="s">
+      <c r="C114" s="45" t="s">
         <v>86</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E114" s="47" t="s">
+      <c r="E114" s="43" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="50"/>
+      <c r="A115" s="44"/>
       <c r="B115" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="52"/>
+      <c r="C115" s="45"/>
       <c r="D115" s="17"/>
-      <c r="E115" s="47"/>
+      <c r="E115" s="43"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="50"/>
+      <c r="A116" s="44"/>
       <c r="B116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="52"/>
+      <c r="C116" s="45"/>
       <c r="D116" s="17"/>
-      <c r="E116" s="47"/>
+      <c r="E116" s="43"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
+      <c r="A117" s="44"/>
       <c r="B117" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="52"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="47"/>
+      <c r="E117" s="43"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
@@ -7284,81 +7286,81 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="50">
+      <c r="A119" s="44">
         <v>6</v>
       </c>
-      <c r="B119" s="53" t="s">
+      <c r="B119" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E119" s="47" t="s">
+      <c r="E119" s="43" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="50"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="52"/>
+      <c r="A120" s="44"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="45"/>
       <c r="D120" s="17"/>
-      <c r="E120" s="47"/>
+      <c r="E120" s="43"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="50">
+      <c r="A121" s="44">
         <v>7</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="45" t="s">
         <v>204</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E121" s="47" t="s">
+      <c r="E121" s="43" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="50"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="52"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="47"/>
+      <c r="E122" s="43"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="50"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="52"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="17"/>
-      <c r="E123" s="47"/>
+      <c r="E123" s="43"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="50"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="52"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="47"/>
+      <c r="E124" s="43"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="50"/>
+      <c r="A125" s="44"/>
       <c r="B125" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="52"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="17"/>
-      <c r="E125" s="47"/>
+      <c r="E125" s="43"/>
     </row>
     <row r="126" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
@@ -7377,427 +7379,427 @@
         <v>872</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44" t="s">
+    <row r="127" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="44"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="55"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="50">
+      <c r="A128" s="44">
         <v>1</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="52" t="s">
+      <c r="C128" s="45" t="s">
         <v>212</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="47" t="s">
+      <c r="E128" s="43" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="50"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="52"/>
+      <c r="C129" s="45"/>
       <c r="D129" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="47"/>
+      <c r="E129" s="43"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="50"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="52"/>
+      <c r="C130" s="45"/>
       <c r="D130" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="47"/>
+      <c r="E130" s="43"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="50">
+      <c r="A131" s="44">
         <v>1</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="52" t="s">
+      <c r="C131" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="47" t="s">
+      <c r="E131" s="43" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="50"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="52"/>
+      <c r="C132" s="45"/>
       <c r="D132" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="47"/>
+      <c r="E132" s="43"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="50"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="52"/>
+      <c r="C133" s="45"/>
       <c r="D133" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E133" s="47"/>
+      <c r="E133" s="43"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="50"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="52"/>
+      <c r="C134" s="45"/>
       <c r="D134" s="17"/>
-      <c r="E134" s="47"/>
+      <c r="E134" s="43"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="50">
+      <c r="A135" s="44">
         <v>2</v>
       </c>
       <c r="B135" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="52" t="s">
+      <c r="C135" s="45" t="s">
         <v>159</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E135" s="47" t="s">
+      <c r="E135" s="43" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="50"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="52"/>
+      <c r="C136" s="45"/>
       <c r="D136" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E136" s="47"/>
+      <c r="E136" s="43"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="50"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="52"/>
+      <c r="C137" s="45"/>
       <c r="D137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="47"/>
+      <c r="E137" s="43"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="50"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="52"/>
+      <c r="C138" s="45"/>
       <c r="D138" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="47"/>
+      <c r="E138" s="43"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="50"/>
+      <c r="A139" s="44"/>
       <c r="B139" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="52"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="17"/>
-      <c r="E139" s="47"/>
+      <c r="E139" s="43"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="50">
+      <c r="A140" s="44">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="45" t="s">
         <v>232</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="47" t="s">
+      <c r="E140" s="43" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="50"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C141" s="52"/>
+      <c r="C141" s="45"/>
       <c r="D141" s="17"/>
-      <c r="E141" s="47"/>
+      <c r="E141" s="43"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="50">
+      <c r="A142" s="44">
         <v>4</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="45" t="s">
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E142" s="47" t="s">
+      <c r="E142" s="43" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="50"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="52"/>
+      <c r="C143" s="45"/>
       <c r="D143" s="17"/>
-      <c r="E143" s="47"/>
+      <c r="E143" s="43"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="50">
+      <c r="A144" s="44">
         <v>1</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="52" t="s">
+      <c r="C144" s="45" t="s">
         <v>182</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E144" s="47" t="s">
+      <c r="E144" s="43" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="50"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="52"/>
+      <c r="C145" s="45"/>
       <c r="D145" s="17"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="43"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="50">
+      <c r="A146" s="44">
         <v>2</v>
       </c>
       <c r="B146" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="52" t="s">
+      <c r="C146" s="45" t="s">
         <v>182</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E146" s="47" t="s">
+      <c r="E146" s="43" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="50"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="52"/>
+      <c r="C147" s="45"/>
       <c r="D147" s="17"/>
-      <c r="E147" s="47"/>
+      <c r="E147" s="43"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="50">
+      <c r="A148" s="44">
         <v>3</v>
       </c>
       <c r="B148" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C148" s="52" t="s">
+      <c r="C148" s="45" t="s">
         <v>241</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E148" s="47" t="s">
+      <c r="E148" s="43" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="50"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="52"/>
+      <c r="C149" s="45"/>
       <c r="D149" s="17"/>
-      <c r="E149" s="47"/>
+      <c r="E149" s="43"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="50">
+      <c r="A150" s="44">
         <v>4</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="52" t="s">
+      <c r="C150" s="45" t="s">
         <v>241</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="47" t="s">
+      <c r="E150" s="43" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="50"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="52"/>
+      <c r="C151" s="45"/>
       <c r="D151" s="17"/>
-      <c r="E151" s="47"/>
+      <c r="E151" s="43"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="50">
+      <c r="A152" s="44">
         <v>5</v>
       </c>
       <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C152" s="52" t="s">
+      <c r="C152" s="45" t="s">
         <v>246</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E152" s="47" t="s">
+      <c r="E152" s="43" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="50"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="52"/>
+      <c r="C153" s="45"/>
       <c r="D153" s="17"/>
-      <c r="E153" s="47"/>
+      <c r="E153" s="43"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="50">
+      <c r="A154" s="44">
         <v>6</v>
       </c>
       <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="45" t="s">
         <v>246</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E154" s="47" t="s">
+      <c r="E154" s="43" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="50"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="52"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="17"/>
-      <c r="E155" s="47"/>
+      <c r="E155" s="43"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="50">
+      <c r="A156" s="44">
         <v>7</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E156" s="47" t="s">
+      <c r="E156" s="43" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="50"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="52"/>
+      <c r="C157" s="45"/>
       <c r="D157" s="17"/>
-      <c r="E157" s="47"/>
+      <c r="E157" s="43"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="50">
+      <c r="A158" s="44">
         <v>8</v>
       </c>
       <c r="B158" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="45" t="s">
         <v>204</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E158" s="47" t="s">
+      <c r="E158" s="43" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="50"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="52"/>
+      <c r="C159" s="45"/>
       <c r="D159" s="17"/>
-      <c r="E159" s="47"/>
-    </row>
-    <row r="160" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="44"/>
-      <c r="B160" s="38" t="s">
+      <c r="E159" s="43"/>
+    </row>
+    <row r="160" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="41"/>
+      <c r="B160" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C160" s="39"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="39"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="56"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
@@ -7883,34 +7885,34 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="50">
+      <c r="A166" s="44">
         <v>3</v>
       </c>
-      <c r="B166" s="53" t="s">
+      <c r="B166" s="49" t="s">
         <v>265</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D166" s="23"/>
-      <c r="E166" s="47" t="s">
+      <c r="E166" s="43" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A167" s="50"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="49"/>
       <c r="C167" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D167" s="23"/>
-      <c r="E167" s="47"/>
+      <c r="E167" s="43"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="50">
+      <c r="A168" s="44">
         <v>4</v>
       </c>
-      <c r="B168" s="53" t="s">
+      <c r="B168" s="49" t="s">
         <v>267</v>
       </c>
       <c r="C168" s="22" t="s">
@@ -7919,18 +7921,18 @@
       <c r="D168" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="47" t="s">
+      <c r="E168" s="43" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="50"/>
-      <c r="B169" s="53"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="49"/>
       <c r="C169" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D169" s="23"/>
-      <c r="E169" s="47"/>
+      <c r="E169" s="43"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
@@ -7967,10 +7969,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="50">
+      <c r="A172" s="44">
         <v>7</v>
       </c>
-      <c r="B172" s="53" t="s">
+      <c r="B172" s="49" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="22" t="s">
@@ -7979,18 +7981,18 @@
       <c r="D172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="E172" s="47" t="s">
+      <c r="E172" s="43" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="50"/>
-      <c r="B173" s="53"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D173" s="23"/>
-      <c r="E173" s="47"/>
+      <c r="E173" s="43"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
@@ -8095,28 +8097,28 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="50">
+      <c r="A180" s="44">
         <v>3</v>
       </c>
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="52" t="s">
+      <c r="C180" s="45" t="s">
         <v>289</v>
       </c>
       <c r="D180" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E180" s="47" t="s">
+      <c r="E180" s="43" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="50"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="52"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="45"/>
       <c r="D181" s="23"/>
-      <c r="E181" s="47"/>
+      <c r="E181" s="43"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
@@ -8136,28 +8138,28 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="50">
+      <c r="A183" s="44">
         <v>5</v>
       </c>
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D183" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E183" s="47" t="s">
+      <c r="E183" s="43" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="50"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="52"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="45"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="47"/>
+      <c r="E184" s="43"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
@@ -8176,127 +8178,127 @@
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
-      <c r="B186" s="37" t="s">
+    <row r="186" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="41"/>
+      <c r="B186" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C186" s="37"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="41"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="55"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="50">
+      <c r="A187" s="44">
         <v>1</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D187" s="23"/>
-      <c r="E187" s="47" t="s">
+      <c r="E187" s="43" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="50"/>
+      <c r="A188" s="44"/>
       <c r="B188" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C188" s="51"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="47"/>
+      <c r="E188" s="43"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="50"/>
+      <c r="A189" s="44"/>
       <c r="B189" s="22"/>
-      <c r="C189" s="51"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="47"/>
+      <c r="E189" s="43"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="50">
+      <c r="A190" s="44">
         <v>1</v>
       </c>
       <c r="B190" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="52" t="s">
+      <c r="C190" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="23"/>
-      <c r="E190" s="47" t="s">
+      <c r="E190" s="43" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="50"/>
+      <c r="A191" s="44"/>
       <c r="B191" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C191" s="52"/>
+      <c r="C191" s="45"/>
       <c r="D191" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E191" s="47"/>
+      <c r="E191" s="43"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="50"/>
+      <c r="A192" s="44"/>
       <c r="B192" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C192" s="52"/>
+      <c r="C192" s="45"/>
       <c r="D192" s="23"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="43"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="50">
+      <c r="A193" s="44">
         <v>2</v>
       </c>
       <c r="B193" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="52" t="s">
+      <c r="C193" s="45" t="s">
         <v>149</v>
       </c>
       <c r="D193" s="23"/>
-      <c r="E193" s="47" t="s">
+      <c r="E193" s="43" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="50"/>
+      <c r="A194" s="44"/>
       <c r="B194" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C194" s="52"/>
+      <c r="C194" s="45"/>
       <c r="D194" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E194" s="47"/>
+      <c r="E194" s="43"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="50"/>
+      <c r="A195" s="44"/>
       <c r="B195" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C195" s="52"/>
+      <c r="C195" s="45"/>
       <c r="D195" s="23"/>
-      <c r="E195" s="47"/>
+      <c r="E195" s="43"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="50"/>
+      <c r="A196" s="44"/>
       <c r="B196" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C196" s="52"/>
+      <c r="C196" s="45"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="43"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="50">
+      <c r="A197" s="44">
         <v>3</v>
       </c>
       <c r="B197" s="22" t="s">
@@ -8308,21 +8310,21 @@
       <c r="D197" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="47" t="s">
+      <c r="E197" s="43" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="50"/>
+      <c r="A198" s="44"/>
       <c r="B198" s="26" t="s">
         <v>311</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="47"/>
+      <c r="E198" s="43"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="50"/>
+      <c r="A199" s="44"/>
       <c r="B199" s="26" t="s">
         <v>312</v>
       </c>
@@ -8330,28 +8332,28 @@
         <v>61</v>
       </c>
       <c r="D199" s="23"/>
-      <c r="E199" s="47"/>
+      <c r="E199" s="43"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="50"/>
+      <c r="A200" s="44"/>
       <c r="B200" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="23"/>
-      <c r="E200" s="47"/>
+      <c r="E200" s="43"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="50"/>
+      <c r="A201" s="44"/>
       <c r="B201" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="23"/>
-      <c r="E201" s="47"/>
+      <c r="E201" s="43"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="50">
+      <c r="A202" s="44">
         <v>4</v>
       </c>
       <c r="B202" s="22" t="s">
@@ -8363,21 +8365,21 @@
       <c r="D202" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E202" s="47" t="s">
+      <c r="E202" s="43" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="50"/>
+      <c r="A203" s="44"/>
       <c r="B203" s="26" t="s">
         <v>317</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="23"/>
-      <c r="E203" s="47"/>
+      <c r="E203" s="43"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="50"/>
+      <c r="A204" s="44"/>
       <c r="B204" s="26" t="s">
         <v>318</v>
       </c>
@@ -8385,73 +8387,73 @@
         <v>152</v>
       </c>
       <c r="D204" s="23"/>
-      <c r="E204" s="47"/>
+      <c r="E204" s="43"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="50"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="23"/>
-      <c r="E205" s="47"/>
+      <c r="E205" s="43"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="50"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="26" t="s">
         <v>320</v>
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="23"/>
-      <c r="E206" s="47"/>
+      <c r="E206" s="43"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="50"/>
+      <c r="A207" s="44"/>
       <c r="B207" s="26" t="s">
         <v>321</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="23"/>
-      <c r="E207" s="47"/>
+      <c r="E207" s="43"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="50"/>
+      <c r="A208" s="44"/>
       <c r="B208" s="26" t="s">
         <v>322</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="23"/>
-      <c r="E208" s="47"/>
+      <c r="E208" s="43"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="50"/>
+      <c r="A209" s="44"/>
       <c r="B209" s="26" t="s">
         <v>323</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="23"/>
-      <c r="E209" s="47"/>
+      <c r="E209" s="43"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="50"/>
+      <c r="A210" s="44"/>
       <c r="B210" s="26" t="s">
         <v>324</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="47"/>
+      <c r="E210" s="43"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="50"/>
+      <c r="A211" s="44"/>
       <c r="B211" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="23"/>
-      <c r="E211" s="47"/>
+      <c r="E211" s="43"/>
     </row>
     <row r="212" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A212" s="50">
+      <c r="A212" s="44">
         <v>5</v>
       </c>
       <c r="B212" s="22" t="s">
@@ -8463,21 +8465,21 @@
       <c r="D212" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E212" s="47" t="s">
+      <c r="E212" s="43" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="50"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="47"/>
+      <c r="E213" s="43"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="50"/>
+      <c r="A214" s="44"/>
       <c r="B214" s="28" t="s">
         <v>329</v>
       </c>
@@ -8485,319 +8487,319 @@
         <v>154</v>
       </c>
       <c r="D214" s="23"/>
-      <c r="E214" s="47"/>
+      <c r="E214" s="43"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="50"/>
+      <c r="A215" s="44"/>
       <c r="B215" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="23"/>
-      <c r="E215" s="47"/>
+      <c r="E215" s="43"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="50"/>
+      <c r="A216" s="44"/>
       <c r="B216" s="28" t="s">
         <v>331</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="47"/>
+      <c r="E216" s="43"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="50"/>
+      <c r="A217" s="44"/>
       <c r="B217" s="28" t="s">
         <v>332</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="23"/>
-      <c r="E217" s="47"/>
+      <c r="E217" s="43"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="50"/>
+      <c r="A218" s="44"/>
       <c r="B218" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="23"/>
-      <c r="E218" s="47"/>
+      <c r="E218" s="43"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="50"/>
+      <c r="A219" s="44"/>
       <c r="B219" s="28" t="s">
         <v>334</v>
       </c>
       <c r="C219" s="21"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="47"/>
+      <c r="E219" s="43"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="50"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="28" t="s">
         <v>335</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="23"/>
-      <c r="E220" s="47"/>
+      <c r="E220" s="43"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="50"/>
+      <c r="A221" s="44"/>
       <c r="B221" s="28" t="s">
         <v>336</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="23"/>
-      <c r="E221" s="47"/>
+      <c r="E221" s="43"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="50"/>
+      <c r="A222" s="44"/>
       <c r="B222" s="28" t="s">
         <v>337</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="23"/>
-      <c r="E222" s="47"/>
+      <c r="E222" s="43"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="50"/>
+      <c r="A223" s="44"/>
       <c r="B223" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="23"/>
-      <c r="E223" s="47"/>
+      <c r="E223" s="43"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="50"/>
+      <c r="A224" s="44"/>
       <c r="B224" s="26" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="21"/>
       <c r="D224" s="23"/>
-      <c r="E224" s="47"/>
+      <c r="E224" s="43"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="50"/>
+      <c r="A225" s="44"/>
       <c r="B225" s="28" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="23"/>
-      <c r="E225" s="47"/>
+      <c r="E225" s="43"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="50"/>
+      <c r="A226" s="44"/>
       <c r="B226" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="23"/>
-      <c r="E226" s="47"/>
+      <c r="E226" s="43"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="50"/>
+      <c r="A227" s="44"/>
       <c r="B227" s="28" t="s">
         <v>341</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="23"/>
-      <c r="E227" s="47"/>
+      <c r="E227" s="43"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="50"/>
+      <c r="A228" s="44"/>
       <c r="B228" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C228" s="21"/>
       <c r="D228" s="23"/>
-      <c r="E228" s="47"/>
+      <c r="E228" s="43"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="50"/>
+      <c r="A229" s="44"/>
       <c r="B229" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="23"/>
-      <c r="E229" s="47"/>
+      <c r="E229" s="43"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="50"/>
+      <c r="A230" s="44"/>
       <c r="B230" s="28" t="s">
         <v>343</v>
       </c>
       <c r="C230" s="21"/>
       <c r="D230" s="23"/>
-      <c r="E230" s="47"/>
+      <c r="E230" s="43"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="50"/>
+      <c r="A231" s="44"/>
       <c r="B231" s="28" t="s">
         <v>344</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="23"/>
-      <c r="E231" s="47"/>
+      <c r="E231" s="43"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="50"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="28" t="s">
         <v>345</v>
       </c>
       <c r="C232" s="21"/>
       <c r="D232" s="23"/>
-      <c r="E232" s="47"/>
+      <c r="E232" s="43"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="50"/>
+      <c r="A233" s="44"/>
       <c r="B233" s="28" t="s">
         <v>346</v>
       </c>
       <c r="C233" s="21"/>
       <c r="D233" s="23"/>
-      <c r="E233" s="47"/>
+      <c r="E233" s="43"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="50"/>
+      <c r="A234" s="44"/>
       <c r="B234" s="28" t="s">
         <v>347</v>
       </c>
       <c r="C234" s="21"/>
       <c r="D234" s="23"/>
-      <c r="E234" s="47"/>
+      <c r="E234" s="43"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="50"/>
+      <c r="A235" s="44"/>
       <c r="B235" s="26" t="s">
         <v>348</v>
       </c>
       <c r="C235" s="21"/>
       <c r="D235" s="23"/>
-      <c r="E235" s="47"/>
+      <c r="E235" s="43"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="50"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="28" t="s">
         <v>349</v>
       </c>
       <c r="C236" s="21"/>
       <c r="D236" s="23"/>
-      <c r="E236" s="47"/>
+      <c r="E236" s="43"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="50"/>
+      <c r="A237" s="44"/>
       <c r="B237" s="28" t="s">
         <v>350</v>
       </c>
       <c r="C237" s="21"/>
       <c r="D237" s="23"/>
-      <c r="E237" s="47"/>
+      <c r="E237" s="43"/>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="50"/>
+      <c r="A238" s="44"/>
       <c r="B238" s="28" t="s">
         <v>351</v>
       </c>
       <c r="C238" s="21"/>
       <c r="D238" s="23"/>
-      <c r="E238" s="47"/>
+      <c r="E238" s="43"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="50">
+      <c r="A239" s="44">
         <v>6</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="C239" s="52" t="s">
+      <c r="C239" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="E239" s="47" t="s">
+      <c r="E239" s="43" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="50"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C240" s="52"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="23"/>
-      <c r="E240" s="47"/>
+      <c r="E240" s="43"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="50"/>
+      <c r="A241" s="44"/>
       <c r="B241" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C241" s="52"/>
+      <c r="C241" s="45"/>
       <c r="D241" s="23"/>
-      <c r="E241" s="47"/>
+      <c r="E241" s="43"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="50"/>
+      <c r="A242" s="44"/>
       <c r="B242" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C242" s="52"/>
+      <c r="C242" s="45"/>
       <c r="D242" s="23"/>
-      <c r="E242" s="47"/>
+      <c r="E242" s="43"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="50"/>
+      <c r="A243" s="44"/>
       <c r="B243" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="52"/>
+      <c r="C243" s="45"/>
       <c r="D243" s="23"/>
-      <c r="E243" s="47"/>
+      <c r="E243" s="43"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="50"/>
+      <c r="A244" s="44"/>
       <c r="B244" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C244" s="52"/>
+      <c r="C244" s="45"/>
       <c r="D244" s="23"/>
-      <c r="E244" s="47"/>
+      <c r="E244" s="43"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="50"/>
+      <c r="A245" s="44"/>
       <c r="B245" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C245" s="52"/>
+      <c r="C245" s="45"/>
       <c r="D245" s="23"/>
-      <c r="E245" s="47"/>
+      <c r="E245" s="43"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="50"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="52"/>
+      <c r="C246" s="45"/>
       <c r="D246" s="23"/>
-      <c r="E246" s="47"/>
+      <c r="E246" s="43"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="50"/>
+      <c r="A247" s="44"/>
       <c r="B247" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C247" s="52"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="23"/>
-      <c r="E247" s="47"/>
+      <c r="E247" s="43"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="50"/>
+      <c r="A248" s="44"/>
       <c r="B248" s="22"/>
-      <c r="C248" s="52"/>
+      <c r="C248" s="45"/>
       <c r="D248" s="23"/>
-      <c r="E248" s="47"/>
+      <c r="E248" s="43"/>
     </row>
     <row r="249" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
@@ -8844,7 +8846,7 @@
       <c r="D251" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E251" s="45" t="s">
+      <c r="E251" s="39" t="s">
         <v>911</v>
       </c>
     </row>
@@ -8861,7 +8863,7 @@
       <c r="D252" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E252" s="45" t="s">
+      <c r="E252" s="39" t="s">
         <v>911</v>
       </c>
     </row>
@@ -8878,7 +8880,7 @@
       <c r="D253" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="E253" s="45" t="s">
+      <c r="E253" s="39" t="s">
         <v>912</v>
       </c>
     </row>
@@ -8895,7 +8897,7 @@
       <c r="D254" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="E254" s="45" t="s">
+      <c r="E254" s="39" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8929,7 +8931,7 @@
       <c r="D256" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E256" s="45" t="s">
+      <c r="E256" s="39" t="s">
         <v>915</v>
       </c>
     </row>
@@ -8950,157 +8952,157 @@
         <v>916</v>
       </c>
     </row>
-    <row r="258" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="44"/>
-      <c r="B258" s="44" t="s">
+    <row r="258" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="41"/>
+      <c r="B258" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C258" s="44"/>
-      <c r="D258" s="40"/>
-      <c r="E258" s="41"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="55"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="50">
+      <c r="A259" s="44">
         <v>1</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C259" s="52" t="s">
+      <c r="C259" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="E259" s="47" t="s">
+      <c r="E259" s="43" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="39" x14ac:dyDescent="0.3">
-      <c r="A260" s="50"/>
+      <c r="A260" s="44"/>
       <c r="B260" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C260" s="52"/>
+      <c r="C260" s="45"/>
       <c r="D260" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="E260" s="47"/>
+      <c r="E260" s="43"/>
     </row>
     <row r="261" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A261" s="50"/>
+      <c r="A261" s="44"/>
       <c r="B261" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C261" s="52"/>
+      <c r="C261" s="45"/>
       <c r="D261" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E261" s="47"/>
+      <c r="E261" s="43"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="50">
+      <c r="A262" s="44">
         <v>2</v>
       </c>
-      <c r="B262" s="52" t="s">
+      <c r="B262" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C262" s="52" t="s">
+      <c r="C262" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D262" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="E262" s="47" t="s">
+      <c r="E262" s="43" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="50"/>
-      <c r="B263" s="52"/>
-      <c r="C263" s="52"/>
+      <c r="A263" s="44"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="45"/>
       <c r="D263" s="23"/>
-      <c r="E263" s="47"/>
+      <c r="E263" s="43"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="50">
+      <c r="A264" s="44">
         <v>3</v>
       </c>
       <c r="B264" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="C264" s="52" t="s">
+      <c r="C264" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D264" s="23"/>
-      <c r="E264" s="47" t="s">
+      <c r="E264" s="43" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="39" x14ac:dyDescent="0.3">
-      <c r="A265" s="50"/>
+      <c r="A265" s="44"/>
       <c r="B265" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C265" s="52"/>
+      <c r="C265" s="45"/>
       <c r="D265" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="47"/>
+      <c r="E265" s="43"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="50">
+      <c r="A266" s="44">
         <v>4</v>
       </c>
       <c r="B266" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D266" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E266" s="47" t="s">
+      <c r="E266" s="43" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="50"/>
+      <c r="A267" s="44"/>
       <c r="B267" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C267" s="52"/>
+      <c r="C267" s="45"/>
       <c r="D267" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="E267" s="47"/>
+      <c r="E267" s="43"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="50">
+      <c r="A268" s="44">
         <v>5</v>
       </c>
       <c r="B268" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="C268" s="52" t="s">
+      <c r="C268" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D268" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E268" s="47" t="s">
+      <c r="E268" s="43" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="50"/>
+      <c r="A269" s="44"/>
       <c r="B269" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C269" s="52"/>
+      <c r="C269" s="45"/>
       <c r="D269" s="23"/>
-      <c r="E269" s="47"/>
+      <c r="E269" s="43"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
@@ -9137,75 +9139,75 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="50">
+      <c r="A272" s="44">
         <v>1</v>
       </c>
       <c r="B272" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C272" s="52" t="s">
+      <c r="C272" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D272" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E272" s="47" t="s">
+      <c r="E272" s="43" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="50"/>
+      <c r="A273" s="44"/>
       <c r="B273" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="52"/>
+      <c r="C273" s="45"/>
       <c r="D273" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="E273" s="47"/>
+      <c r="E273" s="43"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="50"/>
+      <c r="A274" s="44"/>
       <c r="B274" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C274" s="52"/>
+      <c r="C274" s="45"/>
       <c r="D274" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="E274" s="47"/>
+      <c r="E274" s="43"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="50">
+      <c r="A275" s="44">
         <v>2</v>
       </c>
-      <c r="B275" s="53" t="s">
+      <c r="B275" s="49" t="s">
         <v>407</v>
       </c>
       <c r="C275" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D275" s="23"/>
-      <c r="E275" s="47" t="s">
+      <c r="E275" s="43" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A276" s="50"/>
-      <c r="B276" s="53"/>
+      <c r="A276" s="44"/>
+      <c r="B276" s="49"/>
       <c r="C276" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D276" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="E276" s="47"/>
+      <c r="E276" s="43"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="50">
+      <c r="A277" s="44">
         <v>3</v>
       </c>
-      <c r="B277" s="51" t="s">
+      <c r="B277" s="50" t="s">
         <v>409</v>
       </c>
       <c r="C277" s="22" t="s">
@@ -9214,226 +9216,226 @@
       <c r="D277" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="E277" s="47" t="s">
+      <c r="E277" s="43" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="50"/>
-      <c r="B278" s="51"/>
+      <c r="A278" s="44"/>
+      <c r="B278" s="50"/>
       <c r="C278" s="22" t="s">
         <v>411</v>
       </c>
       <c r="D278" s="23"/>
-      <c r="E278" s="47"/>
+      <c r="E278" s="43"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="50">
+      <c r="A279" s="44">
         <v>4</v>
       </c>
       <c r="B279" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C279" s="52" t="s">
+      <c r="C279" s="45" t="s">
         <v>413</v>
       </c>
       <c r="D279" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E279" s="47" t="s">
+      <c r="E279" s="43" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="50"/>
+      <c r="A280" s="44"/>
       <c r="B280" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C280" s="52"/>
+      <c r="C280" s="45"/>
       <c r="D280" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="E280" s="47"/>
+      <c r="E280" s="43"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="50">
+      <c r="A281" s="44">
         <v>5</v>
       </c>
-      <c r="B281" s="53" t="s">
+      <c r="B281" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="C281" s="52" t="s">
+      <c r="C281" s="45" t="s">
         <v>418</v>
       </c>
       <c r="D281" s="23"/>
-      <c r="E281" s="47" t="s">
+      <c r="E281" s="43" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="50"/>
-      <c r="B282" s="53"/>
-      <c r="C282" s="52"/>
+      <c r="A282" s="44"/>
+      <c r="B282" s="49"/>
+      <c r="C282" s="45"/>
       <c r="D282" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E282" s="47"/>
+      <c r="E282" s="43"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="50">
+      <c r="A283" s="44">
         <v>6</v>
       </c>
-      <c r="B283" s="53" t="s">
+      <c r="B283" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="C283" s="52" t="s">
+      <c r="C283" s="45" t="s">
         <v>413</v>
       </c>
       <c r="D283" s="23"/>
-      <c r="E283" s="47" t="s">
+      <c r="E283" s="43" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="50"/>
-      <c r="B284" s="53"/>
-      <c r="C284" s="52"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="49"/>
+      <c r="C284" s="45"/>
       <c r="D284" s="23"/>
-      <c r="E284" s="47"/>
+      <c r="E284" s="43"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="50">
+      <c r="A285" s="44">
         <v>7</v>
       </c>
-      <c r="B285" s="51" t="s">
+      <c r="B285" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="C285" s="52" t="s">
+      <c r="C285" s="45" t="s">
         <v>156</v>
       </c>
       <c r="D285" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E285" s="47" t="s">
+      <c r="E285" s="43" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="50"/>
-      <c r="B286" s="51"/>
-      <c r="C286" s="52"/>
+      <c r="A286" s="44"/>
+      <c r="B286" s="50"/>
+      <c r="C286" s="45"/>
       <c r="D286" s="23"/>
-      <c r="E286" s="47"/>
+      <c r="E286" s="43"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="50">
+      <c r="A287" s="44">
         <v>8</v>
       </c>
       <c r="B287" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="C287" s="52" t="s">
+      <c r="C287" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D287" s="23"/>
-      <c r="E287" s="47" t="s">
+      <c r="E287" s="43" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="50"/>
+      <c r="A288" s="44"/>
       <c r="B288" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C288" s="52"/>
+      <c r="C288" s="45"/>
       <c r="D288" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="E288" s="47"/>
+      <c r="E288" s="43"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="50"/>
+      <c r="A289" s="44"/>
       <c r="B289" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C289" s="52"/>
+      <c r="C289" s="45"/>
       <c r="D289" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="E289" s="47"/>
+      <c r="E289" s="43"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="50"/>
+      <c r="A290" s="44"/>
       <c r="B290" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="C290" s="52"/>
+      <c r="C290" s="45"/>
       <c r="D290" s="30"/>
-      <c r="E290" s="47"/>
+      <c r="E290" s="43"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="50"/>
+      <c r="A291" s="44"/>
       <c r="B291" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C291" s="52"/>
+      <c r="C291" s="45"/>
       <c r="D291" s="30"/>
-      <c r="E291" s="47"/>
+      <c r="E291" s="43"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="50"/>
+      <c r="A292" s="44"/>
       <c r="B292" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C292" s="52"/>
+      <c r="C292" s="45"/>
       <c r="D292" s="23"/>
-      <c r="E292" s="47"/>
+      <c r="E292" s="43"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="50"/>
+      <c r="A293" s="44"/>
       <c r="B293" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C293" s="52"/>
+      <c r="C293" s="45"/>
       <c r="D293" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="E293" s="47"/>
+      <c r="E293" s="43"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="50"/>
+      <c r="A294" s="44"/>
       <c r="B294" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C294" s="52"/>
+      <c r="C294" s="45"/>
       <c r="D294" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="E294" s="47"/>
+      <c r="E294" s="43"/>
     </row>
     <row r="295" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="50">
+      <c r="A295" s="44">
         <v>9</v>
       </c>
-      <c r="B295" s="51" t="s">
+      <c r="B295" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="C295" s="52" t="s">
+      <c r="C295" s="45" t="s">
         <v>132</v>
       </c>
       <c r="D295" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="E295" s="47" t="s">
+      <c r="E295" s="43" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="50"/>
-      <c r="B296" s="51"/>
-      <c r="C296" s="52"/>
+      <c r="A296" s="44"/>
+      <c r="B296" s="50"/>
+      <c r="C296" s="45"/>
       <c r="D296" s="23"/>
-      <c r="E296" s="47"/>
+      <c r="E296" s="43"/>
     </row>
     <row r="297" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
@@ -9504,63 +9506,63 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="50">
+      <c r="A301" s="44">
         <v>2</v>
       </c>
       <c r="B301" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C301" s="52" t="s">
+      <c r="C301" s="45" t="s">
         <v>286</v>
       </c>
       <c r="D301" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="E301" s="47" t="s">
+      <c r="E301" s="43" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="50"/>
+      <c r="A302" s="44"/>
       <c r="B302" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C302" s="52"/>
+      <c r="C302" s="45"/>
       <c r="D302" s="23"/>
-      <c r="E302" s="47"/>
+      <c r="E302" s="43"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="50"/>
+      <c r="A303" s="44"/>
       <c r="B303" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C303" s="52"/>
+      <c r="C303" s="45"/>
       <c r="D303" s="23"/>
-      <c r="E303" s="47"/>
+      <c r="E303" s="43"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="50">
+      <c r="A304" s="44">
         <v>3</v>
       </c>
-      <c r="B304" s="51" t="s">
+      <c r="B304" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C304" s="52" t="s">
+      <c r="C304" s="45" t="s">
         <v>449</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="E304" s="47" t="s">
+      <c r="E304" s="43" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="50"/>
-      <c r="B305" s="51"/>
-      <c r="C305" s="52"/>
+      <c r="A305" s="44"/>
+      <c r="B305" s="50"/>
+      <c r="C305" s="45"/>
       <c r="D305" s="30"/>
-      <c r="E305" s="47"/>
+      <c r="E305" s="43"/>
     </row>
     <row r="306" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
@@ -9660,7 +9662,7 @@
       <c r="D311" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="E311" s="46" t="s">
+      <c r="E311" s="40" t="s">
         <v>939</v>
       </c>
     </row>
@@ -9681,98 +9683,98 @@
         <v>940</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="44"/>
-      <c r="B313" s="44" t="s">
+    <row r="313" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="41"/>
+      <c r="B313" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="C313" s="44"/>
-      <c r="D313" s="40"/>
-      <c r="E313" s="41"/>
+      <c r="C313" s="41"/>
+      <c r="D313" s="17"/>
+      <c r="E313" s="55"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="50">
+      <c r="A314" s="44">
         <v>1</v>
       </c>
-      <c r="B314" s="51" t="s">
+      <c r="B314" s="50" t="s">
         <v>465</v>
       </c>
-      <c r="C314" s="51" t="s">
+      <c r="C314" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D314" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="E314" s="47" t="s">
+      <c r="E314" s="43" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="50"/>
-      <c r="B315" s="51"/>
-      <c r="C315" s="51"/>
+      <c r="A315" s="44"/>
+      <c r="B315" s="50"/>
+      <c r="C315" s="50"/>
       <c r="D315" s="23"/>
-      <c r="E315" s="47"/>
+      <c r="E315" s="43"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="57">
+      <c r="A316" s="51">
         <v>1</v>
       </c>
       <c r="B316" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="C316" s="52" t="s">
+      <c r="C316" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D316" s="23"/>
-      <c r="E316" s="47" t="s">
+      <c r="E316" s="43" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="57"/>
+      <c r="A317" s="51"/>
       <c r="B317" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C317" s="52"/>
+      <c r="C317" s="45"/>
       <c r="D317" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="E317" s="47"/>
+      <c r="E317" s="43"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="57"/>
+      <c r="A318" s="51"/>
       <c r="B318" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="C318" s="52"/>
+      <c r="C318" s="45"/>
       <c r="D318" s="23"/>
-      <c r="E318" s="47"/>
+      <c r="E318" s="43"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="57"/>
+      <c r="A319" s="51"/>
       <c r="B319" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C319" s="52" t="s">
+      <c r="C319" s="45" t="s">
         <v>149</v>
       </c>
       <c r="D319" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E319" s="47"/>
+      <c r="E319" s="43"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="57"/>
+      <c r="A320" s="51"/>
       <c r="B320" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C320" s="52"/>
+      <c r="C320" s="45"/>
       <c r="D320" s="23"/>
-      <c r="E320" s="47"/>
+      <c r="E320" s="43"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="57"/>
+      <c r="A321" s="51"/>
       <c r="B321" s="25" t="s">
         <v>309</v>
       </c>
@@ -9782,10 +9784,10 @@
       <c r="D321" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="E321" s="47"/>
+      <c r="E321" s="43"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="57"/>
+      <c r="A322" s="51"/>
       <c r="B322" s="25" t="s">
         <v>475</v>
       </c>
@@ -9793,171 +9795,171 @@
         <v>61</v>
       </c>
       <c r="D322" s="23"/>
-      <c r="E322" s="47"/>
+      <c r="E322" s="43"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="50">
+      <c r="A323" s="44">
         <v>2</v>
       </c>
       <c r="B323" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C323" s="52" t="s">
+      <c r="C323" s="45" t="s">
         <v>413</v>
       </c>
       <c r="D323" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="E323" s="47" t="s">
+      <c r="E323" s="43" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="50"/>
+      <c r="A324" s="44"/>
       <c r="B324" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C324" s="52"/>
+      <c r="C324" s="45"/>
       <c r="D324" s="23"/>
-      <c r="E324" s="47"/>
+      <c r="E324" s="43"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="50"/>
+      <c r="A325" s="44"/>
       <c r="B325" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C325" s="52"/>
+      <c r="C325" s="45"/>
       <c r="D325" s="23"/>
-      <c r="E325" s="47"/>
+      <c r="E325" s="43"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="50"/>
+      <c r="A326" s="44"/>
       <c r="B326" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C326" s="52"/>
+      <c r="C326" s="45"/>
       <c r="D326" s="23"/>
-      <c r="E326" s="47"/>
+      <c r="E326" s="43"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="50"/>
+      <c r="A327" s="44"/>
       <c r="B327" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C327" s="52"/>
+      <c r="C327" s="45"/>
       <c r="D327" s="23"/>
-      <c r="E327" s="47"/>
+      <c r="E327" s="43"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="50">
+      <c r="A328" s="44">
         <v>3</v>
       </c>
       <c r="B328" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="52" t="s">
+      <c r="C328" s="45" t="s">
         <v>481</v>
       </c>
       <c r="D328" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E328" s="47"/>
+      <c r="E328" s="43"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="50"/>
+      <c r="A329" s="44"/>
       <c r="B329" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C329" s="52"/>
+      <c r="C329" s="45"/>
       <c r="D329" s="23"/>
-      <c r="E329" s="47"/>
+      <c r="E329" s="43"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="50"/>
+      <c r="A330" s="44"/>
       <c r="B330" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C330" s="52"/>
+      <c r="C330" s="45"/>
       <c r="D330" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="E330" s="47"/>
+      <c r="E330" s="43"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="50"/>
+      <c r="A331" s="44"/>
       <c r="B331" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C331" s="52"/>
+      <c r="C331" s="45"/>
       <c r="D331" s="23"/>
-      <c r="E331" s="47"/>
+      <c r="E331" s="43"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="50"/>
+      <c r="A332" s="44"/>
       <c r="B332" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C332" s="52"/>
+      <c r="C332" s="45"/>
       <c r="D332" s="23"/>
-      <c r="E332" s="47"/>
+      <c r="E332" s="43"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="50"/>
+      <c r="A333" s="44"/>
       <c r="B333" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C333" s="52"/>
+      <c r="C333" s="45"/>
       <c r="D333" s="23"/>
-      <c r="E333" s="47"/>
+      <c r="E333" s="43"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="50"/>
+      <c r="A334" s="44"/>
       <c r="B334" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C334" s="52"/>
+      <c r="C334" s="45"/>
       <c r="D334" s="23"/>
-      <c r="E334" s="47"/>
+      <c r="E334" s="43"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="50"/>
+      <c r="A335" s="44"/>
       <c r="B335" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="C335" s="52"/>
+      <c r="C335" s="45"/>
       <c r="D335" s="23"/>
-      <c r="E335" s="47"/>
+      <c r="E335" s="43"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="50"/>
+      <c r="A336" s="44"/>
       <c r="B336" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C336" s="52"/>
+      <c r="C336" s="45"/>
       <c r="D336" s="23"/>
-      <c r="E336" s="47"/>
+      <c r="E336" s="43"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="50">
+      <c r="A337" s="44">
         <v>7</v>
       </c>
-      <c r="B337" s="51" t="s">
+      <c r="B337" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="C337" s="52" t="s">
+      <c r="C337" s="45" t="s">
         <v>156</v>
       </c>
       <c r="D337" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="E337" s="47"/>
+      <c r="E337" s="43"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="50"/>
-      <c r="B338" s="51"/>
-      <c r="C338" s="52"/>
+      <c r="A338" s="44"/>
+      <c r="B338" s="50"/>
+      <c r="C338" s="45"/>
       <c r="D338" s="23"/>
-      <c r="E338" s="47"/>
+      <c r="E338" s="43"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
@@ -9974,86 +9976,86 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="50">
+      <c r="A340" s="44">
         <v>10</v>
       </c>
       <c r="B340" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="C340" s="52" t="s">
+      <c r="C340" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D340" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="E340" s="47"/>
+      <c r="E340" s="43"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="50"/>
+      <c r="A341" s="44"/>
       <c r="B341" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C341" s="52"/>
+      <c r="C341" s="45"/>
       <c r="D341" s="23"/>
-      <c r="E341" s="47"/>
+      <c r="E341" s="43"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="50"/>
+      <c r="A342" s="44"/>
       <c r="B342" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C342" s="52"/>
+      <c r="C342" s="45"/>
       <c r="D342" s="23"/>
-      <c r="E342" s="47"/>
+      <c r="E342" s="43"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="50"/>
+      <c r="A343" s="44"/>
       <c r="B343" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C343" s="52"/>
+      <c r="C343" s="45"/>
       <c r="D343" s="23"/>
-      <c r="E343" s="47"/>
+      <c r="E343" s="43"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="50"/>
+      <c r="A344" s="44"/>
       <c r="B344" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C344" s="52"/>
+      <c r="C344" s="45"/>
       <c r="D344" s="23"/>
-      <c r="E344" s="47"/>
+      <c r="E344" s="43"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="50"/>
+      <c r="A345" s="44"/>
       <c r="B345" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="C345" s="52"/>
+      <c r="C345" s="45"/>
       <c r="D345" s="23"/>
-      <c r="E345" s="47"/>
+      <c r="E345" s="43"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="50">
+      <c r="A346" s="44">
         <v>11</v>
       </c>
-      <c r="B346" s="51" t="s">
+      <c r="B346" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="C346" s="52" t="s">
+      <c r="C346" s="45" t="s">
         <v>481</v>
       </c>
       <c r="D346" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="E346" s="47"/>
+      <c r="E346" s="43"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="50"/>
-      <c r="B347" s="51"/>
-      <c r="C347" s="52"/>
+      <c r="A347" s="44"/>
+      <c r="B347" s="50"/>
+      <c r="C347" s="45"/>
       <c r="D347" s="23"/>
-      <c r="E347" s="47"/>
+      <c r="E347" s="43"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
@@ -10098,48 +10100,48 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="50">
+      <c r="A351" s="44">
         <v>3</v>
       </c>
-      <c r="B351" s="51" t="s">
+      <c r="B351" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="C351" s="52" t="s">
+      <c r="C351" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D351" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="E351" s="47"/>
+      <c r="E351" s="43"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="50"/>
-      <c r="B352" s="51"/>
-      <c r="C352" s="52"/>
+      <c r="A352" s="44"/>
+      <c r="B352" s="50"/>
+      <c r="C352" s="45"/>
       <c r="D352" s="23"/>
-      <c r="E352" s="47"/>
+      <c r="E352" s="43"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="50">
+      <c r="A353" s="44">
         <v>4</v>
       </c>
-      <c r="B353" s="53" t="s">
+      <c r="B353" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="C353" s="52" t="s">
+      <c r="C353" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D353" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="E353" s="47"/>
+      <c r="E353" s="43"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="50"/>
-      <c r="B354" s="53"/>
-      <c r="C354" s="52"/>
+      <c r="A354" s="44"/>
+      <c r="B354" s="49"/>
+      <c r="C354" s="45"/>
       <c r="D354" s="23"/>
-      <c r="E354" s="47"/>
+      <c r="E354" s="43"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
@@ -10183,40 +10185,40 @@
         <v>520</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="44"/>
-      <c r="B358" s="44" t="s">
+    <row r="358" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="41"/>
+      <c r="B358" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="C358" s="44"/>
-      <c r="D358" s="40"/>
-      <c r="E358" s="41"/>
+      <c r="C358" s="41"/>
+      <c r="D358" s="17"/>
+      <c r="E358" s="55"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="50">
+      <c r="A359" s="44">
         <v>1</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C359" s="52" t="s">
+      <c r="C359" s="45" t="s">
         <v>523</v>
       </c>
       <c r="D359" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="E359" s="47"/>
+      <c r="E359" s="43"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="50"/>
+      <c r="A360" s="44"/>
       <c r="B360" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C360" s="52"/>
+      <c r="C360" s="45"/>
       <c r="D360" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="E360" s="47"/>
+      <c r="E360" s="43"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
@@ -10247,35 +10249,35 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="50">
+      <c r="A363" s="44">
         <v>3</v>
       </c>
-      <c r="B363" s="52" t="s">
+      <c r="B363" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="C363" s="52" t="s">
+      <c r="C363" s="45" t="s">
         <v>201</v>
       </c>
       <c r="D363" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="E363" s="47"/>
+      <c r="E363" s="43"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="50"/>
-      <c r="B364" s="52"/>
-      <c r="C364" s="52"/>
+      <c r="A364" s="44"/>
+      <c r="B364" s="45"/>
+      <c r="C364" s="45"/>
       <c r="D364" s="17"/>
-      <c r="E364" s="47"/>
-    </row>
-    <row r="365" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="44"/>
-      <c r="B365" s="44" t="s">
+      <c r="E364" s="43"/>
+    </row>
+    <row r="365" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="41"/>
+      <c r="B365" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="C365" s="44"/>
-      <c r="D365" s="40"/>
-      <c r="E365" s="41"/>
+      <c r="C365" s="41"/>
+      <c r="D365" s="17"/>
+      <c r="E365" s="55"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
@@ -10306,169 +10308,169 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="50">
+      <c r="A368" s="44">
         <v>4</v>
       </c>
       <c r="B368" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C368" s="52" t="s">
+      <c r="C368" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D368" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="E368" s="47"/>
+      <c r="E368" s="43"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="50"/>
+      <c r="A369" s="44"/>
       <c r="B369" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C369" s="52"/>
+      <c r="C369" s="45"/>
       <c r="D369" s="23"/>
-      <c r="E369" s="47"/>
+      <c r="E369" s="43"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="50"/>
+      <c r="A370" s="44"/>
       <c r="B370" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C370" s="52"/>
+      <c r="C370" s="45"/>
       <c r="D370" s="23"/>
-      <c r="E370" s="47"/>
+      <c r="E370" s="43"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="50"/>
+      <c r="A371" s="44"/>
       <c r="B371" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="C371" s="52"/>
+      <c r="C371" s="45"/>
       <c r="D371" s="23"/>
-      <c r="E371" s="47"/>
+      <c r="E371" s="43"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="50">
+      <c r="A372" s="44">
         <v>5</v>
       </c>
       <c r="B372" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="C372" s="52" t="s">
+      <c r="C372" s="45" t="s">
         <v>125</v>
       </c>
       <c r="D372" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="E372" s="47"/>
+      <c r="E372" s="43"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="50"/>
+      <c r="A373" s="44"/>
       <c r="B373" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="C373" s="52"/>
+      <c r="C373" s="45"/>
       <c r="D373" s="23"/>
-      <c r="E373" s="47"/>
+      <c r="E373" s="43"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="50"/>
+      <c r="A374" s="44"/>
       <c r="B374" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="C374" s="52"/>
+      <c r="C374" s="45"/>
       <c r="D374" s="23"/>
-      <c r="E374" s="47"/>
+      <c r="E374" s="43"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="50">
+      <c r="A375" s="44">
         <v>6</v>
       </c>
-      <c r="B375" s="51" t="s">
+      <c r="B375" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="C375" s="52" t="s">
+      <c r="C375" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D375" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="E375" s="47"/>
+      <c r="E375" s="43"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="50"/>
-      <c r="B376" s="51"/>
-      <c r="C376" s="52"/>
+      <c r="A376" s="44"/>
+      <c r="B376" s="50"/>
+      <c r="C376" s="45"/>
       <c r="D376" s="23"/>
-      <c r="E376" s="47"/>
+      <c r="E376" s="43"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" s="50">
+      <c r="A377" s="44">
         <v>7</v>
       </c>
-      <c r="B377" s="51" t="s">
+      <c r="B377" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="C377" s="52" t="s">
+      <c r="C377" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D377" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="E377" s="47"/>
+      <c r="E377" s="43"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="50"/>
-      <c r="B378" s="51"/>
-      <c r="C378" s="52"/>
+      <c r="A378" s="44"/>
+      <c r="B378" s="50"/>
+      <c r="C378" s="45"/>
       <c r="D378" s="23"/>
-      <c r="E378" s="47"/>
+      <c r="E378" s="43"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="50">
+      <c r="A379" s="44">
         <v>8</v>
       </c>
       <c r="B379" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C379" s="52" t="s">
+      <c r="C379" s="45" t="s">
         <v>552</v>
       </c>
       <c r="D379" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="E379" s="47"/>
+      <c r="E379" s="43"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="50"/>
+      <c r="A380" s="44"/>
       <c r="B380" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C380" s="52"/>
+      <c r="C380" s="45"/>
       <c r="D380" s="23"/>
-      <c r="E380" s="47"/>
+      <c r="E380" s="43"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="50">
+      <c r="A381" s="44">
         <v>1</v>
       </c>
-      <c r="B381" s="51" t="s">
+      <c r="B381" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="C381" s="52" t="s">
+      <c r="C381" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D381" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="E381" s="47"/>
+      <c r="E381" s="43"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="50"/>
-      <c r="B382" s="51"/>
-      <c r="C382" s="52"/>
+      <c r="A382" s="44"/>
+      <c r="B382" s="50"/>
+      <c r="C382" s="45"/>
       <c r="D382" s="23"/>
-      <c r="E382" s="47"/>
+      <c r="E382" s="43"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
@@ -10565,48 +10567,48 @@
       <c r="D389" s="23"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="50">
+      <c r="A390" s="44">
         <v>1</v>
       </c>
-      <c r="B390" s="51" t="s">
+      <c r="B390" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="C390" s="52" t="s">
+      <c r="C390" s="45" t="s">
         <v>182</v>
       </c>
       <c r="D390" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="E390" s="47"/>
+      <c r="E390" s="43"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="50"/>
-      <c r="B391" s="51"/>
-      <c r="C391" s="52"/>
+      <c r="A391" s="44"/>
+      <c r="B391" s="50"/>
+      <c r="C391" s="45"/>
       <c r="D391" s="23"/>
-      <c r="E391" s="47"/>
+      <c r="E391" s="43"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="50">
+      <c r="A392" s="44">
         <v>2</v>
       </c>
-      <c r="B392" s="51" t="s">
+      <c r="B392" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="C392" s="52" t="s">
+      <c r="C392" s="45" t="s">
         <v>286</v>
       </c>
       <c r="D392" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="E392" s="47"/>
+      <c r="E392" s="43"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="50"/>
-      <c r="B393" s="51"/>
-      <c r="C393" s="52"/>
+      <c r="A393" s="44"/>
+      <c r="B393" s="50"/>
+      <c r="C393" s="45"/>
       <c r="D393" s="23"/>
-      <c r="E393" s="47"/>
+      <c r="E393" s="43"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
@@ -10623,146 +10625,146 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" s="50">
+      <c r="A395" s="44">
         <v>4</v>
       </c>
-      <c r="B395" s="51" t="s">
+      <c r="B395" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="C395" s="52" t="s">
+      <c r="C395" s="45" t="s">
         <v>575</v>
       </c>
       <c r="D395" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="E395" s="47"/>
+      <c r="E395" s="43"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="50"/>
-      <c r="B396" s="51"/>
-      <c r="C396" s="52"/>
+      <c r="A396" s="44"/>
+      <c r="B396" s="50"/>
+      <c r="C396" s="45"/>
       <c r="D396" s="23"/>
-      <c r="E396" s="47"/>
+      <c r="E396" s="43"/>
     </row>
     <row r="397" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="50">
+      <c r="A397" s="44">
         <v>5</v>
       </c>
-      <c r="B397" s="51" t="s">
+      <c r="B397" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="C397" s="52" t="s">
+      <c r="C397" s="45" t="s">
         <v>204</v>
       </c>
       <c r="D397" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="E397" s="48"/>
+      <c r="E397" s="53"/>
     </row>
     <row r="398" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="50"/>
-      <c r="B398" s="51"/>
-      <c r="C398" s="52"/>
+      <c r="A398" s="44"/>
+      <c r="B398" s="50"/>
+      <c r="C398" s="45"/>
       <c r="D398" s="23"/>
-      <c r="E398" s="48"/>
-    </row>
-    <row r="399" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="44"/>
-      <c r="B399" s="44" t="s">
+      <c r="E398" s="53"/>
+    </row>
+    <row r="399" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="41"/>
+      <c r="B399" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="C399" s="44"/>
-      <c r="D399" s="40"/>
-      <c r="E399" s="41"/>
+      <c r="C399" s="41"/>
+      <c r="D399" s="17"/>
+      <c r="E399" s="55"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="50">
+      <c r="A400" s="44">
         <v>1</v>
       </c>
       <c r="B400" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="C400" s="51" t="s">
+      <c r="C400" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D400" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="E400" s="47"/>
+      <c r="E400" s="43"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" s="50"/>
+      <c r="A401" s="44"/>
       <c r="B401" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="C401" s="51"/>
+      <c r="C401" s="50"/>
       <c r="D401" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="E401" s="47"/>
+      <c r="E401" s="43"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" s="50"/>
+      <c r="A402" s="44"/>
       <c r="B402" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="C402" s="51"/>
+      <c r="C402" s="50"/>
       <c r="D402" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="E402" s="47"/>
+      <c r="E402" s="43"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" s="50">
+      <c r="A403" s="44">
         <v>1</v>
       </c>
       <c r="B403" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C403" s="51" t="s">
+      <c r="C403" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D403" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="E403" s="47"/>
+      <c r="E403" s="43"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="50"/>
+      <c r="A404" s="44"/>
       <c r="B404" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="C404" s="51"/>
+      <c r="C404" s="50"/>
       <c r="D404" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="E404" s="47"/>
+      <c r="E404" s="43"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="50">
+      <c r="A405" s="44">
         <v>1</v>
       </c>
       <c r="B405" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="C405" s="51" t="s">
+      <c r="C405" s="50" t="s">
         <v>132</v>
       </c>
       <c r="D405" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="E405" s="47"/>
+      <c r="E405" s="43"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="50"/>
+      <c r="A406" s="44"/>
       <c r="B406" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="C406" s="51"/>
+      <c r="C406" s="50"/>
       <c r="D406" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="E406" s="47"/>
+      <c r="E406" s="43"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="15"/>
@@ -10772,6 +10774,323 @@
   </sheetData>
   <autoFilter ref="A1:D257" xr:uid="{2AE309E6-DACA-44FA-AC9F-9204EF352B32}"/>
   <mergeCells count="341">
+    <mergeCell ref="E395:E396"/>
+    <mergeCell ref="E397:E398"/>
+    <mergeCell ref="E400:E402"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="E405:E406"/>
+    <mergeCell ref="E363:E364"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="E375:E376"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="E379:E380"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="E392:E393"/>
+    <mergeCell ref="E323:E327"/>
+    <mergeCell ref="E328:E336"/>
+    <mergeCell ref="E337:E338"/>
+    <mergeCell ref="E340:E345"/>
+    <mergeCell ref="E346:E347"/>
+    <mergeCell ref="E351:E352"/>
+    <mergeCell ref="E353:E354"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="E316:E322"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="E287:E294"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="E202:E211"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E197:E201"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A400:A402"/>
+    <mergeCell ref="C400:C402"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="A405:A406"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="A379:A380"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="A368:A371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="A372:A374"/>
+    <mergeCell ref="C372:C374"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="A328:A336"/>
+    <mergeCell ref="C328:C336"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="A340:A345"/>
+    <mergeCell ref="C340:C345"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="C323:C327"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="A287:A294"/>
+    <mergeCell ref="C287:C294"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A238"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="E239:E248"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="E47:E51"/>
@@ -10796,323 +11115,6 @@
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E90:E91"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A238"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="A287:A294"/>
-    <mergeCell ref="C287:C294"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="C323:C327"/>
-    <mergeCell ref="A301:A303"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="A328:A336"/>
-    <mergeCell ref="C328:C336"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="A340:A345"/>
-    <mergeCell ref="C340:C345"/>
-    <mergeCell ref="A368:A371"/>
-    <mergeCell ref="C368:C371"/>
-    <mergeCell ref="A372:A374"/>
-    <mergeCell ref="C372:C374"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="B375:B376"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="B363:B364"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="A400:A402"/>
-    <mergeCell ref="C400:C402"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="A405:A406"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="A397:A398"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="E197:E201"/>
-    <mergeCell ref="E202:E211"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="E287:E294"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="E304:E305"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="E323:E327"/>
-    <mergeCell ref="E328:E336"/>
-    <mergeCell ref="E337:E338"/>
-    <mergeCell ref="E340:E345"/>
-    <mergeCell ref="E346:E347"/>
-    <mergeCell ref="E351:E352"/>
-    <mergeCell ref="E353:E354"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="E316:E322"/>
-    <mergeCell ref="E395:E396"/>
-    <mergeCell ref="E397:E398"/>
-    <mergeCell ref="E400:E402"/>
-    <mergeCell ref="E403:E404"/>
-    <mergeCell ref="E405:E406"/>
-    <mergeCell ref="E363:E364"/>
-    <mergeCell ref="E368:E371"/>
-    <mergeCell ref="E372:E374"/>
-    <mergeCell ref="E375:E376"/>
-    <mergeCell ref="E377:E378"/>
-    <mergeCell ref="E379:E380"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="E392:E393"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14697,12 +14699,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14876,15 +14875,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14908,10 +14911,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF5D0AF-A89E-4828-885D-F5A580C813B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6835DB21-2F39-4E19-A40D-6427762855F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BRD FSD Mapping - GLIK.xlsx
+++ b/BRD FSD Mapping - GLIK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677F46C-C591-4CD7-A99E-FC12479C6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F26872-A4DE-4B88-9AD6-99036958E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CBEDFED3-2799-4547-B932-9E816CC12E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
@@ -5606,24 +5606,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5642,34 +5624,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignme